--- a/inputs/AddictO_Intervention_Defs.xlsx
+++ b/inputs/AddictO_Intervention_Defs.xlsx
@@ -356,7 +356,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R330"/>
+  <dimension ref="A1:R324"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -457,6 +457,36 @@
       </c>
     </row>
     <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>ADDICTO:0000463</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>5-day buprenorphine-managed withdrawal protocol</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>An opiate withdrawal protocol scheduled to last for 5 days and use buprenorphine to reduce the severity of opiate withdrawal symptoms.</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>opiate withdrawal protocol</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Planned process</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Intervention</t>
+        </is>
+      </c>
       <c r="Q2" t="inlineStr">
         <is>
           <t>Proposed</t>
@@ -464,6 +494,21 @@
       </c>
     </row>
     <row r="3">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Australian Temperament Project</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Intervention</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>JH</t>
+        </is>
+      </c>
       <c r="Q3" t="inlineStr">
         <is>
           <t>Proposed</t>
@@ -471,6 +516,16 @@
       </c>
     </row>
     <row r="4">
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Behaviour Change Technique</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Intervention</t>
+        </is>
+      </c>
       <c r="Q4" t="inlineStr">
         <is>
           <t>Proposed</t>
@@ -478,6 +533,26 @@
       </c>
     </row>
     <row r="5">
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Cognitive Behavioural Therapy</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Intervention</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>CBT</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>JH</t>
+        </is>
+      </c>
       <c r="Q5" t="inlineStr">
         <is>
           <t>Proposed</t>
@@ -485,6 +560,16 @@
       </c>
     </row>
     <row r="6">
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Community Reinforcement Approach for Seniors (CRA-S)</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Intervention</t>
+        </is>
+      </c>
       <c r="Q6" t="inlineStr">
         <is>
           <t>Proposed</t>
@@ -492,29 +577,9 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>ADDICTO:0000463</t>
-        </is>
-      </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>5-day buprenorphine-managed withdrawal protocol</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>An opiate withdrawal protocol scheduled to last for 5 days and use buprenorphine to reduce the severity of opiate withdrawal symptoms.</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>opiate withdrawal protocol</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Planned process</t>
+          <t>Health Canada Intense regimen</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -531,7 +596,7 @@
     <row r="8">
       <c r="B8" t="inlineStr">
         <is>
-          <t>Australian Temperament Project</t>
+          <t>NICE Guidance</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -539,10 +604,8 @@
           <t>Intervention</t>
         </is>
       </c>
-      <c r="P8" t="inlineStr">
-        <is>
-          <t>JH</t>
-        </is>
+      <c r="M8" t="n">
+        <v>1</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -553,12 +616,17 @@
     <row r="9">
       <c r="B9" t="inlineStr">
         <is>
-          <t>Behaviour Change Technique</t>
+          <t>TV advertising</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
           <t>Intervention</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>Product</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
@@ -570,22 +638,12 @@
     <row r="10">
       <c r="B10" t="inlineStr">
         <is>
-          <t>Cognitive Behavioural Therapy</t>
+          <t>UK Psychoactive Substances Act</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
           <t>Intervention</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>CBT</t>
-        </is>
-      </c>
-      <c r="P10" t="inlineStr">
-        <is>
-          <t>JH</t>
         </is>
       </c>
       <c r="Q10" t="inlineStr">
@@ -597,7 +655,7 @@
     <row r="11">
       <c r="B11" t="inlineStr">
         <is>
-          <t>Community Reinforcement Approach for Seniors (CRA-S)</t>
+          <t>US governmental regulation</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -612,9 +670,29 @@
       </c>
     </row>
     <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>ADDICTO:0000464</t>
+        </is>
+      </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Health Canada Intense regimen</t>
+          <t>accessibility of primary healthcare physician advice</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>An environmental disposition that is the extent to which an environment enables people in that environment to receiveadvice from a primary health care physician.</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>accessibility of a service</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Process</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -622,6 +700,11 @@
           <t>Intervention</t>
         </is>
       </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>RW</t>
+        </is>
+      </c>
       <c r="Q12" t="inlineStr">
         <is>
           <t>Proposed</t>
@@ -629,18 +712,35 @@
       </c>
     </row>
     <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>ADDICTO:0000465</t>
+        </is>
+      </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>NICE Guidance</t>
+          <t>addiction treatment</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Treatment in which the disorder that is being treated is addiction.</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>treatment</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Process</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
           <t>Intervention</t>
         </is>
-      </c>
-      <c r="M13" t="n">
-        <v>1</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -651,7 +751,12 @@
     <row r="14">
       <c r="B14" t="inlineStr">
         <is>
-          <t>TV advertising</t>
+          <t>adherence to opioid agonist therapy</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>adherence to medication regimen</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -659,11 +764,6 @@
           <t>Intervention</t>
         </is>
       </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>Product</t>
-        </is>
-      </c>
       <c r="Q14" t="inlineStr">
         <is>
           <t>Proposed</t>
@@ -671,9 +771,29 @@
       </c>
     </row>
     <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>ADDICTO:0000466</t>
+        </is>
+      </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>UK Psychoactive Substances Act</t>
+          <t>advertising ban</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>A behaviour change intervention that involves prohibition of advertising or marketing of a product in a jurisdiction.</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Behaviour change intervention </t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Process</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -681,16 +801,21 @@
           <t>Intervention</t>
         </is>
       </c>
-      <c r="Q15" t="inlineStr">
-        <is>
-          <t>Proposed</t>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>No appropriate definition found. Definition based on usage.</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>This may involve a subset of the modalities of advertising such as TV. A total advertising ban would be one that banned all forms of advertising and marketing.</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="B16" t="inlineStr">
         <is>
-          <t>US governmental regulation</t>
+          <t>age restriction on tobacco sales</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -698,6 +823,9 @@
           <t>Intervention</t>
         </is>
       </c>
+      <c r="M16" t="n">
+        <v>1</v>
+      </c>
       <c r="Q16" t="inlineStr">
         <is>
           <t>Proposed</t>
@@ -705,29 +833,9 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>ADDICTO:0000464</t>
-        </is>
-      </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>accessibility of primary healthcare physician advice</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>An environmental disposition that is the extent to which an environment enables people in that environment to receiveadvice from a primary health care physician.</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>accessibility of a service</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>Process</t>
+          <t>alcohol Use Disorder treatment</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -735,11 +843,6 @@
           <t>Intervention</t>
         </is>
       </c>
-      <c r="P17" t="inlineStr">
-        <is>
-          <t>RW</t>
-        </is>
-      </c>
       <c r="Q17" t="inlineStr">
         <is>
           <t>Proposed</t>
@@ -747,29 +850,9 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>ADDICTO:0000465</t>
-        </is>
-      </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>addiction treatment</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>Treatment in which the disorder that is being treated is addiction.</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>treatment</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>Process</t>
+          <t>alcohol consumption recommendation</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -784,14 +867,29 @@
       </c>
     </row>
     <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>ADDICTO:0000467</t>
+        </is>
+      </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>adherence to opioid agonist therapy</t>
+          <t>alcohol control policy</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>A government policy aimed at reducing consumption of alcohol or harm from consumption of alcohol in a population under its jurisdiction.</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>adherence to medication regimen</t>
+          <t>government policy</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Generically dependent continuant</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -799,36 +897,36 @@
           <t>Intervention</t>
         </is>
       </c>
-      <c r="Q19" t="inlineStr">
-        <is>
-          <t>Proposed</t>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>No appropriate definition found. Definition based on usage. A disjunctive class.</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>ADDICTO:0000466</t>
+          <t>ADDICTO:0000468</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>advertising ban</t>
+          <t>alcohol harm reduction policy</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>A behaviour change intervention that involves prohibition of advertising or marketing of a product in a jurisdiction.</t>
+          <t>An alcohol control policy aimed at reducing the harm from consumption of alcohol in a population under its jurisdication without promoting complete abstinence from alcohol.</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t xml:space="preserve">Behaviour change intervention </t>
+          <t>alcohol control policy</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Process</t>
+          <t>Generically dependent continuant</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -839,18 +937,13 @@
       <c r="H20" t="inlineStr">
         <is>
           <t>No appropriate definition found. Definition based on usage.</t>
-        </is>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>This may involve a subset of the modalities of advertising such as TV. A total advertising ban would be one that banned all forms of advertising and marketing.</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="B21" t="inlineStr">
         <is>
-          <t>age restriction on tobacco sales</t>
+          <t>alcohol policy</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -858,9 +951,6 @@
           <t>Intervention</t>
         </is>
       </c>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
       <c r="Q21" t="inlineStr">
         <is>
           <t>Proposed</t>
@@ -868,9 +958,29 @@
       </c>
     </row>
     <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>ADDICTO:0000469</t>
+        </is>
+      </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>alcohol Use Disorder treatment</t>
+          <t>alcohol reduction policy</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>An alcohol control policy aimed at reducing the consumption of alcohol in a population under its jurisdiction.</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>alcohol control policy</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Generically dependent continuant</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -878,16 +988,16 @@
           <t>Intervention</t>
         </is>
       </c>
-      <c r="Q22" t="inlineStr">
-        <is>
-          <t>Proposed</t>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>No appropriate definition found. Definition based on usage.</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="B23" t="inlineStr">
         <is>
-          <t>alcohol consumption recommendation</t>
+          <t>alcohol screening and brief advice delivery</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -902,29 +1012,9 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>ADDICTO:0000467</t>
-        </is>
-      </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>alcohol control policy</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>A government policy aimed at reducing consumption of alcohol or harm from consumption of alcohol in a population under its jurisdiction.</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>government policy</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>Generically dependent continuant</t>
+          <t>alcohol serving size reduction</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -932,36 +1022,16 @@
           <t>Intervention</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>No appropriate definition found. Definition based on usage. A disjunctive class.</t>
+      <c r="Q24" t="inlineStr">
+        <is>
+          <t>Proposed</t>
         </is>
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>ADDICTO:0000468</t>
-        </is>
-      </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>alcohol harm reduction policy</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>An alcohol control policy aimed at reducing the harm from consumption of alcohol in a population under its jurisdication without promoting complete abstinence from alcohol.</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>alcohol control policy</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>Generically dependent continuant</t>
+          <t>alcohol tax</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -969,16 +1039,16 @@
           <t>Intervention</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>No appropriate definition found. Definition based on usage.</t>
+      <c r="Q25" t="inlineStr">
+        <is>
+          <t>Proposed</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="B26" t="inlineStr">
         <is>
-          <t>alcohol policy</t>
+          <t>alcohol use prevention</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -993,29 +1063,9 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>ADDICTO:0000469</t>
-        </is>
-      </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>alcohol reduction policy</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>An alcohol control policy aimed at reducing the consumption of alcohol in a population under its jurisdiction.</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>alcohol control policy</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>Generically dependent continuant</t>
+          <t>anti-tobacco advocacy</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -1023,22 +1073,30 @@
           <t>Intervention</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>No appropriate definition found. Definition based on usage.</t>
+      <c r="Q27" t="inlineStr">
+        <is>
+          <t>Proposed</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="B28" t="inlineStr">
         <is>
-          <t>alcohol screening and brief advice delivery</t>
+          <t>anti-tobacco mass media campaign</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>A mass media campaign aimed at reducing tobacco use; may include TV, radio, and print advertising.</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
           <t>Intervention</t>
         </is>
+      </c>
+      <c r="M28" t="n">
+        <v>1</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
@@ -1049,7 +1107,7 @@
     <row r="29">
       <c r="B29" t="inlineStr">
         <is>
-          <t>alcohol serving size reduction</t>
+          <t>at-home cessation support</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -1066,12 +1124,17 @@
     <row r="30">
       <c r="B30" t="inlineStr">
         <is>
-          <t>alcohol tax</t>
+          <t>barrier to substance use disorder treatment access</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
           <t>Intervention</t>
+        </is>
+      </c>
+      <c r="P30" t="inlineStr">
+        <is>
+          <t>JH</t>
         </is>
       </c>
       <c r="Q30" t="inlineStr">
@@ -1083,7 +1146,7 @@
     <row r="31">
       <c r="B31" t="inlineStr">
         <is>
-          <t>alcohol use prevention</t>
+          <t>behavioural substitute</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -1100,7 +1163,7 @@
     <row r="32">
       <c r="B32" t="inlineStr">
         <is>
-          <t>anti-tobacco advocacy</t>
+          <t>behavioural substitution</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -1117,21 +1180,13 @@
     <row r="33">
       <c r="B33" t="inlineStr">
         <is>
-          <t>anti-tobacco mass media campaign</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>A mass media campaign aimed at reducing tobacco use; may include TV, radio, and print advertising.</t>
+          <t>behavioural support</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
           <t>Intervention</t>
         </is>
-      </c>
-      <c r="M33" t="n">
-        <v>1</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
@@ -1142,13 +1197,16 @@
     <row r="34">
       <c r="B34" t="inlineStr">
         <is>
-          <t>at-home cessation support</t>
+          <t>behavioural support for smoking cessation</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
           <t>Intervention</t>
         </is>
+      </c>
+      <c r="M34" t="n">
+        <v>1</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
@@ -1159,17 +1217,12 @@
     <row r="35">
       <c r="B35" t="inlineStr">
         <is>
-          <t>barrier to substance use disorder treatment access</t>
+          <t>brief advice provision</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
           <t>Intervention</t>
-        </is>
-      </c>
-      <c r="P35" t="inlineStr">
-        <is>
-          <t>JH</t>
         </is>
       </c>
       <c r="Q35" t="inlineStr">
@@ -1181,7 +1234,7 @@
     <row r="36">
       <c r="B36" t="inlineStr">
         <is>
-          <t>behavioural substitute</t>
+          <t>brief intervention</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -1198,7 +1251,7 @@
     <row r="37">
       <c r="B37" t="inlineStr">
         <is>
-          <t>behavioural substitution</t>
+          <t>buprenorphine induction</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -1215,7 +1268,7 @@
     <row r="38">
       <c r="B38" t="inlineStr">
         <is>
-          <t>behavioural support</t>
+          <t>buprenorphine prescribing</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -1232,16 +1285,13 @@
     <row r="39">
       <c r="B39" t="inlineStr">
         <is>
-          <t>behavioural support for smoking cessation</t>
+          <t>buprenorphine prescription</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
           <t>Intervention</t>
         </is>
-      </c>
-      <c r="M39" t="n">
-        <v>1</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
@@ -1252,7 +1302,7 @@
     <row r="40">
       <c r="B40" t="inlineStr">
         <is>
-          <t>brief advice provision</t>
+          <t>cancer prevention</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -1269,7 +1319,7 @@
     <row r="41">
       <c r="B41" t="inlineStr">
         <is>
-          <t>brief intervention</t>
+          <t>cannabis legalisation</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -1286,7 +1336,7 @@
     <row r="42">
       <c r="B42" t="inlineStr">
         <is>
-          <t>buprenorphine induction</t>
+          <t>cannabis regulation</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -1303,7 +1353,7 @@
     <row r="43">
       <c r="B43" t="inlineStr">
         <is>
-          <t>buprenorphine prescribing</t>
+          <t>care provider</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -1320,7 +1370,7 @@
     <row r="44">
       <c r="B44" t="inlineStr">
         <is>
-          <t>buprenorphine prescription</t>
+          <t>censorship</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -1337,7 +1387,7 @@
     <row r="45">
       <c r="B45" t="inlineStr">
         <is>
-          <t>cancer prevention</t>
+          <t>change plan</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -1354,13 +1404,16 @@
     <row r="46">
       <c r="B46" t="inlineStr">
         <is>
-          <t>cannabis legalisation</t>
+          <t>cigarette pricing policy</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
           <t>Intervention</t>
         </is>
+      </c>
+      <c r="M46" t="n">
+        <v>1</v>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
@@ -1371,7 +1424,7 @@
     <row r="47">
       <c r="B47" t="inlineStr">
         <is>
-          <t>cannabis regulation</t>
+          <t>clean preparation area</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -1388,7 +1441,7 @@
     <row r="48">
       <c r="B48" t="inlineStr">
         <is>
-          <t>care provider</t>
+          <t>clinic visit</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
@@ -1405,7 +1458,7 @@
     <row r="49">
       <c r="B49" t="inlineStr">
         <is>
-          <t>censorship</t>
+          <t>clinical effect</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -1422,7 +1475,7 @@
     <row r="50">
       <c r="B50" t="inlineStr">
         <is>
-          <t>change plan</t>
+          <t>clinical effectiveness</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
@@ -1437,9 +1490,29 @@
       </c>
     </row>
     <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>ADDICTO:0000470</t>
+        </is>
+      </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>cigarette pricing policy</t>
+          <t>clinical provider</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>An organisation that provides a clinical service.</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>organisation</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>Material entity</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -1447,8 +1520,10 @@
           <t>Intervention</t>
         </is>
       </c>
-      <c r="M51" t="n">
-        <v>1</v>
+      <c r="P51" t="inlineStr">
+        <is>
+          <t>JH</t>
+        </is>
       </c>
       <c r="Q51" t="inlineStr">
         <is>
@@ -1459,7 +1534,7 @@
     <row r="52">
       <c r="B52" t="inlineStr">
         <is>
-          <t>clean preparation area</t>
+          <t>clinical significance</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
@@ -1476,7 +1551,7 @@
     <row r="53">
       <c r="B53" t="inlineStr">
         <is>
-          <t>clinic visit</t>
+          <t>clinically meaningful effect size</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
@@ -1491,26 +1566,41 @@
       </c>
     </row>
     <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>ADDICTO:0000471</t>
+        </is>
+      </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>clinical effect</t>
+          <t>codeine scheduling</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Drug scheduling in which the drug concerned is codeine.</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>drug scheduling</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>Generically dependent continuant</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
           <t>Intervention</t>
-        </is>
-      </c>
-      <c r="Q54" t="inlineStr">
-        <is>
-          <t>Proposed</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="B55" t="inlineStr">
         <is>
-          <t>clinical effectiveness</t>
+          <t>coerced addiction treatment</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
@@ -1527,27 +1617,27 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>ADDICTO:0000470</t>
+          <t>ADDICTO:0000472</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>clinical provider</t>
+          <t>coercion</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>An organisation that provides a clinical service.</t>
+          <t>An intervention function that involves changing the attractiveness of a behaviour by creating the expectation of an undesired outcome or denial of a desired one.</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>organisation</t>
+          <t>intervention function</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Material entity</t>
+          <t>Process</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
@@ -1555,9 +1645,14 @@
           <t>Intervention</t>
         </is>
       </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>www.behaviourchange.com</t>
+        </is>
+      </c>
       <c r="P56" t="inlineStr">
         <is>
-          <t>JH</t>
+          <t>RW</t>
         </is>
       </c>
       <c r="Q56" t="inlineStr">
@@ -1569,7 +1664,7 @@
     <row r="57">
       <c r="B57" t="inlineStr">
         <is>
-          <t>clinical significance</t>
+          <t>combined pharmacological and behavioural substance use treatment</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
@@ -1584,9 +1679,29 @@
       </c>
     </row>
     <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>ADDICTO:0000473</t>
+        </is>
+      </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>clinically meaningful effect size</t>
+          <t>communications and marketing</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>An intevention function involving mass media campaigns, digital marketing campaigns, and correspondence.</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>intervention function</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>Process</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
@@ -1594,6 +1709,16 @@
           <t>Intervention</t>
         </is>
       </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>behaviourchangewheel.com</t>
+        </is>
+      </c>
+      <c r="P58" t="inlineStr">
+        <is>
+          <t>RW</t>
+        </is>
+      </c>
       <c r="Q58" t="inlineStr">
         <is>
           <t>Proposed</t>
@@ -1601,29 +1726,9 @@
       </c>
     </row>
     <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>ADDICTO:0000471</t>
-        </is>
-      </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>codeine scheduling</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>Drug scheduling in which the drug concerned is codeine.</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>drug scheduling</t>
-        </is>
-      </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>Generically dependent continuant</t>
+          <t>complex intervention</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
@@ -1631,11 +1736,36 @@
           <t>Intervention</t>
         </is>
       </c>
+      <c r="Q59" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
     </row>
     <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>ADDICTO:0000474</t>
+        </is>
+      </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>coerced addiction treatment</t>
+          <t>compulsory addiction treatment</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>Treatment of addiction that either a drug user or a person with a drug problem is compelled to undergo by a legal authority in the jurisdiction in which they reside.</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>addiction treatment</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>Process</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
@@ -1650,44 +1780,14 @@
       </c>
     </row>
     <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>ADDICTO:0000472</t>
-        </is>
-      </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>coercion</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>An intervention function that involves changing the attractiveness of a behaviour by creating the expectation of an undesired outcome or denial of a desired one.</t>
-        </is>
-      </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>intervention function</t>
-        </is>
-      </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>Process</t>
+          <t>consumption-reducing effect</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
           <t>Intervention</t>
-        </is>
-      </c>
-      <c r="G61" t="inlineStr">
-        <is>
-          <t>www.behaviourchange.com</t>
-        </is>
-      </c>
-      <c r="P61" t="inlineStr">
-        <is>
-          <t>RW</t>
         </is>
       </c>
       <c r="Q61" t="inlineStr">
@@ -1699,7 +1799,7 @@
     <row r="62">
       <c r="B62" t="inlineStr">
         <is>
-          <t>combined pharmacological and behavioural substance use treatment</t>
+          <t>contingency management</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
@@ -1714,44 +1814,14 @@
       </c>
     </row>
     <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>ADDICTO:0000473</t>
-        </is>
-      </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>communications and marketing</t>
-        </is>
-      </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>An intevention function involving mass media campaigns, digital marketing campaigns, and correspondence.</t>
-        </is>
-      </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>intervention function</t>
-        </is>
-      </c>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>Process</t>
+          <t>contingency management intervention</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
           <t>Intervention</t>
-        </is>
-      </c>
-      <c r="G63" t="inlineStr">
-        <is>
-          <t>behaviourchangewheel.com</t>
-        </is>
-      </c>
-      <c r="P63" t="inlineStr">
-        <is>
-          <t>RW</t>
         </is>
       </c>
       <c r="Q63" t="inlineStr">
@@ -1763,7 +1833,7 @@
     <row r="64">
       <c r="B64" t="inlineStr">
         <is>
-          <t>complex intervention</t>
+          <t>correctional school</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
@@ -1778,29 +1848,14 @@
       </c>
     </row>
     <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>ADDICTO:0000474</t>
-        </is>
-      </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>compulsory addiction treatment</t>
+          <t>cost effectiveness</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Treatment of addiction that either a drug user or a person with a drug problem is compelled to undergo by a legal authority in the jurisdiction in which they reside.</t>
-        </is>
-      </c>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>addiction treatment</t>
-        </is>
-      </c>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>Process</t>
+          <t>Financial cost of implementing a specified intervention to achieve an improvement in a specified outcome in a soecified context relative to a comparator.</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
@@ -1808,6 +1863,9 @@
           <t>Intervention</t>
         </is>
       </c>
+      <c r="M65" t="n">
+        <v>1</v>
+      </c>
       <c r="Q65" t="inlineStr">
         <is>
           <t>Proposed</t>
@@ -1815,14 +1873,44 @@
       </c>
     </row>
     <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>ADDICTO:0000475</t>
+        </is>
+      </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>consumption-reducing effect</t>
+          <t>cost per quality-adjusted life-year gained</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A data item that is about an intervention and is the estimated financial cost of delivering that intervention to a population in a setting in order to gain one QALY in the population. </t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>data item</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>Generically dependent continuant</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
           <t>Intervention</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>No ontological definition found. Definition based on definition of ICER https://en.wikipedia.org/wiki/Incremental_cost-effectiveness_ratio</t>
+        </is>
+      </c>
+      <c r="P66" t="inlineStr">
+        <is>
+          <t>JH</t>
         </is>
       </c>
       <c r="Q66" t="inlineStr">
@@ -1834,7 +1922,7 @@
     <row r="67">
       <c r="B67" t="inlineStr">
         <is>
-          <t>contingency management</t>
+          <t>cost-effective strategy</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
@@ -1851,7 +1939,7 @@
     <row r="68">
       <c r="B68" t="inlineStr">
         <is>
-          <t>contingency management intervention</t>
+          <t>cost-effectiveness acceptability curve</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
@@ -1868,7 +1956,7 @@
     <row r="69">
       <c r="B69" t="inlineStr">
         <is>
-          <t>correctional school</t>
+          <t>cost-effectiveness at population-level</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
@@ -1885,12 +1973,7 @@
     <row r="70">
       <c r="B70" t="inlineStr">
         <is>
-          <t>cost effectiveness</t>
-        </is>
-      </c>
-      <c r="C70" t="inlineStr">
-        <is>
-          <t>Financial cost of implementing a specified intervention to achieve an improvement in a specified outcome in a soecified context relative to a comparator.</t>
+          <t>counseling</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
@@ -1898,9 +1981,6 @@
           <t>Intervention</t>
         </is>
       </c>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
       <c r="Q70" t="inlineStr">
         <is>
           <t>Proposed</t>
@@ -1908,29 +1988,9 @@
       </c>
     </row>
     <row r="71">
-      <c r="A71" t="inlineStr">
-        <is>
-          <t>ADDICTO:0000475</t>
-        </is>
-      </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>cost per quality-adjusted life-year gained</t>
-        </is>
-      </c>
-      <c r="C71" t="inlineStr">
-        <is>
-          <t xml:space="preserve">A data item that is about an intervention and is the estimated financial cost of delivering that intervention to a population in a setting in order to gain one QALY in the population. </t>
-        </is>
-      </c>
-      <c r="D71" t="inlineStr">
-        <is>
-          <t>data item</t>
-        </is>
-      </c>
-      <c r="E71" t="inlineStr">
-        <is>
-          <t>Generically dependent continuant</t>
+          <t>counselling session</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
@@ -1938,15 +1998,8 @@
           <t>Intervention</t>
         </is>
       </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>No ontological definition found. Definition based on definition of ICER https://en.wikipedia.org/wiki/Incremental_cost-effectiveness_ratio</t>
-        </is>
-      </c>
-      <c r="P71" t="inlineStr">
-        <is>
-          <t>JH</t>
-        </is>
+      <c r="M71" t="n">
+        <v>1</v>
       </c>
       <c r="Q71" t="inlineStr">
         <is>
@@ -1957,7 +2010,7 @@
     <row r="72">
       <c r="B72" t="inlineStr">
         <is>
-          <t>cost-effective strategy</t>
+          <t>court-mandated treatment</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
@@ -1974,7 +2027,7 @@
     <row r="73">
       <c r="B73" t="inlineStr">
         <is>
-          <t>cost-effectiveness acceptability curve</t>
+          <t>coverage of needle and syringe provision</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
@@ -1991,7 +2044,7 @@
     <row r="74">
       <c r="B74" t="inlineStr">
         <is>
-          <t>cost-effectiveness at population-level</t>
+          <t>criminal justice system</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
@@ -2008,7 +2061,7 @@
     <row r="75">
       <c r="B75" t="inlineStr">
         <is>
-          <t>counseling</t>
+          <t>daily buprenorphine dose</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
@@ -2023,18 +2076,35 @@
       </c>
     </row>
     <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>ADDICTO:0000476</t>
+        </is>
+      </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>counselling session</t>
+          <t>deep brain stimulation</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A physical treatment for brain disorders that involves implanting an electrode in a specific part of the brain and passing a current through it with the aim of stimulating electrical activity in the part of the brain concerned. </t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>physical treatment</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>Process</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
           <t>Intervention</t>
         </is>
-      </c>
-      <c r="M76" t="n">
-        <v>1</v>
       </c>
       <c r="Q76" t="inlineStr">
         <is>
@@ -2045,7 +2115,7 @@
     <row r="77">
       <c r="B77" t="inlineStr">
         <is>
-          <t>court-mandated treatment</t>
+          <t>denormalisation</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
@@ -2060,9 +2130,29 @@
       </c>
     </row>
     <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>OBI:0000984</t>
+        </is>
+      </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>coverage of needle and syringe provision</t>
+          <t>dose</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>A measurement datum that measures the quantity of something that may be administered to an organism or that an organism may be exposed to. Quantities of nutrients, drugs, vaccines and toxins are referred to as doses.</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>measurement datum</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>Generically dependent continuant</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
@@ -2070,21 +2160,41 @@
           <t>Intervention</t>
         </is>
       </c>
-      <c r="Q78" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
     </row>
     <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>ADDICTO:0000477</t>
+        </is>
+      </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>criminal justice system</t>
+          <t>drink driving legislation</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>A public policy that involves legislation to reduce the incidence of vehicle driving with alcohol in the body.</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>public policy</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>Generically dependent continuant</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
           <t>Intervention</t>
+        </is>
+      </c>
+      <c r="P79" t="inlineStr">
+        <is>
+          <t>JH</t>
         </is>
       </c>
       <c r="Q79" t="inlineStr">
@@ -2096,7 +2206,7 @@
     <row r="80">
       <c r="B80" t="inlineStr">
         <is>
-          <t>daily buprenorphine dose</t>
+          <t>drug law reform</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
@@ -2111,183 +2221,213 @@
       </c>
     </row>
     <row r="81">
-      <c r="A81" t="inlineStr">
-        <is>
-          <t>ADDICTO:0000476</t>
-        </is>
-      </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>deep brain stimulation</t>
-        </is>
-      </c>
-      <c r="C81" t="inlineStr">
-        <is>
-          <t xml:space="preserve">A physical treatment for brain disorders that involves implanting an electrode in a specific part of the brain and passing a current through it with the aim of stimulating electrical activity in the part of the brain concerned. </t>
-        </is>
-      </c>
-      <c r="D81" t="inlineStr">
-        <is>
-          <t>physical treatment</t>
-        </is>
-      </c>
-      <c r="E81" t="inlineStr">
+          <t>drug prohibition</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>Intervention</t>
+        </is>
+      </c>
+      <c r="Q81" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>ADDICTO:0000478</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>drug scheduling</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>A national drug policy that classifies drugs into classes, called 'schedules' according to their (1) potential for abuse, (2) safety, (3) addictive potential and (4) whether or not they have legitimate medical applications. Each schedule has rules regarding restrictions on use and penalties for misuse.</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>national drug policy</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>Generically dependent continuant</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>Intervention</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>https://www.healthychildren.org/English/ages-stages/teen/substance-abuse/Pages/Controlled-Substances-Not-Just-Street-Drugs.aspx</t>
+        </is>
+      </c>
+      <c r="P82" t="inlineStr">
+        <is>
+          <t>JH</t>
+        </is>
+      </c>
+      <c r="Q82" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>drug testing</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>Intervention</t>
+        </is>
+      </c>
+      <c r="Q83" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>drug treatment programme</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>Intervention</t>
+        </is>
+      </c>
+      <c r="Q84" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>drug use detection</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>Intervention</t>
+        </is>
+      </c>
+      <c r="Q85" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="inlineStr">
+        <is>
+          <t>ADDICTO:0000479</t>
+        </is>
+      </c>
+      <c r="B86" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">e-cigarette policy </t>
+        </is>
+      </c>
+      <c r="C86" s="2" t="inlineStr">
+        <is>
+          <t>A policy that regulates e-cigarettes or their use.</t>
+        </is>
+      </c>
+      <c r="D86" s="2" t="inlineStr">
+        <is>
+          <t>policy</t>
+        </is>
+      </c>
+      <c r="E86" s="2" t="n"/>
+      <c r="F86" s="2" t="n"/>
+      <c r="G86" s="2" t="n"/>
+      <c r="H86" s="2" t="n"/>
+      <c r="I86" s="2" t="n"/>
+      <c r="J86" s="2" t="n"/>
+      <c r="K86" s="2" t="inlineStr">
+        <is>
+          <t>Includes manufacture, marketing, and sales. Includes public policy and policy of other organisations.</t>
+        </is>
+      </c>
+      <c r="L86" s="2" t="n"/>
+      <c r="M86" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N86" s="2" t="n"/>
+      <c r="O86" s="2" t="n"/>
+      <c r="P86" s="2" t="inlineStr">
+        <is>
+          <t>All</t>
+        </is>
+      </c>
+      <c r="Q86" s="2" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="R86" s="2" t="n"/>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>ADDICTO:0000480</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>education</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>An intervention function that involves increasing knowledge and understanding by informing, explaining, showing and providing feedback.</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>intervention function</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
         <is>
           <t>Process</t>
         </is>
       </c>
-      <c r="F81" t="inlineStr">
-        <is>
-          <t>Intervention</t>
-        </is>
-      </c>
-      <c r="Q81" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-    </row>
-    <row r="82">
-      <c r="B82" t="inlineStr">
-        <is>
-          <t>denormalisation</t>
-        </is>
-      </c>
-      <c r="F82" t="inlineStr">
-        <is>
-          <t>Intervention</t>
-        </is>
-      </c>
-      <c r="Q82" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="inlineStr">
-        <is>
-          <t>OBI:0000984</t>
-        </is>
-      </c>
-      <c r="B83" t="inlineStr">
-        <is>
-          <t>dose</t>
-        </is>
-      </c>
-      <c r="C83" t="inlineStr">
-        <is>
-          <t>A measurement datum that measures the quantity of something that may be administered to an organism or that an organism may be exposed to. Quantities of nutrients, drugs, vaccines and toxins are referred to as doses.</t>
-        </is>
-      </c>
-      <c r="D83" t="inlineStr">
-        <is>
-          <t>measurement datum</t>
-        </is>
-      </c>
-      <c r="E83" t="inlineStr">
-        <is>
-          <t>Generically dependent continuant</t>
-        </is>
-      </c>
-      <c r="F83" t="inlineStr">
-        <is>
-          <t>Intervention</t>
-        </is>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="inlineStr">
-        <is>
-          <t>OBI:0000984</t>
-        </is>
-      </c>
-      <c r="B84" t="inlineStr">
-        <is>
-          <t>dose</t>
-        </is>
-      </c>
-      <c r="F84" t="inlineStr">
-        <is>
-          <t>Intervention</t>
-        </is>
-      </c>
-      <c r="Q84" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="inlineStr">
-        <is>
-          <t>ADDICTO:0000477</t>
-        </is>
-      </c>
-      <c r="B85" t="inlineStr">
-        <is>
-          <t>drink driving legislation</t>
-        </is>
-      </c>
-      <c r="C85" t="inlineStr">
-        <is>
-          <t>A public policy that involves legislation to reduce the incidence of vehicle driving with alcohol in the body.</t>
-        </is>
-      </c>
-      <c r="D85" t="inlineStr">
-        <is>
-          <t>public policy</t>
-        </is>
-      </c>
-      <c r="E85" t="inlineStr">
-        <is>
-          <t>Generically dependent continuant</t>
-        </is>
-      </c>
-      <c r="F85" t="inlineStr">
-        <is>
-          <t>Intervention</t>
-        </is>
-      </c>
-      <c r="P85" t="inlineStr">
-        <is>
-          <t>JH</t>
-        </is>
-      </c>
-      <c r="Q85" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-    </row>
-    <row r="86">
-      <c r="B86" t="inlineStr">
-        <is>
-          <t>drug law reform</t>
-        </is>
-      </c>
-      <c r="F86" t="inlineStr">
-        <is>
-          <t>Intervention</t>
-        </is>
-      </c>
-      <c r="Q86" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-    </row>
-    <row r="87">
-      <c r="B87" t="inlineStr">
-        <is>
-          <t>drug prohibition</t>
-        </is>
-      </c>
       <c r="F87" t="inlineStr">
         <is>
           <t>Intervention</t>
         </is>
       </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>www.behaviourchange.com</t>
+        </is>
+      </c>
+      <c r="P87" t="inlineStr">
+        <is>
+          <t>RW</t>
+        </is>
+      </c>
       <c r="Q87" t="inlineStr">
         <is>
           <t>Proposed</t>
@@ -2295,29 +2435,9 @@
       </c>
     </row>
     <row r="88">
-      <c r="A88" t="inlineStr">
-        <is>
-          <t>ADDICTO:0000478</t>
-        </is>
-      </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>drug scheduling</t>
-        </is>
-      </c>
-      <c r="C88" t="inlineStr">
-        <is>
-          <t>A national drug policy that classifies drugs into classes, called 'schedules' according to their (1) potential for abuse, (2) safety, (3) addictive potential and (4) whether or not they have legitimate medical applications. Each schedule has rules regarding restrictions on use and penalties for misuse.</t>
-        </is>
-      </c>
-      <c r="D88" t="inlineStr">
-        <is>
-          <t>national drug policy</t>
-        </is>
-      </c>
-      <c r="E88" t="inlineStr">
-        <is>
-          <t>Generically dependent continuant</t>
+          <t>effacacious</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
@@ -2325,15 +2445,8 @@
           <t>Intervention</t>
         </is>
       </c>
-      <c r="G88" t="inlineStr">
-        <is>
-          <t>https://www.healthychildren.org/English/ages-stages/teen/substance-abuse/Pages/Controlled-Substances-Not-Just-Street-Drugs.aspx</t>
-        </is>
-      </c>
-      <c r="P88" t="inlineStr">
-        <is>
-          <t>JH</t>
-        </is>
+      <c r="M88" t="n">
+        <v>1</v>
       </c>
       <c r="Q88" t="inlineStr">
         <is>
@@ -2344,13 +2457,16 @@
     <row r="89">
       <c r="B89" t="inlineStr">
         <is>
-          <t>drug testing</t>
+          <t>effect size</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
           <t>Intervention</t>
         </is>
+      </c>
+      <c r="M89" t="n">
+        <v>1</v>
       </c>
       <c r="Q89" t="inlineStr">
         <is>
@@ -2361,13 +2477,16 @@
     <row r="90">
       <c r="B90" t="inlineStr">
         <is>
-          <t>drug treatment programme</t>
+          <t>effectiveness</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
           <t>Intervention</t>
         </is>
+      </c>
+      <c r="M90" t="n">
+        <v>1</v>
       </c>
       <c r="Q90" t="inlineStr">
         <is>
@@ -2378,7 +2497,7 @@
     <row r="91">
       <c r="B91" t="inlineStr">
         <is>
-          <t>drug use detection</t>
+          <t>efficacy</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
@@ -2386,6 +2505,9 @@
           <t>Intervention</t>
         </is>
       </c>
+      <c r="M91" t="n">
+        <v>1</v>
+      </c>
       <c r="Q91" t="inlineStr">
         <is>
           <t>Proposed</t>
@@ -2393,71 +2515,36 @@
       </c>
     </row>
     <row r="92">
-      <c r="A92" s="2" t="inlineStr">
-        <is>
-          <t>ADDICTO:0000479</t>
-        </is>
-      </c>
-      <c r="B92" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">e-cigarette policy </t>
-        </is>
-      </c>
-      <c r="C92" s="2" t="inlineStr">
-        <is>
-          <t>A policy that regulates e-cigarettes or their use.</t>
-        </is>
-      </c>
-      <c r="D92" s="2" t="inlineStr">
-        <is>
-          <t>policy</t>
-        </is>
-      </c>
-      <c r="E92" s="2" t="n"/>
-      <c r="F92" s="2" t="n"/>
-      <c r="G92" s="2" t="n"/>
-      <c r="H92" s="2" t="n"/>
-      <c r="I92" s="2" t="n"/>
-      <c r="J92" s="2" t="n"/>
-      <c r="K92" s="2" t="inlineStr">
-        <is>
-          <t>Includes manufacture, marketing, and sales. Includes public policy and policy of other organisations.</t>
-        </is>
-      </c>
-      <c r="L92" s="2" t="n"/>
-      <c r="M92" s="2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="N92" s="2" t="n"/>
-      <c r="O92" s="2" t="n"/>
-      <c r="P92" s="2" t="inlineStr">
-        <is>
-          <t>All</t>
-        </is>
-      </c>
-      <c r="Q92" s="2" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="R92" s="2" t="n"/>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>emergency medical services</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>Intervention</t>
+        </is>
+      </c>
+      <c r="Q92" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>ADDICTO:0000480</t>
+          <t>ADDICTO:0000481</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>education</t>
+          <t>enablement</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>An intervention function that involves increasing knowledge and understanding by informing, explaining, showing and providing feedback.</t>
+          <t>An intervention function that involves providing support to improve ability to change in a variety of ways not covered by other intervention types.</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
@@ -2494,16 +2581,13 @@
     <row r="94">
       <c r="B94" t="inlineStr">
         <is>
-          <t>effacacious</t>
+          <t>end of treatment</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
           <t>Intervention</t>
         </is>
-      </c>
-      <c r="M94" t="n">
-        <v>1</v>
       </c>
       <c r="Q94" t="inlineStr">
         <is>
@@ -2514,7 +2598,7 @@
     <row r="95">
       <c r="B95" t="inlineStr">
         <is>
-          <t>effect size</t>
+          <t>engagement with a service</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
@@ -2534,7 +2618,7 @@
     <row r="96">
       <c r="B96" t="inlineStr">
         <is>
-          <t>effectiveness</t>
+          <t>engagement with an intervention</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
@@ -2554,7 +2638,7 @@
     <row r="97">
       <c r="B97" t="inlineStr">
         <is>
-          <t>efficacy</t>
+          <t>engagement with text messages</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
@@ -2562,9 +2646,6 @@
           <t>Intervention</t>
         </is>
       </c>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
       <c r="Q97" t="inlineStr">
         <is>
           <t>Proposed</t>
@@ -2572,14 +2653,44 @@
       </c>
     </row>
     <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>ADDICTO:0000482</t>
+        </is>
+      </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>emergency medical services</t>
+          <t>environmental and social planning</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>A policy involving architecture, urban and rural planning, object and location design, and planning for housing, social care, employment, equality, benefits, security and education.</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>intervention function</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>Process</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
           <t>Intervention</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>behaviourchangewheel.com</t>
+        </is>
+      </c>
+      <c r="P98" t="inlineStr">
+        <is>
+          <t>RW</t>
         </is>
       </c>
       <c r="Q98" t="inlineStr">
@@ -2591,17 +2702,17 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>ADDICTO:0000481</t>
+          <t>ADDICTO:0000483</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>enablement</t>
+          <t>environmental restructuring</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>An intervention function that involves providing support to improve ability to change in a variety of ways not covered by other intervention types.</t>
+          <t>An intervention function that involves constraining or promoting behaviour by shaping the physical or social environment.</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
@@ -2638,13 +2749,16 @@
     <row r="100">
       <c r="B100" t="inlineStr">
         <is>
-          <t>end of treatment</t>
+          <t>equivalence in effectiveness</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
           <t>Intervention</t>
         </is>
+      </c>
+      <c r="M100" t="n">
+        <v>1</v>
       </c>
       <c r="Q100" t="inlineStr">
         <is>
@@ -2655,7 +2769,7 @@
     <row r="101">
       <c r="B101" t="inlineStr">
         <is>
-          <t>engagement with a service</t>
+          <t>established treatment</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
@@ -2675,16 +2789,13 @@
     <row r="102">
       <c r="B102" t="inlineStr">
         <is>
-          <t>engagement with an intervention</t>
+          <t>evidence-based behaviour change techniques</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
         <is>
           <t>Intervention</t>
         </is>
-      </c>
-      <c r="M102" t="n">
-        <v>1</v>
       </c>
       <c r="Q102" t="inlineStr">
         <is>
@@ -2695,7 +2806,7 @@
     <row r="103">
       <c r="B103" t="inlineStr">
         <is>
-          <t>engagement with text messages</t>
+          <t>experimental medicine</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
@@ -2710,113 +2821,83 @@
       </c>
     </row>
     <row r="104">
-      <c r="A104" t="inlineStr">
-        <is>
-          <t>ADDICTO:0000482</t>
-        </is>
-      </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>environmental and social planning</t>
-        </is>
-      </c>
-      <c r="C104" t="inlineStr">
-        <is>
-          <t>A policy involving architecture, urban and rural planning, object and location design, and planning for housing, social care, employment, equality, benefits, security and education.</t>
-        </is>
-      </c>
-      <c r="D104" t="inlineStr">
+          <t>facebook smoking cessation intervention</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>Intervention</t>
+        </is>
+      </c>
+      <c r="M104" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q104" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>first time addiction treatment</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>Intervention</t>
+        </is>
+      </c>
+      <c r="Q105" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>ADDICTO:0000484</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>fiscal measures</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>An intervention function involving use of taxation, tax relief and financial incentives.</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
         <is>
           <t>intervention function</t>
         </is>
       </c>
-      <c r="E104" t="inlineStr">
+      <c r="E106" t="inlineStr">
         <is>
           <t>Process</t>
         </is>
       </c>
-      <c r="F104" t="inlineStr">
-        <is>
-          <t>Intervention</t>
-        </is>
-      </c>
-      <c r="G104" t="inlineStr">
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>Intervention</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
         <is>
           <t>behaviourchangewheel.com</t>
         </is>
       </c>
-      <c r="P104" t="inlineStr">
+      <c r="P106" t="inlineStr">
         <is>
           <t>RW</t>
         </is>
       </c>
-      <c r="Q104" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" t="inlineStr">
-        <is>
-          <t>ADDICTO:0000483</t>
-        </is>
-      </c>
-      <c r="B105" t="inlineStr">
-        <is>
-          <t>environmental restructuring</t>
-        </is>
-      </c>
-      <c r="C105" t="inlineStr">
-        <is>
-          <t>An intervention function that involves constraining or promoting behaviour by shaping the physical or social environment.</t>
-        </is>
-      </c>
-      <c r="D105" t="inlineStr">
-        <is>
-          <t>intervention function</t>
-        </is>
-      </c>
-      <c r="E105" t="inlineStr">
-        <is>
-          <t>Process</t>
-        </is>
-      </c>
-      <c r="F105" t="inlineStr">
-        <is>
-          <t>Intervention</t>
-        </is>
-      </c>
-      <c r="G105" t="inlineStr">
-        <is>
-          <t>www.behaviourchange.com</t>
-        </is>
-      </c>
-      <c r="P105" t="inlineStr">
-        <is>
-          <t>RW</t>
-        </is>
-      </c>
-      <c r="Q105" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-    </row>
-    <row r="106">
-      <c r="B106" t="inlineStr">
-        <is>
-          <t>equivalence in effectiveness</t>
-        </is>
-      </c>
-      <c r="F106" t="inlineStr">
-        <is>
-          <t>Intervention</t>
-        </is>
-      </c>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
       <c r="Q106" t="inlineStr">
         <is>
           <t>Proposed</t>
@@ -2824,9 +2905,29 @@
       </c>
     </row>
     <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>ADDICTO:0000495</t>
+        </is>
+      </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>established treatment</t>
+          <t>government policy</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>An action specification that a government produces that includes rules and regulations concerning activities of agents under the government's jurisdiction.</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>action specification</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>Generically dependent continuant</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
@@ -2834,8 +2935,15 @@
           <t>Intervention</t>
         </is>
       </c>
-      <c r="M107" t="n">
-        <v>1</v>
+      <c r="I107" t="inlineStr">
+        <is>
+          <t>Public policy</t>
+        </is>
+      </c>
+      <c r="P107" t="inlineStr">
+        <is>
+          <t>JH</t>
+        </is>
       </c>
       <c r="Q107" t="inlineStr">
         <is>
@@ -2846,13 +2954,16 @@
     <row r="108">
       <c r="B108" t="inlineStr">
         <is>
-          <t>evidence-based behaviour change techniques</t>
+          <t>government strategy</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
         <is>
           <t>Intervention</t>
         </is>
+      </c>
+      <c r="M108" t="n">
+        <v>1</v>
       </c>
       <c r="Q108" t="inlineStr">
         <is>
@@ -2863,7 +2974,7 @@
     <row r="109">
       <c r="B109" t="inlineStr">
         <is>
-          <t>experimental medicine</t>
+          <t>governmental regulation</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
@@ -2871,6 +2982,9 @@
           <t>Intervention</t>
         </is>
       </c>
+      <c r="M109" t="n">
+        <v>1</v>
+      </c>
       <c r="Q109" t="inlineStr">
         <is>
           <t>Proposed</t>
@@ -2878,9 +2992,29 @@
       </c>
     </row>
     <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>ADDICTO:0000485</t>
+        </is>
+      </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>facebook smoking cessation intervention</t>
+          <t>guideline production</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>An intervention function involving the development and dissemination of documents that make evidence-based recommendations for action in response to defined situations.</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>intervention function</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>Process</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
@@ -2888,8 +3022,15 @@
           <t>Intervention</t>
         </is>
       </c>
-      <c r="M110" t="n">
-        <v>1</v>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>behaviourchangewheel.com</t>
+        </is>
+      </c>
+      <c r="P110" t="inlineStr">
+        <is>
+          <t>RW</t>
+        </is>
       </c>
       <c r="Q110" t="inlineStr">
         <is>
@@ -2900,7 +3041,7 @@
     <row r="111">
       <c r="B111" t="inlineStr">
         <is>
-          <t>first time addiction treatment</t>
+          <t>harm communication</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
@@ -2908,6 +3049,9 @@
           <t>Intervention</t>
         </is>
       </c>
+      <c r="M111" t="n">
+        <v>1</v>
+      </c>
       <c r="Q111" t="inlineStr">
         <is>
           <t>Proposed</t>
@@ -2915,29 +3059,9 @@
       </c>
     </row>
     <row r="112">
-      <c r="A112" t="inlineStr">
-        <is>
-          <t>ADDICTO:0000484</t>
-        </is>
-      </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>fiscal measures</t>
-        </is>
-      </c>
-      <c r="C112" t="inlineStr">
-        <is>
-          <t>An intervention function involving use of taxation, tax relief and financial incentives.</t>
-        </is>
-      </c>
-      <c r="D112" t="inlineStr">
-        <is>
-          <t>intervention function</t>
-        </is>
-      </c>
-      <c r="E112" t="inlineStr">
-        <is>
-          <t>Process</t>
+          <t>harm elimination</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
@@ -2945,15 +3069,8 @@
           <t>Intervention</t>
         </is>
       </c>
-      <c r="G112" t="inlineStr">
-        <is>
-          <t>behaviourchangewheel.com</t>
-        </is>
-      </c>
-      <c r="P112" t="inlineStr">
-        <is>
-          <t>RW</t>
-        </is>
+      <c r="M112" t="n">
+        <v>1</v>
       </c>
       <c r="Q112" t="inlineStr">
         <is>
@@ -2962,29 +3079,9 @@
       </c>
     </row>
     <row r="113">
-      <c r="A113" t="inlineStr">
-        <is>
-          <t>ADDICTO:0000495</t>
-        </is>
-      </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>government policy</t>
-        </is>
-      </c>
-      <c r="C113" t="inlineStr">
-        <is>
-          <t>An action specification that a government produces that includes rules and regulations concerning activities of agents under the government's jurisdiction.</t>
-        </is>
-      </c>
-      <c r="D113" t="inlineStr">
-        <is>
-          <t>action specification</t>
-        </is>
-      </c>
-      <c r="E113" t="inlineStr">
-        <is>
-          <t>Generically dependent continuant</t>
+          <t>harm minimisation</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
@@ -2992,15 +3089,8 @@
           <t>Intervention</t>
         </is>
       </c>
-      <c r="I113" t="inlineStr">
-        <is>
-          <t>Public policy</t>
-        </is>
-      </c>
-      <c r="P113" t="inlineStr">
-        <is>
-          <t>JH</t>
-        </is>
+      <c r="M113" t="n">
+        <v>1</v>
       </c>
       <c r="Q113" t="inlineStr">
         <is>
@@ -3011,7 +3101,7 @@
     <row r="114">
       <c r="B114" t="inlineStr">
         <is>
-          <t>government strategy</t>
+          <t>harm prevention</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
@@ -3031,7 +3121,7 @@
     <row r="115">
       <c r="B115" t="inlineStr">
         <is>
-          <t>governmental regulation</t>
+          <t>harm reduction</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
@@ -3049,44 +3139,14 @@
       </c>
     </row>
     <row r="116">
-      <c r="A116" t="inlineStr">
-        <is>
-          <t>ADDICTO:0000485</t>
-        </is>
-      </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>guideline production</t>
-        </is>
-      </c>
-      <c r="C116" t="inlineStr">
-        <is>
-          <t>An intervention function involving the development and dissemination of documents that make evidence-based recommendations for action in response to defined situations.</t>
-        </is>
-      </c>
-      <c r="D116" t="inlineStr">
-        <is>
-          <t>intervention function</t>
-        </is>
-      </c>
-      <c r="E116" t="inlineStr">
-        <is>
-          <t>Process</t>
+          <t>healthcare</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
         <is>
           <t>Intervention</t>
-        </is>
-      </c>
-      <c r="G116" t="inlineStr">
-        <is>
-          <t>behaviourchangewheel.com</t>
-        </is>
-      </c>
-      <c r="P116" t="inlineStr">
-        <is>
-          <t>RW</t>
         </is>
       </c>
       <c r="Q116" t="inlineStr">
@@ -3098,7 +3158,7 @@
     <row r="117">
       <c r="B117" t="inlineStr">
         <is>
-          <t>harm communication</t>
+          <t>healthcare services policy</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
@@ -3118,7 +3178,7 @@
     <row r="118">
       <c r="B118" t="inlineStr">
         <is>
-          <t>harm elimination</t>
+          <t>hepatitis C treatment</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
@@ -3126,8 +3186,10 @@
           <t>Intervention</t>
         </is>
       </c>
-      <c r="M118" t="n">
-        <v>1</v>
+      <c r="I118" t="inlineStr">
+        <is>
+          <t>HCV treatment</t>
+        </is>
       </c>
       <c r="Q118" t="inlineStr">
         <is>
@@ -3138,7 +3200,7 @@
     <row r="119">
       <c r="B119" t="inlineStr">
         <is>
-          <t>harm minimisation</t>
+          <t>high-coverage needle and syringe provision</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
@@ -3146,8 +3208,10 @@
           <t>Intervention</t>
         </is>
       </c>
-      <c r="M119" t="n">
-        <v>1</v>
+      <c r="I119" t="inlineStr">
+        <is>
+          <t>HCNSP</t>
+        </is>
       </c>
       <c r="Q119" t="inlineStr">
         <is>
@@ -3158,7 +3222,7 @@
     <row r="120">
       <c r="B120" t="inlineStr">
         <is>
-          <t>harm prevention</t>
+          <t>hospital admission</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
@@ -3178,7 +3242,7 @@
     <row r="121">
       <c r="B121" t="inlineStr">
         <is>
-          <t>harm reduction</t>
+          <t>hospital admission rate</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
@@ -3198,7 +3262,7 @@
     <row r="122">
       <c r="B122" t="inlineStr">
         <is>
-          <t>healthcare</t>
+          <t>immediately post-treatment</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
@@ -3206,6 +3270,9 @@
           <t>Intervention</t>
         </is>
       </c>
+      <c r="M122" t="n">
+        <v>1</v>
+      </c>
       <c r="Q122" t="inlineStr">
         <is>
           <t>Proposed</t>
@@ -3213,9 +3280,29 @@
       </c>
     </row>
     <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>ADDICTO:0000486</t>
+        </is>
+      </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>healthcare services policy</t>
+          <t>incentivisation</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>An intervention function that involves changing the attractiveness of a behaviour by creating the expectation of a desired outcome or avoidance of an undesired one.</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>intervention function</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>Process</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
@@ -3223,8 +3310,15 @@
           <t>Intervention</t>
         </is>
       </c>
-      <c r="M123" t="n">
-        <v>1</v>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>www.behaviourchange.com</t>
+        </is>
+      </c>
+      <c r="P123" t="inlineStr">
+        <is>
+          <t>RW</t>
+        </is>
       </c>
       <c r="Q123" t="inlineStr">
         <is>
@@ -3235,17 +3329,12 @@
     <row r="124">
       <c r="B124" t="inlineStr">
         <is>
-          <t>hepatitis C treatment</t>
+          <t>induction into treatment</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
         <is>
           <t>Intervention</t>
-        </is>
-      </c>
-      <c r="I124" t="inlineStr">
-        <is>
-          <t>HCV treatment</t>
         </is>
       </c>
       <c r="Q124" t="inlineStr">
@@ -3257,17 +3346,12 @@
     <row r="125">
       <c r="B125" t="inlineStr">
         <is>
-          <t>high-coverage needle and syringe provision</t>
+          <t>infusion</t>
         </is>
       </c>
       <c r="F125" t="inlineStr">
         <is>
           <t>Intervention</t>
-        </is>
-      </c>
-      <c r="I125" t="inlineStr">
-        <is>
-          <t>HCNSP</t>
         </is>
       </c>
       <c r="Q125" t="inlineStr">
@@ -3279,16 +3363,13 @@
     <row r="126">
       <c r="B126" t="inlineStr">
         <is>
-          <t>hospital admission</t>
+          <t>inpatient opioid detoxification</t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
         <is>
           <t>Intervention</t>
         </is>
-      </c>
-      <c r="M126" t="n">
-        <v>1</v>
       </c>
       <c r="Q126" t="inlineStr">
         <is>
@@ -3299,16 +3380,13 @@
     <row r="127">
       <c r="B127" t="inlineStr">
         <is>
-          <t>hospital admission rate</t>
+          <t>interactive text messaging</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
         <is>
           <t>Intervention</t>
         </is>
-      </c>
-      <c r="M127" t="n">
-        <v>1</v>
       </c>
       <c r="Q127" t="inlineStr">
         <is>
@@ -3319,7 +3397,7 @@
     <row r="128">
       <c r="B128" t="inlineStr">
         <is>
-          <t>immediately post-treatment</t>
+          <t>internal dose</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
@@ -3339,22 +3417,22 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>ADDICTO:0000486</t>
+          <t>BCIO:037000</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>incentivisation</t>
+          <t>intervention</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>An intervention function that involves changing the attractiveness of a behaviour by creating the expectation of a desired outcome or avoidance of an undesired one.</t>
+          <t>A process that is intended to change something in a population</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>intervention function</t>
+          <t>process</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
@@ -3369,13 +3447,16 @@
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>www.behaviourchange.com</t>
-        </is>
-      </c>
-      <c r="P129" t="inlineStr">
-        <is>
-          <t>RW</t>
-        </is>
+          <t>Defined in the 'eagle-I resource ontology' as "A planned process used to influence one or more factors in a research study, and the independent variable in an interventional study wherein the influence is measured or evaluated.". Defined in the NCIT as "An activity that produces an effect, or that is intended to alter the course of a disease in a patient or population. This is a general term that encompasses the medical, social, behavioral, and environmental acts that can have preventive, therapeutic, or palliative effects." See also PICO</t>
+        </is>
+      </c>
+      <c r="H129" t="inlineStr">
+        <is>
+          <t>See behaviour change intervention in BCIO, this should be a proper generalisation of that. Last seen definition as "A process involving provision of products, services, activities, or fiscal or environmental measures that are intended to affect behaviour; each Behaviour change intervention can be divided up into two complementary aspects, namely Behaviour change intervention content and Behaviour change intervention delivery. "</t>
+        </is>
+      </c>
+      <c r="M129" t="n">
+        <v>1</v>
       </c>
       <c r="Q129" t="inlineStr">
         <is>
@@ -3386,13 +3467,16 @@
     <row r="130">
       <c r="B130" t="inlineStr">
         <is>
-          <t>induction into treatment</t>
+          <t>intervention adherence</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
         <is>
           <t>Intervention</t>
         </is>
+      </c>
+      <c r="M130" t="n">
+        <v>1</v>
       </c>
       <c r="Q130" t="inlineStr">
         <is>
@@ -3403,13 +3487,26 @@
     <row r="131">
       <c r="B131" t="inlineStr">
         <is>
-          <t>infusion</t>
+          <t>intervention content</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
         <is>
           <t>Intervention</t>
         </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>This should be a generalisation of the relevant BCI Content in BCIO</t>
+        </is>
+      </c>
+      <c r="H131" t="inlineStr">
+        <is>
+          <t>BCI content defined as "That part of a behaviour change intervention that conforms to a specified behaviour change technique and is intended to be active in bringing about behaviour change."</t>
+        </is>
+      </c>
+      <c r="M131" t="n">
+        <v>1</v>
       </c>
       <c r="Q131" t="inlineStr">
         <is>
@@ -3420,7 +3517,12 @@
     <row r="132">
       <c r="B132" t="inlineStr">
         <is>
-          <t>inpatient opioid detoxification</t>
+          <t>intervention content</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>Process</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
@@ -3437,13 +3539,26 @@
     <row r="133">
       <c r="B133" t="inlineStr">
         <is>
-          <t>interactive text messaging</t>
+          <t>intervention delivery</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
         <is>
           <t>Intervention</t>
         </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>This should be a generalisation of the relevant BCI Delivery in BCIO</t>
+        </is>
+      </c>
+      <c r="H133" t="inlineStr">
+        <is>
+          <t>BCI delivery defined as "That part of a behaviour change intervention that comprises the method or methods by which the Behaviour change intervention content is brought to the Behaviour change intervention population; may include the mode of delivery, timing, and manifested characteristics of the Behaviour change intervention source. "</t>
+        </is>
+      </c>
+      <c r="M133" t="n">
+        <v>1</v>
       </c>
       <c r="Q133" t="inlineStr">
         <is>
@@ -3454,7 +3569,12 @@
     <row r="134">
       <c r="B134" t="inlineStr">
         <is>
-          <t>internal dose</t>
+          <t>intervention development</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>A process by which an intervention is developed from initial concept to implementation.</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
@@ -3462,6 +3582,11 @@
           <t>Intervention</t>
         </is>
       </c>
+      <c r="H134" t="inlineStr">
+        <is>
+          <t>I am not sure I know what this is? Is it the history of the intervention or the plan of the intervention?</t>
+        </is>
+      </c>
       <c r="M134" t="n">
         <v>1</v>
       </c>
@@ -3472,44 +3597,14 @@
       </c>
     </row>
     <row r="135">
-      <c r="A135" t="inlineStr">
-        <is>
-          <t>BCIO:037000</t>
-        </is>
-      </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>intervention</t>
-        </is>
-      </c>
-      <c r="C135" t="inlineStr">
-        <is>
-          <t>A process that is intended to change something in a population</t>
-        </is>
-      </c>
-      <c r="D135" t="inlineStr">
-        <is>
-          <t>process</t>
-        </is>
-      </c>
-      <c r="E135" t="inlineStr">
-        <is>
-          <t>Process</t>
+          <t>intervention end</t>
         </is>
       </c>
       <c r="F135" t="inlineStr">
         <is>
           <t>Intervention</t>
-        </is>
-      </c>
-      <c r="G135" t="inlineStr">
-        <is>
-          <t>Defined in the 'eagle-I resource ontology' as "A planned process used to influence one or more factors in a research study, and the independent variable in an interventional study wherein the influence is measured or evaluated.". Defined in the NCIT as "An activity that produces an effect, or that is intended to alter the course of a disease in a patient or population. This is a general term that encompasses the medical, social, behavioral, and environmental acts that can have preventive, therapeutic, or palliative effects." See also PICO</t>
-        </is>
-      </c>
-      <c r="H135" t="inlineStr">
-        <is>
-          <t>See behaviour change intervention in BCIO, this should be a proper generalisation of that. Last seen definition as "A process involving provision of products, services, activities, or fiscal or environmental measures that are intended to affect behaviour; each Behaviour change intervention can be divided up into two complementary aspects, namely Behaviour change intervention content and Behaviour change intervention delivery. "</t>
         </is>
       </c>
       <c r="M135" t="n">
@@ -3524,7 +3619,7 @@
     <row r="136">
       <c r="B136" t="inlineStr">
         <is>
-          <t>intervention adherence</t>
+          <t>intervention exposure</t>
         </is>
       </c>
       <c r="F136" t="inlineStr">
@@ -3544,22 +3639,12 @@
     <row r="137">
       <c r="B137" t="inlineStr">
         <is>
-          <t>intervention content</t>
+          <t>intervention fidelity</t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
         <is>
           <t>Intervention</t>
-        </is>
-      </c>
-      <c r="G137" t="inlineStr">
-        <is>
-          <t>This should be a generalisation of the relevant BCI Content in BCIO</t>
-        </is>
-      </c>
-      <c r="H137" t="inlineStr">
-        <is>
-          <t>BCI content defined as "That part of a behaviour change intervention that conforms to a specified behaviour change technique and is intended to be active in bringing about behaviour change."</t>
         </is>
       </c>
       <c r="M137" t="n">
@@ -3574,18 +3659,16 @@
     <row r="138">
       <c r="B138" t="inlineStr">
         <is>
-          <t>intervention content</t>
-        </is>
-      </c>
-      <c r="E138" t="inlineStr">
-        <is>
-          <t>Process</t>
+          <t>intervention impact</t>
         </is>
       </c>
       <c r="F138" t="inlineStr">
         <is>
           <t>Intervention</t>
         </is>
+      </c>
+      <c r="M138" t="n">
+        <v>1</v>
       </c>
       <c r="Q138" t="inlineStr">
         <is>
@@ -3596,22 +3679,12 @@
     <row r="139">
       <c r="B139" t="inlineStr">
         <is>
-          <t>intervention delivery</t>
+          <t>intervention outcome</t>
         </is>
       </c>
       <c r="F139" t="inlineStr">
         <is>
           <t>Intervention</t>
-        </is>
-      </c>
-      <c r="G139" t="inlineStr">
-        <is>
-          <t>This should be a generalisation of the relevant BCI Delivery in BCIO</t>
-        </is>
-      </c>
-      <c r="H139" t="inlineStr">
-        <is>
-          <t>BCI delivery defined as "That part of a behaviour change intervention that comprises the method or methods by which the Behaviour change intervention content is brought to the Behaviour change intervention population; may include the mode of delivery, timing, and manifested characteristics of the Behaviour change intervention source. "</t>
         </is>
       </c>
       <c r="M139" t="n">
@@ -3626,22 +3699,12 @@
     <row r="140">
       <c r="B140" t="inlineStr">
         <is>
-          <t>intervention development</t>
-        </is>
-      </c>
-      <c r="C140" t="inlineStr">
-        <is>
-          <t>A process by which an intervention is developed from initial concept to implementation.</t>
+          <t>intervention reach</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
         <is>
           <t>Intervention</t>
-        </is>
-      </c>
-      <c r="H140" t="inlineStr">
-        <is>
-          <t>I am not sure I know what this is? Is it the history of the intervention or the plan of the intervention?</t>
         </is>
       </c>
       <c r="M140" t="n">
@@ -3656,7 +3719,7 @@
     <row r="141">
       <c r="B141" t="inlineStr">
         <is>
-          <t>intervention end</t>
+          <t>intervention scale-up</t>
         </is>
       </c>
       <c r="F141" t="inlineStr">
@@ -3674,29 +3737,41 @@
       </c>
     </row>
     <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>ADDICTO:0000487</t>
+        </is>
+      </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>intervention exposure</t>
+          <t>intervention scale-up strategy</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>A plan specification for delivering an intervention that has been developed on a part of a population to the full population.</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>plan specification</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>Generically dependent continuant</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
         <is>
           <t>Intervention</t>
-        </is>
-      </c>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q142" t="inlineStr">
-        <is>
-          <t>Proposed</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="B143" t="inlineStr">
         <is>
-          <t>intervention fidelity</t>
+          <t>intervention source</t>
         </is>
       </c>
       <c r="F143" t="inlineStr">
@@ -3716,7 +3791,7 @@
     <row r="144">
       <c r="B144" t="inlineStr">
         <is>
-          <t>intervention impact</t>
+          <t>intervention start</t>
         </is>
       </c>
       <c r="F144" t="inlineStr">
@@ -3736,16 +3811,23 @@
     <row r="145">
       <c r="B145" t="inlineStr">
         <is>
-          <t>intervention outcome</t>
-        </is>
-      </c>
-      <c r="F145" t="inlineStr">
-        <is>
-          <t>Intervention</t>
-        </is>
-      </c>
-      <c r="M145" t="n">
-        <v>1</v>
+          <t>intracranial self-stimulation</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>The performance of an instrumental act which subsequently triggers the delivery of electrical brain stimulation.</t>
+        </is>
+      </c>
+      <c r="I145" t="inlineStr">
+        <is>
+          <t>brain stimulant reward</t>
+        </is>
+      </c>
+      <c r="P145" t="inlineStr">
+        <is>
+          <t>KS</t>
+        </is>
       </c>
       <c r="Q145" t="inlineStr">
         <is>
@@ -3754,9 +3836,29 @@
       </c>
     </row>
     <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>ERO:0001108</t>
+        </is>
+      </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>intervention reach</t>
+          <t>intubation</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>Agent delivery of a tube into an external or internal orifice of the body for the purpose of adding or removing fluids or air.</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>agent delivery</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>Process</t>
         </is>
       </c>
       <c r="F146" t="inlineStr">
@@ -3764,8 +3866,10 @@
           <t>Intervention</t>
         </is>
       </c>
-      <c r="M146" t="n">
-        <v>1</v>
+      <c r="P146" t="inlineStr">
+        <is>
+          <t>JH</t>
+        </is>
       </c>
       <c r="Q146" t="inlineStr">
         <is>
@@ -3776,16 +3880,13 @@
     <row r="147">
       <c r="B147" t="inlineStr">
         <is>
-          <t>intervention scale-up</t>
+          <t>juvenille correctional system</t>
         </is>
       </c>
       <c r="F147" t="inlineStr">
         <is>
           <t>Intervention</t>
         </is>
-      </c>
-      <c r="M147" t="n">
-        <v>1</v>
       </c>
       <c r="Q147" t="inlineStr">
         <is>
@@ -3796,48 +3897,80 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>ADDICTO:0000487</t>
+          <t>ADDICTO:0000524</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>intervention scale-up strategy</t>
+          <t>law</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>A plan specification for delivering an intervention that has been developed on a part of a population to the full population.</t>
+          <t>A rule recognised by the legal system of a country or community</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>plan specification</t>
+          <t>role</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
         <is>
+          <t>role</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>Intervention</t>
+        </is>
+      </c>
+      <c r="P148" t="inlineStr">
+        <is>
+          <t>JH</t>
+        </is>
+      </c>
+      <c r="Q148" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>ADDICTO:0000488</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>legislation</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>A directive information entity that is produced by government and enables, prohibits or bans activities, or establishes rights or responsibilities.</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>directive information entity</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
           <t>Generically dependent continuant</t>
         </is>
       </c>
-      <c r="F148" t="inlineStr">
-        <is>
-          <t>Intervention</t>
-        </is>
-      </c>
-    </row>
-    <row r="149">
-      <c r="B149" t="inlineStr">
-        <is>
-          <t>intervention source</t>
-        </is>
-      </c>
       <c r="F149" t="inlineStr">
         <is>
           <t>Intervention</t>
         </is>
       </c>
-      <c r="M149" t="n">
-        <v>1</v>
+      <c r="P149" t="inlineStr">
+        <is>
+          <t>JH</t>
+        </is>
       </c>
       <c r="Q149" t="inlineStr">
         <is>
@@ -3848,7 +3981,7 @@
     <row r="150">
       <c r="B150" t="inlineStr">
         <is>
-          <t>intervention start</t>
+          <t>legislative change</t>
         </is>
       </c>
       <c r="F150" t="inlineStr">
@@ -3868,22 +4001,12 @@
     <row r="151">
       <c r="B151" t="inlineStr">
         <is>
-          <t>intracranial self-stimulation</t>
-        </is>
-      </c>
-      <c r="C151" t="inlineStr">
-        <is>
-          <t>The performance of an instrumental act which subsequently triggers the delivery of electrical brain stimulation.</t>
-        </is>
-      </c>
-      <c r="I151" t="inlineStr">
-        <is>
-          <t>brain stimulant reward</t>
-        </is>
-      </c>
-      <c r="P151" t="inlineStr">
-        <is>
-          <t>KS</t>
+          <t>length of hospital stay</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>Intervention</t>
         </is>
       </c>
       <c r="Q151" t="inlineStr">
@@ -3893,29 +4016,9 @@
       </c>
     </row>
     <row r="152">
-      <c r="A152" t="inlineStr">
-        <is>
-          <t>ERO:0001108</t>
-        </is>
-      </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>intubation</t>
-        </is>
-      </c>
-      <c r="C152" t="inlineStr">
-        <is>
-          <t>Agent delivery of a tube into an external or internal orifice of the body for the purpose of adding or removing fluids or air.</t>
-        </is>
-      </c>
-      <c r="D152" t="inlineStr">
-        <is>
-          <t>agent delivery</t>
-        </is>
-      </c>
-      <c r="E152" t="inlineStr">
-        <is>
-          <t>Process</t>
+          <t>limitation of access</t>
         </is>
       </c>
       <c r="F152" t="inlineStr">
@@ -3923,10 +4026,8 @@
           <t>Intervention</t>
         </is>
       </c>
-      <c r="P152" t="inlineStr">
-        <is>
-          <t>JH</t>
-        </is>
+      <c r="M152" t="n">
+        <v>1</v>
       </c>
       <c r="Q152" t="inlineStr">
         <is>
@@ -3937,7 +4038,7 @@
     <row r="153">
       <c r="B153" t="inlineStr">
         <is>
-          <t>juvenille correctional system</t>
+          <t>local Stop Smoking Service</t>
         </is>
       </c>
       <c r="F153" t="inlineStr">
@@ -3945,6 +4046,9 @@
           <t>Intervention</t>
         </is>
       </c>
+      <c r="M153" t="n">
+        <v>1</v>
+      </c>
       <c r="Q153" t="inlineStr">
         <is>
           <t>Proposed</t>
@@ -3952,29 +4056,9 @@
       </c>
     </row>
     <row r="154">
-      <c r="A154" t="inlineStr">
-        <is>
-          <t>ADDICTO:0000524</t>
-        </is>
-      </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>law</t>
-        </is>
-      </c>
-      <c r="C154" t="inlineStr">
-        <is>
-          <t>A rule recognised by the legal system of a country or community</t>
-        </is>
-      </c>
-      <c r="D154" t="inlineStr">
-        <is>
-          <t>role</t>
-        </is>
-      </c>
-      <c r="E154" t="inlineStr">
-        <is>
-          <t>role</t>
+          <t>local policy</t>
         </is>
       </c>
       <c r="F154" t="inlineStr">
@@ -3982,10 +4066,8 @@
           <t>Intervention</t>
         </is>
       </c>
-      <c r="P154" t="inlineStr">
-        <is>
-          <t>JH</t>
-        </is>
+      <c r="M154" t="n">
+        <v>1</v>
       </c>
       <c r="Q154" t="inlineStr">
         <is>
@@ -3994,39 +4076,14 @@
       </c>
     </row>
     <row r="155">
-      <c r="A155" t="inlineStr">
-        <is>
-          <t>ADDICTO:0000488</t>
-        </is>
-      </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>legislation</t>
-        </is>
-      </c>
-      <c r="C155" t="inlineStr">
-        <is>
-          <t>A directive information entity that is produced by government and enables, prohibits or bans activities, or establishes rights or responsibilities.</t>
-        </is>
-      </c>
-      <c r="D155" t="inlineStr">
-        <is>
-          <t>directive information entity</t>
-        </is>
-      </c>
-      <c r="E155" t="inlineStr">
-        <is>
-          <t>Generically dependent continuant</t>
+          <t>long-term opioid agonist therapy</t>
         </is>
       </c>
       <c r="F155" t="inlineStr">
         <is>
           <t>Intervention</t>
-        </is>
-      </c>
-      <c r="P155" t="inlineStr">
-        <is>
-          <t>JH</t>
         </is>
       </c>
       <c r="Q155" t="inlineStr">
@@ -4038,16 +4095,13 @@
     <row r="156">
       <c r="B156" t="inlineStr">
         <is>
-          <t>legislative change</t>
+          <t>low-threshold overdose prevention site</t>
         </is>
       </c>
       <c r="F156" t="inlineStr">
         <is>
           <t>Intervention</t>
         </is>
-      </c>
-      <c r="M156" t="n">
-        <v>1</v>
       </c>
       <c r="Q156" t="inlineStr">
         <is>
@@ -4058,7 +4112,7 @@
     <row r="157">
       <c r="B157" t="inlineStr">
         <is>
-          <t>length of hospital stay</t>
+          <t>marijuana policy</t>
         </is>
       </c>
       <c r="F157" t="inlineStr">
@@ -4075,7 +4129,7 @@
     <row r="158">
       <c r="B158" t="inlineStr">
         <is>
-          <t>limitation of access</t>
+          <t>media</t>
         </is>
       </c>
       <c r="F158" t="inlineStr">
@@ -4095,16 +4149,13 @@
     <row r="159">
       <c r="B159" t="inlineStr">
         <is>
-          <t>local Stop Smoking Service</t>
+          <t>medicaid</t>
         </is>
       </c>
       <c r="F159" t="inlineStr">
         <is>
           <t>Intervention</t>
         </is>
-      </c>
-      <c r="M159" t="n">
-        <v>1</v>
       </c>
       <c r="Q159" t="inlineStr">
         <is>
@@ -4115,16 +4166,13 @@
     <row r="160">
       <c r="B160" t="inlineStr">
         <is>
-          <t>local policy</t>
+          <t>medical cannabis legalization</t>
         </is>
       </c>
       <c r="F160" t="inlineStr">
         <is>
           <t>Intervention</t>
         </is>
-      </c>
-      <c r="M160" t="n">
-        <v>1</v>
       </c>
       <c r="Q160" t="inlineStr">
         <is>
@@ -4135,7 +4183,7 @@
     <row r="161">
       <c r="B161" t="inlineStr">
         <is>
-          <t>long-term opioid agonist therapy</t>
+          <t>medication adherence</t>
         </is>
       </c>
       <c r="F161" t="inlineStr">
@@ -4152,7 +4200,7 @@
     <row r="162">
       <c r="B162" t="inlineStr">
         <is>
-          <t>low-threshold overdose prevention site</t>
+          <t>medication dose</t>
         </is>
       </c>
       <c r="F162" t="inlineStr">
@@ -4169,7 +4217,7 @@
     <row r="163">
       <c r="B163" t="inlineStr">
         <is>
-          <t>marijuana policy</t>
+          <t>medication-assisted substance use disorder treatment</t>
         </is>
       </c>
       <c r="F163" t="inlineStr">
@@ -4186,16 +4234,13 @@
     <row r="164">
       <c r="B164" t="inlineStr">
         <is>
-          <t>media</t>
+          <t>methadone dose</t>
         </is>
       </c>
       <c r="F164" t="inlineStr">
         <is>
           <t>Intervention</t>
         </is>
-      </c>
-      <c r="M164" t="n">
-        <v>1</v>
       </c>
       <c r="Q164" t="inlineStr">
         <is>
@@ -4206,7 +4251,7 @@
     <row r="165">
       <c r="B165" t="inlineStr">
         <is>
-          <t>medicaid</t>
+          <t>methamphetamine use prevention</t>
         </is>
       </c>
       <c r="F165" t="inlineStr">
@@ -4223,13 +4268,16 @@
     <row r="166">
       <c r="B166" t="inlineStr">
         <is>
-          <t>medical cannabis legalization</t>
+          <t>minimum pack size</t>
         </is>
       </c>
       <c r="F166" t="inlineStr">
         <is>
           <t>Intervention</t>
         </is>
+      </c>
+      <c r="M166" t="n">
+        <v>1</v>
       </c>
       <c r="Q166" t="inlineStr">
         <is>
@@ -4240,7 +4288,7 @@
     <row r="167">
       <c r="B167" t="inlineStr">
         <is>
-          <t>medication adherence</t>
+          <t>minimum purchasing age legislation</t>
         </is>
       </c>
       <c r="F167" t="inlineStr">
@@ -4248,6 +4296,11 @@
           <t>Intervention</t>
         </is>
       </c>
+      <c r="P167" t="inlineStr">
+        <is>
+          <t>JH</t>
+        </is>
+      </c>
       <c r="Q167" t="inlineStr">
         <is>
           <t>Proposed</t>
@@ -4255,14 +4308,44 @@
       </c>
     </row>
     <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>ADDICTO:0000489</t>
+        </is>
+      </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>medication dose</t>
+          <t>modelling</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>An intervention function that involves showing examples of the behaviour for people to imitate.</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>intervention function</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>Process</t>
         </is>
       </c>
       <c r="F168" t="inlineStr">
         <is>
           <t>Intervention</t>
+        </is>
+      </c>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>www.behaviourchange.com</t>
+        </is>
+      </c>
+      <c r="P168" t="inlineStr">
+        <is>
+          <t>RW</t>
         </is>
       </c>
       <c r="Q168" t="inlineStr">
@@ -4274,13 +4357,16 @@
     <row r="169">
       <c r="B169" t="inlineStr">
         <is>
-          <t>medication-assisted substance use disorder treatment</t>
+          <t>monetary incentive</t>
         </is>
       </c>
       <c r="F169" t="inlineStr">
         <is>
           <t>Intervention</t>
         </is>
+      </c>
+      <c r="M169" t="n">
+        <v>1</v>
       </c>
       <c r="Q169" t="inlineStr">
         <is>
@@ -4291,7 +4377,7 @@
     <row r="170">
       <c r="B170" t="inlineStr">
         <is>
-          <t>methadone dose</t>
+          <t>naloxone administration</t>
         </is>
       </c>
       <c r="F170" t="inlineStr">
@@ -4306,14 +4392,39 @@
       </c>
     </row>
     <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>ADDICTO:0000458</t>
+        </is>
+      </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>methamphetamine use prevention</t>
+          <t>naloxone pharmacy access law</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>A pharmacy access law in which the product being distributed is naloxone.</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>pharmacy access law</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>Generically dependent continuant</t>
         </is>
       </c>
       <c r="F171" t="inlineStr">
         <is>
           <t>Intervention</t>
+        </is>
+      </c>
+      <c r="P171" t="inlineStr">
+        <is>
+          <t>JH</t>
         </is>
       </c>
       <c r="Q171" t="inlineStr">
@@ -4325,16 +4436,13 @@
     <row r="172">
       <c r="B172" t="inlineStr">
         <is>
-          <t>minimum pack size</t>
+          <t>naloxone treatment</t>
         </is>
       </c>
       <c r="F172" t="inlineStr">
         <is>
           <t>Intervention</t>
         </is>
-      </c>
-      <c r="M172" t="n">
-        <v>1</v>
       </c>
       <c r="Q172" t="inlineStr">
         <is>
@@ -4345,7 +4453,7 @@
     <row r="173">
       <c r="B173" t="inlineStr">
         <is>
-          <t>minimum purchasing age legislation</t>
+          <t>naltrexone efficacy</t>
         </is>
       </c>
       <c r="F173" t="inlineStr">
@@ -4353,77 +4461,64 @@
           <t>Intervention</t>
         </is>
       </c>
-      <c r="P173" t="inlineStr">
+      <c r="Q173" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>national Cancer Institute Smokefree.gov website</t>
+        </is>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>Intervention</t>
+        </is>
+      </c>
+      <c r="Q174" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>ADDICTO:0000490</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>national drug policy</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>A national policy that concerns the manufacture, marketing, distribution, use and harms from psychoactive drugs.</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>government policy</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>Generically dependent continuant</t>
+        </is>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>Intervention</t>
+        </is>
+      </c>
+      <c r="P175" t="inlineStr">
         <is>
           <t>JH</t>
         </is>
-      </c>
-      <c r="Q173" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" t="inlineStr">
-        <is>
-          <t>ADDICTO:0000489</t>
-        </is>
-      </c>
-      <c r="B174" t="inlineStr">
-        <is>
-          <t>modelling</t>
-        </is>
-      </c>
-      <c r="C174" t="inlineStr">
-        <is>
-          <t>An intervention function that involves showing examples of the behaviour for people to imitate.</t>
-        </is>
-      </c>
-      <c r="D174" t="inlineStr">
-        <is>
-          <t>intervention function</t>
-        </is>
-      </c>
-      <c r="E174" t="inlineStr">
-        <is>
-          <t>Process</t>
-        </is>
-      </c>
-      <c r="F174" t="inlineStr">
-        <is>
-          <t>Intervention</t>
-        </is>
-      </c>
-      <c r="G174" t="inlineStr">
-        <is>
-          <t>www.behaviourchange.com</t>
-        </is>
-      </c>
-      <c r="P174" t="inlineStr">
-        <is>
-          <t>RW</t>
-        </is>
-      </c>
-      <c r="Q174" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-    </row>
-    <row r="175">
-      <c r="B175" t="inlineStr">
-        <is>
-          <t>monetary incentive</t>
-        </is>
-      </c>
-      <c r="F175" t="inlineStr">
-        <is>
-          <t>Intervention</t>
-        </is>
-      </c>
-      <c r="M175" t="n">
-        <v>1</v>
       </c>
       <c r="Q175" t="inlineStr">
         <is>
@@ -4434,7 +4529,7 @@
     <row r="176">
       <c r="B176" t="inlineStr">
         <is>
-          <t>naloxone administration</t>
+          <t>national policy</t>
         </is>
       </c>
       <c r="F176" t="inlineStr">
@@ -4442,6 +4537,9 @@
           <t>Intervention</t>
         </is>
       </c>
+      <c r="M176" t="n">
+        <v>1</v>
+      </c>
       <c r="Q176" t="inlineStr">
         <is>
           <t>Proposed</t>
@@ -4449,29 +4547,9 @@
       </c>
     </row>
     <row r="177">
-      <c r="A177" t="inlineStr">
-        <is>
-          <t>ADDICTO:0000458</t>
-        </is>
-      </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>naloxone pharmacy access law</t>
-        </is>
-      </c>
-      <c r="C177" t="inlineStr">
-        <is>
-          <t>A pharmacy access law in which the product being distributed is naloxone.</t>
-        </is>
-      </c>
-      <c r="D177" t="inlineStr">
-        <is>
-          <t>pharmacy access law</t>
-        </is>
-      </c>
-      <c r="E177" t="inlineStr">
-        <is>
-          <t>Generically dependent continuant</t>
+          <t>national regulation</t>
         </is>
       </c>
       <c r="F177" t="inlineStr">
@@ -4479,10 +4557,8 @@
           <t>Intervention</t>
         </is>
       </c>
-      <c r="P177" t="inlineStr">
-        <is>
-          <t>JH</t>
-        </is>
+      <c r="M177" t="n">
+        <v>1</v>
       </c>
       <c r="Q177" t="inlineStr">
         <is>
@@ -4493,13 +4569,16 @@
     <row r="178">
       <c r="B178" t="inlineStr">
         <is>
-          <t>naloxone treatment</t>
+          <t>national tobacco and nicotine policy environment</t>
         </is>
       </c>
       <c r="F178" t="inlineStr">
         <is>
           <t>Intervention</t>
         </is>
+      </c>
+      <c r="M178" t="n">
+        <v>1</v>
       </c>
       <c r="Q178" t="inlineStr">
         <is>
@@ -4510,12 +4589,17 @@
     <row r="179">
       <c r="B179" t="inlineStr">
         <is>
-          <t>naltrexone efficacy</t>
+          <t>needle and syringe provision</t>
         </is>
       </c>
       <c r="F179" t="inlineStr">
         <is>
           <t>Intervention</t>
+        </is>
+      </c>
+      <c r="I179" t="inlineStr">
+        <is>
+          <t>NSP</t>
         </is>
       </c>
       <c r="Q179" t="inlineStr">
@@ -4527,7 +4611,7 @@
     <row r="180">
       <c r="B180" t="inlineStr">
         <is>
-          <t>national Cancer Institute Smokefree.gov website</t>
+          <t>neonatal care</t>
         </is>
       </c>
       <c r="F180" t="inlineStr">
@@ -4544,22 +4628,22 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>ADDICTO:0000490</t>
+          <t>ADDICTO:0000455</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>national drug policy</t>
+          <t>nicotine dose</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>A national policy that concerns the manufacture, marketing, distribution, use and harms from psychoactive drugs.</t>
+          <t>Dose in which the thing administered is nicotine.</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>government policy</t>
+          <t>dose</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
@@ -4572,10 +4656,8 @@
           <t>Intervention</t>
         </is>
       </c>
-      <c r="P181" t="inlineStr">
-        <is>
-          <t>JH</t>
-        </is>
+      <c r="M181" t="n">
+        <v>1</v>
       </c>
       <c r="Q181" t="inlineStr">
         <is>
@@ -4586,7 +4668,7 @@
     <row r="182">
       <c r="B182" t="inlineStr">
         <is>
-          <t>national policy</t>
+          <t>nicotine harm reduction</t>
         </is>
       </c>
       <c r="F182" t="inlineStr">
@@ -4606,7 +4688,7 @@
     <row r="183">
       <c r="B183" t="inlineStr">
         <is>
-          <t>national regulation</t>
+          <t>nicotine pre-loading</t>
         </is>
       </c>
       <c r="F183" t="inlineStr">
@@ -4614,9 +4696,6 @@
           <t>Intervention</t>
         </is>
       </c>
-      <c r="M183" t="n">
-        <v>1</v>
-      </c>
       <c r="Q183" t="inlineStr">
         <is>
           <t>Proposed</t>
@@ -4624,9 +4703,29 @@
       </c>
     </row>
     <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>ADDICTO:0000262</t>
+        </is>
+      </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>national tobacco and nicotine policy environment</t>
+          <t xml:space="preserve">nicotine replacement therapy </t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Nicotine replacement therapy are nicotine delivery products that are licensed for use as smoking cessation or harm reduction aids used by people for quitting or reducing use of tobacco containing products. </t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t xml:space="preserve">treatment </t>
+        </is>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>Role</t>
         </is>
       </c>
       <c r="F184" t="inlineStr">
@@ -4634,8 +4733,15 @@
           <t>Intervention</t>
         </is>
       </c>
-      <c r="M184" t="n">
-        <v>1</v>
+      <c r="I184" t="inlineStr">
+        <is>
+          <t xml:space="preserve">NRT products </t>
+        </is>
+      </c>
+      <c r="M184" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="Q184" t="inlineStr">
         <is>
@@ -4646,7 +4752,7 @@
     <row r="185">
       <c r="B185" t="inlineStr">
         <is>
-          <t>needle and syringe provision</t>
+          <t>non-adherent to treatment</t>
         </is>
       </c>
       <c r="F185" t="inlineStr">
@@ -4654,10 +4760,8 @@
           <t>Intervention</t>
         </is>
       </c>
-      <c r="I185" t="inlineStr">
-        <is>
-          <t>NSP</t>
-        </is>
+      <c r="M185" t="n">
+        <v>1</v>
       </c>
       <c r="Q185" t="inlineStr">
         <is>
@@ -4668,7 +4772,7 @@
     <row r="186">
       <c r="B186" t="inlineStr">
         <is>
-          <t>neonatal care</t>
+          <t>non-contingent cocaine administration</t>
         </is>
       </c>
       <c r="F186" t="inlineStr">
@@ -4683,38 +4787,15 @@
       </c>
     </row>
     <row r="187">
-      <c r="A187" t="inlineStr">
-        <is>
-          <t>ADDICTO:0000455</t>
-        </is>
-      </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>nicotine dose</t>
-        </is>
-      </c>
-      <c r="C187" t="inlineStr">
-        <is>
-          <t>Dose in which the thing administered is nicotine.</t>
-        </is>
-      </c>
-      <c r="D187" t="inlineStr">
-        <is>
-          <t>dose</t>
-        </is>
-      </c>
-      <c r="E187" t="inlineStr">
-        <is>
-          <t>Generically dependent continuant</t>
+          <t>number of intakes into treatment</t>
         </is>
       </c>
       <c r="F187" t="inlineStr">
         <is>
           <t>Intervention</t>
         </is>
-      </c>
-      <c r="M187" t="n">
-        <v>1</v>
       </c>
       <c r="Q187" t="inlineStr">
         <is>
@@ -4725,16 +4806,13 @@
     <row r="188">
       <c r="B188" t="inlineStr">
         <is>
-          <t>nicotine harm reduction</t>
+          <t>number of years on treatment</t>
         </is>
       </c>
       <c r="F188" t="inlineStr">
         <is>
           <t>Intervention</t>
         </is>
-      </c>
-      <c r="M188" t="n">
-        <v>1</v>
       </c>
       <c r="Q188" t="inlineStr">
         <is>
@@ -4745,7 +4823,7 @@
     <row r="189">
       <c r="B189" t="inlineStr">
         <is>
-          <t>nicotine pre-loading</t>
+          <t>obstetric practice</t>
         </is>
       </c>
       <c r="F189" t="inlineStr">
@@ -4760,29 +4838,9 @@
       </c>
     </row>
     <row r="190">
-      <c r="A190" t="inlineStr">
-        <is>
-          <t>ADDICTO:0000262</t>
-        </is>
-      </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t xml:space="preserve">nicotine replacement therapy </t>
-        </is>
-      </c>
-      <c r="C190" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Nicotine replacement therapy are nicotine delivery products that are licensed for use as smoking cessation or harm reduction aids used by people for quitting or reducing use of tobacco containing products. </t>
-        </is>
-      </c>
-      <c r="D190" t="inlineStr">
-        <is>
-          <t xml:space="preserve">treatment </t>
-        </is>
-      </c>
-      <c r="E190" t="inlineStr">
-        <is>
-          <t>Role</t>
+          <t>on-line program</t>
         </is>
       </c>
       <c r="F190" t="inlineStr">
@@ -4790,35 +4848,42 @@
           <t>Intervention</t>
         </is>
       </c>
-      <c r="I190" t="inlineStr">
-        <is>
-          <t xml:space="preserve">NRT products </t>
-        </is>
-      </c>
-      <c r="M190" t="inlineStr">
+      <c r="Q190" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>ADDICTO:0000789</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>online advertising</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>Advertising which is conducted whilst operating under the direct control of or connected to a computer system which uses the internet.</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>advertising</t>
+        </is>
+      </c>
+      <c r="M191" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="Q190" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-    </row>
-    <row r="191">
-      <c r="B191" t="inlineStr">
-        <is>
-          <t>non-adherent to treatment</t>
-        </is>
-      </c>
-      <c r="F191" t="inlineStr">
-        <is>
-          <t>Intervention</t>
-        </is>
-      </c>
-      <c r="M191" t="n">
-        <v>1</v>
+      <c r="P191" t="inlineStr">
+        <is>
+          <t>KS</t>
+        </is>
       </c>
       <c r="Q191" t="inlineStr">
         <is>
@@ -4827,14 +4892,49 @@
       </c>
     </row>
     <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>ADDICTO:0000491</t>
+        </is>
+      </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>non-contingent cocaine administration</t>
+          <t>opioid agonist treatment</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>A treatment that involves providing a safer opioid agonist to a person with opioid addiction in order to reduce their psychological need for  the opioid to which they are addicted.</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>treatment</t>
+        </is>
+      </c>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>Process</t>
         </is>
       </c>
       <c r="F192" t="inlineStr">
         <is>
           <t>Intervention</t>
+        </is>
+      </c>
+      <c r="H192" t="inlineStr">
+        <is>
+          <t xml:space="preserve">No ontological definition found. </t>
+        </is>
+      </c>
+      <c r="I192" t="inlineStr">
+        <is>
+          <t>Opioid agonist therapy</t>
+        </is>
+      </c>
+      <c r="P192" t="inlineStr">
+        <is>
+          <t>JH</t>
         </is>
       </c>
       <c r="Q192" t="inlineStr">
@@ -4846,12 +4946,17 @@
     <row r="193">
       <c r="B193" t="inlineStr">
         <is>
-          <t>number of intakes into treatment</t>
+          <t>opioid agonist treatment capacity</t>
         </is>
       </c>
       <c r="F193" t="inlineStr">
         <is>
           <t>Intervention</t>
+        </is>
+      </c>
+      <c r="P193" t="inlineStr">
+        <is>
+          <t>JH</t>
         </is>
       </c>
       <c r="Q193" t="inlineStr">
@@ -4863,7 +4968,7 @@
     <row r="194">
       <c r="B194" t="inlineStr">
         <is>
-          <t>number of years on treatment</t>
+          <t>opioid agonist treatment coverage</t>
         </is>
       </c>
       <c r="F194" t="inlineStr">
@@ -4871,6 +4976,11 @@
           <t>Intervention</t>
         </is>
       </c>
+      <c r="P194" t="inlineStr">
+        <is>
+          <t>JH</t>
+        </is>
+      </c>
       <c r="Q194" t="inlineStr">
         <is>
           <t>Proposed</t>
@@ -4878,14 +4988,39 @@
       </c>
     </row>
     <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>ADDICTO:0000492</t>
+        </is>
+      </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>obstetric practice</t>
+          <t>opioid agonist treatment scale-up strategy</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>An intervention scale-up strategy for delivering a opioid agonist treatment programme to a population.</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>intervention scale-up strategy</t>
+        </is>
+      </c>
+      <c r="E195" t="inlineStr">
+        <is>
+          <t>Generically dependent continuant</t>
         </is>
       </c>
       <c r="F195" t="inlineStr">
         <is>
           <t>Intervention</t>
+        </is>
+      </c>
+      <c r="P195" t="inlineStr">
+        <is>
+          <t>JH</t>
         </is>
       </c>
       <c r="Q195" t="inlineStr">
@@ -4897,7 +5032,7 @@
     <row r="196">
       <c r="B196" t="inlineStr">
         <is>
-          <t>on-line program</t>
+          <t>opioid maintenance programme</t>
         </is>
       </c>
       <c r="F196" t="inlineStr">
@@ -4912,34 +5047,19 @@
       </c>
     </row>
     <row r="197">
-      <c r="A197" t="inlineStr">
-        <is>
-          <t>ADDICTO:0000789</t>
-        </is>
-      </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>online advertising</t>
-        </is>
-      </c>
-      <c r="C197" t="inlineStr">
-        <is>
-          <t>Advertising which is conducted whilst operating under the direct control of or connected to a computer system which uses the internet.</t>
-        </is>
-      </c>
-      <c r="D197" t="inlineStr">
-        <is>
-          <t>advertising</t>
-        </is>
-      </c>
-      <c r="M197" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="P197" t="inlineStr">
-        <is>
-          <t>KS</t>
+          <t>opioid substitution therapy</t>
+        </is>
+      </c>
+      <c r="F197" t="inlineStr">
+        <is>
+          <t>Intervention</t>
+        </is>
+      </c>
+      <c r="I197" t="inlineStr">
+        <is>
+          <t>OST</t>
         </is>
       </c>
       <c r="Q197" t="inlineStr">
@@ -4949,49 +5069,14 @@
       </c>
     </row>
     <row r="198">
-      <c r="A198" t="inlineStr">
-        <is>
-          <t>ADDICTO:0000491</t>
-        </is>
-      </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>opioid agonist treatment</t>
-        </is>
-      </c>
-      <c r="C198" t="inlineStr">
-        <is>
-          <t>A treatment that involves providing a safer opioid agonist to a person with opioid addiction in order to reduce their psychological need for  the opioid to which they are addicted.</t>
-        </is>
-      </c>
-      <c r="D198" t="inlineStr">
-        <is>
-          <t>treatment</t>
-        </is>
-      </c>
-      <c r="E198" t="inlineStr">
-        <is>
-          <t>Process</t>
+          <t>opioid treatment</t>
         </is>
       </c>
       <c r="F198" t="inlineStr">
         <is>
           <t>Intervention</t>
-        </is>
-      </c>
-      <c r="H198" t="inlineStr">
-        <is>
-          <t xml:space="preserve">No ontological definition found. </t>
-        </is>
-      </c>
-      <c r="I198" t="inlineStr">
-        <is>
-          <t>Opioid agonist therapy</t>
-        </is>
-      </c>
-      <c r="P198" t="inlineStr">
-        <is>
-          <t>JH</t>
         </is>
       </c>
       <c r="Q198" t="inlineStr">
@@ -5003,17 +5088,12 @@
     <row r="199">
       <c r="B199" t="inlineStr">
         <is>
-          <t>opioid agonist treatment capacity</t>
+          <t>opioid treatment admission</t>
         </is>
       </c>
       <c r="F199" t="inlineStr">
         <is>
           <t>Intervention</t>
-        </is>
-      </c>
-      <c r="P199" t="inlineStr">
-        <is>
-          <t>JH</t>
         </is>
       </c>
       <c r="Q199" t="inlineStr">
@@ -5025,17 +5105,12 @@
     <row r="200">
       <c r="B200" t="inlineStr">
         <is>
-          <t>opioid agonist treatment coverage</t>
+          <t>opioid treatment programme</t>
         </is>
       </c>
       <c r="F200" t="inlineStr">
         <is>
           <t>Intervention</t>
-        </is>
-      </c>
-      <c r="P200" t="inlineStr">
-        <is>
-          <t>JH</t>
         </is>
       </c>
       <c r="Q200" t="inlineStr">
@@ -5047,27 +5122,27 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>ADDICTO:0000492</t>
+          <t>ADDICTO:0000270</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>opioid agonist treatment scale-up strategy</t>
+          <t>over the counter nicotine replacement therapy</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>An intervention scale-up strategy for delivering a opioid agonist treatment programme to a population.</t>
+          <t xml:space="preserve">A nicotine replacement therapy product that can be sold to a person without the need for a prescription. </t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>intervention scale-up strategy</t>
+          <t xml:space="preserve">nicotine replace therapy </t>
         </is>
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>Generically dependent continuant</t>
+          <t>Role</t>
         </is>
       </c>
       <c r="F201" t="inlineStr">
@@ -5075,9 +5150,14 @@
           <t>Intervention</t>
         </is>
       </c>
+      <c r="M201" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="P201" t="inlineStr">
         <is>
-          <t>JH</t>
+          <t>SC</t>
         </is>
       </c>
       <c r="Q201" t="inlineStr">
@@ -5089,7 +5169,7 @@
     <row r="202">
       <c r="B202" t="inlineStr">
         <is>
-          <t>opioid maintenance programme</t>
+          <t>period of alcohol control measure implementation</t>
         </is>
       </c>
       <c r="F202" t="inlineStr">
@@ -5097,16 +5177,31 @@
           <t>Intervention</t>
         </is>
       </c>
-      <c r="Q202" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
     </row>
     <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>ADDICTO:0000493</t>
+        </is>
+      </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>opioid substitution therapy</t>
+          <t>persuasion</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>An intervention function that involves using words and images to change the way people feel about a behaviour to make it more or less attractive.</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>intervention function</t>
+        </is>
+      </c>
+      <c r="E203" t="inlineStr">
+        <is>
+          <t>Process</t>
         </is>
       </c>
       <c r="F203" t="inlineStr">
@@ -5114,9 +5209,14 @@
           <t>Intervention</t>
         </is>
       </c>
-      <c r="I203" t="inlineStr">
-        <is>
-          <t>OST</t>
+      <c r="G203" t="inlineStr">
+        <is>
+          <t>www.behaviourchange.com</t>
+        </is>
+      </c>
+      <c r="P203" t="inlineStr">
+        <is>
+          <t>RW</t>
         </is>
       </c>
       <c r="Q203" t="inlineStr">
@@ -5128,13 +5228,16 @@
     <row r="204">
       <c r="B204" t="inlineStr">
         <is>
-          <t>opioid treatment</t>
+          <t>pharmacological</t>
         </is>
       </c>
       <c r="F204" t="inlineStr">
         <is>
           <t>Intervention</t>
         </is>
+      </c>
+      <c r="M204" t="n">
+        <v>1</v>
       </c>
       <c r="Q204" t="inlineStr">
         <is>
@@ -5145,7 +5248,7 @@
     <row r="205">
       <c r="B205" t="inlineStr">
         <is>
-          <t>opioid treatment admission</t>
+          <t>pharmacological support for cessation</t>
         </is>
       </c>
       <c r="F205" t="inlineStr">
@@ -5153,6 +5256,9 @@
           <t>Intervention</t>
         </is>
       </c>
+      <c r="M205" t="n">
+        <v>1</v>
+      </c>
       <c r="Q205" t="inlineStr">
         <is>
           <t>Proposed</t>
@@ -5160,9 +5266,29 @@
       </c>
     </row>
     <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>ADDICTO:0000459</t>
+        </is>
+      </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>opioid treatment programme</t>
+          <t>pharmacy access law</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>A law that aims to facilitate distribution of a product through retail pharmacy channels.</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>law</t>
+        </is>
+      </c>
+      <c r="E206" t="inlineStr">
+        <is>
+          <t>Generically dependent continuant</t>
         </is>
       </c>
       <c r="F206" t="inlineStr">
@@ -5170,36 +5296,11 @@
           <t>Intervention</t>
         </is>
       </c>
-      <c r="Q206" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
     </row>
     <row r="207">
-      <c r="A207" t="inlineStr">
-        <is>
-          <t>ADDICTO:0000270</t>
-        </is>
-      </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>over the counter nicotine replacement therapy</t>
-        </is>
-      </c>
-      <c r="C207" t="inlineStr">
-        <is>
-          <t xml:space="preserve">A nicotine replacement therapy product that can be sold to a person without the need for a prescription. </t>
-        </is>
-      </c>
-      <c r="D207" t="inlineStr">
-        <is>
-          <t xml:space="preserve">nicotine replace therapy </t>
-        </is>
-      </c>
-      <c r="E207" t="inlineStr">
-        <is>
-          <t>Role</t>
+          <t>pharmocotherapy</t>
         </is>
       </c>
       <c r="F207" t="inlineStr">
@@ -5207,15 +5308,8 @@
           <t>Intervention</t>
         </is>
       </c>
-      <c r="M207" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="P207" t="inlineStr">
-        <is>
-          <t>SC</t>
-        </is>
+      <c r="M207" t="n">
+        <v>1</v>
       </c>
       <c r="Q207" t="inlineStr">
         <is>
@@ -5226,39 +5320,42 @@
     <row r="208">
       <c r="B208" t="inlineStr">
         <is>
-          <t>period of alcohol control measure implementation</t>
+          <t>plain packaging legislation</t>
         </is>
       </c>
       <c r="F208" t="inlineStr">
         <is>
           <t>Intervention</t>
+        </is>
+      </c>
+      <c r="M208" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q208" t="inlineStr">
+        <is>
+          <t>Proposed</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>ADDICTO:0000493</t>
+          <t>ADDICTO:0000456</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>persuasion</t>
+          <t>policy</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>An intervention function that involves using words and images to change the way people feel about a behaviour to make it more or less attractive.</t>
+          <t>An action specification that an organisation produces that includes rules and regulations concerning activities of agents under the organisation's jurisdiction.</t>
         </is>
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>intervention function</t>
-        </is>
-      </c>
-      <c r="E209" t="inlineStr">
-        <is>
-          <t>Process</t>
+          <t>action specification</t>
         </is>
       </c>
       <c r="F209" t="inlineStr">
@@ -5266,15 +5363,8 @@
           <t>Intervention</t>
         </is>
       </c>
-      <c r="G209" t="inlineStr">
-        <is>
-          <t>www.behaviourchange.com</t>
-        </is>
-      </c>
-      <c r="P209" t="inlineStr">
-        <is>
-          <t>RW</t>
-        </is>
+      <c r="M209" t="n">
+        <v>1</v>
       </c>
       <c r="Q209" t="inlineStr">
         <is>
@@ -5285,7 +5375,7 @@
     <row r="210">
       <c r="B210" t="inlineStr">
         <is>
-          <t>pharmacological</t>
+          <t>policy aim</t>
         </is>
       </c>
       <c r="F210" t="inlineStr">
@@ -5305,7 +5395,7 @@
     <row r="211">
       <c r="B211" t="inlineStr">
         <is>
-          <t>pharmacological support for cessation</t>
+          <t>policy context</t>
         </is>
       </c>
       <c r="F211" t="inlineStr">
@@ -5323,41 +5413,29 @@
       </c>
     </row>
     <row r="212">
-      <c r="A212" t="inlineStr">
-        <is>
-          <t>ADDICTO:0000459</t>
-        </is>
-      </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>pharmacy access law</t>
-        </is>
-      </c>
-      <c r="C212" t="inlineStr">
-        <is>
-          <t>A law that aims to facilitate distribution of a product through retail pharmacy channels.</t>
-        </is>
-      </c>
-      <c r="D212" t="inlineStr">
-        <is>
-          <t>law</t>
-        </is>
-      </c>
-      <c r="E212" t="inlineStr">
-        <is>
-          <t>Generically dependent continuant</t>
+          <t>policy debate</t>
         </is>
       </c>
       <c r="F212" t="inlineStr">
         <is>
           <t>Intervention</t>
+        </is>
+      </c>
+      <c r="M212" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q212" t="inlineStr">
+        <is>
+          <t>Proposed</t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="B213" t="inlineStr">
         <is>
-          <t>pharmocotherapy</t>
+          <t>policy guideline</t>
         </is>
       </c>
       <c r="F213" t="inlineStr">
@@ -5377,7 +5455,7 @@
     <row r="214">
       <c r="B214" t="inlineStr">
         <is>
-          <t>plain packaging legislation</t>
+          <t>political influence</t>
         </is>
       </c>
       <c r="F214" t="inlineStr">
@@ -5395,33 +5473,15 @@
       </c>
     </row>
     <row r="215">
-      <c r="A215" t="inlineStr">
-        <is>
-          <t>ADDICTO:0000456</t>
-        </is>
-      </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>policy</t>
-        </is>
-      </c>
-      <c r="C215" t="inlineStr">
-        <is>
-          <t>An action specification that an organisation produces that includes rules and regulations concerning activities of agents under the organisation's jurisdiction.</t>
-        </is>
-      </c>
-      <c r="D215" t="inlineStr">
-        <is>
-          <t>action specification</t>
+          <t>post-injection bleeding management</t>
         </is>
       </c>
       <c r="F215" t="inlineStr">
         <is>
           <t>Intervention</t>
         </is>
-      </c>
-      <c r="M215" t="n">
-        <v>1</v>
       </c>
       <c r="Q215" t="inlineStr">
         <is>
@@ -5432,16 +5492,13 @@
     <row r="216">
       <c r="B216" t="inlineStr">
         <is>
-          <t>policy aim</t>
+          <t>post-intervention</t>
         </is>
       </c>
       <c r="F216" t="inlineStr">
         <is>
           <t>Intervention</t>
         </is>
-      </c>
-      <c r="M216" t="n">
-        <v>1</v>
       </c>
       <c r="Q216" t="inlineStr">
         <is>
@@ -5452,7 +5509,7 @@
     <row r="217">
       <c r="B217" t="inlineStr">
         <is>
-          <t>policy context</t>
+          <t>post-treatement</t>
         </is>
       </c>
       <c r="F217" t="inlineStr">
@@ -5472,7 +5529,7 @@
     <row r="218">
       <c r="B218" t="inlineStr">
         <is>
-          <t>policy debate</t>
+          <t>preclinical efficacy</t>
         </is>
       </c>
       <c r="F218" t="inlineStr">
@@ -5480,9 +5537,6 @@
           <t>Intervention</t>
         </is>
       </c>
-      <c r="M218" t="n">
-        <v>1</v>
-      </c>
       <c r="Q218" t="inlineStr">
         <is>
           <t>Proposed</t>
@@ -5490,9 +5544,29 @@
       </c>
     </row>
     <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>ADDICTO:0000277</t>
+        </is>
+      </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>policy guideline</t>
+          <t>prescription nicotine replacement therapy</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A nicotine replacement therapy that is prescribed to a person by a medical practitioner. </t>
+        </is>
+      </c>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t xml:space="preserve">nicotine replace therapy </t>
+        </is>
+      </c>
+      <c r="E219" t="inlineStr">
+        <is>
+          <t>Role</t>
         </is>
       </c>
       <c r="F219" t="inlineStr">
@@ -5500,8 +5574,20 @@
           <t>Intervention</t>
         </is>
       </c>
-      <c r="M219" t="n">
-        <v>1</v>
+      <c r="I219" t="inlineStr">
+        <is>
+          <t>Prescription NRT</t>
+        </is>
+      </c>
+      <c r="M219" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="P219" t="inlineStr">
+        <is>
+          <t>SC</t>
+        </is>
       </c>
       <c r="Q219" t="inlineStr">
         <is>
@@ -5512,7 +5598,7 @@
     <row r="220">
       <c r="B220" t="inlineStr">
         <is>
-          <t>political influence</t>
+          <t>prevention</t>
         </is>
       </c>
       <c r="F220" t="inlineStr">
@@ -5530,15 +5616,38 @@
       </c>
     </row>
     <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>ADDICTO:0000457</t>
+        </is>
+      </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>post-injection bleeding management</t>
+          <t>prior product authorisation law</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>A law that creates a requirement on product manufacturers to pre-notify a relevant authority of the product characteristics and receive approval before marketing a product.</t>
+        </is>
+      </c>
+      <c r="D221" t="inlineStr">
+        <is>
+          <t>law</t>
+        </is>
+      </c>
+      <c r="E221" t="inlineStr">
+        <is>
+          <t>Generically dependent continuant</t>
         </is>
       </c>
       <c r="F221" t="inlineStr">
         <is>
           <t>Intervention</t>
         </is>
+      </c>
+      <c r="M221" t="n">
+        <v>1</v>
       </c>
       <c r="Q221" t="inlineStr">
         <is>
@@ -5549,13 +5658,16 @@
     <row r="222">
       <c r="B222" t="inlineStr">
         <is>
-          <t>post-intervention</t>
+          <t>private restrictions on smoking</t>
         </is>
       </c>
       <c r="F222" t="inlineStr">
         <is>
           <t>Intervention</t>
         </is>
+      </c>
+      <c r="M222" t="n">
+        <v>1</v>
       </c>
       <c r="Q222" t="inlineStr">
         <is>
@@ -5566,7 +5678,7 @@
     <row r="223">
       <c r="B223" t="inlineStr">
         <is>
-          <t>post-treatement</t>
+          <t>proactive tobacco cessation outreach</t>
         </is>
       </c>
       <c r="F223" t="inlineStr">
@@ -5586,7 +5698,7 @@
     <row r="224">
       <c r="B224" t="inlineStr">
         <is>
-          <t>preclinical efficacy</t>
+          <t>progression prevention</t>
         </is>
       </c>
       <c r="F224" t="inlineStr">
@@ -5601,29 +5713,9 @@
       </c>
     </row>
     <row r="225">
-      <c r="A225" t="inlineStr">
-        <is>
-          <t>ADDICTO:0000277</t>
-        </is>
-      </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>prescription nicotine replacement therapy</t>
-        </is>
-      </c>
-      <c r="C225" t="inlineStr">
-        <is>
-          <t xml:space="preserve">A nicotine replacement therapy that is prescribed to a person by a medical practitioner. </t>
-        </is>
-      </c>
-      <c r="D225" t="inlineStr">
-        <is>
-          <t xml:space="preserve">nicotine replace therapy </t>
-        </is>
-      </c>
-      <c r="E225" t="inlineStr">
-        <is>
-          <t>Role</t>
+          <t>prohibition</t>
         </is>
       </c>
       <c r="F225" t="inlineStr">
@@ -5631,20 +5723,8 @@
           <t>Intervention</t>
         </is>
       </c>
-      <c r="I225" t="inlineStr">
-        <is>
-          <t>Prescription NRT</t>
-        </is>
-      </c>
-      <c r="M225" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="P225" t="inlineStr">
-        <is>
-          <t>SC</t>
-        </is>
+      <c r="M225" t="n">
+        <v>1</v>
       </c>
       <c r="Q225" t="inlineStr">
         <is>
@@ -5655,7 +5735,7 @@
     <row r="226">
       <c r="B226" t="inlineStr">
         <is>
-          <t>prevention</t>
+          <t>prohibition-based policy</t>
         </is>
       </c>
       <c r="F226" t="inlineStr">
@@ -5675,36 +5755,28 @@
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>ADDICTO:0000457</t>
+          <t>ADDICTO:0000494</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>prior product authorisation law</t>
+          <t>public health</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>A law that creates a requirement on product manufacturers to pre-notify a relevant authority of the product characteristics and receive approval before marketing a product.</t>
+          <t>A branch of clinical policy and practice dealing with population health, including hygiene, epidemiology, and disease prevention</t>
         </is>
       </c>
       <c r="D227" t="inlineStr">
         <is>
-          <t>law</t>
-        </is>
-      </c>
-      <c r="E227" t="inlineStr">
-        <is>
-          <t>Generically dependent continuant</t>
+          <t>branch of clinical policy and practice</t>
         </is>
       </c>
       <c r="F227" t="inlineStr">
         <is>
           <t>Intervention</t>
         </is>
-      </c>
-      <c r="M227" t="n">
-        <v>1</v>
       </c>
       <c r="Q227" t="inlineStr">
         <is>
@@ -5715,7 +5787,7 @@
     <row r="228">
       <c r="B228" t="inlineStr">
         <is>
-          <t>private restrictions on smoking</t>
+          <t>public healthcare system</t>
         </is>
       </c>
       <c r="F228" t="inlineStr">
@@ -5735,7 +5807,7 @@
     <row r="229">
       <c r="B229" t="inlineStr">
         <is>
-          <t>proactive tobacco cessation outreach</t>
+          <t>publicly funded health insurance plan</t>
         </is>
       </c>
       <c r="F229" t="inlineStr">
@@ -5755,24 +5827,32 @@
     <row r="230">
       <c r="B230" t="inlineStr">
         <is>
-          <t>progression prevention</t>
-        </is>
-      </c>
-      <c r="F230" t="inlineStr">
-        <is>
-          <t>Intervention</t>
-        </is>
-      </c>
-      <c r="Q230" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
+          <t>radio advertising</t>
+        </is>
+      </c>
+      <c r="D230" t="inlineStr">
+        <is>
+          <t>advertising</t>
+        </is>
+      </c>
+      <c r="H230" t="inlineStr">
+        <is>
+          <t>Product</t>
+        </is>
+      </c>
+      <c r="J230" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="Q230" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="231">
       <c r="B231" t="inlineStr">
         <is>
-          <t>prohibition</t>
+          <t>regional NHS Substance Misuse Service</t>
         </is>
       </c>
       <c r="F231" t="inlineStr">
@@ -5780,9 +5860,6 @@
           <t>Intervention</t>
         </is>
       </c>
-      <c r="M231" t="n">
-        <v>1</v>
-      </c>
       <c r="Q231" t="inlineStr">
         <is>
           <t>Proposed</t>
@@ -5790,9 +5867,29 @@
       </c>
     </row>
     <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>ADDICTO:0000496</t>
+        </is>
+      </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>prohibition-based policy</t>
+          <t>regulation</t>
+        </is>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>An intevention function involving development and implementation of rules regarding behaviour that instruct the behaviour and possibly provide rewards and punishments for conforming.</t>
+        </is>
+      </c>
+      <c r="D232" t="inlineStr">
+        <is>
+          <t>intervention function</t>
+        </is>
+      </c>
+      <c r="E232" t="inlineStr">
+        <is>
+          <t>Process</t>
         </is>
       </c>
       <c r="F232" t="inlineStr">
@@ -5800,8 +5897,15 @@
           <t>Intervention</t>
         </is>
       </c>
-      <c r="M232" t="n">
-        <v>1</v>
+      <c r="G232" t="inlineStr">
+        <is>
+          <t>behaviourchangewheel.com</t>
+        </is>
+      </c>
+      <c r="P232" t="inlineStr">
+        <is>
+          <t>RW</t>
+        </is>
       </c>
       <c r="Q232" t="inlineStr">
         <is>
@@ -5810,30 +5914,23 @@
       </c>
     </row>
     <row r="233">
-      <c r="A233" t="inlineStr">
-        <is>
-          <t>ADDICTO:0000494</t>
-        </is>
-      </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>public health</t>
-        </is>
-      </c>
-      <c r="C233" t="inlineStr">
-        <is>
-          <t>A branch of clinical policy and practice dealing with population health, including hygiene, epidemiology, and disease prevention</t>
-        </is>
-      </c>
-      <c r="D233" t="inlineStr">
-        <is>
-          <t>branch of clinical policy and practice</t>
+          <t>regulatory policy</t>
         </is>
       </c>
       <c r="F233" t="inlineStr">
         <is>
           <t>Intervention</t>
         </is>
+      </c>
+      <c r="I233" t="inlineStr">
+        <is>
+          <t>Regulation</t>
+        </is>
+      </c>
+      <c r="M233" t="n">
+        <v>1</v>
       </c>
       <c r="Q233" t="inlineStr">
         <is>
@@ -5844,7 +5941,7 @@
     <row r="234">
       <c r="B234" t="inlineStr">
         <is>
-          <t>public healthcare system</t>
+          <t>relapse prevention</t>
         </is>
       </c>
       <c r="F234" t="inlineStr">
@@ -5864,7 +5961,7 @@
     <row r="235">
       <c r="B235" t="inlineStr">
         <is>
-          <t>publicly funded health insurance plan</t>
+          <t>repetitive transcranial magnetic stimulation (rTMS)</t>
         </is>
       </c>
       <c r="F235" t="inlineStr">
@@ -5872,9 +5969,6 @@
           <t>Intervention</t>
         </is>
       </c>
-      <c r="M235" t="n">
-        <v>1</v>
-      </c>
       <c r="Q235" t="inlineStr">
         <is>
           <t>Proposed</t>
@@ -5882,34 +5976,56 @@
       </c>
     </row>
     <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>ADDICTO:0000497</t>
+        </is>
+      </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>radio advertising</t>
+          <t>restriction</t>
+        </is>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>An intervention function that involves constraining performance of a behaviour by setting rules.</t>
         </is>
       </c>
       <c r="D236" t="inlineStr">
         <is>
-          <t>advertising</t>
-        </is>
-      </c>
-      <c r="H236" t="inlineStr">
-        <is>
-          <t>Product</t>
-        </is>
-      </c>
-      <c r="J236" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="Q236" t="n">
-        <v>1</v>
+          <t>intervention function</t>
+        </is>
+      </c>
+      <c r="E236" t="inlineStr">
+        <is>
+          <t>Process</t>
+        </is>
+      </c>
+      <c r="F236" t="inlineStr">
+        <is>
+          <t>Intervention</t>
+        </is>
+      </c>
+      <c r="G236" t="inlineStr">
+        <is>
+          <t>www.behaviourchange.com</t>
+        </is>
+      </c>
+      <c r="P236" t="inlineStr">
+        <is>
+          <t>RW</t>
+        </is>
+      </c>
+      <c r="Q236" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
       </c>
     </row>
     <row r="237">
       <c r="B237" t="inlineStr">
         <is>
-          <t>regional NHS Substance Misuse Service</t>
+          <t>restriction on product availability</t>
         </is>
       </c>
       <c r="F237" t="inlineStr">
@@ -5917,6 +6033,11 @@
           <t>Intervention</t>
         </is>
       </c>
+      <c r="P237" t="inlineStr">
+        <is>
+          <t>JH</t>
+        </is>
+      </c>
       <c r="Q237" t="inlineStr">
         <is>
           <t>Proposed</t>
@@ -5924,44 +6045,14 @@
       </c>
     </row>
     <row r="238">
-      <c r="A238" t="inlineStr">
-        <is>
-          <t>ADDICTO:0000496</t>
-        </is>
-      </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>regulation</t>
-        </is>
-      </c>
-      <c r="C238" t="inlineStr">
-        <is>
-          <t>An intevention function involving development and implementation of rules regarding behaviour that instruct the behaviour and possibly provide rewards and punishments for conforming.</t>
-        </is>
-      </c>
-      <c r="D238" t="inlineStr">
-        <is>
-          <t>intervention function</t>
-        </is>
-      </c>
-      <c r="E238" t="inlineStr">
-        <is>
-          <t>Process</t>
+          <t>resuscitation</t>
         </is>
       </c>
       <c r="F238" t="inlineStr">
         <is>
           <t>Intervention</t>
-        </is>
-      </c>
-      <c r="G238" t="inlineStr">
-        <is>
-          <t>behaviourchangewheel.com</t>
-        </is>
-      </c>
-      <c r="P238" t="inlineStr">
-        <is>
-          <t>RW</t>
         </is>
       </c>
       <c r="Q238" t="inlineStr">
@@ -5973,17 +6064,12 @@
     <row r="239">
       <c r="B239" t="inlineStr">
         <is>
-          <t>regulatory policy</t>
+          <t>retention in treatment</t>
         </is>
       </c>
       <c r="F239" t="inlineStr">
         <is>
           <t>Intervention</t>
-        </is>
-      </c>
-      <c r="I239" t="inlineStr">
-        <is>
-          <t>Regulation</t>
         </is>
       </c>
       <c r="M239" t="n">
@@ -5998,12 +6084,17 @@
     <row r="240">
       <c r="B240" t="inlineStr">
         <is>
-          <t>relapse prevention</t>
+          <t>return on investment</t>
         </is>
       </c>
       <c r="F240" t="inlineStr">
         <is>
           <t>Intervention</t>
+        </is>
+      </c>
+      <c r="I240" t="inlineStr">
+        <is>
+          <t>ROI</t>
         </is>
       </c>
       <c r="M240" t="n">
@@ -6018,7 +6109,7 @@
     <row r="241">
       <c r="B241" t="inlineStr">
         <is>
-          <t>repetitive transcranial magnetic stimulation (rTMS)</t>
+          <t>risk of dropout from opioid use disorder treatment</t>
         </is>
       </c>
       <c r="F241" t="inlineStr">
@@ -6033,44 +6124,14 @@
       </c>
     </row>
     <row r="242">
-      <c r="A242" t="inlineStr">
-        <is>
-          <t>ADDICTO:0000497</t>
-        </is>
-      </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>restriction</t>
-        </is>
-      </c>
-      <c r="C242" t="inlineStr">
-        <is>
-          <t>An intervention function that involves constraining performance of a behaviour by setting rules.</t>
-        </is>
-      </c>
-      <c r="D242" t="inlineStr">
-        <is>
-          <t>intervention function</t>
-        </is>
-      </c>
-      <c r="E242" t="inlineStr">
-        <is>
-          <t>Process</t>
+          <t>safer injecting counselling</t>
         </is>
       </c>
       <c r="F242" t="inlineStr">
         <is>
           <t>Intervention</t>
-        </is>
-      </c>
-      <c r="G242" t="inlineStr">
-        <is>
-          <t>www.behaviourchange.com</t>
-        </is>
-      </c>
-      <c r="P242" t="inlineStr">
-        <is>
-          <t>RW</t>
         </is>
       </c>
       <c r="Q242" t="inlineStr">
@@ -6082,7 +6143,7 @@
     <row r="243">
       <c r="B243" t="inlineStr">
         <is>
-          <t>restriction on product availability</t>
+          <t>save injecting site</t>
         </is>
       </c>
       <c r="F243" t="inlineStr">
@@ -6090,11 +6151,6 @@
           <t>Intervention</t>
         </is>
       </c>
-      <c r="P243" t="inlineStr">
-        <is>
-          <t>JH</t>
-        </is>
-      </c>
       <c r="Q243" t="inlineStr">
         <is>
           <t>Proposed</t>
@@ -6102,15 +6158,38 @@
       </c>
     </row>
     <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>ADDICTO:0000460</t>
+        </is>
+      </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>resuscitation</t>
+          <t>scalable intervention</t>
+        </is>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>An intervention that it is practicable and affordable to implement so that it reaches the intended target population</t>
+        </is>
+      </c>
+      <c r="D244" t="inlineStr">
+        <is>
+          <t>Intervention</t>
+        </is>
+      </c>
+      <c r="E244" t="inlineStr">
+        <is>
+          <t>Independent continuant</t>
         </is>
       </c>
       <c r="F244" t="inlineStr">
         <is>
           <t>Intervention</t>
         </is>
+      </c>
+      <c r="M244" t="n">
+        <v>1</v>
       </c>
       <c r="Q244" t="inlineStr">
         <is>
@@ -6121,16 +6200,13 @@
     <row r="245">
       <c r="B245" t="inlineStr">
         <is>
-          <t>retention in treatment</t>
+          <t>scale-up of intervention</t>
         </is>
       </c>
       <c r="F245" t="inlineStr">
         <is>
           <t>Intervention</t>
         </is>
-      </c>
-      <c r="M245" t="n">
-        <v>1</v>
       </c>
       <c r="Q245" t="inlineStr">
         <is>
@@ -6141,21 +6217,13 @@
     <row r="246">
       <c r="B246" t="inlineStr">
         <is>
-          <t>return on investment</t>
+          <t>screening and brief advice delivery rate</t>
         </is>
       </c>
       <c r="F246" t="inlineStr">
         <is>
           <t>Intervention</t>
         </is>
-      </c>
-      <c r="I246" t="inlineStr">
-        <is>
-          <t>ROI</t>
-        </is>
-      </c>
-      <c r="M246" t="n">
-        <v>1</v>
       </c>
       <c r="Q246" t="inlineStr">
         <is>
@@ -6166,7 +6234,7 @@
     <row r="247">
       <c r="B247" t="inlineStr">
         <is>
-          <t>risk of dropout from opioid use disorder treatment</t>
+          <t>screening for alcohol use</t>
         </is>
       </c>
       <c r="F247" t="inlineStr">
@@ -6183,7 +6251,7 @@
     <row r="248">
       <c r="B248" t="inlineStr">
         <is>
-          <t>safer injecting counselling</t>
+          <t>self-help intervention</t>
         </is>
       </c>
       <c r="F248" t="inlineStr">
@@ -6200,13 +6268,16 @@
     <row r="249">
       <c r="B249" t="inlineStr">
         <is>
-          <t>save injecting site</t>
+          <t>service impact</t>
         </is>
       </c>
       <c r="F249" t="inlineStr">
         <is>
           <t>Intervention</t>
         </is>
+      </c>
+      <c r="M249" t="n">
+        <v>1</v>
       </c>
       <c r="Q249" t="inlineStr">
         <is>
@@ -6217,27 +6288,27 @@
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>ADDICTO:0000460</t>
+          <t>ADDICTO:0000498</t>
         </is>
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>scalable intervention</t>
+          <t>service provision</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>An intervention that it is practicable and affordable to implement so that it reaches the intended target population</t>
+          <t>An intevention function involving provision of services, materials and/or social resource and aids, whether they be structured or ad hoc, financed or unpaid.</t>
         </is>
       </c>
       <c r="D250" t="inlineStr">
         <is>
-          <t>Intervention</t>
+          <t>intervention function</t>
         </is>
       </c>
       <c r="E250" t="inlineStr">
         <is>
-          <t>Independent continuant</t>
+          <t>Process</t>
         </is>
       </c>
       <c r="F250" t="inlineStr">
@@ -6245,8 +6316,15 @@
           <t>Intervention</t>
         </is>
       </c>
-      <c r="M250" t="n">
-        <v>1</v>
+      <c r="G250" t="inlineStr">
+        <is>
+          <t>behaviourchangewheel.com</t>
+        </is>
+      </c>
+      <c r="P250" t="inlineStr">
+        <is>
+          <t>RW</t>
+        </is>
       </c>
       <c r="Q250" t="inlineStr">
         <is>
@@ -6257,7 +6335,7 @@
     <row r="251">
       <c r="B251" t="inlineStr">
         <is>
-          <t>scale-up of intervention</t>
+          <t>sham stimulation</t>
         </is>
       </c>
       <c r="F251" t="inlineStr">
@@ -6274,7 +6352,7 @@
     <row r="252">
       <c r="B252" t="inlineStr">
         <is>
-          <t>screening and brief advice delivery rate</t>
+          <t>short-term inpatient detoxification programme</t>
         </is>
       </c>
       <c r="F252" t="inlineStr">
@@ -6291,7 +6369,7 @@
     <row r="253">
       <c r="B253" t="inlineStr">
         <is>
-          <t>screening for alcohol use</t>
+          <t>single methadone maintenance treatment programme</t>
         </is>
       </c>
       <c r="F253" t="inlineStr">
@@ -6308,7 +6386,7 @@
     <row r="254">
       <c r="B254" t="inlineStr">
         <is>
-          <t>self-help intervention</t>
+          <t>six-month treatment outcome</t>
         </is>
       </c>
       <c r="F254" t="inlineStr">
@@ -6325,7 +6403,7 @@
     <row r="255">
       <c r="B255" t="inlineStr">
         <is>
-          <t>service impact</t>
+          <t>small effect</t>
         </is>
       </c>
       <c r="F255" t="inlineStr">
@@ -6333,9 +6411,6 @@
           <t>Intervention</t>
         </is>
       </c>
-      <c r="M255" t="n">
-        <v>1</v>
-      </c>
       <c r="Q255" t="inlineStr">
         <is>
           <t>Proposed</t>
@@ -6343,29 +6418,9 @@
       </c>
     </row>
     <row r="256">
-      <c r="A256" t="inlineStr">
-        <is>
-          <t>ADDICTO:0000498</t>
-        </is>
-      </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>service provision</t>
-        </is>
-      </c>
-      <c r="C256" t="inlineStr">
-        <is>
-          <t>An intevention function involving provision of services, materials and/or social resource and aids, whether they be structured or ad hoc, financed or unpaid.</t>
-        </is>
-      </c>
-      <c r="D256" t="inlineStr">
-        <is>
-          <t>intervention function</t>
-        </is>
-      </c>
-      <c r="E256" t="inlineStr">
-        <is>
-          <t>Process</t>
+          <t>smokefree home</t>
         </is>
       </c>
       <c r="F256" t="inlineStr">
@@ -6373,15 +6428,8 @@
           <t>Intervention</t>
         </is>
       </c>
-      <c r="G256" t="inlineStr">
-        <is>
-          <t>behaviourchangewheel.com</t>
-        </is>
-      </c>
-      <c r="P256" t="inlineStr">
-        <is>
-          <t>RW</t>
-        </is>
+      <c r="M256" t="n">
+        <v>1</v>
       </c>
       <c r="Q256" t="inlineStr">
         <is>
@@ -6392,7 +6440,7 @@
     <row r="257">
       <c r="B257" t="inlineStr">
         <is>
-          <t>sham stimulation</t>
+          <t>smoking ban in indoor public areas</t>
         </is>
       </c>
       <c r="F257" t="inlineStr">
@@ -6400,6 +6448,14 @@
           <t>Intervention</t>
         </is>
       </c>
+      <c r="I257" t="inlineStr">
+        <is>
+          <t>Smoking ban</t>
+        </is>
+      </c>
+      <c r="M257" t="n">
+        <v>1</v>
+      </c>
       <c r="Q257" t="inlineStr">
         <is>
           <t>Proposed</t>
@@ -6407,14 +6463,49 @@
       </c>
     </row>
     <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>ADDICTO:0000293</t>
+        </is>
+      </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>short-term inpatient detoxification programme</t>
+          <t>smoking cessation aid</t>
+        </is>
+      </c>
+      <c r="C258" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A product that is used by a person for the purpose of quitting smoking. </t>
+        </is>
+      </c>
+      <c r="D258" t="inlineStr">
+        <is>
+          <t>role</t>
+        </is>
+      </c>
+      <c r="E258" t="inlineStr">
+        <is>
+          <t>Independent continuant</t>
         </is>
       </c>
       <c r="F258" t="inlineStr">
         <is>
           <t>Intervention</t>
+        </is>
+      </c>
+      <c r="I258" t="inlineStr">
+        <is>
+          <t>NRT product</t>
+        </is>
+      </c>
+      <c r="M258" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="P258" t="inlineStr">
+        <is>
+          <t>SC</t>
         </is>
       </c>
       <c r="Q258" t="inlineStr">
@@ -6426,13 +6517,21 @@
     <row r="259">
       <c r="B259" t="inlineStr">
         <is>
-          <t>single methadone maintenance treatment programme</t>
+          <t>smoking cessation service</t>
         </is>
       </c>
       <c r="F259" t="inlineStr">
         <is>
           <t>Intervention</t>
         </is>
+      </c>
+      <c r="I259" t="inlineStr">
+        <is>
+          <t>Stop-smoking service;SSS;Stop-smoking-treatment service</t>
+        </is>
+      </c>
+      <c r="M259" t="n">
+        <v>1</v>
       </c>
       <c r="Q259" t="inlineStr">
         <is>
@@ -6443,13 +6542,16 @@
     <row r="260">
       <c r="B260" t="inlineStr">
         <is>
-          <t>six-month treatment outcome</t>
+          <t>smoking cessation treatment</t>
         </is>
       </c>
       <c r="F260" t="inlineStr">
         <is>
           <t>Intervention</t>
         </is>
+      </c>
+      <c r="M260" t="n">
+        <v>1</v>
       </c>
       <c r="Q260" t="inlineStr">
         <is>
@@ -6460,7 +6562,7 @@
     <row r="261">
       <c r="B261" t="inlineStr">
         <is>
-          <t>small effect</t>
+          <t>specialist stop smoking support</t>
         </is>
       </c>
       <c r="F261" t="inlineStr">
@@ -6477,16 +6579,13 @@
     <row r="262">
       <c r="B262" t="inlineStr">
         <is>
-          <t>smokefree home</t>
+          <t>staff supervision of injecting</t>
         </is>
       </c>
       <c r="F262" t="inlineStr">
         <is>
           <t>Intervention</t>
         </is>
-      </c>
-      <c r="M262" t="n">
-        <v>1</v>
       </c>
       <c r="Q262" t="inlineStr">
         <is>
@@ -6497,7 +6596,7 @@
     <row r="263">
       <c r="B263" t="inlineStr">
         <is>
-          <t>smoking ban in indoor public areas</t>
+          <t>standard of care</t>
         </is>
       </c>
       <c r="F263" t="inlineStr">
@@ -6505,14 +6604,6 @@
           <t>Intervention</t>
         </is>
       </c>
-      <c r="I263" t="inlineStr">
-        <is>
-          <t>Smoking ban</t>
-        </is>
-      </c>
-      <c r="M263" t="n">
-        <v>1</v>
-      </c>
       <c r="Q263" t="inlineStr">
         <is>
           <t>Proposed</t>
@@ -6520,29 +6611,9 @@
       </c>
     </row>
     <row r="264">
-      <c r="A264" t="inlineStr">
-        <is>
-          <t>ADDICTO:0000293</t>
-        </is>
-      </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>smoking cessation aid</t>
-        </is>
-      </c>
-      <c r="C264" t="inlineStr">
-        <is>
-          <t xml:space="preserve">A product that is used by a person for the purpose of quitting smoking. </t>
-        </is>
-      </c>
-      <c r="D264" t="inlineStr">
-        <is>
-          <t>role</t>
-        </is>
-      </c>
-      <c r="E264" t="inlineStr">
-        <is>
-          <t>Independent continuant</t>
+          <t>standardized packaging legislation</t>
         </is>
       </c>
       <c r="F264" t="inlineStr">
@@ -6550,20 +6621,8 @@
           <t>Intervention</t>
         </is>
       </c>
-      <c r="I264" t="inlineStr">
-        <is>
-          <t>NRT product</t>
-        </is>
-      </c>
-      <c r="M264" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="P264" t="inlineStr">
-        <is>
-          <t>SC</t>
-        </is>
+      <c r="M264" t="n">
+        <v>1</v>
       </c>
       <c r="Q264" t="inlineStr">
         <is>
@@ -6574,17 +6633,12 @@
     <row r="265">
       <c r="B265" t="inlineStr">
         <is>
-          <t>smoking cessation service</t>
+          <t>start of treatment</t>
         </is>
       </c>
       <c r="F265" t="inlineStr">
         <is>
           <t>Intervention</t>
-        </is>
-      </c>
-      <c r="I265" t="inlineStr">
-        <is>
-          <t>Stop-smoking service;SSS;Stop-smoking-treatment service</t>
         </is>
       </c>
       <c r="M265" t="n">
@@ -6599,7 +6653,7 @@
     <row r="266">
       <c r="B266" t="inlineStr">
         <is>
-          <t>smoking cessation treatment</t>
+          <t>state excise tax on tobacco</t>
         </is>
       </c>
       <c r="F266" t="inlineStr">
@@ -6619,7 +6673,7 @@
     <row r="267">
       <c r="B267" t="inlineStr">
         <is>
-          <t>specialist stop smoking support</t>
+          <t>state telephone quitline</t>
         </is>
       </c>
       <c r="F267" t="inlineStr">
@@ -6636,7 +6690,7 @@
     <row r="268">
       <c r="B268" t="inlineStr">
         <is>
-          <t>staff supervision of injecting</t>
+          <t>state-certified addiction treatment centre</t>
         </is>
       </c>
       <c r="F268" t="inlineStr">
@@ -6653,7 +6707,7 @@
     <row r="269">
       <c r="B269" t="inlineStr">
         <is>
-          <t>standard of care</t>
+          <t>state-wide medical cannabis legalization</t>
         </is>
       </c>
       <c r="F269" t="inlineStr">
@@ -6670,12 +6724,17 @@
     <row r="270">
       <c r="B270" t="inlineStr">
         <is>
-          <t>standardized packaging legislation</t>
+          <t>stop-smoking service</t>
         </is>
       </c>
       <c r="F270" t="inlineStr">
         <is>
           <t>Intervention</t>
+        </is>
+      </c>
+      <c r="I270" t="inlineStr">
+        <is>
+          <t>Stop smoking service</t>
         </is>
       </c>
       <c r="M270" t="n">
@@ -6690,16 +6749,13 @@
     <row r="271">
       <c r="B271" t="inlineStr">
         <is>
-          <t>start of treatment</t>
+          <t>substance abuse diagnosis</t>
         </is>
       </c>
       <c r="F271" t="inlineStr">
         <is>
           <t>Intervention</t>
         </is>
-      </c>
-      <c r="M271" t="n">
-        <v>1</v>
       </c>
       <c r="Q271" t="inlineStr">
         <is>
@@ -6710,16 +6766,13 @@
     <row r="272">
       <c r="B272" t="inlineStr">
         <is>
-          <t>state excise tax on tobacco</t>
+          <t>substance abuse treatment programme</t>
         </is>
       </c>
       <c r="F272" t="inlineStr">
         <is>
           <t>Intervention</t>
         </is>
-      </c>
-      <c r="M272" t="n">
-        <v>1</v>
       </c>
       <c r="Q272" t="inlineStr">
         <is>
@@ -6730,7 +6783,7 @@
     <row r="273">
       <c r="B273" t="inlineStr">
         <is>
-          <t>state telephone quitline</t>
+          <t>substance use consumption site</t>
         </is>
       </c>
       <c r="F273" t="inlineStr">
@@ -6747,7 +6800,7 @@
     <row r="274">
       <c r="B274" t="inlineStr">
         <is>
-          <t>state-certified addiction treatment centre</t>
+          <t>substance use prevention programme</t>
         </is>
       </c>
       <c r="F274" t="inlineStr">
@@ -6764,7 +6817,7 @@
     <row r="275">
       <c r="B275" t="inlineStr">
         <is>
-          <t>state-wide medical cannabis legalization</t>
+          <t>substance use treatment programme</t>
         </is>
       </c>
       <c r="F275" t="inlineStr">
@@ -6781,21 +6834,13 @@
     <row r="276">
       <c r="B276" t="inlineStr">
         <is>
-          <t>stop-smoking service</t>
+          <t>supervised consumption site</t>
         </is>
       </c>
       <c r="F276" t="inlineStr">
         <is>
           <t>Intervention</t>
         </is>
-      </c>
-      <c r="I276" t="inlineStr">
-        <is>
-          <t>Stop smoking service</t>
-        </is>
-      </c>
-      <c r="M276" t="n">
-        <v>1</v>
       </c>
       <c r="Q276" t="inlineStr">
         <is>
@@ -6806,7 +6851,7 @@
     <row r="277">
       <c r="B277" t="inlineStr">
         <is>
-          <t>substance abuse diagnosis</t>
+          <t>supervised drug-injecting practices</t>
         </is>
       </c>
       <c r="F277" t="inlineStr">
@@ -6823,7 +6868,7 @@
     <row r="278">
       <c r="B278" t="inlineStr">
         <is>
-          <t>substance abuse treatment programme</t>
+          <t>supportive care</t>
         </is>
       </c>
       <c r="F278" t="inlineStr">
@@ -6840,7 +6885,7 @@
     <row r="279">
       <c r="B279" t="inlineStr">
         <is>
-          <t>substance use consumption site</t>
+          <t>syringe-service program (SSP)</t>
         </is>
       </c>
       <c r="F279" t="inlineStr">
@@ -6857,7 +6902,7 @@
     <row r="280">
       <c r="B280" t="inlineStr">
         <is>
-          <t>substance use prevention programme</t>
+          <t>tailored intervention</t>
         </is>
       </c>
       <c r="F280" t="inlineStr">
@@ -6874,7 +6919,7 @@
     <row r="281">
       <c r="B281" t="inlineStr">
         <is>
-          <t>substance use treatment programme</t>
+          <t>targeted service</t>
         </is>
       </c>
       <c r="F281" t="inlineStr">
@@ -6891,13 +6936,16 @@
     <row r="282">
       <c r="B282" t="inlineStr">
         <is>
-          <t>supervised consumption site</t>
+          <t>tax policy</t>
         </is>
       </c>
       <c r="F282" t="inlineStr">
         <is>
           <t>Intervention</t>
         </is>
+      </c>
+      <c r="M282" t="n">
+        <v>1</v>
       </c>
       <c r="Q282" t="inlineStr">
         <is>
@@ -6908,13 +6956,16 @@
     <row r="283">
       <c r="B283" t="inlineStr">
         <is>
-          <t>supervised drug-injecting practices</t>
+          <t>tax policy recommendation</t>
         </is>
       </c>
       <c r="F283" t="inlineStr">
         <is>
           <t>Intervention</t>
         </is>
+      </c>
+      <c r="M283" t="n">
+        <v>1</v>
       </c>
       <c r="Q283" t="inlineStr">
         <is>
@@ -6925,7 +6976,7 @@
     <row r="284">
       <c r="B284" t="inlineStr">
         <is>
-          <t>supportive care</t>
+          <t>telephone counselling</t>
         </is>
       </c>
       <c r="F284" t="inlineStr">
@@ -6942,13 +6993,16 @@
     <row r="285">
       <c r="B285" t="inlineStr">
         <is>
-          <t>syringe-service program (SSP)</t>
+          <t>text message</t>
         </is>
       </c>
       <c r="F285" t="inlineStr">
         <is>
           <t>Intervention</t>
         </is>
+      </c>
+      <c r="M285" t="n">
+        <v>1</v>
       </c>
       <c r="Q285" t="inlineStr">
         <is>
@@ -6959,13 +7013,16 @@
     <row r="286">
       <c r="B286" t="inlineStr">
         <is>
-          <t>tailored intervention</t>
+          <t>text-message intervention</t>
         </is>
       </c>
       <c r="F286" t="inlineStr">
         <is>
           <t>Intervention</t>
         </is>
+      </c>
+      <c r="M286" t="n">
+        <v>1</v>
       </c>
       <c r="Q286" t="inlineStr">
         <is>
@@ -6976,13 +7033,16 @@
     <row r="287">
       <c r="B287" t="inlineStr">
         <is>
-          <t>targeted service</t>
+          <t>theoretically based text-message intervention</t>
         </is>
       </c>
       <c r="F287" t="inlineStr">
         <is>
           <t>Intervention</t>
         </is>
+      </c>
+      <c r="M287" t="n">
+        <v>1</v>
       </c>
       <c r="Q287" t="inlineStr">
         <is>
@@ -6993,16 +7053,13 @@
     <row r="288">
       <c r="B288" t="inlineStr">
         <is>
-          <t>tax policy</t>
+          <t>therapeutic interventions</t>
         </is>
       </c>
       <c r="F288" t="inlineStr">
         <is>
           <t>Intervention</t>
         </is>
-      </c>
-      <c r="M288" t="n">
-        <v>1</v>
       </c>
       <c r="Q288" t="inlineStr">
         <is>
@@ -7013,16 +7070,13 @@
     <row r="289">
       <c r="B289" t="inlineStr">
         <is>
-          <t>tax policy recommendation</t>
+          <t>therapist-delivered brief intervention</t>
         </is>
       </c>
       <c r="F289" t="inlineStr">
         <is>
           <t>Intervention</t>
         </is>
-      </c>
-      <c r="M289" t="n">
-        <v>1</v>
       </c>
       <c r="Q289" t="inlineStr">
         <is>
@@ -7033,7 +7087,7 @@
     <row r="290">
       <c r="B290" t="inlineStr">
         <is>
-          <t>telephone counselling</t>
+          <t>therapy</t>
         </is>
       </c>
       <c r="F290" t="inlineStr">
@@ -7050,36 +7104,25 @@
     <row r="291">
       <c r="B291" t="inlineStr">
         <is>
-          <t>text message</t>
+          <t>time period when intervention was delivered</t>
         </is>
       </c>
       <c r="F291" t="inlineStr">
         <is>
           <t>Intervention</t>
-        </is>
-      </c>
-      <c r="M291" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q291" t="inlineStr">
-        <is>
-          <t>Proposed</t>
         </is>
       </c>
     </row>
     <row r="292">
       <c r="B292" t="inlineStr">
         <is>
-          <t>text-message intervention</t>
+          <t>time since end of substance use treatment</t>
         </is>
       </c>
       <c r="F292" t="inlineStr">
         <is>
           <t>Intervention</t>
         </is>
-      </c>
-      <c r="M292" t="n">
-        <v>1</v>
       </c>
       <c r="Q292" t="inlineStr">
         <is>
@@ -7090,16 +7133,13 @@
     <row r="293">
       <c r="B293" t="inlineStr">
         <is>
-          <t>theoretically based text-message intervention</t>
+          <t>time to dropout from treatment</t>
         </is>
       </c>
       <c r="F293" t="inlineStr">
         <is>
           <t>Intervention</t>
         </is>
-      </c>
-      <c r="M293" t="n">
-        <v>1</v>
       </c>
       <c r="Q293" t="inlineStr">
         <is>
@@ -7110,13 +7150,16 @@
     <row r="294">
       <c r="B294" t="inlineStr">
         <is>
-          <t>therapeutic interventions</t>
+          <t>tobacco Products Directive</t>
         </is>
       </c>
       <c r="F294" t="inlineStr">
         <is>
           <t>Intervention</t>
         </is>
+      </c>
+      <c r="M294" t="n">
+        <v>1</v>
       </c>
       <c r="Q294" t="inlineStr">
         <is>
@@ -7127,7 +7170,7 @@
     <row r="295">
       <c r="B295" t="inlineStr">
         <is>
-          <t>therapist-delivered brief intervention</t>
+          <t>tobacco and nicotine regulation</t>
         </is>
       </c>
       <c r="F295" t="inlineStr">
@@ -7135,6 +7178,9 @@
           <t>Intervention</t>
         </is>
       </c>
+      <c r="M295" t="n">
+        <v>1</v>
+      </c>
       <c r="Q295" t="inlineStr">
         <is>
           <t>Proposed</t>
@@ -7142,44 +7188,118 @@
       </c>
     </row>
     <row r="296">
-      <c r="B296" t="inlineStr">
-        <is>
-          <t>therapy</t>
-        </is>
-      </c>
-      <c r="F296" t="inlineStr">
-        <is>
-          <t>Intervention</t>
-        </is>
-      </c>
-      <c r="Q296" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
+      <c r="A296" s="2" t="inlineStr">
+        <is>
+          <t>ADDICTO:0000462</t>
+        </is>
+      </c>
+      <c r="B296" s="2" t="inlineStr">
+        <is>
+          <t>tobacco control</t>
+        </is>
+      </c>
+      <c r="C296" s="2" t="inlineStr">
+        <is>
+          <t>An aggregate of tobacco control policies.</t>
+        </is>
+      </c>
+      <c r="D296" s="2" t="inlineStr">
+        <is>
+          <t>policy aggregate</t>
+        </is>
+      </c>
+      <c r="E296" s="2" t="n"/>
+      <c r="F296" s="2" t="inlineStr">
+        <is>
+          <t>Generically dependent continuant aggregate</t>
+        </is>
+      </c>
+      <c r="G296" s="2" t="n"/>
+      <c r="H296" s="2" t="n"/>
+      <c r="I296" s="2" t="n"/>
+      <c r="J296" s="2" t="n"/>
+      <c r="K296" s="2" t="n"/>
+      <c r="L296" s="2" t="n"/>
+      <c r="M296" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N296" s="2" t="n"/>
+      <c r="O296" s="2" t="n"/>
+      <c r="P296" s="2" t="inlineStr">
+        <is>
+          <t>All</t>
+        </is>
+      </c>
+      <c r="Q296" s="2" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="R296" s="2" t="n"/>
     </row>
     <row r="297">
-      <c r="B297" t="inlineStr">
-        <is>
-          <t>time period when intervention was delivered</t>
-        </is>
-      </c>
-      <c r="F297" t="inlineStr">
-        <is>
-          <t>Intervention</t>
-        </is>
-      </c>
+      <c r="A297" s="2" t="inlineStr">
+        <is>
+          <t>ADDICTO:0000461</t>
+        </is>
+      </c>
+      <c r="B297" s="2" t="inlineStr">
+        <is>
+          <t>tobacco control policy</t>
+        </is>
+      </c>
+      <c r="C297" s="2" t="inlineStr">
+        <is>
+          <t>A government policy aimed at reducing harm from tobacco use.</t>
+        </is>
+      </c>
+      <c r="D297" s="2" t="inlineStr">
+        <is>
+          <t>government policy</t>
+        </is>
+      </c>
+      <c r="E297" s="2" t="n"/>
+      <c r="F297" s="2" t="inlineStr">
+        <is>
+          <t>Generically dependent continuant aggregate</t>
+        </is>
+      </c>
+      <c r="G297" s="2" t="n"/>
+      <c r="H297" s="2" t="n"/>
+      <c r="I297" s="2" t="n"/>
+      <c r="J297" s="2" t="n"/>
+      <c r="K297" s="2" t="n"/>
+      <c r="L297" s="2" t="n"/>
+      <c r="M297" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N297" s="2" t="n"/>
+      <c r="O297" s="2" t="n"/>
+      <c r="P297" s="2" t="inlineStr">
+        <is>
+          <t>All</t>
+        </is>
+      </c>
+      <c r="Q297" s="2" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="R297" s="2" t="n"/>
     </row>
     <row r="298">
       <c r="B298" t="inlineStr">
         <is>
-          <t>time since end of substance use treatment</t>
+          <t>tobacco excise tax</t>
         </is>
       </c>
       <c r="F298" t="inlineStr">
         <is>
           <t>Intervention</t>
         </is>
+      </c>
+      <c r="M298" t="n">
+        <v>1</v>
       </c>
       <c r="Q298" t="inlineStr">
         <is>
@@ -7190,13 +7310,16 @@
     <row r="299">
       <c r="B299" t="inlineStr">
         <is>
-          <t>time to dropout from treatment</t>
+          <t>tobacco harm reduction</t>
         </is>
       </c>
       <c r="F299" t="inlineStr">
         <is>
           <t>Intervention</t>
         </is>
+      </c>
+      <c r="M299" t="n">
+        <v>1</v>
       </c>
       <c r="Q299" t="inlineStr">
         <is>
@@ -7207,7 +7330,7 @@
     <row r="300">
       <c r="B300" t="inlineStr">
         <is>
-          <t>tobacco Products Directive</t>
+          <t>tobacco tax</t>
         </is>
       </c>
       <c r="F300" t="inlineStr">
@@ -7225,9 +7348,29 @@
       </c>
     </row>
     <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>ADDICTO:0000499</t>
+        </is>
+      </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>tobacco and nicotine regulation</t>
+          <t>training</t>
+        </is>
+      </c>
+      <c r="C301" t="inlineStr">
+        <is>
+          <t>An intervention function that involves  increasing the skills needed for a behaviour by repeated practice and feedback.</t>
+        </is>
+      </c>
+      <c r="D301" t="inlineStr">
+        <is>
+          <t>intervention function</t>
+        </is>
+      </c>
+      <c r="E301" t="inlineStr">
+        <is>
+          <t>Process</t>
         </is>
       </c>
       <c r="F301" t="inlineStr">
@@ -7235,8 +7378,15 @@
           <t>Intervention</t>
         </is>
       </c>
-      <c r="M301" t="n">
-        <v>1</v>
+      <c r="G301" t="inlineStr">
+        <is>
+          <t>www.behaviourchange.com</t>
+        </is>
+      </c>
+      <c r="P301" t="inlineStr">
+        <is>
+          <t>RW</t>
+        </is>
       </c>
       <c r="Q301" t="inlineStr">
         <is>
@@ -7245,109 +7395,88 @@
       </c>
     </row>
     <row r="302">
-      <c r="A302" s="2" t="inlineStr">
-        <is>
-          <t>ADDICTO:0000462</t>
-        </is>
-      </c>
-      <c r="B302" s="2" t="inlineStr">
-        <is>
-          <t>tobacco control</t>
-        </is>
-      </c>
-      <c r="C302" s="2" t="inlineStr">
-        <is>
-          <t>An aggregate of tobacco control policies.</t>
-        </is>
-      </c>
-      <c r="D302" s="2" t="inlineStr">
-        <is>
-          <t>policy aggregate</t>
-        </is>
-      </c>
-      <c r="E302" s="2" t="n"/>
-      <c r="F302" s="2" t="inlineStr">
-        <is>
-          <t>Generically dependent continuant aggregate</t>
-        </is>
-      </c>
-      <c r="G302" s="2" t="n"/>
-      <c r="H302" s="2" t="n"/>
-      <c r="I302" s="2" t="n"/>
-      <c r="J302" s="2" t="n"/>
-      <c r="K302" s="2" t="n"/>
-      <c r="L302" s="2" t="n"/>
-      <c r="M302" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N302" s="2" t="n"/>
-      <c r="O302" s="2" t="n"/>
-      <c r="P302" s="2" t="inlineStr">
-        <is>
-          <t>All</t>
-        </is>
-      </c>
-      <c r="Q302" s="2" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="R302" s="2" t="n"/>
+      <c r="B302" t="inlineStr">
+        <is>
+          <t>treated and released</t>
+        </is>
+      </c>
+      <c r="F302" t="inlineStr">
+        <is>
+          <t>Intervention</t>
+        </is>
+      </c>
+      <c r="Q302" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
     </row>
     <row r="303">
-      <c r="A303" s="2" t="inlineStr">
-        <is>
-          <t>ADDICTO:0000461</t>
-        </is>
-      </c>
-      <c r="B303" s="2" t="inlineStr">
-        <is>
-          <t>tobacco control policy</t>
-        </is>
-      </c>
-      <c r="C303" s="2" t="inlineStr">
-        <is>
-          <t>A government policy aimed at reducing harm from tobacco use.</t>
-        </is>
-      </c>
-      <c r="D303" s="2" t="inlineStr">
-        <is>
-          <t>government policy</t>
-        </is>
-      </c>
-      <c r="E303" s="2" t="n"/>
-      <c r="F303" s="2" t="inlineStr">
-        <is>
-          <t>Generically dependent continuant aggregate</t>
-        </is>
-      </c>
-      <c r="G303" s="2" t="n"/>
-      <c r="H303" s="2" t="n"/>
-      <c r="I303" s="2" t="n"/>
-      <c r="J303" s="2" t="n"/>
-      <c r="K303" s="2" t="n"/>
-      <c r="L303" s="2" t="n"/>
-      <c r="M303" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N303" s="2" t="n"/>
-      <c r="O303" s="2" t="n"/>
-      <c r="P303" s="2" t="inlineStr">
-        <is>
-          <t>All</t>
-        </is>
-      </c>
-      <c r="Q303" s="2" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="R303" s="2" t="n"/>
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>ADDICTO:0000500</t>
+        </is>
+      </c>
+      <c r="B303" t="inlineStr">
+        <is>
+          <t>treatment</t>
+        </is>
+      </c>
+      <c r="C303" t="inlineStr">
+        <is>
+          <t>A planned process whose completion is hypothesized by a health care provider to eliminate, prevent, or alleviate the signs and symptoms of a disorder or pathological process.</t>
+        </is>
+      </c>
+      <c r="D303" t="inlineStr">
+        <is>
+          <t>planned process</t>
+        </is>
+      </c>
+      <c r="E303" t="inlineStr">
+        <is>
+          <t>Process</t>
+        </is>
+      </c>
+      <c r="F303" t="inlineStr">
+        <is>
+          <t>Intervention</t>
+        </is>
+      </c>
+      <c r="P303" t="inlineStr">
+        <is>
+          <t>JH</t>
+        </is>
+      </c>
+      <c r="Q303" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
     </row>
     <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>ADDICTO:0000452</t>
+        </is>
+      </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>tobacco excise tax</t>
+          <t>treatment adherability</t>
+        </is>
+      </c>
+      <c r="C304" t="inlineStr">
+        <is>
+          <t>An attribute of treatment that is the extent to which people receiving the treatment adhere to it.</t>
+        </is>
+      </c>
+      <c r="D304" t="inlineStr">
+        <is>
+          <t>treatment attribute</t>
+        </is>
+      </c>
+      <c r="E304" t="inlineStr">
+        <is>
+          <t>Process attribute</t>
         </is>
       </c>
       <c r="F304" t="inlineStr">
@@ -7367,16 +7496,13 @@
     <row r="305">
       <c r="B305" t="inlineStr">
         <is>
-          <t>tobacco harm reduction</t>
+          <t>treatment adherence</t>
         </is>
       </c>
       <c r="F305" t="inlineStr">
         <is>
           <t>Intervention</t>
         </is>
-      </c>
-      <c r="M305" t="n">
-        <v>1</v>
       </c>
       <c r="Q305" t="inlineStr">
         <is>
@@ -7387,7 +7513,7 @@
     <row r="306">
       <c r="B306" t="inlineStr">
         <is>
-          <t>tobacco tax</t>
+          <t>treatment administration</t>
         </is>
       </c>
       <c r="F306" t="inlineStr">
@@ -7395,9 +7521,6 @@
           <t>Intervention</t>
         </is>
       </c>
-      <c r="M306" t="n">
-        <v>1</v>
-      </c>
       <c r="Q306" t="inlineStr">
         <is>
           <t>Proposed</t>
@@ -7405,44 +7528,14 @@
       </c>
     </row>
     <row r="307">
-      <c r="A307" t="inlineStr">
-        <is>
-          <t>ADDICTO:0000499</t>
-        </is>
-      </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>training</t>
-        </is>
-      </c>
-      <c r="C307" t="inlineStr">
-        <is>
-          <t>An intervention function that involves  increasing the skills needed for a behaviour by repeated practice and feedback.</t>
-        </is>
-      </c>
-      <c r="D307" t="inlineStr">
-        <is>
-          <t>intervention function</t>
-        </is>
-      </c>
-      <c r="E307" t="inlineStr">
-        <is>
-          <t>Process</t>
+          <t>treatment compliance</t>
         </is>
       </c>
       <c r="F307" t="inlineStr">
         <is>
           <t>Intervention</t>
-        </is>
-      </c>
-      <c r="G307" t="inlineStr">
-        <is>
-          <t>www.behaviourchange.com</t>
-        </is>
-      </c>
-      <c r="P307" t="inlineStr">
-        <is>
-          <t>RW</t>
         </is>
       </c>
       <c r="Q307" t="inlineStr">
@@ -7454,7 +7547,7 @@
     <row r="308">
       <c r="B308" t="inlineStr">
         <is>
-          <t>treated and released</t>
+          <t>treatment component</t>
         </is>
       </c>
       <c r="F308" t="inlineStr">
@@ -7469,29 +7562,9 @@
       </c>
     </row>
     <row r="309">
-      <c r="A309" t="inlineStr">
-        <is>
-          <t>ADDICTO:0000500</t>
-        </is>
-      </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>treatment</t>
-        </is>
-      </c>
-      <c r="C309" t="inlineStr">
-        <is>
-          <t>A planned process whose completion is hypothesized by a health care provider to eliminate, prevent, or alleviate the signs and symptoms of a disorder or pathological process.</t>
-        </is>
-      </c>
-      <c r="D309" t="inlineStr">
-        <is>
-          <t>planned process</t>
-        </is>
-      </c>
-      <c r="E309" t="inlineStr">
-        <is>
-          <t>Process</t>
+          <t>treatment engagement</t>
         </is>
       </c>
       <c r="F309" t="inlineStr">
@@ -7499,11 +7572,6 @@
           <t>Intervention</t>
         </is>
       </c>
-      <c r="P309" t="inlineStr">
-        <is>
-          <t>JH</t>
-        </is>
-      </c>
       <c r="Q309" t="inlineStr">
         <is>
           <t>Proposed</t>
@@ -7511,38 +7579,15 @@
       </c>
     </row>
     <row r="310">
-      <c r="A310" t="inlineStr">
-        <is>
-          <t>ADDICTO:0000452</t>
-        </is>
-      </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>treatment adherability</t>
-        </is>
-      </c>
-      <c r="C310" t="inlineStr">
-        <is>
-          <t>An attribute of treatment that is the extent to which people receiving the treatment adhere to it.</t>
-        </is>
-      </c>
-      <c r="D310" t="inlineStr">
-        <is>
-          <t>treatment attribute</t>
-        </is>
-      </c>
-      <c r="E310" t="inlineStr">
-        <is>
-          <t>Process attribute</t>
+          <t>treatment intake</t>
         </is>
       </c>
       <c r="F310" t="inlineStr">
         <is>
           <t>Intervention</t>
         </is>
-      </c>
-      <c r="M310" t="n">
-        <v>1</v>
       </c>
       <c r="Q310" t="inlineStr">
         <is>
@@ -7553,7 +7598,7 @@
     <row r="311">
       <c r="B311" t="inlineStr">
         <is>
-          <t>treatment adherence</t>
+          <t>treatment of opioid dependence</t>
         </is>
       </c>
       <c r="F311" t="inlineStr">
@@ -7570,7 +7615,7 @@
     <row r="312">
       <c r="B312" t="inlineStr">
         <is>
-          <t>treatment administration</t>
+          <t>treatment programme entry</t>
         </is>
       </c>
       <c r="F312" t="inlineStr">
@@ -7587,7 +7632,7 @@
     <row r="313">
       <c r="B313" t="inlineStr">
         <is>
-          <t>treatment compliance</t>
+          <t>treatment retention</t>
         </is>
       </c>
       <c r="F313" t="inlineStr">
@@ -7602,9 +7647,14 @@
       </c>
     </row>
     <row r="314">
+      <c r="A314" t="inlineStr">
+        <is>
+          <t>OGMS:0000090</t>
+        </is>
+      </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>treatment component</t>
+          <t>treatment satisfaction</t>
         </is>
       </c>
       <c r="F314" t="inlineStr">
@@ -7619,14 +7669,39 @@
       </c>
     </row>
     <row r="315">
+      <c r="A315" t="inlineStr">
+        <is>
+          <t>ADDICTO:0000501</t>
+        </is>
+      </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>treatment engagement</t>
+          <t>treatment success</t>
+        </is>
+      </c>
+      <c r="C315" t="inlineStr">
+        <is>
+          <t>A treatment outcome in which the aims of the treatment have been achieved.</t>
+        </is>
+      </c>
+      <c r="D315" t="inlineStr">
+        <is>
+          <t>treatment outcome</t>
+        </is>
+      </c>
+      <c r="E315" t="inlineStr">
+        <is>
+          <t>Process</t>
         </is>
       </c>
       <c r="F315" t="inlineStr">
         <is>
           <t>Intervention</t>
+        </is>
+      </c>
+      <c r="P315" t="inlineStr">
+        <is>
+          <t>JH</t>
         </is>
       </c>
       <c r="Q315" t="inlineStr">
@@ -7638,13 +7713,16 @@
     <row r="316">
       <c r="B316" t="inlineStr">
         <is>
-          <t>treatment intake</t>
+          <t>uS State Medicaid programme</t>
         </is>
       </c>
       <c r="F316" t="inlineStr">
         <is>
           <t>Intervention</t>
         </is>
+      </c>
+      <c r="M316" t="n">
+        <v>1</v>
       </c>
       <c r="Q316" t="inlineStr">
         <is>
@@ -7655,7 +7733,7 @@
     <row r="317">
       <c r="B317" t="inlineStr">
         <is>
-          <t>treatment of opioid dependence</t>
+          <t>unintended intervention outcome</t>
         </is>
       </c>
       <c r="F317" t="inlineStr">
@@ -7672,13 +7750,16 @@
     <row r="318">
       <c r="B318" t="inlineStr">
         <is>
-          <t>treatment programme entry</t>
+          <t>usual care</t>
         </is>
       </c>
       <c r="F318" t="inlineStr">
         <is>
           <t>Intervention</t>
         </is>
+      </c>
+      <c r="M318" t="n">
+        <v>1</v>
       </c>
       <c r="Q318" t="inlineStr">
         <is>
@@ -7689,7 +7770,7 @@
     <row r="319">
       <c r="B319" t="inlineStr">
         <is>
-          <t>treatment retention</t>
+          <t>vaping ban</t>
         </is>
       </c>
       <c r="F319" t="inlineStr">
@@ -7697,6 +7778,11 @@
           <t>Intervention</t>
         </is>
       </c>
+      <c r="I319" t="inlineStr">
+        <is>
+          <t>Medicaid</t>
+        </is>
+      </c>
       <c r="Q319" t="inlineStr">
         <is>
           <t>Proposed</t>
@@ -7704,14 +7790,9 @@
       </c>
     </row>
     <row r="320">
-      <c r="A320" t="inlineStr">
-        <is>
-          <t>OGMS:0000090</t>
-        </is>
-      </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>treatment satisfaction</t>
+          <t>virtual health counselor</t>
         </is>
       </c>
       <c r="F320" t="inlineStr">
@@ -7719,6 +7800,9 @@
           <t>Intervention</t>
         </is>
       </c>
+      <c r="M320" t="n">
+        <v>1</v>
+      </c>
       <c r="Q320" t="inlineStr">
         <is>
           <t>Proposed</t>
@@ -7726,29 +7810,9 @@
       </c>
     </row>
     <row r="321">
-      <c r="A321" t="inlineStr">
-        <is>
-          <t>ADDICTO:0000501</t>
-        </is>
-      </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>treatment success</t>
-        </is>
-      </c>
-      <c r="C321" t="inlineStr">
-        <is>
-          <t>A treatment outcome in which the aims of the treatment have been achieved.</t>
-        </is>
-      </c>
-      <c r="D321" t="inlineStr">
-        <is>
-          <t>treatment outcome</t>
-        </is>
-      </c>
-      <c r="E321" t="inlineStr">
-        <is>
-          <t>Process</t>
+          <t>voucher-based incentive system</t>
         </is>
       </c>
       <c r="F321" t="inlineStr">
@@ -7756,10 +7820,8 @@
           <t>Intervention</t>
         </is>
       </c>
-      <c r="P321" t="inlineStr">
-        <is>
-          <t>JH</t>
-        </is>
+      <c r="M321" t="n">
+        <v>1</v>
       </c>
       <c r="Q321" t="inlineStr">
         <is>
@@ -7770,16 +7832,13 @@
     <row r="322">
       <c r="B322" t="inlineStr">
         <is>
-          <t>uS State Medicaid programme</t>
+          <t>weekly urine drug test</t>
         </is>
       </c>
       <c r="F322" t="inlineStr">
         <is>
           <t>Intervention</t>
         </is>
-      </c>
-      <c r="M322" t="n">
-        <v>1</v>
       </c>
       <c r="Q322" t="inlineStr">
         <is>
@@ -7790,7 +7849,7 @@
     <row r="323">
       <c r="B323" t="inlineStr">
         <is>
-          <t>unintended intervention outcome</t>
+          <t>weekly urine drug test result for opioids</t>
         </is>
       </c>
       <c r="F323" t="inlineStr">
@@ -7807,7 +7866,7 @@
     <row r="324">
       <c r="B324" t="inlineStr">
         <is>
-          <t>usual care</t>
+          <t>women's mental health programme</t>
         </is>
       </c>
       <c r="F324" t="inlineStr">
@@ -7815,123 +7874,7 @@
           <t>Intervention</t>
         </is>
       </c>
-      <c r="M324" t="n">
-        <v>1</v>
-      </c>
       <c r="Q324" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-    </row>
-    <row r="325">
-      <c r="B325" t="inlineStr">
-        <is>
-          <t>vaping ban</t>
-        </is>
-      </c>
-      <c r="F325" t="inlineStr">
-        <is>
-          <t>Intervention</t>
-        </is>
-      </c>
-      <c r="I325" t="inlineStr">
-        <is>
-          <t>Medicaid</t>
-        </is>
-      </c>
-      <c r="Q325" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-    </row>
-    <row r="326">
-      <c r="B326" t="inlineStr">
-        <is>
-          <t>virtual health counselor</t>
-        </is>
-      </c>
-      <c r="F326" t="inlineStr">
-        <is>
-          <t>Intervention</t>
-        </is>
-      </c>
-      <c r="M326" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q326" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-    </row>
-    <row r="327">
-      <c r="B327" t="inlineStr">
-        <is>
-          <t>voucher-based incentive system</t>
-        </is>
-      </c>
-      <c r="F327" t="inlineStr">
-        <is>
-          <t>Intervention</t>
-        </is>
-      </c>
-      <c r="M327" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q327" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-    </row>
-    <row r="328">
-      <c r="B328" t="inlineStr">
-        <is>
-          <t>weekly urine drug test</t>
-        </is>
-      </c>
-      <c r="F328" t="inlineStr">
-        <is>
-          <t>Intervention</t>
-        </is>
-      </c>
-      <c r="Q328" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-    </row>
-    <row r="329">
-      <c r="B329" t="inlineStr">
-        <is>
-          <t>weekly urine drug test result for opioids</t>
-        </is>
-      </c>
-      <c r="F329" t="inlineStr">
-        <is>
-          <t>Intervention</t>
-        </is>
-      </c>
-      <c r="Q329" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-    </row>
-    <row r="330">
-      <c r="B330" t="inlineStr">
-        <is>
-          <t>women's mental health programme</t>
-        </is>
-      </c>
-      <c r="F330" t="inlineStr">
-        <is>
-          <t>Intervention</t>
-        </is>
-      </c>
-      <c r="Q330" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>

--- a/inputs/AddictO_Intervention_Defs.xlsx
+++ b/inputs/AddictO_Intervention_Defs.xlsx
@@ -811,6 +811,17 @@
           <t>This may involve a subset of the modalities of advertising such as TV. A total advertising ban would be one that banned all forms of advertising and marketing.</t>
         </is>
       </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>JH</t>
+        </is>
+      </c>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="R15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="B16" t="inlineStr">

--- a/inputs/AddictO_Intervention_Defs.xlsx
+++ b/inputs/AddictO_Intervention_Defs.xlsx
@@ -543,8 +543,14 @@
       <c r="J2" s="2" t="inlineStr"/>
       <c r="K2" s="2" t="inlineStr"/>
       <c r="L2" s="2" t="inlineStr"/>
-      <c r="M2" s="2" t="inlineStr"/>
-      <c r="N2" s="2" t="inlineStr"/>
+      <c r="M2" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N2" s="2" t="n">
+        <v>0</v>
+      </c>
       <c r="O2" s="2" t="inlineStr"/>
       <c r="P2" s="2" t="inlineStr">
         <is>
@@ -571,8 +577,14 @@
       <c r="J3" s="2" t="inlineStr"/>
       <c r="K3" s="2" t="inlineStr"/>
       <c r="L3" s="2" t="inlineStr"/>
-      <c r="M3" s="2" t="inlineStr"/>
-      <c r="N3" s="2" t="inlineStr"/>
+      <c r="M3" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N3" s="2" t="n">
+        <v>0</v>
+      </c>
       <c r="O3" s="2" t="inlineStr"/>
       <c r="P3" s="2" t="inlineStr">
         <is>
@@ -611,8 +623,10 @@
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
-        <v>0</v>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -655,16 +669,18 @@
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>randomThingy</t>
+        </is>
+      </c>
+      <c r="N5" t="b">
+        <v>1</v>
       </c>
       <c r="O5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
-          <t>JH</t>
+          <t>JH; to</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
@@ -695,14 +711,20 @@
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>randomThingy</t>
+        </is>
+      </c>
+      <c r="N6" t="b">
+        <v>1</v>
       </c>
       <c r="O6" t="inlineStr"/>
-      <c r="P6" t="inlineStr"/>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>to</t>
+        </is>
+      </c>
       <c r="Q6" t="inlineStr">
         <is>
           <t>Proposed</t>
@@ -731,14 +753,20 @@
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>randomThingy</t>
+        </is>
+      </c>
+      <c r="N7" t="b">
+        <v>1</v>
       </c>
       <c r="O7" t="inlineStr"/>
-      <c r="P7" t="inlineStr"/>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>to</t>
+        </is>
+      </c>
       <c r="Q7" t="inlineStr">
         <is>
           <t>Proposed</t>
@@ -767,14 +795,20 @@
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>randomThingy</t>
+        </is>
+      </c>
+      <c r="N8" t="b">
         <v>1</v>
       </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
       <c r="O8" t="inlineStr"/>
-      <c r="P8" t="inlineStr"/>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>to</t>
+        </is>
+      </c>
       <c r="Q8" t="inlineStr">
         <is>
           <t>Proposed</t>
@@ -3911,10 +3945,8 @@
         </is>
       </c>
       <c r="L86" s="3" t="inlineStr"/>
-      <c r="M86" s="3" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="M86" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="N86" s="3" t="n">
         <v>0</v>
@@ -7885,10 +7917,8 @@
       <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr"/>
       <c r="L184" t="inlineStr"/>
-      <c r="M184" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="M184" t="n">
+        <v>1</v>
       </c>
       <c r="N184" t="n">
         <v>0</v>
@@ -8147,10 +8177,8 @@
       <c r="J191" t="inlineStr"/>
       <c r="K191" t="inlineStr"/>
       <c r="L191" t="inlineStr"/>
-      <c r="M191" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="M191" t="n">
+        <v>1</v>
       </c>
       <c r="N191" t="n">
         <v>0</v>
@@ -8589,10 +8617,8 @@
       <c r="J201" t="inlineStr"/>
       <c r="K201" t="inlineStr"/>
       <c r="L201" t="inlineStr"/>
-      <c r="M201" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="M201" t="n">
+        <v>1</v>
       </c>
       <c r="N201" t="n">
         <v>0</v>
@@ -9307,10 +9333,8 @@
       <c r="J219" t="inlineStr"/>
       <c r="K219" t="inlineStr"/>
       <c r="L219" t="inlineStr"/>
-      <c r="M219" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="M219" t="n">
+        <v>1</v>
       </c>
       <c r="N219" t="n">
         <v>0</v>
@@ -10875,10 +10899,8 @@
       <c r="J258" t="inlineStr"/>
       <c r="K258" t="inlineStr"/>
       <c r="L258" t="inlineStr"/>
-      <c r="M258" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="M258" t="n">
+        <v>1</v>
       </c>
       <c r="N258" t="n">
         <v>0</v>

--- a/inputs/AddictO_Intervention_Defs.xlsx
+++ b/inputs/AddictO_Intervention_Defs.xlsx
@@ -543,10 +543,8 @@
       <c r="J2" s="2" t="inlineStr"/>
       <c r="K2" s="2" t="inlineStr"/>
       <c r="L2" s="2" t="inlineStr"/>
-      <c r="M2" s="2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="M2" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="N2" s="2" t="n">
         <v>0</v>
@@ -565,48 +563,54 @@
       <c r="R2" s="2" t="inlineStr"/>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="inlineStr"/>
-      <c r="B3" s="2" t="inlineStr"/>
-      <c r="C3" s="2" t="inlineStr"/>
-      <c r="D3" s="2" t="inlineStr"/>
-      <c r="E3" s="2" t="inlineStr"/>
-      <c r="F3" s="2" t="inlineStr"/>
-      <c r="G3" s="2" t="inlineStr"/>
-      <c r="H3" s="2" t="inlineStr"/>
-      <c r="I3" s="2" t="inlineStr"/>
-      <c r="J3" s="2" t="inlineStr"/>
-      <c r="K3" s="2" t="inlineStr"/>
-      <c r="L3" s="2" t="inlineStr"/>
-      <c r="M3" s="2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="N3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" s="2" t="inlineStr"/>
-      <c r="P3" s="2" t="inlineStr">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>dfd</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Behaviour Change Technique</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Intervention</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="n">
+        <v>1</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="inlineStr"/>
+      <c r="P3" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="Q3" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="R3" s="2" t="inlineStr"/>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="R3" t="inlineStr"/>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>dfd</t>
-        </is>
-      </c>
+      <c r="A4" t="inlineStr"/>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Behaviour Change Technique</t>
+          <t>Cognitive Behavioural Therapy</t>
         </is>
       </c>
       <c r="C4" t="inlineStr"/>
@@ -619,22 +623,26 @@
       </c>
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>CBT</t>
+        </is>
+      </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>randomThingy</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
-          <t>to</t>
+          <t>JH; to</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
@@ -648,7 +656,7 @@
       <c r="A5" t="inlineStr"/>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Cognitive Behavioural Therapy</t>
+          <t>Community Reinforcement Approach for Seniors (CRA-S)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr"/>
@@ -661,11 +669,7 @@
       </c>
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>CBT</t>
-        </is>
-      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
@@ -674,13 +678,13 @@
           <t>randomThingy</t>
         </is>
       </c>
-      <c r="N5" t="b">
+      <c r="N5" t="n">
         <v>1</v>
       </c>
       <c r="O5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
-          <t>JH; to</t>
+          <t>to</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
@@ -694,7 +698,7 @@
       <c r="A6" t="inlineStr"/>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Community Reinforcement Approach for Seniors (CRA-S)</t>
+          <t>Health Canada Intense regimen</t>
         </is>
       </c>
       <c r="C6" t="inlineStr"/>
@@ -716,7 +720,7 @@
           <t>randomThingy</t>
         </is>
       </c>
-      <c r="N6" t="b">
+      <c r="N6" t="n">
         <v>1</v>
       </c>
       <c r="O6" t="inlineStr"/>
@@ -736,7 +740,7 @@
       <c r="A7" t="inlineStr"/>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Health Canada Intense regimen</t>
+          <t>NICE Guidance</t>
         </is>
       </c>
       <c r="C7" t="inlineStr"/>
@@ -758,7 +762,7 @@
           <t>randomThingy</t>
         </is>
       </c>
-      <c r="N7" t="b">
+      <c r="N7" t="n">
         <v>1</v>
       </c>
       <c r="O7" t="inlineStr"/>
@@ -778,7 +782,7 @@
       <c r="A8" t="inlineStr"/>
       <c r="B8" t="inlineStr">
         <is>
-          <t>NICE Guidance</t>
+          <t>TV advertising</t>
         </is>
       </c>
       <c r="C8" t="inlineStr"/>
@@ -792,23 +796,21 @@
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>Product</t>
+        </is>
+      </c>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>randomThingy</t>
-        </is>
-      </c>
-      <c r="N8" t="b">
-        <v>1</v>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
       </c>
       <c r="O8" t="inlineStr"/>
-      <c r="P8" t="inlineStr">
-        <is>
-          <t>to</t>
-        </is>
-      </c>
+      <c r="P8" t="inlineStr"/>
       <c r="Q8" t="inlineStr">
         <is>
           <t>Proposed</t>
@@ -820,7 +822,7 @@
       <c r="A9" t="inlineStr"/>
       <c r="B9" t="inlineStr">
         <is>
-          <t>TV advertising</t>
+          <t>UK Psychoactive Substances Act</t>
         </is>
       </c>
       <c r="C9" t="inlineStr"/>
@@ -834,11 +836,7 @@
       <c r="G9" t="inlineStr"/>
       <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>Product</t>
-        </is>
-      </c>
+      <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
       <c r="M9" t="n">
@@ -860,7 +858,7 @@
       <c r="A10" t="inlineStr"/>
       <c r="B10" t="inlineStr">
         <is>
-          <t>UK Psychoactive Substances Act</t>
+          <t>US governmental regulation</t>
         </is>
       </c>
       <c r="C10" t="inlineStr"/>
@@ -893,15 +891,31 @@
       <c r="R10" t="inlineStr"/>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr"/>
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>ADDICTO:0000464</t>
+        </is>
+      </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>US governmental regulation</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
+          <t>accessibility of primary healthcare physician advice</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>An environmental disposition that is the extent to which an environment enables people in that environment to receiveadvice from a primary health care physician.</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>accessibility of a service</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Process</t>
+        </is>
+      </c>
       <c r="F11" t="inlineStr">
         <is>
           <t>Intervention</t>
@@ -920,7 +934,11 @@
         <v>0</v>
       </c>
       <c r="O11" t="inlineStr"/>
-      <c r="P11" t="inlineStr"/>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>RW</t>
+        </is>
+      </c>
       <c r="Q11" t="inlineStr">
         <is>
           <t>Proposed</t>
@@ -931,22 +949,22 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>ADDICTO:0000464</t>
+          <t>ADDICTO:0000465</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>accessibility of primary healthcare physician advice</t>
+          <t>addiction treatment</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>An environmental disposition that is the extent to which an environment enables people in that environment to receiveadvice from a primary health care physician.</t>
+          <t>Treatment in which the disorder that is being treated is addiction.</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>accessibility of a service</t>
+          <t>treatment</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -972,11 +990,7 @@
         <v>0</v>
       </c>
       <c r="O12" t="inlineStr"/>
-      <c r="P12" t="inlineStr">
-        <is>
-          <t>RW</t>
-        </is>
-      </c>
+      <c r="P12" t="inlineStr"/>
       <c r="Q12" t="inlineStr">
         <is>
           <t>Proposed</t>
@@ -985,31 +999,19 @@
       <c r="R12" t="inlineStr"/>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>ADDICTO:0000465</t>
-        </is>
-      </c>
+      <c r="A13" t="inlineStr"/>
       <c r="B13" t="inlineStr">
         <is>
-          <t>addiction treatment</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>Treatment in which the disorder that is being treated is addiction.</t>
-        </is>
-      </c>
+          <t>adherence to opioid agonist therapy</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr">
         <is>
-          <t>treatment</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>Process</t>
-        </is>
-      </c>
+          <t>adherence to medication regimen</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr">
         <is>
           <t>Intervention</t>
@@ -1037,29 +1039,49 @@
       <c r="R13" t="inlineStr"/>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr"/>
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>ADDICTO:0000466</t>
+        </is>
+      </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>adherence to opioid agonist therapy</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr"/>
+          <t>advertising ban</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>A behaviour change intervention that involves prohibition of advertising or marketing of a product in a jurisdiction.</t>
+        </is>
+      </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>adherence to medication regimen</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr"/>
+          <t xml:space="preserve">Behaviour change intervention </t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Process</t>
+        </is>
+      </c>
       <c r="F14" t="inlineStr">
         <is>
           <t>Intervention</t>
         </is>
       </c>
       <c r="G14" t="inlineStr"/>
-      <c r="H14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>No appropriate definition found. Definition based on usage.</t>
+        </is>
+      </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>This may involve a subset of the modalities of advertising such as TV. A total advertising ban would be one that banned all forms of advertising and marketing.</t>
+        </is>
+      </c>
       <c r="L14" t="inlineStr"/>
       <c r="M14" t="n">
         <v>0</v>
@@ -1068,7 +1090,11 @@
         <v>0</v>
       </c>
       <c r="O14" t="inlineStr"/>
-      <c r="P14" t="inlineStr"/>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>JH</t>
+        </is>
+      </c>
       <c r="Q14" t="inlineStr">
         <is>
           <t>Proposed</t>
@@ -1077,62 +1103,34 @@
       <c r="R14" t="inlineStr"/>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>ADDICTO:0000466</t>
-        </is>
-      </c>
+      <c r="A15" t="inlineStr"/>
       <c r="B15" t="inlineStr">
         <is>
-          <t>advertising ban</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>A behaviour change intervention that involves prohibition of advertising or marketing of a product in a jurisdiction.</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Behaviour change intervention </t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>Process</t>
-        </is>
-      </c>
+          <t>age restriction on tobacco sales</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr">
         <is>
           <t>Intervention</t>
         </is>
       </c>
       <c r="G15" t="inlineStr"/>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>No appropriate definition found. Definition based on usage.</t>
-        </is>
-      </c>
+      <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>This may involve a subset of the modalities of advertising such as TV. A total advertising ban would be one that banned all forms of advertising and marketing.</t>
-        </is>
-      </c>
+      <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="inlineStr"/>
-      <c r="P15" t="inlineStr">
-        <is>
-          <t>JH</t>
-        </is>
-      </c>
+      <c r="P15" t="inlineStr"/>
       <c r="Q15" t="inlineStr">
         <is>
           <t>Proposed</t>
@@ -1144,7 +1142,7 @@
       <c r="A16" t="inlineStr"/>
       <c r="B16" t="inlineStr">
         <is>
-          <t>age restriction on tobacco sales</t>
+          <t>alcohol Use Disorder treatment</t>
         </is>
       </c>
       <c r="C16" t="inlineStr"/>
@@ -1162,7 +1160,7 @@
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
       <c r="M16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
         <v>0</v>
@@ -1180,7 +1178,7 @@
       <c r="A17" t="inlineStr"/>
       <c r="B17" t="inlineStr">
         <is>
-          <t>alcohol Use Disorder treatment</t>
+          <t>alcohol consumption recommendation</t>
         </is>
       </c>
       <c r="C17" t="inlineStr"/>
@@ -1213,22 +1211,42 @@
       <c r="R17" t="inlineStr"/>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr"/>
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>ADDICTO:0000467</t>
+        </is>
+      </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>alcohol consumption recommendation</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr"/>
+          <t>alcohol control policy</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>A government policy aimed at reducing consumption of alcohol or harm from consumption of alcohol in a population under its jurisdiction.</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>government policy</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Generically dependent continuant</t>
+        </is>
+      </c>
       <c r="F18" t="inlineStr">
         <is>
           <t>Intervention</t>
         </is>
       </c>
       <c r="G18" t="inlineStr"/>
-      <c r="H18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>No appropriate definition found. Definition based on usage. A disjunctive class.</t>
+        </is>
+      </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
@@ -1241,32 +1259,28 @@
       </c>
       <c r="O18" t="inlineStr"/>
       <c r="P18" t="inlineStr"/>
-      <c r="Q18" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
+      <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>ADDICTO:0000467</t>
+          <t>ADDICTO:0000468</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
+          <t>alcohol harm reduction policy</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>An alcohol control policy aimed at reducing the harm from consumption of alcohol in a population under its jurisdication without promoting complete abstinence from alcohol.</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
           <t>alcohol control policy</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>A government policy aimed at reducing consumption of alcohol or harm from consumption of alcohol in a population under its jurisdiction.</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>government policy</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1282,7 +1296,7 @@
       <c r="G19" t="inlineStr"/>
       <c r="H19" t="inlineStr">
         <is>
-          <t>No appropriate definition found. Definition based on usage. A disjunctive class.</t>
+          <t>No appropriate definition found. Definition based on usage.</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
@@ -1301,42 +1315,22 @@
       <c r="R19" t="inlineStr"/>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>ADDICTO:0000468</t>
-        </is>
-      </c>
+      <c r="A20" t="inlineStr"/>
       <c r="B20" t="inlineStr">
         <is>
-          <t>alcohol harm reduction policy</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>An alcohol control policy aimed at reducing the harm from consumption of alcohol in a population under its jurisdication without promoting complete abstinence from alcohol.</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>alcohol control policy</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>Generically dependent continuant</t>
-        </is>
-      </c>
+          <t>alcohol policy</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr"/>
       <c r="F20" t="inlineStr">
         <is>
           <t>Intervention</t>
         </is>
       </c>
       <c r="G20" t="inlineStr"/>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>No appropriate definition found. Definition based on usage.</t>
-        </is>
-      </c>
+      <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
@@ -1349,26 +1343,50 @@
       </c>
       <c r="O20" t="inlineStr"/>
       <c r="P20" t="inlineStr"/>
-      <c r="Q20" t="inlineStr"/>
+      <c r="Q20" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
       <c r="R20" t="inlineStr"/>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr"/>
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>ADDICTO:0000469</t>
+        </is>
+      </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>alcohol policy</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr"/>
-      <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr"/>
+          <t>alcohol reduction policy</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>An alcohol control policy aimed at reducing the consumption of alcohol in a population under its jurisdiction.</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>alcohol control policy</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Generically dependent continuant</t>
+        </is>
+      </c>
       <c r="F21" t="inlineStr">
         <is>
           <t>Intervention</t>
         </is>
       </c>
       <c r="G21" t="inlineStr"/>
-      <c r="H21" t="inlineStr"/>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>No appropriate definition found. Definition based on usage.</t>
+        </is>
+      </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
@@ -1381,50 +1399,26 @@
       </c>
       <c r="O21" t="inlineStr"/>
       <c r="P21" t="inlineStr"/>
-      <c r="Q21" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
+      <c r="Q21" t="inlineStr"/>
       <c r="R21" t="inlineStr"/>
     </row>
     <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>ADDICTO:0000469</t>
-        </is>
-      </c>
+      <c r="A22" t="inlineStr"/>
       <c r="B22" t="inlineStr">
         <is>
-          <t>alcohol reduction policy</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>An alcohol control policy aimed at reducing the consumption of alcohol in a population under its jurisdiction.</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>alcohol control policy</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>Generically dependent continuant</t>
-        </is>
-      </c>
+          <t>alcohol screening and brief advice delivery</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr"/>
+      <c r="D22" t="inlineStr"/>
+      <c r="E22" t="inlineStr"/>
       <c r="F22" t="inlineStr">
         <is>
           <t>Intervention</t>
         </is>
       </c>
       <c r="G22" t="inlineStr"/>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>No appropriate definition found. Definition based on usage.</t>
-        </is>
-      </c>
+      <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
@@ -1437,14 +1431,18 @@
       </c>
       <c r="O22" t="inlineStr"/>
       <c r="P22" t="inlineStr"/>
-      <c r="Q22" t="inlineStr"/>
+      <c r="Q22" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
       <c r="R22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr"/>
       <c r="B23" t="inlineStr">
         <is>
-          <t>alcohol screening and brief advice delivery</t>
+          <t>alcohol serving size reduction</t>
         </is>
       </c>
       <c r="C23" t="inlineStr"/>
@@ -1480,7 +1478,7 @@
       <c r="A24" t="inlineStr"/>
       <c r="B24" t="inlineStr">
         <is>
-          <t>alcohol serving size reduction</t>
+          <t>alcohol tax</t>
         </is>
       </c>
       <c r="C24" t="inlineStr"/>
@@ -1516,7 +1514,7 @@
       <c r="A25" t="inlineStr"/>
       <c r="B25" t="inlineStr">
         <is>
-          <t>alcohol tax</t>
+          <t>alcohol use prevention</t>
         </is>
       </c>
       <c r="C25" t="inlineStr"/>
@@ -1552,7 +1550,7 @@
       <c r="A26" t="inlineStr"/>
       <c r="B26" t="inlineStr">
         <is>
-          <t>alcohol use prevention</t>
+          <t>anti-tobacco advocacy</t>
         </is>
       </c>
       <c r="C26" t="inlineStr"/>
@@ -1588,10 +1586,14 @@
       <c r="A27" t="inlineStr"/>
       <c r="B27" t="inlineStr">
         <is>
-          <t>anti-tobacco advocacy</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr"/>
+          <t>anti-tobacco mass media campaign</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>A mass media campaign aimed at reducing tobacco use; may include TV, radio, and print advertising.</t>
+        </is>
+      </c>
       <c r="D27" t="inlineStr"/>
       <c r="E27" t="inlineStr"/>
       <c r="F27" t="inlineStr">
@@ -1606,7 +1608,7 @@
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -1624,14 +1626,10 @@
       <c r="A28" t="inlineStr"/>
       <c r="B28" t="inlineStr">
         <is>
-          <t>anti-tobacco mass media campaign</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>A mass media campaign aimed at reducing tobacco use; may include TV, radio, and print advertising.</t>
-        </is>
-      </c>
+          <t>at-home cessation support</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr"/>
       <c r="D28" t="inlineStr"/>
       <c r="E28" t="inlineStr"/>
       <c r="F28" t="inlineStr">
@@ -1646,7 +1644,7 @@
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
       <c r="M28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
         <v>0</v>
@@ -1664,7 +1662,7 @@
       <c r="A29" t="inlineStr"/>
       <c r="B29" t="inlineStr">
         <is>
-          <t>at-home cessation support</t>
+          <t>barrier to substance use disorder treatment access</t>
         </is>
       </c>
       <c r="C29" t="inlineStr"/>
@@ -1688,7 +1686,11 @@
         <v>0</v>
       </c>
       <c r="O29" t="inlineStr"/>
-      <c r="P29" t="inlineStr"/>
+      <c r="P29" t="inlineStr">
+        <is>
+          <t>JH</t>
+        </is>
+      </c>
       <c r="Q29" t="inlineStr">
         <is>
           <t>Proposed</t>
@@ -1700,7 +1702,7 @@
       <c r="A30" t="inlineStr"/>
       <c r="B30" t="inlineStr">
         <is>
-          <t>barrier to substance use disorder treatment access</t>
+          <t>behavioural substitute</t>
         </is>
       </c>
       <c r="C30" t="inlineStr"/>
@@ -1724,11 +1726,7 @@
         <v>0</v>
       </c>
       <c r="O30" t="inlineStr"/>
-      <c r="P30" t="inlineStr">
-        <is>
-          <t>JH</t>
-        </is>
-      </c>
+      <c r="P30" t="inlineStr"/>
       <c r="Q30" t="inlineStr">
         <is>
           <t>Proposed</t>
@@ -1740,7 +1738,7 @@
       <c r="A31" t="inlineStr"/>
       <c r="B31" t="inlineStr">
         <is>
-          <t>behavioural substitute</t>
+          <t>behavioural substitution</t>
         </is>
       </c>
       <c r="C31" t="inlineStr"/>
@@ -1776,7 +1774,7 @@
       <c r="A32" t="inlineStr"/>
       <c r="B32" t="inlineStr">
         <is>
-          <t>behavioural substitution</t>
+          <t>behavioural support</t>
         </is>
       </c>
       <c r="C32" t="inlineStr"/>
@@ -1812,7 +1810,7 @@
       <c r="A33" t="inlineStr"/>
       <c r="B33" t="inlineStr">
         <is>
-          <t>behavioural support</t>
+          <t>behavioural support for smoking cessation</t>
         </is>
       </c>
       <c r="C33" t="inlineStr"/>
@@ -1830,7 +1828,7 @@
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
@@ -1848,7 +1846,7 @@
       <c r="A34" t="inlineStr"/>
       <c r="B34" t="inlineStr">
         <is>
-          <t>behavioural support for smoking cessation</t>
+          <t>brief advice provision</t>
         </is>
       </c>
       <c r="C34" t="inlineStr"/>
@@ -1866,7 +1864,7 @@
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
       <c r="M34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
         <v>0</v>
@@ -1884,7 +1882,7 @@
       <c r="A35" t="inlineStr"/>
       <c r="B35" t="inlineStr">
         <is>
-          <t>brief advice provision</t>
+          <t>brief intervention</t>
         </is>
       </c>
       <c r="C35" t="inlineStr"/>
@@ -1920,7 +1918,7 @@
       <c r="A36" t="inlineStr"/>
       <c r="B36" t="inlineStr">
         <is>
-          <t>brief intervention</t>
+          <t>buprenorphine induction</t>
         </is>
       </c>
       <c r="C36" t="inlineStr"/>
@@ -1956,7 +1954,7 @@
       <c r="A37" t="inlineStr"/>
       <c r="B37" t="inlineStr">
         <is>
-          <t>buprenorphine induction</t>
+          <t>buprenorphine prescribing</t>
         </is>
       </c>
       <c r="C37" t="inlineStr"/>
@@ -1992,7 +1990,7 @@
       <c r="A38" t="inlineStr"/>
       <c r="B38" t="inlineStr">
         <is>
-          <t>buprenorphine prescribing</t>
+          <t>buprenorphine prescription</t>
         </is>
       </c>
       <c r="C38" t="inlineStr"/>
@@ -2028,7 +2026,7 @@
       <c r="A39" t="inlineStr"/>
       <c r="B39" t="inlineStr">
         <is>
-          <t>buprenorphine prescription</t>
+          <t>cancer prevention</t>
         </is>
       </c>
       <c r="C39" t="inlineStr"/>
@@ -2064,7 +2062,7 @@
       <c r="A40" t="inlineStr"/>
       <c r="B40" t="inlineStr">
         <is>
-          <t>cancer prevention</t>
+          <t>cannabis legalisation</t>
         </is>
       </c>
       <c r="C40" t="inlineStr"/>
@@ -2100,7 +2098,7 @@
       <c r="A41" t="inlineStr"/>
       <c r="B41" t="inlineStr">
         <is>
-          <t>cannabis legalisation</t>
+          <t>cannabis regulation</t>
         </is>
       </c>
       <c r="C41" t="inlineStr"/>
@@ -2136,7 +2134,7 @@
       <c r="A42" t="inlineStr"/>
       <c r="B42" t="inlineStr">
         <is>
-          <t>cannabis regulation</t>
+          <t>care provider</t>
         </is>
       </c>
       <c r="C42" t="inlineStr"/>
@@ -2172,7 +2170,7 @@
       <c r="A43" t="inlineStr"/>
       <c r="B43" t="inlineStr">
         <is>
-          <t>care provider</t>
+          <t>censorship</t>
         </is>
       </c>
       <c r="C43" t="inlineStr"/>
@@ -2208,7 +2206,7 @@
       <c r="A44" t="inlineStr"/>
       <c r="B44" t="inlineStr">
         <is>
-          <t>censorship</t>
+          <t>change plan</t>
         </is>
       </c>
       <c r="C44" t="inlineStr"/>
@@ -2244,7 +2242,7 @@
       <c r="A45" t="inlineStr"/>
       <c r="B45" t="inlineStr">
         <is>
-          <t>change plan</t>
+          <t>cigarette pricing policy</t>
         </is>
       </c>
       <c r="C45" t="inlineStr"/>
@@ -2262,7 +2260,7 @@
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr"/>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
@@ -2280,7 +2278,7 @@
       <c r="A46" t="inlineStr"/>
       <c r="B46" t="inlineStr">
         <is>
-          <t>cigarette pricing policy</t>
+          <t>clean preparation area</t>
         </is>
       </c>
       <c r="C46" t="inlineStr"/>
@@ -2298,7 +2296,7 @@
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr"/>
       <c r="M46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
         <v>0</v>
@@ -2316,7 +2314,7 @@
       <c r="A47" t="inlineStr"/>
       <c r="B47" t="inlineStr">
         <is>
-          <t>clean preparation area</t>
+          <t>clinic visit</t>
         </is>
       </c>
       <c r="C47" t="inlineStr"/>
@@ -2352,7 +2350,7 @@
       <c r="A48" t="inlineStr"/>
       <c r="B48" t="inlineStr">
         <is>
-          <t>clinic visit</t>
+          <t>clinical effect</t>
         </is>
       </c>
       <c r="C48" t="inlineStr"/>
@@ -2388,7 +2386,7 @@
       <c r="A49" t="inlineStr"/>
       <c r="B49" t="inlineStr">
         <is>
-          <t>clinical effect</t>
+          <t>clinical effectiveness</t>
         </is>
       </c>
       <c r="C49" t="inlineStr"/>
@@ -2421,15 +2419,31 @@
       <c r="R49" t="inlineStr"/>
     </row>
     <row r="50">
-      <c r="A50" t="inlineStr"/>
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>ADDICTO:0000470</t>
+        </is>
+      </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>clinical effectiveness</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr"/>
-      <c r="D50" t="inlineStr"/>
-      <c r="E50" t="inlineStr"/>
+          <t>clinical provider</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>An organisation that provides a clinical service.</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>organisation</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>Material entity</t>
+        </is>
+      </c>
       <c r="F50" t="inlineStr">
         <is>
           <t>Intervention</t>
@@ -2448,7 +2462,11 @@
         <v>0</v>
       </c>
       <c r="O50" t="inlineStr"/>
-      <c r="P50" t="inlineStr"/>
+      <c r="P50" t="inlineStr">
+        <is>
+          <t>JH</t>
+        </is>
+      </c>
       <c r="Q50" t="inlineStr">
         <is>
           <t>Proposed</t>
@@ -2457,31 +2475,15 @@
       <c r="R50" t="inlineStr"/>
     </row>
     <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>ADDICTO:0000470</t>
-        </is>
-      </c>
+      <c r="A51" t="inlineStr"/>
       <c r="B51" t="inlineStr">
         <is>
-          <t>clinical provider</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>An organisation that provides a clinical service.</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>organisation</t>
-        </is>
-      </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>Material entity</t>
-        </is>
-      </c>
+          <t>clinical significance</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr"/>
+      <c r="D51" t="inlineStr"/>
+      <c r="E51" t="inlineStr"/>
       <c r="F51" t="inlineStr">
         <is>
           <t>Intervention</t>
@@ -2500,11 +2502,7 @@
         <v>0</v>
       </c>
       <c r="O51" t="inlineStr"/>
-      <c r="P51" t="inlineStr">
-        <is>
-          <t>JH</t>
-        </is>
-      </c>
+      <c r="P51" t="inlineStr"/>
       <c r="Q51" t="inlineStr">
         <is>
           <t>Proposed</t>
@@ -2516,7 +2514,7 @@
       <c r="A52" t="inlineStr"/>
       <c r="B52" t="inlineStr">
         <is>
-          <t>clinical significance</t>
+          <t>clinically meaningful effect size</t>
         </is>
       </c>
       <c r="C52" t="inlineStr"/>
@@ -2549,15 +2547,31 @@
       <c r="R52" t="inlineStr"/>
     </row>
     <row r="53">
-      <c r="A53" t="inlineStr"/>
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>ADDICTO:0000471</t>
+        </is>
+      </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>clinically meaningful effect size</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr"/>
-      <c r="D53" t="inlineStr"/>
-      <c r="E53" t="inlineStr"/>
+          <t>codeine scheduling</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Drug scheduling in which the drug concerned is codeine.</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>drug scheduling</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>Generically dependent continuant</t>
+        </is>
+      </c>
       <c r="F53" t="inlineStr">
         <is>
           <t>Intervention</t>
@@ -2577,39 +2591,19 @@
       </c>
       <c r="O53" t="inlineStr"/>
       <c r="P53" t="inlineStr"/>
-      <c r="Q53" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
+      <c r="Q53" t="inlineStr"/>
       <c r="R53" t="inlineStr"/>
     </row>
     <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>ADDICTO:0000471</t>
-        </is>
-      </c>
+      <c r="A54" t="inlineStr"/>
       <c r="B54" t="inlineStr">
         <is>
-          <t>codeine scheduling</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>Drug scheduling in which the drug concerned is codeine.</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>drug scheduling</t>
-        </is>
-      </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>Generically dependent continuant</t>
-        </is>
-      </c>
+          <t>coerced addiction treatment</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr"/>
+      <c r="D54" t="inlineStr"/>
+      <c r="E54" t="inlineStr"/>
       <c r="F54" t="inlineStr">
         <is>
           <t>Intervention</t>
@@ -2629,25 +2623,49 @@
       </c>
       <c r="O54" t="inlineStr"/>
       <c r="P54" t="inlineStr"/>
-      <c r="Q54" t="inlineStr"/>
+      <c r="Q54" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
       <c r="R54" t="inlineStr"/>
     </row>
     <row r="55">
-      <c r="A55" t="inlineStr"/>
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>ADDICTO:0000472</t>
+        </is>
+      </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>coerced addiction treatment</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr"/>
-      <c r="D55" t="inlineStr"/>
-      <c r="E55" t="inlineStr"/>
+          <t>coercion</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>An intervention function that involves changing the attractiveness of a behaviour by creating the expectation of an undesired outcome or denial of a desired one.</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>intervention function</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>Process</t>
+        </is>
+      </c>
       <c r="F55" t="inlineStr">
         <is>
           <t>Intervention</t>
         </is>
       </c>
-      <c r="G55" t="inlineStr"/>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>www.behaviourchange.com</t>
+        </is>
+      </c>
       <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2660,7 +2678,11 @@
         <v>0</v>
       </c>
       <c r="O55" t="inlineStr"/>
-      <c r="P55" t="inlineStr"/>
+      <c r="P55" t="inlineStr">
+        <is>
+          <t>RW</t>
+        </is>
+      </c>
       <c r="Q55" t="inlineStr">
         <is>
           <t>Proposed</t>
@@ -2669,41 +2691,21 @@
       <c r="R55" t="inlineStr"/>
     </row>
     <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>ADDICTO:0000472</t>
-        </is>
-      </c>
+      <c r="A56" t="inlineStr"/>
       <c r="B56" t="inlineStr">
         <is>
-          <t>coercion</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>An intervention function that involves changing the attractiveness of a behaviour by creating the expectation of an undesired outcome or denial of a desired one.</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>intervention function</t>
-        </is>
-      </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>Process</t>
-        </is>
-      </c>
+          <t>combined pharmacological and behavioural substance use treatment</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr"/>
+      <c r="D56" t="inlineStr"/>
+      <c r="E56" t="inlineStr"/>
       <c r="F56" t="inlineStr">
         <is>
           <t>Intervention</t>
         </is>
       </c>
-      <c r="G56" t="inlineStr">
-        <is>
-          <t>www.behaviourchange.com</t>
-        </is>
-      </c>
+      <c r="G56" t="inlineStr"/>
       <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2716,11 +2718,7 @@
         <v>0</v>
       </c>
       <c r="O56" t="inlineStr"/>
-      <c r="P56" t="inlineStr">
-        <is>
-          <t>RW</t>
-        </is>
-      </c>
+      <c r="P56" t="inlineStr"/>
       <c r="Q56" t="inlineStr">
         <is>
           <t>Proposed</t>
@@ -2729,21 +2727,41 @@
       <c r="R56" t="inlineStr"/>
     </row>
     <row r="57">
-      <c r="A57" t="inlineStr"/>
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>ADDICTO:0000473</t>
+        </is>
+      </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>combined pharmacological and behavioural substance use treatment</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr"/>
-      <c r="D57" t="inlineStr"/>
-      <c r="E57" t="inlineStr"/>
+          <t>communications and marketing</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>An intevention function involving mass media campaigns, digital marketing campaigns, and correspondence.</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>intervention function</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>Process</t>
+        </is>
+      </c>
       <c r="F57" t="inlineStr">
         <is>
           <t>Intervention</t>
         </is>
       </c>
-      <c r="G57" t="inlineStr"/>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>behaviourchangewheel.com</t>
+        </is>
+      </c>
       <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2756,7 +2774,11 @@
         <v>0</v>
       </c>
       <c r="O57" t="inlineStr"/>
-      <c r="P57" t="inlineStr"/>
+      <c r="P57" t="inlineStr">
+        <is>
+          <t>RW</t>
+        </is>
+      </c>
       <c r="Q57" t="inlineStr">
         <is>
           <t>Proposed</t>
@@ -2765,41 +2787,21 @@
       <c r="R57" t="inlineStr"/>
     </row>
     <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>ADDICTO:0000473</t>
-        </is>
-      </c>
+      <c r="A58" t="inlineStr"/>
       <c r="B58" t="inlineStr">
         <is>
-          <t>communications and marketing</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>An intevention function involving mass media campaigns, digital marketing campaigns, and correspondence.</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>intervention function</t>
-        </is>
-      </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>Process</t>
-        </is>
-      </c>
+          <t>complex intervention</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr"/>
+      <c r="D58" t="inlineStr"/>
+      <c r="E58" t="inlineStr"/>
       <c r="F58" t="inlineStr">
         <is>
           <t>Intervention</t>
         </is>
       </c>
-      <c r="G58" t="inlineStr">
-        <is>
-          <t>behaviourchangewheel.com</t>
-        </is>
-      </c>
+      <c r="G58" t="inlineStr"/>
       <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2812,11 +2814,7 @@
         <v>0</v>
       </c>
       <c r="O58" t="inlineStr"/>
-      <c r="P58" t="inlineStr">
-        <is>
-          <t>RW</t>
-        </is>
-      </c>
+      <c r="P58" t="inlineStr"/>
       <c r="Q58" t="inlineStr">
         <is>
           <t>Proposed</t>
@@ -2825,15 +2823,31 @@
       <c r="R58" t="inlineStr"/>
     </row>
     <row r="59">
-      <c r="A59" t="inlineStr"/>
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>ADDICTO:0000474</t>
+        </is>
+      </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>complex intervention</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr"/>
-      <c r="D59" t="inlineStr"/>
-      <c r="E59" t="inlineStr"/>
+          <t>compulsory addiction treatment</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Treatment of addiction that either a drug user or a person with a drug problem is compelled to undergo by a legal authority in the jurisdiction in which they reside.</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>addiction treatment</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>Process</t>
+        </is>
+      </c>
       <c r="F59" t="inlineStr">
         <is>
           <t>Intervention</t>
@@ -2861,31 +2875,15 @@
       <c r="R59" t="inlineStr"/>
     </row>
     <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>ADDICTO:0000474</t>
-        </is>
-      </c>
+      <c r="A60" t="inlineStr"/>
       <c r="B60" t="inlineStr">
         <is>
-          <t>compulsory addiction treatment</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>Treatment of addiction that either a drug user or a person with a drug problem is compelled to undergo by a legal authority in the jurisdiction in which they reside.</t>
-        </is>
-      </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>addiction treatment</t>
-        </is>
-      </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>Process</t>
-        </is>
-      </c>
+          <t>consumption-reducing effect</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr"/>
+      <c r="D60" t="inlineStr"/>
+      <c r="E60" t="inlineStr"/>
       <c r="F60" t="inlineStr">
         <is>
           <t>Intervention</t>
@@ -2916,7 +2914,7 @@
       <c r="A61" t="inlineStr"/>
       <c r="B61" t="inlineStr">
         <is>
-          <t>consumption-reducing effect</t>
+          <t>contingency management</t>
         </is>
       </c>
       <c r="C61" t="inlineStr"/>
@@ -2952,7 +2950,7 @@
       <c r="A62" t="inlineStr"/>
       <c r="B62" t="inlineStr">
         <is>
-          <t>contingency management</t>
+          <t>contingency management intervention</t>
         </is>
       </c>
       <c r="C62" t="inlineStr"/>
@@ -2988,7 +2986,7 @@
       <c r="A63" t="inlineStr"/>
       <c r="B63" t="inlineStr">
         <is>
-          <t>contingency management intervention</t>
+          <t>correctional school</t>
         </is>
       </c>
       <c r="C63" t="inlineStr"/>
@@ -3024,10 +3022,14 @@
       <c r="A64" t="inlineStr"/>
       <c r="B64" t="inlineStr">
         <is>
-          <t>correctional school</t>
-        </is>
-      </c>
-      <c r="C64" t="inlineStr"/>
+          <t>cost effectiveness</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>Financial cost of implementing a specified intervention to achieve an improvement in a specified outcome in a soecified context relative to a comparator.</t>
+        </is>
+      </c>
       <c r="D64" t="inlineStr"/>
       <c r="E64" t="inlineStr"/>
       <c r="F64" t="inlineStr">
@@ -3042,7 +3044,7 @@
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr"/>
       <c r="M64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N64" t="n">
         <v>0</v>
@@ -3057,38 +3059,58 @@
       <c r="R64" t="inlineStr"/>
     </row>
     <row r="65">
-      <c r="A65" t="inlineStr"/>
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>ADDICTO:0000475</t>
+        </is>
+      </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>cost effectiveness</t>
+          <t>cost per quality-adjusted life-year gained</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Financial cost of implementing a specified intervention to achieve an improvement in a specified outcome in a soecified context relative to a comparator.</t>
-        </is>
-      </c>
-      <c r="D65" t="inlineStr"/>
-      <c r="E65" t="inlineStr"/>
+          <t xml:space="preserve">A data item that is about an intervention and is the estimated financial cost of delivering that intervention to a population in a setting in order to gain one QALY in the population. </t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>data item</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>Generically dependent continuant</t>
+        </is>
+      </c>
       <c r="F65" t="inlineStr">
         <is>
           <t>Intervention</t>
         </is>
       </c>
       <c r="G65" t="inlineStr"/>
-      <c r="H65" t="inlineStr"/>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>No ontological definition found. Definition based on definition of ICER https://en.wikipedia.org/wiki/Incremental_cost-effectiveness_ratio</t>
+        </is>
+      </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr"/>
       <c r="M65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N65" t="n">
         <v>0</v>
       </c>
       <c r="O65" t="inlineStr"/>
-      <c r="P65" t="inlineStr"/>
+      <c r="P65" t="inlineStr">
+        <is>
+          <t>JH</t>
+        </is>
+      </c>
       <c r="Q65" t="inlineStr">
         <is>
           <t>Proposed</t>
@@ -3097,42 +3119,22 @@
       <c r="R65" t="inlineStr"/>
     </row>
     <row r="66">
-      <c r="A66" t="inlineStr">
-        <is>
-          <t>ADDICTO:0000475</t>
-        </is>
-      </c>
+      <c r="A66" t="inlineStr"/>
       <c r="B66" t="inlineStr">
         <is>
-          <t>cost per quality-adjusted life-year gained</t>
-        </is>
-      </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t xml:space="preserve">A data item that is about an intervention and is the estimated financial cost of delivering that intervention to a population in a setting in order to gain one QALY in the population. </t>
-        </is>
-      </c>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>data item</t>
-        </is>
-      </c>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>Generically dependent continuant</t>
-        </is>
-      </c>
+          <t>cost-effective strategy</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr"/>
+      <c r="D66" t="inlineStr"/>
+      <c r="E66" t="inlineStr"/>
       <c r="F66" t="inlineStr">
         <is>
           <t>Intervention</t>
         </is>
       </c>
       <c r="G66" t="inlineStr"/>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>No ontological definition found. Definition based on definition of ICER https://en.wikipedia.org/wiki/Incremental_cost-effectiveness_ratio</t>
-        </is>
-      </c>
+      <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
@@ -3144,11 +3146,7 @@
         <v>0</v>
       </c>
       <c r="O66" t="inlineStr"/>
-      <c r="P66" t="inlineStr">
-        <is>
-          <t>JH</t>
-        </is>
-      </c>
+      <c r="P66" t="inlineStr"/>
       <c r="Q66" t="inlineStr">
         <is>
           <t>Proposed</t>
@@ -3160,7 +3158,7 @@
       <c r="A67" t="inlineStr"/>
       <c r="B67" t="inlineStr">
         <is>
-          <t>cost-effective strategy</t>
+          <t>cost-effectiveness acceptability curve</t>
         </is>
       </c>
       <c r="C67" t="inlineStr"/>
@@ -3196,7 +3194,7 @@
       <c r="A68" t="inlineStr"/>
       <c r="B68" t="inlineStr">
         <is>
-          <t>cost-effectiveness acceptability curve</t>
+          <t>cost-effectiveness at population-level</t>
         </is>
       </c>
       <c r="C68" t="inlineStr"/>
@@ -3232,7 +3230,7 @@
       <c r="A69" t="inlineStr"/>
       <c r="B69" t="inlineStr">
         <is>
-          <t>cost-effectiveness at population-level</t>
+          <t>counseling</t>
         </is>
       </c>
       <c r="C69" t="inlineStr"/>
@@ -3268,7 +3266,7 @@
       <c r="A70" t="inlineStr"/>
       <c r="B70" t="inlineStr">
         <is>
-          <t>counseling</t>
+          <t>counselling session</t>
         </is>
       </c>
       <c r="C70" t="inlineStr"/>
@@ -3286,7 +3284,7 @@
       <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr"/>
       <c r="M70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N70" t="n">
         <v>0</v>
@@ -3304,7 +3302,7 @@
       <c r="A71" t="inlineStr"/>
       <c r="B71" t="inlineStr">
         <is>
-          <t>counselling session</t>
+          <t>court-mandated treatment</t>
         </is>
       </c>
       <c r="C71" t="inlineStr"/>
@@ -3322,7 +3320,7 @@
       <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr"/>
       <c r="M71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N71" t="n">
         <v>0</v>
@@ -3340,7 +3338,7 @@
       <c r="A72" t="inlineStr"/>
       <c r="B72" t="inlineStr">
         <is>
-          <t>court-mandated treatment</t>
+          <t>coverage of needle and syringe provision</t>
         </is>
       </c>
       <c r="C72" t="inlineStr"/>
@@ -3376,7 +3374,7 @@
       <c r="A73" t="inlineStr"/>
       <c r="B73" t="inlineStr">
         <is>
-          <t>coverage of needle and syringe provision</t>
+          <t>criminal justice system</t>
         </is>
       </c>
       <c r="C73" t="inlineStr"/>
@@ -3412,7 +3410,7 @@
       <c r="A74" t="inlineStr"/>
       <c r="B74" t="inlineStr">
         <is>
-          <t>criminal justice system</t>
+          <t>daily buprenorphine dose</t>
         </is>
       </c>
       <c r="C74" t="inlineStr"/>
@@ -3445,15 +3443,31 @@
       <c r="R74" t="inlineStr"/>
     </row>
     <row r="75">
-      <c r="A75" t="inlineStr"/>
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>ADDICTO:0000476</t>
+        </is>
+      </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>daily buprenorphine dose</t>
-        </is>
-      </c>
-      <c r="C75" t="inlineStr"/>
-      <c r="D75" t="inlineStr"/>
-      <c r="E75" t="inlineStr"/>
+          <t>deep brain stimulation</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A physical treatment for brain disorders that involves implanting an electrode in a specific part of the brain and passing a current through it with the aim of stimulating electrical activity in the part of the brain concerned. </t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>physical treatment</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>Process</t>
+        </is>
+      </c>
       <c r="F75" t="inlineStr">
         <is>
           <t>Intervention</t>
@@ -3481,31 +3495,15 @@
       <c r="R75" t="inlineStr"/>
     </row>
     <row r="76">
-      <c r="A76" t="inlineStr">
-        <is>
-          <t>ADDICTO:0000476</t>
-        </is>
-      </c>
+      <c r="A76" t="inlineStr"/>
       <c r="B76" t="inlineStr">
         <is>
-          <t>deep brain stimulation</t>
-        </is>
-      </c>
-      <c r="C76" t="inlineStr">
-        <is>
-          <t xml:space="preserve">A physical treatment for brain disorders that involves implanting an electrode in a specific part of the brain and passing a current through it with the aim of stimulating electrical activity in the part of the brain concerned. </t>
-        </is>
-      </c>
-      <c r="D76" t="inlineStr">
-        <is>
-          <t>physical treatment</t>
-        </is>
-      </c>
-      <c r="E76" t="inlineStr">
-        <is>
-          <t>Process</t>
-        </is>
-      </c>
+          <t>denormalisation</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr"/>
+      <c r="D76" t="inlineStr"/>
+      <c r="E76" t="inlineStr"/>
       <c r="F76" t="inlineStr">
         <is>
           <t>Intervention</t>
@@ -3533,40 +3531,44 @@
       <c r="R76" t="inlineStr"/>
     </row>
     <row r="77">
-      <c r="A77" t="inlineStr"/>
-      <c r="B77" t="inlineStr">
-        <is>
-          <t>denormalisation</t>
-        </is>
-      </c>
-      <c r="C77" t="inlineStr"/>
-      <c r="D77" t="inlineStr"/>
-      <c r="E77" t="inlineStr"/>
-      <c r="F77" t="inlineStr">
-        <is>
-          <t>Intervention</t>
-        </is>
-      </c>
-      <c r="G77" t="inlineStr"/>
-      <c r="H77" t="inlineStr"/>
-      <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
-        <v>0</v>
-      </c>
-      <c r="N77" t="n">
-        <v>0</v>
-      </c>
-      <c r="O77" t="inlineStr"/>
-      <c r="P77" t="inlineStr"/>
-      <c r="Q77" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="R77" t="inlineStr"/>
+      <c r="A77" s="2" t="inlineStr">
+        <is>
+          <t>dfdf</t>
+        </is>
+      </c>
+      <c r="B77" s="2" t="inlineStr">
+        <is>
+          <t>dfdf</t>
+        </is>
+      </c>
+      <c r="C77" s="2" t="inlineStr"/>
+      <c r="D77" s="2" t="inlineStr"/>
+      <c r="E77" s="2" t="inlineStr"/>
+      <c r="F77" s="2" t="inlineStr"/>
+      <c r="G77" s="2" t="inlineStr"/>
+      <c r="H77" s="2" t="inlineStr"/>
+      <c r="I77" s="2" t="inlineStr"/>
+      <c r="J77" s="2" t="inlineStr"/>
+      <c r="K77" s="2" t="inlineStr"/>
+      <c r="L77" s="2" t="inlineStr"/>
+      <c r="M77" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N77" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O77" s="2" t="inlineStr"/>
+      <c r="P77" s="2" t="inlineStr">
+        <is>
+          <t>to</t>
+        </is>
+      </c>
+      <c r="Q77" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="R77" s="2" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">

--- a/inputs/AddictO_Intervention_Defs.xlsx
+++ b/inputs/AddictO_Intervention_Defs.xlsx
@@ -531,46 +531,54 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="inlineStr"/>
-      <c r="B2" s="2" t="inlineStr"/>
-      <c r="C2" s="2" t="inlineStr"/>
-      <c r="D2" s="2" t="inlineStr"/>
-      <c r="E2" s="2" t="inlineStr"/>
-      <c r="F2" s="2" t="inlineStr"/>
-      <c r="G2" s="2" t="inlineStr"/>
-      <c r="H2" s="2" t="inlineStr"/>
-      <c r="I2" s="2" t="inlineStr"/>
-      <c r="J2" s="2" t="inlineStr"/>
-      <c r="K2" s="2" t="inlineStr"/>
-      <c r="L2" s="2" t="inlineStr"/>
-      <c r="M2" s="2" t="n">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>dfd</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Behaviour Change Technique</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Intervention</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="n">
         <v>1</v>
       </c>
-      <c r="N2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" s="2" t="inlineStr"/>
-      <c r="P2" s="2" t="inlineStr">
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="inlineStr"/>
+      <c r="P2" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="Q2" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="R2" s="2" t="inlineStr"/>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr"/>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>dfd</t>
-        </is>
-      </c>
+      <c r="A3" t="inlineStr"/>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Behaviour Change Technique</t>
+          <t>Cognitive Behavioural Therapy</t>
         </is>
       </c>
       <c r="C3" t="inlineStr"/>
@@ -583,20 +591,26 @@
       </c>
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>CBT</t>
+        </is>
+      </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>randomThingy</t>
+        </is>
+      </c>
+      <c r="N3" t="n">
         <v>1</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
       </c>
       <c r="O3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
-          <t>to</t>
+          <t>JH; to</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
@@ -610,7 +624,7 @@
       <c r="A4" t="inlineStr"/>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cognitive Behavioural Therapy</t>
+          <t>Community Reinforcement Approach for Seniors (CRA-S)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr"/>
@@ -623,11 +637,7 @@
       </c>
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>CBT</t>
-        </is>
-      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
@@ -642,7 +652,7 @@
       <c r="O4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
-          <t>JH; to</t>
+          <t>to</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
@@ -656,7 +666,7 @@
       <c r="A5" t="inlineStr"/>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Community Reinforcement Approach for Seniors (CRA-S)</t>
+          <t>Health Canada Intense regimen</t>
         </is>
       </c>
       <c r="C5" t="inlineStr"/>
@@ -698,7 +708,7 @@
       <c r="A6" t="inlineStr"/>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Health Canada Intense regimen</t>
+          <t>NICE Guidance</t>
         </is>
       </c>
       <c r="C6" t="inlineStr"/>
@@ -740,7 +750,7 @@
       <c r="A7" t="inlineStr"/>
       <c r="B7" t="inlineStr">
         <is>
-          <t>NICE Guidance</t>
+          <t>TV advertising</t>
         </is>
       </c>
       <c r="C7" t="inlineStr"/>
@@ -754,23 +764,21 @@
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>Product</t>
+        </is>
+      </c>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>randomThingy</t>
-        </is>
+      <c r="M7" t="n">
+        <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O7" t="inlineStr"/>
-      <c r="P7" t="inlineStr">
-        <is>
-          <t>to</t>
-        </is>
-      </c>
+      <c r="P7" t="inlineStr"/>
       <c r="Q7" t="inlineStr">
         <is>
           <t>Proposed</t>
@@ -782,7 +790,7 @@
       <c r="A8" t="inlineStr"/>
       <c r="B8" t="inlineStr">
         <is>
-          <t>TV advertising</t>
+          <t>UK Psychoactive Substances Act</t>
         </is>
       </c>
       <c r="C8" t="inlineStr"/>
@@ -796,11 +804,7 @@
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>Product</t>
-        </is>
-      </c>
+      <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
       <c r="M8" t="n">
@@ -822,7 +826,7 @@
       <c r="A9" t="inlineStr"/>
       <c r="B9" t="inlineStr">
         <is>
-          <t>UK Psychoactive Substances Act</t>
+          <t>US governmental regulation</t>
         </is>
       </c>
       <c r="C9" t="inlineStr"/>
@@ -855,15 +859,31 @@
       <c r="R9" t="inlineStr"/>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr"/>
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>ADDICTO:0000464</t>
+        </is>
+      </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>US governmental regulation</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
+          <t>accessibility of primary healthcare physician advice</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>An environmental disposition that is the extent to which an environment enables people in that environment to receiveadvice from a primary health care physician.</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>accessibility of a service</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Process</t>
+        </is>
+      </c>
       <c r="F10" t="inlineStr">
         <is>
           <t>Intervention</t>
@@ -882,7 +902,11 @@
         <v>0</v>
       </c>
       <c r="O10" t="inlineStr"/>
-      <c r="P10" t="inlineStr"/>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>RW</t>
+        </is>
+      </c>
       <c r="Q10" t="inlineStr">
         <is>
           <t>Proposed</t>
@@ -893,22 +917,22 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>ADDICTO:0000464</t>
+          <t>ADDICTO:0000465</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>accessibility of primary healthcare physician advice</t>
+          <t>addiction treatment</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>An environmental disposition that is the extent to which an environment enables people in that environment to receiveadvice from a primary health care physician.</t>
+          <t>Treatment in which the disorder that is being treated is addiction.</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>accessibility of a service</t>
+          <t>treatment</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -934,11 +958,7 @@
         <v>0</v>
       </c>
       <c r="O11" t="inlineStr"/>
-      <c r="P11" t="inlineStr">
-        <is>
-          <t>RW</t>
-        </is>
-      </c>
+      <c r="P11" t="inlineStr"/>
       <c r="Q11" t="inlineStr">
         <is>
           <t>Proposed</t>
@@ -947,31 +967,19 @@
       <c r="R11" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>ADDICTO:0000465</t>
-        </is>
-      </c>
+      <c r="A12" t="inlineStr"/>
       <c r="B12" t="inlineStr">
         <is>
-          <t>addiction treatment</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>Treatment in which the disorder that is being treated is addiction.</t>
-        </is>
-      </c>
+          <t>adherence to opioid agonist therapy</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr">
         <is>
-          <t>treatment</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>Process</t>
-        </is>
-      </c>
+          <t>adherence to medication regimen</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr">
         <is>
           <t>Intervention</t>
@@ -999,29 +1007,49 @@
       <c r="R12" t="inlineStr"/>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr"/>
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>ADDICTO:0000466</t>
+        </is>
+      </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>adherence to opioid agonist therapy</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr"/>
+          <t>advertising ban</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>A behaviour change intervention that involves prohibition of advertising or marketing of a product in a jurisdiction.</t>
+        </is>
+      </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>adherence to medication regimen</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr"/>
+          <t xml:space="preserve">Behaviour change intervention </t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Process</t>
+        </is>
+      </c>
       <c r="F13" t="inlineStr">
         <is>
           <t>Intervention</t>
         </is>
       </c>
       <c r="G13" t="inlineStr"/>
-      <c r="H13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>No appropriate definition found. Definition based on usage.</t>
+        </is>
+      </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>This may involve a subset of the modalities of advertising such as TV. A total advertising ban would be one that banned all forms of advertising and marketing.</t>
+        </is>
+      </c>
       <c r="L13" t="inlineStr"/>
       <c r="M13" t="n">
         <v>0</v>
@@ -1030,7 +1058,11 @@
         <v>0</v>
       </c>
       <c r="O13" t="inlineStr"/>
-      <c r="P13" t="inlineStr"/>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>JH</t>
+        </is>
+      </c>
       <c r="Q13" t="inlineStr">
         <is>
           <t>Proposed</t>
@@ -1039,62 +1071,34 @@
       <c r="R13" t="inlineStr"/>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>ADDICTO:0000466</t>
-        </is>
-      </c>
+      <c r="A14" t="inlineStr"/>
       <c r="B14" t="inlineStr">
         <is>
-          <t>advertising ban</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>A behaviour change intervention that involves prohibition of advertising or marketing of a product in a jurisdiction.</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Behaviour change intervention </t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>Process</t>
-        </is>
-      </c>
+          <t>age restriction on tobacco sales</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr">
         <is>
           <t>Intervention</t>
         </is>
       </c>
       <c r="G14" t="inlineStr"/>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>No appropriate definition found. Definition based on usage.</t>
-        </is>
-      </c>
+      <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>This may involve a subset of the modalities of advertising such as TV. A total advertising ban would be one that banned all forms of advertising and marketing.</t>
-        </is>
-      </c>
+      <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
       </c>
       <c r="O14" t="inlineStr"/>
-      <c r="P14" t="inlineStr">
-        <is>
-          <t>JH</t>
-        </is>
-      </c>
+      <c r="P14" t="inlineStr"/>
       <c r="Q14" t="inlineStr">
         <is>
           <t>Proposed</t>
@@ -1106,7 +1110,7 @@
       <c r="A15" t="inlineStr"/>
       <c r="B15" t="inlineStr">
         <is>
-          <t>age restriction on tobacco sales</t>
+          <t>alcohol Use Disorder treatment</t>
         </is>
       </c>
       <c r="C15" t="inlineStr"/>
@@ -1124,7 +1128,7 @@
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
       <c r="M15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -1142,7 +1146,7 @@
       <c r="A16" t="inlineStr"/>
       <c r="B16" t="inlineStr">
         <is>
-          <t>alcohol Use Disorder treatment</t>
+          <t>alcohol consumption recommendation</t>
         </is>
       </c>
       <c r="C16" t="inlineStr"/>
@@ -1175,22 +1179,42 @@
       <c r="R16" t="inlineStr"/>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr"/>
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>ADDICTO:0000467</t>
+        </is>
+      </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>alcohol consumption recommendation</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr"/>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr"/>
+          <t>alcohol control policy</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>A government policy aimed at reducing consumption of alcohol or harm from consumption of alcohol in a population under its jurisdiction.</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>government policy</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Generically dependent continuant</t>
+        </is>
+      </c>
       <c r="F17" t="inlineStr">
         <is>
           <t>Intervention</t>
         </is>
       </c>
       <c r="G17" t="inlineStr"/>
-      <c r="H17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>No appropriate definition found. Definition based on usage. A disjunctive class.</t>
+        </is>
+      </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
@@ -1203,32 +1227,28 @@
       </c>
       <c r="O17" t="inlineStr"/>
       <c r="P17" t="inlineStr"/>
-      <c r="Q17" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
+      <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>ADDICTO:0000467</t>
+          <t>ADDICTO:0000468</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
+          <t>alcohol harm reduction policy</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>An alcohol control policy aimed at reducing the harm from consumption of alcohol in a population under its jurisdication without promoting complete abstinence from alcohol.</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
           <t>alcohol control policy</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>A government policy aimed at reducing consumption of alcohol or harm from consumption of alcohol in a population under its jurisdiction.</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>government policy</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1244,7 +1264,7 @@
       <c r="G18" t="inlineStr"/>
       <c r="H18" t="inlineStr">
         <is>
-          <t>No appropriate definition found. Definition based on usage. A disjunctive class.</t>
+          <t>No appropriate definition found. Definition based on usage.</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
@@ -1263,42 +1283,22 @@
       <c r="R18" t="inlineStr"/>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>ADDICTO:0000468</t>
-        </is>
-      </c>
+      <c r="A19" t="inlineStr"/>
       <c r="B19" t="inlineStr">
         <is>
-          <t>alcohol harm reduction policy</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>An alcohol control policy aimed at reducing the harm from consumption of alcohol in a population under its jurisdication without promoting complete abstinence from alcohol.</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>alcohol control policy</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>Generically dependent continuant</t>
-        </is>
-      </c>
+          <t>alcohol policy</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
       <c r="F19" t="inlineStr">
         <is>
           <t>Intervention</t>
         </is>
       </c>
       <c r="G19" t="inlineStr"/>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>No appropriate definition found. Definition based on usage.</t>
-        </is>
-      </c>
+      <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
@@ -1311,26 +1311,50 @@
       </c>
       <c r="O19" t="inlineStr"/>
       <c r="P19" t="inlineStr"/>
-      <c r="Q19" t="inlineStr"/>
+      <c r="Q19" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
       <c r="R19" t="inlineStr"/>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr"/>
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>ADDICTO:0000469</t>
+        </is>
+      </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>alcohol policy</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr"/>
-      <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr"/>
+          <t>alcohol reduction policy</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>An alcohol control policy aimed at reducing the consumption of alcohol in a population under its jurisdiction.</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>alcohol control policy</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Generically dependent continuant</t>
+        </is>
+      </c>
       <c r="F20" t="inlineStr">
         <is>
           <t>Intervention</t>
         </is>
       </c>
       <c r="G20" t="inlineStr"/>
-      <c r="H20" t="inlineStr"/>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>No appropriate definition found. Definition based on usage.</t>
+        </is>
+      </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
@@ -1343,50 +1367,26 @@
       </c>
       <c r="O20" t="inlineStr"/>
       <c r="P20" t="inlineStr"/>
-      <c r="Q20" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
+      <c r="Q20" t="inlineStr"/>
       <c r="R20" t="inlineStr"/>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>ADDICTO:0000469</t>
-        </is>
-      </c>
+      <c r="A21" t="inlineStr"/>
       <c r="B21" t="inlineStr">
         <is>
-          <t>alcohol reduction policy</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>An alcohol control policy aimed at reducing the consumption of alcohol in a population under its jurisdiction.</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>alcohol control policy</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>Generically dependent continuant</t>
-        </is>
-      </c>
+          <t>alcohol screening and brief advice delivery</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr"/>
       <c r="F21" t="inlineStr">
         <is>
           <t>Intervention</t>
         </is>
       </c>
       <c r="G21" t="inlineStr"/>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>No appropriate definition found. Definition based on usage.</t>
-        </is>
-      </c>
+      <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
@@ -1399,14 +1399,18 @@
       </c>
       <c r="O21" t="inlineStr"/>
       <c r="P21" t="inlineStr"/>
-      <c r="Q21" t="inlineStr"/>
+      <c r="Q21" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
       <c r="R21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr"/>
       <c r="B22" t="inlineStr">
         <is>
-          <t>alcohol screening and brief advice delivery</t>
+          <t>alcohol serving size reduction</t>
         </is>
       </c>
       <c r="C22" t="inlineStr"/>
@@ -1442,7 +1446,7 @@
       <c r="A23" t="inlineStr"/>
       <c r="B23" t="inlineStr">
         <is>
-          <t>alcohol serving size reduction</t>
+          <t>alcohol tax</t>
         </is>
       </c>
       <c r="C23" t="inlineStr"/>
@@ -1478,7 +1482,7 @@
       <c r="A24" t="inlineStr"/>
       <c r="B24" t="inlineStr">
         <is>
-          <t>alcohol tax</t>
+          <t>alcohol use prevention</t>
         </is>
       </c>
       <c r="C24" t="inlineStr"/>
@@ -1514,7 +1518,7 @@
       <c r="A25" t="inlineStr"/>
       <c r="B25" t="inlineStr">
         <is>
-          <t>alcohol use prevention</t>
+          <t>anti-tobacco advocacy</t>
         </is>
       </c>
       <c r="C25" t="inlineStr"/>
@@ -1550,10 +1554,14 @@
       <c r="A26" t="inlineStr"/>
       <c r="B26" t="inlineStr">
         <is>
-          <t>anti-tobacco advocacy</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr"/>
+          <t>anti-tobacco mass media campaign</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>A mass media campaign aimed at reducing tobacco use; may include TV, radio, and print advertising.</t>
+        </is>
+      </c>
       <c r="D26" t="inlineStr"/>
       <c r="E26" t="inlineStr"/>
       <c r="F26" t="inlineStr">
@@ -1568,7 +1576,7 @@
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
@@ -1586,14 +1594,10 @@
       <c r="A27" t="inlineStr"/>
       <c r="B27" t="inlineStr">
         <is>
-          <t>anti-tobacco mass media campaign</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>A mass media campaign aimed at reducing tobacco use; may include TV, radio, and print advertising.</t>
-        </is>
-      </c>
+          <t>at-home cessation support</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr"/>
       <c r="D27" t="inlineStr"/>
       <c r="E27" t="inlineStr"/>
       <c r="F27" t="inlineStr">
@@ -1608,7 +1612,7 @@
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
       <c r="M27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -1626,7 +1630,7 @@
       <c r="A28" t="inlineStr"/>
       <c r="B28" t="inlineStr">
         <is>
-          <t>at-home cessation support</t>
+          <t>barrier to substance use disorder treatment access</t>
         </is>
       </c>
       <c r="C28" t="inlineStr"/>
@@ -1650,7 +1654,11 @@
         <v>0</v>
       </c>
       <c r="O28" t="inlineStr"/>
-      <c r="P28" t="inlineStr"/>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>JH</t>
+        </is>
+      </c>
       <c r="Q28" t="inlineStr">
         <is>
           <t>Proposed</t>
@@ -1662,7 +1670,7 @@
       <c r="A29" t="inlineStr"/>
       <c r="B29" t="inlineStr">
         <is>
-          <t>barrier to substance use disorder treatment access</t>
+          <t>behavioural substitute</t>
         </is>
       </c>
       <c r="C29" t="inlineStr"/>
@@ -1686,11 +1694,7 @@
         <v>0</v>
       </c>
       <c r="O29" t="inlineStr"/>
-      <c r="P29" t="inlineStr">
-        <is>
-          <t>JH</t>
-        </is>
-      </c>
+      <c r="P29" t="inlineStr"/>
       <c r="Q29" t="inlineStr">
         <is>
           <t>Proposed</t>
@@ -1702,7 +1706,7 @@
       <c r="A30" t="inlineStr"/>
       <c r="B30" t="inlineStr">
         <is>
-          <t>behavioural substitute</t>
+          <t>behavioural substitution</t>
         </is>
       </c>
       <c r="C30" t="inlineStr"/>
@@ -1738,7 +1742,7 @@
       <c r="A31" t="inlineStr"/>
       <c r="B31" t="inlineStr">
         <is>
-          <t>behavioural substitution</t>
+          <t>behavioural support</t>
         </is>
       </c>
       <c r="C31" t="inlineStr"/>
@@ -1774,7 +1778,7 @@
       <c r="A32" t="inlineStr"/>
       <c r="B32" t="inlineStr">
         <is>
-          <t>behavioural support</t>
+          <t>behavioural support for smoking cessation</t>
         </is>
       </c>
       <c r="C32" t="inlineStr"/>
@@ -1792,7 +1796,7 @@
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
@@ -1810,7 +1814,7 @@
       <c r="A33" t="inlineStr"/>
       <c r="B33" t="inlineStr">
         <is>
-          <t>behavioural support for smoking cessation</t>
+          <t>brief advice provision</t>
         </is>
       </c>
       <c r="C33" t="inlineStr"/>
@@ -1828,7 +1832,7 @@
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
       <c r="M33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
@@ -1846,7 +1850,7 @@
       <c r="A34" t="inlineStr"/>
       <c r="B34" t="inlineStr">
         <is>
-          <t>brief advice provision</t>
+          <t>brief intervention</t>
         </is>
       </c>
       <c r="C34" t="inlineStr"/>
@@ -1882,7 +1886,7 @@
       <c r="A35" t="inlineStr"/>
       <c r="B35" t="inlineStr">
         <is>
-          <t>brief intervention</t>
+          <t>buprenorphine induction</t>
         </is>
       </c>
       <c r="C35" t="inlineStr"/>
@@ -1918,7 +1922,7 @@
       <c r="A36" t="inlineStr"/>
       <c r="B36" t="inlineStr">
         <is>
-          <t>buprenorphine induction</t>
+          <t>buprenorphine prescribing</t>
         </is>
       </c>
       <c r="C36" t="inlineStr"/>
@@ -1954,7 +1958,7 @@
       <c r="A37" t="inlineStr"/>
       <c r="B37" t="inlineStr">
         <is>
-          <t>buprenorphine prescribing</t>
+          <t>buprenorphine prescription</t>
         </is>
       </c>
       <c r="C37" t="inlineStr"/>
@@ -1990,7 +1994,7 @@
       <c r="A38" t="inlineStr"/>
       <c r="B38" t="inlineStr">
         <is>
-          <t>buprenorphine prescription</t>
+          <t>cancer prevention</t>
         </is>
       </c>
       <c r="C38" t="inlineStr"/>
@@ -2026,7 +2030,7 @@
       <c r="A39" t="inlineStr"/>
       <c r="B39" t="inlineStr">
         <is>
-          <t>cancer prevention</t>
+          <t>cannabis legalisation</t>
         </is>
       </c>
       <c r="C39" t="inlineStr"/>
@@ -2062,7 +2066,7 @@
       <c r="A40" t="inlineStr"/>
       <c r="B40" t="inlineStr">
         <is>
-          <t>cannabis legalisation</t>
+          <t>cannabis regulation</t>
         </is>
       </c>
       <c r="C40" t="inlineStr"/>
@@ -2098,7 +2102,7 @@
       <c r="A41" t="inlineStr"/>
       <c r="B41" t="inlineStr">
         <is>
-          <t>cannabis regulation</t>
+          <t>care provider</t>
         </is>
       </c>
       <c r="C41" t="inlineStr"/>
@@ -2134,7 +2138,7 @@
       <c r="A42" t="inlineStr"/>
       <c r="B42" t="inlineStr">
         <is>
-          <t>care provider</t>
+          <t>censorship</t>
         </is>
       </c>
       <c r="C42" t="inlineStr"/>
@@ -2170,7 +2174,7 @@
       <c r="A43" t="inlineStr"/>
       <c r="B43" t="inlineStr">
         <is>
-          <t>censorship</t>
+          <t>change plan</t>
         </is>
       </c>
       <c r="C43" t="inlineStr"/>
@@ -2206,7 +2210,7 @@
       <c r="A44" t="inlineStr"/>
       <c r="B44" t="inlineStr">
         <is>
-          <t>change plan</t>
+          <t>cigarette pricing policy</t>
         </is>
       </c>
       <c r="C44" t="inlineStr"/>
@@ -2224,7 +2228,7 @@
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr"/>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
@@ -2242,7 +2246,7 @@
       <c r="A45" t="inlineStr"/>
       <c r="B45" t="inlineStr">
         <is>
-          <t>cigarette pricing policy</t>
+          <t>clean preparation area</t>
         </is>
       </c>
       <c r="C45" t="inlineStr"/>
@@ -2260,7 +2264,7 @@
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr"/>
       <c r="M45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
@@ -2278,7 +2282,7 @@
       <c r="A46" t="inlineStr"/>
       <c r="B46" t="inlineStr">
         <is>
-          <t>clean preparation area</t>
+          <t>clinic visit</t>
         </is>
       </c>
       <c r="C46" t="inlineStr"/>
@@ -2314,7 +2318,7 @@
       <c r="A47" t="inlineStr"/>
       <c r="B47" t="inlineStr">
         <is>
-          <t>clinic visit</t>
+          <t>clinical effect</t>
         </is>
       </c>
       <c r="C47" t="inlineStr"/>
@@ -2350,7 +2354,7 @@
       <c r="A48" t="inlineStr"/>
       <c r="B48" t="inlineStr">
         <is>
-          <t>clinical effect</t>
+          <t>clinical effectiveness</t>
         </is>
       </c>
       <c r="C48" t="inlineStr"/>
@@ -2383,15 +2387,31 @@
       <c r="R48" t="inlineStr"/>
     </row>
     <row r="49">
-      <c r="A49" t="inlineStr"/>
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>ADDICTO:0000470</t>
+        </is>
+      </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>clinical effectiveness</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr"/>
-      <c r="D49" t="inlineStr"/>
-      <c r="E49" t="inlineStr"/>
+          <t>clinical provider</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>An organisation that provides a clinical service.</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>organisation</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>Material entity</t>
+        </is>
+      </c>
       <c r="F49" t="inlineStr">
         <is>
           <t>Intervention</t>
@@ -2410,7 +2430,11 @@
         <v>0</v>
       </c>
       <c r="O49" t="inlineStr"/>
-      <c r="P49" t="inlineStr"/>
+      <c r="P49" t="inlineStr">
+        <is>
+          <t>JH</t>
+        </is>
+      </c>
       <c r="Q49" t="inlineStr">
         <is>
           <t>Proposed</t>
@@ -2419,31 +2443,15 @@
       <c r="R49" t="inlineStr"/>
     </row>
     <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>ADDICTO:0000470</t>
-        </is>
-      </c>
+      <c r="A50" t="inlineStr"/>
       <c r="B50" t="inlineStr">
         <is>
-          <t>clinical provider</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>An organisation that provides a clinical service.</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>organisation</t>
-        </is>
-      </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>Material entity</t>
-        </is>
-      </c>
+          <t>clinical significance</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr"/>
+      <c r="D50" t="inlineStr"/>
+      <c r="E50" t="inlineStr"/>
       <c r="F50" t="inlineStr">
         <is>
           <t>Intervention</t>
@@ -2462,11 +2470,7 @@
         <v>0</v>
       </c>
       <c r="O50" t="inlineStr"/>
-      <c r="P50" t="inlineStr">
-        <is>
-          <t>JH</t>
-        </is>
-      </c>
+      <c r="P50" t="inlineStr"/>
       <c r="Q50" t="inlineStr">
         <is>
           <t>Proposed</t>
@@ -2478,7 +2482,7 @@
       <c r="A51" t="inlineStr"/>
       <c r="B51" t="inlineStr">
         <is>
-          <t>clinical significance</t>
+          <t>clinically meaningful effect size</t>
         </is>
       </c>
       <c r="C51" t="inlineStr"/>
@@ -2511,15 +2515,31 @@
       <c r="R51" t="inlineStr"/>
     </row>
     <row r="52">
-      <c r="A52" t="inlineStr"/>
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>ADDICTO:0000471</t>
+        </is>
+      </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>clinically meaningful effect size</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr"/>
-      <c r="D52" t="inlineStr"/>
-      <c r="E52" t="inlineStr"/>
+          <t>codeine scheduling</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Drug scheduling in which the drug concerned is codeine.</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>drug scheduling</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>Generically dependent continuant</t>
+        </is>
+      </c>
       <c r="F52" t="inlineStr">
         <is>
           <t>Intervention</t>
@@ -2539,39 +2559,19 @@
       </c>
       <c r="O52" t="inlineStr"/>
       <c r="P52" t="inlineStr"/>
-      <c r="Q52" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
+      <c r="Q52" t="inlineStr"/>
       <c r="R52" t="inlineStr"/>
     </row>
     <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>ADDICTO:0000471</t>
-        </is>
-      </c>
+      <c r="A53" t="inlineStr"/>
       <c r="B53" t="inlineStr">
         <is>
-          <t>codeine scheduling</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>Drug scheduling in which the drug concerned is codeine.</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>drug scheduling</t>
-        </is>
-      </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>Generically dependent continuant</t>
-        </is>
-      </c>
+          <t>coerced addiction treatment</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr"/>
+      <c r="D53" t="inlineStr"/>
+      <c r="E53" t="inlineStr"/>
       <c r="F53" t="inlineStr">
         <is>
           <t>Intervention</t>
@@ -2591,25 +2591,49 @@
       </c>
       <c r="O53" t="inlineStr"/>
       <c r="P53" t="inlineStr"/>
-      <c r="Q53" t="inlineStr"/>
+      <c r="Q53" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
       <c r="R53" t="inlineStr"/>
     </row>
     <row r="54">
-      <c r="A54" t="inlineStr"/>
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>ADDICTO:0000472</t>
+        </is>
+      </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>coerced addiction treatment</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr"/>
-      <c r="D54" t="inlineStr"/>
-      <c r="E54" t="inlineStr"/>
+          <t>coercion</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>An intervention function that involves changing the attractiveness of a behaviour by creating the expectation of an undesired outcome or denial of a desired one.</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>intervention function</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>Process</t>
+        </is>
+      </c>
       <c r="F54" t="inlineStr">
         <is>
           <t>Intervention</t>
         </is>
       </c>
-      <c r="G54" t="inlineStr"/>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>www.behaviourchange.com</t>
+        </is>
+      </c>
       <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2622,7 +2646,11 @@
         <v>0</v>
       </c>
       <c r="O54" t="inlineStr"/>
-      <c r="P54" t="inlineStr"/>
+      <c r="P54" t="inlineStr">
+        <is>
+          <t>RW</t>
+        </is>
+      </c>
       <c r="Q54" t="inlineStr">
         <is>
           <t>Proposed</t>
@@ -2631,41 +2659,21 @@
       <c r="R54" t="inlineStr"/>
     </row>
     <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>ADDICTO:0000472</t>
-        </is>
-      </c>
+      <c r="A55" t="inlineStr"/>
       <c r="B55" t="inlineStr">
         <is>
-          <t>coercion</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>An intervention function that involves changing the attractiveness of a behaviour by creating the expectation of an undesired outcome or denial of a desired one.</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>intervention function</t>
-        </is>
-      </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>Process</t>
-        </is>
-      </c>
+          <t>combined pharmacological and behavioural substance use treatment</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr"/>
+      <c r="D55" t="inlineStr"/>
+      <c r="E55" t="inlineStr"/>
       <c r="F55" t="inlineStr">
         <is>
           <t>Intervention</t>
         </is>
       </c>
-      <c r="G55" t="inlineStr">
-        <is>
-          <t>www.behaviourchange.com</t>
-        </is>
-      </c>
+      <c r="G55" t="inlineStr"/>
       <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2678,11 +2686,7 @@
         <v>0</v>
       </c>
       <c r="O55" t="inlineStr"/>
-      <c r="P55" t="inlineStr">
-        <is>
-          <t>RW</t>
-        </is>
-      </c>
+      <c r="P55" t="inlineStr"/>
       <c r="Q55" t="inlineStr">
         <is>
           <t>Proposed</t>
@@ -2691,21 +2695,41 @@
       <c r="R55" t="inlineStr"/>
     </row>
     <row r="56">
-      <c r="A56" t="inlineStr"/>
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>ADDICTO:0000473</t>
+        </is>
+      </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>combined pharmacological and behavioural substance use treatment</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr"/>
-      <c r="D56" t="inlineStr"/>
-      <c r="E56" t="inlineStr"/>
+          <t>communications and marketing</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>An intevention function involving mass media campaigns, digital marketing campaigns, and correspondence.</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>intervention function</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>Process</t>
+        </is>
+      </c>
       <c r="F56" t="inlineStr">
         <is>
           <t>Intervention</t>
         </is>
       </c>
-      <c r="G56" t="inlineStr"/>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>behaviourchangewheel.com</t>
+        </is>
+      </c>
       <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2718,7 +2742,11 @@
         <v>0</v>
       </c>
       <c r="O56" t="inlineStr"/>
-      <c r="P56" t="inlineStr"/>
+      <c r="P56" t="inlineStr">
+        <is>
+          <t>RW</t>
+        </is>
+      </c>
       <c r="Q56" t="inlineStr">
         <is>
           <t>Proposed</t>
@@ -2727,41 +2755,21 @@
       <c r="R56" t="inlineStr"/>
     </row>
     <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>ADDICTO:0000473</t>
-        </is>
-      </c>
+      <c r="A57" t="inlineStr"/>
       <c r="B57" t="inlineStr">
         <is>
-          <t>communications and marketing</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>An intevention function involving mass media campaigns, digital marketing campaigns, and correspondence.</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>intervention function</t>
-        </is>
-      </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>Process</t>
-        </is>
-      </c>
+          <t>complex intervention</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr"/>
+      <c r="D57" t="inlineStr"/>
+      <c r="E57" t="inlineStr"/>
       <c r="F57" t="inlineStr">
         <is>
           <t>Intervention</t>
         </is>
       </c>
-      <c r="G57" t="inlineStr">
-        <is>
-          <t>behaviourchangewheel.com</t>
-        </is>
-      </c>
+      <c r="G57" t="inlineStr"/>
       <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2774,11 +2782,7 @@
         <v>0</v>
       </c>
       <c r="O57" t="inlineStr"/>
-      <c r="P57" t="inlineStr">
-        <is>
-          <t>RW</t>
-        </is>
-      </c>
+      <c r="P57" t="inlineStr"/>
       <c r="Q57" t="inlineStr">
         <is>
           <t>Proposed</t>
@@ -2787,15 +2791,31 @@
       <c r="R57" t="inlineStr"/>
     </row>
     <row r="58">
-      <c r="A58" t="inlineStr"/>
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>ADDICTO:0000474</t>
+        </is>
+      </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>complex intervention</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr"/>
-      <c r="D58" t="inlineStr"/>
-      <c r="E58" t="inlineStr"/>
+          <t>compulsory addiction treatment</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Treatment of addiction that either a drug user or a person with a drug problem is compelled to undergo by a legal authority in the jurisdiction in which they reside.</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>addiction treatment</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>Process</t>
+        </is>
+      </c>
       <c r="F58" t="inlineStr">
         <is>
           <t>Intervention</t>
@@ -2823,31 +2843,15 @@
       <c r="R58" t="inlineStr"/>
     </row>
     <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>ADDICTO:0000474</t>
-        </is>
-      </c>
+      <c r="A59" t="inlineStr"/>
       <c r="B59" t="inlineStr">
         <is>
-          <t>compulsory addiction treatment</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>Treatment of addiction that either a drug user or a person with a drug problem is compelled to undergo by a legal authority in the jurisdiction in which they reside.</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>addiction treatment</t>
-        </is>
-      </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>Process</t>
-        </is>
-      </c>
+          <t>consumption-reducing effect</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr"/>
+      <c r="D59" t="inlineStr"/>
+      <c r="E59" t="inlineStr"/>
       <c r="F59" t="inlineStr">
         <is>
           <t>Intervention</t>
@@ -2878,7 +2882,7 @@
       <c r="A60" t="inlineStr"/>
       <c r="B60" t="inlineStr">
         <is>
-          <t>consumption-reducing effect</t>
+          <t>contingency management</t>
         </is>
       </c>
       <c r="C60" t="inlineStr"/>
@@ -2914,7 +2918,7 @@
       <c r="A61" t="inlineStr"/>
       <c r="B61" t="inlineStr">
         <is>
-          <t>contingency management</t>
+          <t>contingency management intervention</t>
         </is>
       </c>
       <c r="C61" t="inlineStr"/>
@@ -2950,7 +2954,7 @@
       <c r="A62" t="inlineStr"/>
       <c r="B62" t="inlineStr">
         <is>
-          <t>contingency management intervention</t>
+          <t>correctional school</t>
         </is>
       </c>
       <c r="C62" t="inlineStr"/>
@@ -2986,10 +2990,14 @@
       <c r="A63" t="inlineStr"/>
       <c r="B63" t="inlineStr">
         <is>
-          <t>correctional school</t>
-        </is>
-      </c>
-      <c r="C63" t="inlineStr"/>
+          <t>cost effectiveness</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>Financial cost of implementing a specified intervention to achieve an improvement in a specified outcome in a soecified context relative to a comparator.</t>
+        </is>
+      </c>
       <c r="D63" t="inlineStr"/>
       <c r="E63" t="inlineStr"/>
       <c r="F63" t="inlineStr">
@@ -3004,7 +3012,7 @@
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr"/>
       <c r="M63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N63" t="n">
         <v>0</v>
@@ -3019,38 +3027,58 @@
       <c r="R63" t="inlineStr"/>
     </row>
     <row r="64">
-      <c r="A64" t="inlineStr"/>
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>ADDICTO:0000475</t>
+        </is>
+      </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>cost effectiveness</t>
+          <t>cost per quality-adjusted life-year gained</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Financial cost of implementing a specified intervention to achieve an improvement in a specified outcome in a soecified context relative to a comparator.</t>
-        </is>
-      </c>
-      <c r="D64" t="inlineStr"/>
-      <c r="E64" t="inlineStr"/>
+          <t xml:space="preserve">A data item that is about an intervention and is the estimated financial cost of delivering that intervention to a population in a setting in order to gain one QALY in the population. </t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>data item</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>Generically dependent continuant</t>
+        </is>
+      </c>
       <c r="F64" t="inlineStr">
         <is>
           <t>Intervention</t>
         </is>
       </c>
       <c r="G64" t="inlineStr"/>
-      <c r="H64" t="inlineStr"/>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>No ontological definition found. Definition based on definition of ICER https://en.wikipedia.org/wiki/Incremental_cost-effectiveness_ratio</t>
+        </is>
+      </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr"/>
       <c r="M64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N64" t="n">
         <v>0</v>
       </c>
       <c r="O64" t="inlineStr"/>
-      <c r="P64" t="inlineStr"/>
+      <c r="P64" t="inlineStr">
+        <is>
+          <t>JH</t>
+        </is>
+      </c>
       <c r="Q64" t="inlineStr">
         <is>
           <t>Proposed</t>
@@ -3059,42 +3087,22 @@
       <c r="R64" t="inlineStr"/>
     </row>
     <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>ADDICTO:0000475</t>
-        </is>
-      </c>
+      <c r="A65" t="inlineStr"/>
       <c r="B65" t="inlineStr">
         <is>
-          <t>cost per quality-adjusted life-year gained</t>
-        </is>
-      </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t xml:space="preserve">A data item that is about an intervention and is the estimated financial cost of delivering that intervention to a population in a setting in order to gain one QALY in the population. </t>
-        </is>
-      </c>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>data item</t>
-        </is>
-      </c>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>Generically dependent continuant</t>
-        </is>
-      </c>
+          <t>cost-effective strategy</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr"/>
+      <c r="D65" t="inlineStr"/>
+      <c r="E65" t="inlineStr"/>
       <c r="F65" t="inlineStr">
         <is>
           <t>Intervention</t>
         </is>
       </c>
       <c r="G65" t="inlineStr"/>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>No ontological definition found. Definition based on definition of ICER https://en.wikipedia.org/wiki/Incremental_cost-effectiveness_ratio</t>
-        </is>
-      </c>
+      <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
@@ -3106,11 +3114,7 @@
         <v>0</v>
       </c>
       <c r="O65" t="inlineStr"/>
-      <c r="P65" t="inlineStr">
-        <is>
-          <t>JH</t>
-        </is>
-      </c>
+      <c r="P65" t="inlineStr"/>
       <c r="Q65" t="inlineStr">
         <is>
           <t>Proposed</t>
@@ -3122,7 +3126,7 @@
       <c r="A66" t="inlineStr"/>
       <c r="B66" t="inlineStr">
         <is>
-          <t>cost-effective strategy</t>
+          <t>cost-effectiveness acceptability curve</t>
         </is>
       </c>
       <c r="C66" t="inlineStr"/>
@@ -3158,7 +3162,7 @@
       <c r="A67" t="inlineStr"/>
       <c r="B67" t="inlineStr">
         <is>
-          <t>cost-effectiveness acceptability curve</t>
+          <t>cost-effectiveness at population-level</t>
         </is>
       </c>
       <c r="C67" t="inlineStr"/>
@@ -3194,7 +3198,7 @@
       <c r="A68" t="inlineStr"/>
       <c r="B68" t="inlineStr">
         <is>
-          <t>cost-effectiveness at population-level</t>
+          <t>counseling</t>
         </is>
       </c>
       <c r="C68" t="inlineStr"/>
@@ -3230,7 +3234,7 @@
       <c r="A69" t="inlineStr"/>
       <c r="B69" t="inlineStr">
         <is>
-          <t>counseling</t>
+          <t>counselling session</t>
         </is>
       </c>
       <c r="C69" t="inlineStr"/>
@@ -3248,7 +3252,7 @@
       <c r="K69" t="inlineStr"/>
       <c r="L69" t="inlineStr"/>
       <c r="M69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N69" t="n">
         <v>0</v>
@@ -3266,7 +3270,7 @@
       <c r="A70" t="inlineStr"/>
       <c r="B70" t="inlineStr">
         <is>
-          <t>counselling session</t>
+          <t>court-mandated treatment</t>
         </is>
       </c>
       <c r="C70" t="inlineStr"/>
@@ -3284,7 +3288,7 @@
       <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr"/>
       <c r="M70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N70" t="n">
         <v>0</v>
@@ -3302,7 +3306,7 @@
       <c r="A71" t="inlineStr"/>
       <c r="B71" t="inlineStr">
         <is>
-          <t>court-mandated treatment</t>
+          <t>coverage of needle and syringe provision</t>
         </is>
       </c>
       <c r="C71" t="inlineStr"/>
@@ -3338,7 +3342,7 @@
       <c r="A72" t="inlineStr"/>
       <c r="B72" t="inlineStr">
         <is>
-          <t>coverage of needle and syringe provision</t>
+          <t>criminal justice system</t>
         </is>
       </c>
       <c r="C72" t="inlineStr"/>
@@ -3374,7 +3378,7 @@
       <c r="A73" t="inlineStr"/>
       <c r="B73" t="inlineStr">
         <is>
-          <t>criminal justice system</t>
+          <t>daily buprenorphine dose</t>
         </is>
       </c>
       <c r="C73" t="inlineStr"/>
@@ -3407,15 +3411,31 @@
       <c r="R73" t="inlineStr"/>
     </row>
     <row r="74">
-      <c r="A74" t="inlineStr"/>
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>ADDICTO:0000476</t>
+        </is>
+      </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>daily buprenorphine dose</t>
-        </is>
-      </c>
-      <c r="C74" t="inlineStr"/>
-      <c r="D74" t="inlineStr"/>
-      <c r="E74" t="inlineStr"/>
+          <t>deep brain stimulation</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A physical treatment for brain disorders that involves implanting an electrode in a specific part of the brain and passing a current through it with the aim of stimulating electrical activity in the part of the brain concerned. </t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>physical treatment</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>Process</t>
+        </is>
+      </c>
       <c r="F74" t="inlineStr">
         <is>
           <t>Intervention</t>
@@ -3443,31 +3463,15 @@
       <c r="R74" t="inlineStr"/>
     </row>
     <row r="75">
-      <c r="A75" t="inlineStr">
-        <is>
-          <t>ADDICTO:0000476</t>
-        </is>
-      </c>
+      <c r="A75" t="inlineStr"/>
       <c r="B75" t="inlineStr">
         <is>
-          <t>deep brain stimulation</t>
-        </is>
-      </c>
-      <c r="C75" t="inlineStr">
-        <is>
-          <t xml:space="preserve">A physical treatment for brain disorders that involves implanting an electrode in a specific part of the brain and passing a current through it with the aim of stimulating electrical activity in the part of the brain concerned. </t>
-        </is>
-      </c>
-      <c r="D75" t="inlineStr">
-        <is>
-          <t>physical treatment</t>
-        </is>
-      </c>
-      <c r="E75" t="inlineStr">
-        <is>
-          <t>Process</t>
-        </is>
-      </c>
+          <t>denormalisation</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr"/>
+      <c r="D75" t="inlineStr"/>
+      <c r="E75" t="inlineStr"/>
       <c r="F75" t="inlineStr">
         <is>
           <t>Intervention</t>
@@ -3495,40 +3499,44 @@
       <c r="R75" t="inlineStr"/>
     </row>
     <row r="76">
-      <c r="A76" t="inlineStr"/>
-      <c r="B76" t="inlineStr">
-        <is>
-          <t>denormalisation</t>
-        </is>
-      </c>
-      <c r="C76" t="inlineStr"/>
-      <c r="D76" t="inlineStr"/>
-      <c r="E76" t="inlineStr"/>
-      <c r="F76" t="inlineStr">
-        <is>
-          <t>Intervention</t>
-        </is>
-      </c>
-      <c r="G76" t="inlineStr"/>
-      <c r="H76" t="inlineStr"/>
-      <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
-        <v>0</v>
-      </c>
-      <c r="N76" t="n">
-        <v>0</v>
-      </c>
-      <c r="O76" t="inlineStr"/>
-      <c r="P76" t="inlineStr"/>
-      <c r="Q76" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="R76" t="inlineStr"/>
+      <c r="A76" s="2" t="inlineStr">
+        <is>
+          <t>dfdf</t>
+        </is>
+      </c>
+      <c r="B76" s="2" t="inlineStr">
+        <is>
+          <t>dfdf</t>
+        </is>
+      </c>
+      <c r="C76" s="2" t="inlineStr"/>
+      <c r="D76" s="2" t="inlineStr"/>
+      <c r="E76" s="2" t="inlineStr"/>
+      <c r="F76" s="2" t="inlineStr"/>
+      <c r="G76" s="2" t="inlineStr"/>
+      <c r="H76" s="2" t="inlineStr"/>
+      <c r="I76" s="2" t="inlineStr"/>
+      <c r="J76" s="2" t="inlineStr"/>
+      <c r="K76" s="2" t="inlineStr"/>
+      <c r="L76" s="2" t="inlineStr"/>
+      <c r="M76" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N76" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O76" s="2" t="inlineStr"/>
+      <c r="P76" s="2" t="inlineStr">
+        <is>
+          <t>to</t>
+        </is>
+      </c>
+      <c r="Q76" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="R76" s="2" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="2" t="inlineStr">
@@ -3538,7 +3546,7 @@
       </c>
       <c r="B77" s="2" t="inlineStr">
         <is>
-          <t>dfdf</t>
+          <t>dfdff</t>
         </is>
       </c>
       <c r="C77" s="2" t="inlineStr"/>

--- a/inputs/AddictO_Intervention_Defs.xlsx
+++ b/inputs/AddictO_Intervention_Defs.xlsx
@@ -531,11 +531,7 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>dfd</t>
-        </is>
-      </c>
+      <c r="A2" t="inlineStr"/>
       <c r="B2" t="inlineStr">
         <is>
           <t>Behaviour Change Technique</t>

--- a/inputs/AddictO_Intervention_Defs.xlsx
+++ b/inputs/AddictO_Intervention_Defs.xlsx
@@ -30,7 +30,7 @@
       <sz val="12"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill/>
     </fill>
@@ -47,6 +47,11 @@
         <fgColor rgb="00FFE4B5"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00eee8aa"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -60,11 +65,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -531,50 +537,42 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr"/>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Behaviour Change Technique</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>Intervention</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
+      <c r="A2" s="2" t="inlineStr"/>
+      <c r="B2" s="2" t="inlineStr"/>
+      <c r="C2" s="2" t="inlineStr"/>
+      <c r="D2" s="2" t="inlineStr"/>
+      <c r="E2" s="2" t="inlineStr"/>
+      <c r="F2" s="2" t="inlineStr"/>
+      <c r="G2" s="2" t="inlineStr"/>
+      <c r="H2" s="2" t="inlineStr"/>
+      <c r="I2" s="2" t="inlineStr"/>
+      <c r="J2" s="2" t="inlineStr"/>
+      <c r="K2" s="2" t="inlineStr"/>
+      <c r="L2" s="2" t="inlineStr"/>
+      <c r="M2" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="inlineStr"/>
-      <c r="P2" t="inlineStr">
+      <c r="N2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" s="2" t="inlineStr"/>
+      <c r="P2" s="2" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="R2" t="inlineStr"/>
+      <c r="Q2" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="R2" s="2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr"/>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cognitive Behavioural Therapy</t>
+          <t>Behaviour Change Technique</t>
         </is>
       </c>
       <c r="C3" t="inlineStr"/>
@@ -587,26 +585,20 @@
       </c>
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>CBT</t>
-        </is>
-      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>randomThingy</t>
-        </is>
+      <c r="M3" t="n">
+        <v>1</v>
       </c>
       <c r="N3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
-          <t>JH; to</t>
+          <t>to</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
@@ -620,7 +612,7 @@
       <c r="A4" t="inlineStr"/>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Community Reinforcement Approach for Seniors (CRA-S)</t>
+          <t>Cognitive Behavioural Therapy</t>
         </is>
       </c>
       <c r="C4" t="inlineStr"/>
@@ -633,7 +625,11 @@
       </c>
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>CBT</t>
+        </is>
+      </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
@@ -648,7 +644,7 @@
       <c r="O4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
-          <t>to</t>
+          <t>JH; to</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
@@ -662,7 +658,7 @@
       <c r="A5" t="inlineStr"/>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Health Canada Intense regimen</t>
+          <t>Community Reinforcement Approach for Seniors (CRA-S)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr"/>
@@ -704,7 +700,7 @@
       <c r="A6" t="inlineStr"/>
       <c r="B6" t="inlineStr">
         <is>
-          <t>NICE Guidance</t>
+          <t>Health Canada Intense regimen</t>
         </is>
       </c>
       <c r="C6" t="inlineStr"/>
@@ -746,7 +742,7 @@
       <c r="A7" t="inlineStr"/>
       <c r="B7" t="inlineStr">
         <is>
-          <t>TV advertising</t>
+          <t>NICE Guidance</t>
         </is>
       </c>
       <c r="C7" t="inlineStr"/>
@@ -760,21 +756,23 @@
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>Product</t>
-        </is>
-      </c>
+      <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
-        <v>0</v>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>randomThingy</t>
+        </is>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O7" t="inlineStr"/>
-      <c r="P7" t="inlineStr"/>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>to</t>
+        </is>
+      </c>
       <c r="Q7" t="inlineStr">
         <is>
           <t>Proposed</t>
@@ -786,7 +784,7 @@
       <c r="A8" t="inlineStr"/>
       <c r="B8" t="inlineStr">
         <is>
-          <t>UK Psychoactive Substances Act</t>
+          <t>TV advertising</t>
         </is>
       </c>
       <c r="C8" t="inlineStr"/>
@@ -800,7 +798,11 @@
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>Product</t>
+        </is>
+      </c>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
       <c r="M8" t="n">
@@ -822,7 +824,7 @@
       <c r="A9" t="inlineStr"/>
       <c r="B9" t="inlineStr">
         <is>
-          <t>US governmental regulation</t>
+          <t>UK Psychoactive Substances Act</t>
         </is>
       </c>
       <c r="C9" t="inlineStr"/>
@@ -855,31 +857,15 @@
       <c r="R9" t="inlineStr"/>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>ADDICTO:0000464</t>
-        </is>
-      </c>
+      <c r="A10" t="inlineStr"/>
       <c r="B10" t="inlineStr">
         <is>
-          <t>accessibility of primary healthcare physician advice</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>An environmental disposition that is the extent to which an environment enables people in that environment to receiveadvice from a primary health care physician.</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>accessibility of a service</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>Process</t>
-        </is>
-      </c>
+          <t>US governmental regulation</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr">
         <is>
           <t>Intervention</t>
@@ -898,11 +884,7 @@
         <v>0</v>
       </c>
       <c r="O10" t="inlineStr"/>
-      <c r="P10" t="inlineStr">
-        <is>
-          <t>RW</t>
-        </is>
-      </c>
+      <c r="P10" t="inlineStr"/>
       <c r="Q10" t="inlineStr">
         <is>
           <t>Proposed</t>
@@ -913,22 +895,22 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>ADDICTO:0000465</t>
+          <t>ADDICTO:0000464</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>addiction treatment</t>
+          <t>accessibility of primary healthcare physician advice</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Treatment in which the disorder that is being treated is addiction.</t>
+          <t>An environmental disposition that is the extent to which an environment enables people in that environment to receiveadvice from a primary health care physician.</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>treatment</t>
+          <t>accessibility of a service</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -954,7 +936,11 @@
         <v>0</v>
       </c>
       <c r="O11" t="inlineStr"/>
-      <c r="P11" t="inlineStr"/>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>RW</t>
+        </is>
+      </c>
       <c r="Q11" t="inlineStr">
         <is>
           <t>Proposed</t>
@@ -963,19 +949,31 @@
       <c r="R11" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr"/>
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>ADDICTO:0000465</t>
+        </is>
+      </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>adherence to opioid agonist therapy</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr"/>
+          <t>addiction treatment</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Treatment in which the disorder that is being treated is addiction.</t>
+        </is>
+      </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>adherence to medication regimen</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr"/>
+          <t>treatment</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Process</t>
+        </is>
+      </c>
       <c r="F12" t="inlineStr">
         <is>
           <t>Intervention</t>
@@ -1003,49 +1001,29 @@
       <c r="R12" t="inlineStr"/>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>ADDICTO:0000466</t>
-        </is>
-      </c>
+      <c r="A13" t="inlineStr"/>
       <c r="B13" t="inlineStr">
         <is>
-          <t>advertising ban</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>A behaviour change intervention that involves prohibition of advertising or marketing of a product in a jurisdiction.</t>
-        </is>
-      </c>
+          <t>adherence to opioid agonist therapy</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr">
         <is>
-          <t xml:space="preserve">Behaviour change intervention </t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>Process</t>
-        </is>
-      </c>
+          <t>adherence to medication regimen</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr">
         <is>
           <t>Intervention</t>
         </is>
       </c>
       <c r="G13" t="inlineStr"/>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>No appropriate definition found. Definition based on usage.</t>
-        </is>
-      </c>
+      <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>This may involve a subset of the modalities of advertising such as TV. A total advertising ban would be one that banned all forms of advertising and marketing.</t>
-        </is>
-      </c>
+      <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
       <c r="M13" t="n">
         <v>0</v>
@@ -1054,11 +1032,7 @@
         <v>0</v>
       </c>
       <c r="O13" t="inlineStr"/>
-      <c r="P13" t="inlineStr">
-        <is>
-          <t>JH</t>
-        </is>
-      </c>
+      <c r="P13" t="inlineStr"/>
       <c r="Q13" t="inlineStr">
         <is>
           <t>Proposed</t>
@@ -1067,34 +1041,62 @@
       <c r="R13" t="inlineStr"/>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr"/>
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>ADDICTO:0000466</t>
+        </is>
+      </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>age restriction on tobacco sales</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr"/>
+          <t>advertising ban</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>A behaviour change intervention that involves prohibition of advertising or marketing of a product in a jurisdiction.</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Behaviour change intervention </t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Process</t>
+        </is>
+      </c>
       <c r="F14" t="inlineStr">
         <is>
           <t>Intervention</t>
         </is>
       </c>
       <c r="G14" t="inlineStr"/>
-      <c r="H14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>No appropriate definition found. Definition based on usage.</t>
+        </is>
+      </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>This may involve a subset of the modalities of advertising such as TV. A total advertising ban would be one that banned all forms of advertising and marketing.</t>
+        </is>
+      </c>
       <c r="L14" t="inlineStr"/>
       <c r="M14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
       </c>
       <c r="O14" t="inlineStr"/>
-      <c r="P14" t="inlineStr"/>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>JH</t>
+        </is>
+      </c>
       <c r="Q14" t="inlineStr">
         <is>
           <t>Proposed</t>
@@ -1106,7 +1108,7 @@
       <c r="A15" t="inlineStr"/>
       <c r="B15" t="inlineStr">
         <is>
-          <t>alcohol Use Disorder treatment</t>
+          <t>age restriction on tobacco sales</t>
         </is>
       </c>
       <c r="C15" t="inlineStr"/>
@@ -1124,7 +1126,7 @@
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -1142,7 +1144,7 @@
       <c r="A16" t="inlineStr"/>
       <c r="B16" t="inlineStr">
         <is>
-          <t>alcohol consumption recommendation</t>
+          <t>alcohol Use Disorder treatment</t>
         </is>
       </c>
       <c r="C16" t="inlineStr"/>
@@ -1175,42 +1177,22 @@
       <c r="R16" t="inlineStr"/>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>ADDICTO:0000467</t>
-        </is>
-      </c>
+      <c r="A17" t="inlineStr"/>
       <c r="B17" t="inlineStr">
         <is>
-          <t>alcohol control policy</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>A government policy aimed at reducing consumption of alcohol or harm from consumption of alcohol in a population under its jurisdiction.</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>government policy</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>Generically dependent continuant</t>
-        </is>
-      </c>
+          <t>alcohol consumption recommendation</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr"/>
       <c r="F17" t="inlineStr">
         <is>
           <t>Intervention</t>
         </is>
       </c>
       <c r="G17" t="inlineStr"/>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>No appropriate definition found. Definition based on usage. A disjunctive class.</t>
-        </is>
-      </c>
+      <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
@@ -1223,28 +1205,32 @@
       </c>
       <c r="O17" t="inlineStr"/>
       <c r="P17" t="inlineStr"/>
-      <c r="Q17" t="inlineStr"/>
+      <c r="Q17" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
       <c r="R17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>ADDICTO:0000468</t>
+          <t>ADDICTO:0000467</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>alcohol harm reduction policy</t>
+          <t>alcohol control policy</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>An alcohol control policy aimed at reducing the harm from consumption of alcohol in a population under its jurisdication without promoting complete abstinence from alcohol.</t>
+          <t>A government policy aimed at reducing consumption of alcohol or harm from consumption of alcohol in a population under its jurisdiction.</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>alcohol control policy</t>
+          <t>government policy</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1260,7 +1246,7 @@
       <c r="G18" t="inlineStr"/>
       <c r="H18" t="inlineStr">
         <is>
-          <t>No appropriate definition found. Definition based on usage.</t>
+          <t>No appropriate definition found. Definition based on usage. A disjunctive class.</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
@@ -1279,22 +1265,42 @@
       <c r="R18" t="inlineStr"/>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr"/>
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>ADDICTO:0000468</t>
+        </is>
+      </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>alcohol policy</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr"/>
-      <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr"/>
+          <t>alcohol harm reduction policy</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>An alcohol control policy aimed at reducing the harm from consumption of alcohol in a population under its jurisdication without promoting complete abstinence from alcohol.</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>alcohol control policy</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Generically dependent continuant</t>
+        </is>
+      </c>
       <c r="F19" t="inlineStr">
         <is>
           <t>Intervention</t>
         </is>
       </c>
       <c r="G19" t="inlineStr"/>
-      <c r="H19" t="inlineStr"/>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>No appropriate definition found. Definition based on usage.</t>
+        </is>
+      </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
@@ -1307,50 +1313,26 @@
       </c>
       <c r="O19" t="inlineStr"/>
       <c r="P19" t="inlineStr"/>
-      <c r="Q19" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
+      <c r="Q19" t="inlineStr"/>
       <c r="R19" t="inlineStr"/>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>ADDICTO:0000469</t>
-        </is>
-      </c>
+      <c r="A20" t="inlineStr"/>
       <c r="B20" t="inlineStr">
         <is>
-          <t>alcohol reduction policy</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>An alcohol control policy aimed at reducing the consumption of alcohol in a population under its jurisdiction.</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>alcohol control policy</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>Generically dependent continuant</t>
-        </is>
-      </c>
+          <t>alcohol policy</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr"/>
       <c r="F20" t="inlineStr">
         <is>
           <t>Intervention</t>
         </is>
       </c>
       <c r="G20" t="inlineStr"/>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>No appropriate definition found. Definition based on usage.</t>
-        </is>
-      </c>
+      <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
@@ -1363,26 +1345,50 @@
       </c>
       <c r="O20" t="inlineStr"/>
       <c r="P20" t="inlineStr"/>
-      <c r="Q20" t="inlineStr"/>
+      <c r="Q20" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
       <c r="R20" t="inlineStr"/>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr"/>
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>ADDICTO:0000469</t>
+        </is>
+      </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>alcohol screening and brief advice delivery</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr"/>
-      <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr"/>
+          <t>alcohol reduction policy</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>An alcohol control policy aimed at reducing the consumption of alcohol in a population under its jurisdiction.</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>alcohol control policy</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Generically dependent continuant</t>
+        </is>
+      </c>
       <c r="F21" t="inlineStr">
         <is>
           <t>Intervention</t>
         </is>
       </c>
       <c r="G21" t="inlineStr"/>
-      <c r="H21" t="inlineStr"/>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>No appropriate definition found. Definition based on usage.</t>
+        </is>
+      </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
@@ -1395,18 +1401,14 @@
       </c>
       <c r="O21" t="inlineStr"/>
       <c r="P21" t="inlineStr"/>
-      <c r="Q21" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
+      <c r="Q21" t="inlineStr"/>
       <c r="R21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr"/>
       <c r="B22" t="inlineStr">
         <is>
-          <t>alcohol serving size reduction</t>
+          <t>alcohol screening and brief advice delivery</t>
         </is>
       </c>
       <c r="C22" t="inlineStr"/>
@@ -1442,7 +1444,7 @@
       <c r="A23" t="inlineStr"/>
       <c r="B23" t="inlineStr">
         <is>
-          <t>alcohol tax</t>
+          <t>alcohol serving size reduction</t>
         </is>
       </c>
       <c r="C23" t="inlineStr"/>
@@ -1478,7 +1480,7 @@
       <c r="A24" t="inlineStr"/>
       <c r="B24" t="inlineStr">
         <is>
-          <t>alcohol use prevention</t>
+          <t>alcohol tax</t>
         </is>
       </c>
       <c r="C24" t="inlineStr"/>
@@ -1514,7 +1516,7 @@
       <c r="A25" t="inlineStr"/>
       <c r="B25" t="inlineStr">
         <is>
-          <t>anti-tobacco advocacy</t>
+          <t>alcohol use prevention</t>
         </is>
       </c>
       <c r="C25" t="inlineStr"/>
@@ -1550,14 +1552,10 @@
       <c r="A26" t="inlineStr"/>
       <c r="B26" t="inlineStr">
         <is>
-          <t>anti-tobacco mass media campaign</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>A mass media campaign aimed at reducing tobacco use; may include TV, radio, and print advertising.</t>
-        </is>
-      </c>
+          <t>anti-tobacco advocacy</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr"/>
       <c r="D26" t="inlineStr"/>
       <c r="E26" t="inlineStr"/>
       <c r="F26" t="inlineStr">
@@ -1572,7 +1570,7 @@
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
       <c r="M26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
@@ -1590,10 +1588,14 @@
       <c r="A27" t="inlineStr"/>
       <c r="B27" t="inlineStr">
         <is>
-          <t>at-home cessation support</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr"/>
+          <t>anti-tobacco mass media campaign</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>A mass media campaign aimed at reducing tobacco use; may include TV, radio, and print advertising.</t>
+        </is>
+      </c>
       <c r="D27" t="inlineStr"/>
       <c r="E27" t="inlineStr"/>
       <c r="F27" t="inlineStr">
@@ -1608,7 +1610,7 @@
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -1626,7 +1628,7 @@
       <c r="A28" t="inlineStr"/>
       <c r="B28" t="inlineStr">
         <is>
-          <t>barrier to substance use disorder treatment access</t>
+          <t>at-home cessation support</t>
         </is>
       </c>
       <c r="C28" t="inlineStr"/>
@@ -1650,11 +1652,7 @@
         <v>0</v>
       </c>
       <c r="O28" t="inlineStr"/>
-      <c r="P28" t="inlineStr">
-        <is>
-          <t>JH</t>
-        </is>
-      </c>
+      <c r="P28" t="inlineStr"/>
       <c r="Q28" t="inlineStr">
         <is>
           <t>Proposed</t>
@@ -1666,7 +1664,7 @@
       <c r="A29" t="inlineStr"/>
       <c r="B29" t="inlineStr">
         <is>
-          <t>behavioural substitute</t>
+          <t>barrier to substance use disorder treatment access</t>
         </is>
       </c>
       <c r="C29" t="inlineStr"/>
@@ -1690,7 +1688,11 @@
         <v>0</v>
       </c>
       <c r="O29" t="inlineStr"/>
-      <c r="P29" t="inlineStr"/>
+      <c r="P29" t="inlineStr">
+        <is>
+          <t>JH</t>
+        </is>
+      </c>
       <c r="Q29" t="inlineStr">
         <is>
           <t>Proposed</t>
@@ -1702,7 +1704,7 @@
       <c r="A30" t="inlineStr"/>
       <c r="B30" t="inlineStr">
         <is>
-          <t>behavioural substitution</t>
+          <t>behavioural substitute</t>
         </is>
       </c>
       <c r="C30" t="inlineStr"/>
@@ -1738,7 +1740,7 @@
       <c r="A31" t="inlineStr"/>
       <c r="B31" t="inlineStr">
         <is>
-          <t>behavioural support</t>
+          <t>behavioural substitution</t>
         </is>
       </c>
       <c r="C31" t="inlineStr"/>
@@ -1774,7 +1776,7 @@
       <c r="A32" t="inlineStr"/>
       <c r="B32" t="inlineStr">
         <is>
-          <t>behavioural support for smoking cessation</t>
+          <t>behavioural support</t>
         </is>
       </c>
       <c r="C32" t="inlineStr"/>
@@ -1792,7 +1794,7 @@
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
       <c r="M32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
@@ -1810,7 +1812,7 @@
       <c r="A33" t="inlineStr"/>
       <c r="B33" t="inlineStr">
         <is>
-          <t>brief advice provision</t>
+          <t>behavioural support for smoking cessation</t>
         </is>
       </c>
       <c r="C33" t="inlineStr"/>
@@ -1828,7 +1830,7 @@
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
@@ -1846,7 +1848,7 @@
       <c r="A34" t="inlineStr"/>
       <c r="B34" t="inlineStr">
         <is>
-          <t>brief intervention</t>
+          <t>brief advice provision</t>
         </is>
       </c>
       <c r="C34" t="inlineStr"/>
@@ -1882,7 +1884,7 @@
       <c r="A35" t="inlineStr"/>
       <c r="B35" t="inlineStr">
         <is>
-          <t>buprenorphine induction</t>
+          <t>brief intervention</t>
         </is>
       </c>
       <c r="C35" t="inlineStr"/>
@@ -1918,7 +1920,7 @@
       <c r="A36" t="inlineStr"/>
       <c r="B36" t="inlineStr">
         <is>
-          <t>buprenorphine prescribing</t>
+          <t>buprenorphine induction</t>
         </is>
       </c>
       <c r="C36" t="inlineStr"/>
@@ -1954,7 +1956,7 @@
       <c r="A37" t="inlineStr"/>
       <c r="B37" t="inlineStr">
         <is>
-          <t>buprenorphine prescription</t>
+          <t>buprenorphine prescribing</t>
         </is>
       </c>
       <c r="C37" t="inlineStr"/>
@@ -1990,7 +1992,7 @@
       <c r="A38" t="inlineStr"/>
       <c r="B38" t="inlineStr">
         <is>
-          <t>cancer prevention</t>
+          <t>buprenorphine prescription</t>
         </is>
       </c>
       <c r="C38" t="inlineStr"/>
@@ -2026,7 +2028,7 @@
       <c r="A39" t="inlineStr"/>
       <c r="B39" t="inlineStr">
         <is>
-          <t>cannabis legalisation</t>
+          <t>cancer prevention</t>
         </is>
       </c>
       <c r="C39" t="inlineStr"/>
@@ -2062,7 +2064,7 @@
       <c r="A40" t="inlineStr"/>
       <c r="B40" t="inlineStr">
         <is>
-          <t>cannabis regulation</t>
+          <t>cannabis legalisation</t>
         </is>
       </c>
       <c r="C40" t="inlineStr"/>
@@ -2098,7 +2100,7 @@
       <c r="A41" t="inlineStr"/>
       <c r="B41" t="inlineStr">
         <is>
-          <t>care provider</t>
+          <t>cannabis regulation</t>
         </is>
       </c>
       <c r="C41" t="inlineStr"/>
@@ -2134,7 +2136,7 @@
       <c r="A42" t="inlineStr"/>
       <c r="B42" t="inlineStr">
         <is>
-          <t>censorship</t>
+          <t>care provider</t>
         </is>
       </c>
       <c r="C42" t="inlineStr"/>
@@ -2170,7 +2172,7 @@
       <c r="A43" t="inlineStr"/>
       <c r="B43" t="inlineStr">
         <is>
-          <t>change plan</t>
+          <t>censorship</t>
         </is>
       </c>
       <c r="C43" t="inlineStr"/>
@@ -2206,7 +2208,7 @@
       <c r="A44" t="inlineStr"/>
       <c r="B44" t="inlineStr">
         <is>
-          <t>cigarette pricing policy</t>
+          <t>change plan</t>
         </is>
       </c>
       <c r="C44" t="inlineStr"/>
@@ -2224,7 +2226,7 @@
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr"/>
       <c r="M44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
@@ -2242,7 +2244,7 @@
       <c r="A45" t="inlineStr"/>
       <c r="B45" t="inlineStr">
         <is>
-          <t>clean preparation area</t>
+          <t>cigarette pricing policy</t>
         </is>
       </c>
       <c r="C45" t="inlineStr"/>
@@ -2260,7 +2262,7 @@
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr"/>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
@@ -2278,7 +2280,7 @@
       <c r="A46" t="inlineStr"/>
       <c r="B46" t="inlineStr">
         <is>
-          <t>clinic visit</t>
+          <t>clean preparation area</t>
         </is>
       </c>
       <c r="C46" t="inlineStr"/>
@@ -2314,7 +2316,7 @@
       <c r="A47" t="inlineStr"/>
       <c r="B47" t="inlineStr">
         <is>
-          <t>clinical effect</t>
+          <t>clinic visit</t>
         </is>
       </c>
       <c r="C47" t="inlineStr"/>
@@ -2350,7 +2352,7 @@
       <c r="A48" t="inlineStr"/>
       <c r="B48" t="inlineStr">
         <is>
-          <t>clinical effectiveness</t>
+          <t>clinical effect</t>
         </is>
       </c>
       <c r="C48" t="inlineStr"/>
@@ -2383,31 +2385,15 @@
       <c r="R48" t="inlineStr"/>
     </row>
     <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>ADDICTO:0000470</t>
-        </is>
-      </c>
+      <c r="A49" t="inlineStr"/>
       <c r="B49" t="inlineStr">
         <is>
-          <t>clinical provider</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>An organisation that provides a clinical service.</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>organisation</t>
-        </is>
-      </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>Material entity</t>
-        </is>
-      </c>
+          <t>clinical effectiveness</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr"/>
+      <c r="D49" t="inlineStr"/>
+      <c r="E49" t="inlineStr"/>
       <c r="F49" t="inlineStr">
         <is>
           <t>Intervention</t>
@@ -2426,11 +2412,7 @@
         <v>0</v>
       </c>
       <c r="O49" t="inlineStr"/>
-      <c r="P49" t="inlineStr">
-        <is>
-          <t>JH</t>
-        </is>
-      </c>
+      <c r="P49" t="inlineStr"/>
       <c r="Q49" t="inlineStr">
         <is>
           <t>Proposed</t>
@@ -2439,15 +2421,31 @@
       <c r="R49" t="inlineStr"/>
     </row>
     <row r="50">
-      <c r="A50" t="inlineStr"/>
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>ADDICTO:0000470</t>
+        </is>
+      </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>clinical significance</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr"/>
-      <c r="D50" t="inlineStr"/>
-      <c r="E50" t="inlineStr"/>
+          <t>clinical provider</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>An organisation that provides a clinical service.</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>organisation</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>Material entity</t>
+        </is>
+      </c>
       <c r="F50" t="inlineStr">
         <is>
           <t>Intervention</t>
@@ -2466,7 +2464,11 @@
         <v>0</v>
       </c>
       <c r="O50" t="inlineStr"/>
-      <c r="P50" t="inlineStr"/>
+      <c r="P50" t="inlineStr">
+        <is>
+          <t>JH</t>
+        </is>
+      </c>
       <c r="Q50" t="inlineStr">
         <is>
           <t>Proposed</t>
@@ -2478,7 +2480,7 @@
       <c r="A51" t="inlineStr"/>
       <c r="B51" t="inlineStr">
         <is>
-          <t>clinically meaningful effect size</t>
+          <t>clinical significance</t>
         </is>
       </c>
       <c r="C51" t="inlineStr"/>
@@ -2511,31 +2513,15 @@
       <c r="R51" t="inlineStr"/>
     </row>
     <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>ADDICTO:0000471</t>
-        </is>
-      </c>
+      <c r="A52" t="inlineStr"/>
       <c r="B52" t="inlineStr">
         <is>
-          <t>codeine scheduling</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>Drug scheduling in which the drug concerned is codeine.</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>drug scheduling</t>
-        </is>
-      </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>Generically dependent continuant</t>
-        </is>
-      </c>
+          <t>clinically meaningful effect size</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr"/>
+      <c r="D52" t="inlineStr"/>
+      <c r="E52" t="inlineStr"/>
       <c r="F52" t="inlineStr">
         <is>
           <t>Intervention</t>
@@ -2555,19 +2541,39 @@
       </c>
       <c r="O52" t="inlineStr"/>
       <c r="P52" t="inlineStr"/>
-      <c r="Q52" t="inlineStr"/>
+      <c r="Q52" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
       <c r="R52" t="inlineStr"/>
     </row>
     <row r="53">
-      <c r="A53" t="inlineStr"/>
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>ADDICTO:0000471</t>
+        </is>
+      </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>coerced addiction treatment</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr"/>
-      <c r="D53" t="inlineStr"/>
-      <c r="E53" t="inlineStr"/>
+          <t>codeine scheduling</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Drug scheduling in which the drug concerned is codeine.</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>drug scheduling</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>Generically dependent continuant</t>
+        </is>
+      </c>
       <c r="F53" t="inlineStr">
         <is>
           <t>Intervention</t>
@@ -2587,49 +2593,25 @@
       </c>
       <c r="O53" t="inlineStr"/>
       <c r="P53" t="inlineStr"/>
-      <c r="Q53" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
+      <c r="Q53" t="inlineStr"/>
       <c r="R53" t="inlineStr"/>
     </row>
     <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>ADDICTO:0000472</t>
-        </is>
-      </c>
+      <c r="A54" t="inlineStr"/>
       <c r="B54" t="inlineStr">
         <is>
-          <t>coercion</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>An intervention function that involves changing the attractiveness of a behaviour by creating the expectation of an undesired outcome or denial of a desired one.</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>intervention function</t>
-        </is>
-      </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>Process</t>
-        </is>
-      </c>
+          <t>coerced addiction treatment</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr"/>
+      <c r="D54" t="inlineStr"/>
+      <c r="E54" t="inlineStr"/>
       <c r="F54" t="inlineStr">
         <is>
           <t>Intervention</t>
         </is>
       </c>
-      <c r="G54" t="inlineStr">
-        <is>
-          <t>www.behaviourchange.com</t>
-        </is>
-      </c>
+      <c r="G54" t="inlineStr"/>
       <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2642,11 +2624,7 @@
         <v>0</v>
       </c>
       <c r="O54" t="inlineStr"/>
-      <c r="P54" t="inlineStr">
-        <is>
-          <t>RW</t>
-        </is>
-      </c>
+      <c r="P54" t="inlineStr"/>
       <c r="Q54" t="inlineStr">
         <is>
           <t>Proposed</t>
@@ -2655,21 +2633,41 @@
       <c r="R54" t="inlineStr"/>
     </row>
     <row r="55">
-      <c r="A55" t="inlineStr"/>
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>ADDICTO:0000472</t>
+        </is>
+      </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>combined pharmacological and behavioural substance use treatment</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr"/>
-      <c r="D55" t="inlineStr"/>
-      <c r="E55" t="inlineStr"/>
+          <t>coercion</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>An intervention function that involves changing the attractiveness of a behaviour by creating the expectation of an undesired outcome or denial of a desired one.</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>intervention function</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>Process</t>
+        </is>
+      </c>
       <c r="F55" t="inlineStr">
         <is>
           <t>Intervention</t>
         </is>
       </c>
-      <c r="G55" t="inlineStr"/>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>www.behaviourchange.com</t>
+        </is>
+      </c>
       <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2682,7 +2680,11 @@
         <v>0</v>
       </c>
       <c r="O55" t="inlineStr"/>
-      <c r="P55" t="inlineStr"/>
+      <c r="P55" t="inlineStr">
+        <is>
+          <t>RW</t>
+        </is>
+      </c>
       <c r="Q55" t="inlineStr">
         <is>
           <t>Proposed</t>
@@ -2691,41 +2693,21 @@
       <c r="R55" t="inlineStr"/>
     </row>
     <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>ADDICTO:0000473</t>
-        </is>
-      </c>
+      <c r="A56" t="inlineStr"/>
       <c r="B56" t="inlineStr">
         <is>
-          <t>communications and marketing</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>An intevention function involving mass media campaigns, digital marketing campaigns, and correspondence.</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>intervention function</t>
-        </is>
-      </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>Process</t>
-        </is>
-      </c>
+          <t>combined pharmacological and behavioural substance use treatment</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr"/>
+      <c r="D56" t="inlineStr"/>
+      <c r="E56" t="inlineStr"/>
       <c r="F56" t="inlineStr">
         <is>
           <t>Intervention</t>
         </is>
       </c>
-      <c r="G56" t="inlineStr">
-        <is>
-          <t>behaviourchangewheel.com</t>
-        </is>
-      </c>
+      <c r="G56" t="inlineStr"/>
       <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2738,11 +2720,7 @@
         <v>0</v>
       </c>
       <c r="O56" t="inlineStr"/>
-      <c r="P56" t="inlineStr">
-        <is>
-          <t>RW</t>
-        </is>
-      </c>
+      <c r="P56" t="inlineStr"/>
       <c r="Q56" t="inlineStr">
         <is>
           <t>Proposed</t>
@@ -2751,21 +2729,41 @@
       <c r="R56" t="inlineStr"/>
     </row>
     <row r="57">
-      <c r="A57" t="inlineStr"/>
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>ADDICTO:0000473</t>
+        </is>
+      </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>complex intervention</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr"/>
-      <c r="D57" t="inlineStr"/>
-      <c r="E57" t="inlineStr"/>
+          <t>communications and marketing</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>An intevention function involving mass media campaigns, digital marketing campaigns, and correspondence.</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>intervention function</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>Process</t>
+        </is>
+      </c>
       <c r="F57" t="inlineStr">
         <is>
           <t>Intervention</t>
         </is>
       </c>
-      <c r="G57" t="inlineStr"/>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>behaviourchangewheel.com</t>
+        </is>
+      </c>
       <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2778,7 +2776,11 @@
         <v>0</v>
       </c>
       <c r="O57" t="inlineStr"/>
-      <c r="P57" t="inlineStr"/>
+      <c r="P57" t="inlineStr">
+        <is>
+          <t>RW</t>
+        </is>
+      </c>
       <c r="Q57" t="inlineStr">
         <is>
           <t>Proposed</t>
@@ -2787,31 +2789,15 @@
       <c r="R57" t="inlineStr"/>
     </row>
     <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>ADDICTO:0000474</t>
-        </is>
-      </c>
+      <c r="A58" t="inlineStr"/>
       <c r="B58" t="inlineStr">
         <is>
-          <t>compulsory addiction treatment</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>Treatment of addiction that either a drug user or a person with a drug problem is compelled to undergo by a legal authority in the jurisdiction in which they reside.</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>addiction treatment</t>
-        </is>
-      </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>Process</t>
-        </is>
-      </c>
+          <t>complex intervention</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr"/>
+      <c r="D58" t="inlineStr"/>
+      <c r="E58" t="inlineStr"/>
       <c r="F58" t="inlineStr">
         <is>
           <t>Intervention</t>
@@ -2839,15 +2825,31 @@
       <c r="R58" t="inlineStr"/>
     </row>
     <row r="59">
-      <c r="A59" t="inlineStr"/>
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>ADDICTO:0000474</t>
+        </is>
+      </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>consumption-reducing effect</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr"/>
-      <c r="D59" t="inlineStr"/>
-      <c r="E59" t="inlineStr"/>
+          <t>compulsory addiction treatment</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Treatment of addiction that either a drug user or a person with a drug problem is compelled to undergo by a legal authority in the jurisdiction in which they reside.</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>addiction treatment</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>Process</t>
+        </is>
+      </c>
       <c r="F59" t="inlineStr">
         <is>
           <t>Intervention</t>
@@ -2878,7 +2880,7 @@
       <c r="A60" t="inlineStr"/>
       <c r="B60" t="inlineStr">
         <is>
-          <t>contingency management</t>
+          <t>consumption-reducing effect</t>
         </is>
       </c>
       <c r="C60" t="inlineStr"/>
@@ -2914,7 +2916,7 @@
       <c r="A61" t="inlineStr"/>
       <c r="B61" t="inlineStr">
         <is>
-          <t>contingency management intervention</t>
+          <t>contingency management</t>
         </is>
       </c>
       <c r="C61" t="inlineStr"/>
@@ -2950,7 +2952,7 @@
       <c r="A62" t="inlineStr"/>
       <c r="B62" t="inlineStr">
         <is>
-          <t>correctional school</t>
+          <t>contingency management intervention</t>
         </is>
       </c>
       <c r="C62" t="inlineStr"/>
@@ -2986,14 +2988,10 @@
       <c r="A63" t="inlineStr"/>
       <c r="B63" t="inlineStr">
         <is>
-          <t>cost effectiveness</t>
-        </is>
-      </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>Financial cost of implementing a specified intervention to achieve an improvement in a specified outcome in a soecified context relative to a comparator.</t>
-        </is>
-      </c>
+          <t>correctional school</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr"/>
       <c r="D63" t="inlineStr"/>
       <c r="E63" t="inlineStr"/>
       <c r="F63" t="inlineStr">
@@ -3008,7 +3006,7 @@
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr"/>
       <c r="M63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N63" t="n">
         <v>0</v>
@@ -3023,58 +3021,38 @@
       <c r="R63" t="inlineStr"/>
     </row>
     <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>ADDICTO:0000475</t>
-        </is>
-      </c>
+      <c r="A64" t="inlineStr"/>
       <c r="B64" t="inlineStr">
         <is>
-          <t>cost per quality-adjusted life-year gained</t>
+          <t>cost effectiveness</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t xml:space="preserve">A data item that is about an intervention and is the estimated financial cost of delivering that intervention to a population in a setting in order to gain one QALY in the population. </t>
-        </is>
-      </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>data item</t>
-        </is>
-      </c>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>Generically dependent continuant</t>
-        </is>
-      </c>
+          <t>Financial cost of implementing a specified intervention to achieve an improvement in a specified outcome in a soecified context relative to a comparator.</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr"/>
+      <c r="E64" t="inlineStr"/>
       <c r="F64" t="inlineStr">
         <is>
           <t>Intervention</t>
         </is>
       </c>
       <c r="G64" t="inlineStr"/>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>No ontological definition found. Definition based on definition of ICER https://en.wikipedia.org/wiki/Incremental_cost-effectiveness_ratio</t>
-        </is>
-      </c>
+      <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr"/>
       <c r="M64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N64" t="n">
         <v>0</v>
       </c>
       <c r="O64" t="inlineStr"/>
-      <c r="P64" t="inlineStr">
-        <is>
-          <t>JH</t>
-        </is>
-      </c>
+      <c r="P64" t="inlineStr"/>
       <c r="Q64" t="inlineStr">
         <is>
           <t>Proposed</t>
@@ -3083,22 +3061,42 @@
       <c r="R64" t="inlineStr"/>
     </row>
     <row r="65">
-      <c r="A65" t="inlineStr"/>
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>ADDICTO:0000475</t>
+        </is>
+      </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>cost-effective strategy</t>
-        </is>
-      </c>
-      <c r="C65" t="inlineStr"/>
-      <c r="D65" t="inlineStr"/>
-      <c r="E65" t="inlineStr"/>
+          <t>cost per quality-adjusted life-year gained</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A data item that is about an intervention and is the estimated financial cost of delivering that intervention to a population in a setting in order to gain one QALY in the population. </t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>data item</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>Generically dependent continuant</t>
+        </is>
+      </c>
       <c r="F65" t="inlineStr">
         <is>
           <t>Intervention</t>
         </is>
       </c>
       <c r="G65" t="inlineStr"/>
-      <c r="H65" t="inlineStr"/>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>No ontological definition found. Definition based on definition of ICER https://en.wikipedia.org/wiki/Incremental_cost-effectiveness_ratio</t>
+        </is>
+      </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
@@ -3110,7 +3108,11 @@
         <v>0</v>
       </c>
       <c r="O65" t="inlineStr"/>
-      <c r="P65" t="inlineStr"/>
+      <c r="P65" t="inlineStr">
+        <is>
+          <t>JH</t>
+        </is>
+      </c>
       <c r="Q65" t="inlineStr">
         <is>
           <t>Proposed</t>
@@ -3122,7 +3124,7 @@
       <c r="A66" t="inlineStr"/>
       <c r="B66" t="inlineStr">
         <is>
-          <t>cost-effectiveness acceptability curve</t>
+          <t>cost-effective strategy</t>
         </is>
       </c>
       <c r="C66" t="inlineStr"/>
@@ -3158,7 +3160,7 @@
       <c r="A67" t="inlineStr"/>
       <c r="B67" t="inlineStr">
         <is>
-          <t>cost-effectiveness at population-level</t>
+          <t>cost-effectiveness acceptability curve</t>
         </is>
       </c>
       <c r="C67" t="inlineStr"/>
@@ -3194,7 +3196,7 @@
       <c r="A68" t="inlineStr"/>
       <c r="B68" t="inlineStr">
         <is>
-          <t>counseling</t>
+          <t>cost-effectiveness at population-level</t>
         </is>
       </c>
       <c r="C68" t="inlineStr"/>
@@ -3230,7 +3232,7 @@
       <c r="A69" t="inlineStr"/>
       <c r="B69" t="inlineStr">
         <is>
-          <t>counselling session</t>
+          <t>counseling</t>
         </is>
       </c>
       <c r="C69" t="inlineStr"/>
@@ -3248,7 +3250,7 @@
       <c r="K69" t="inlineStr"/>
       <c r="L69" t="inlineStr"/>
       <c r="M69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N69" t="n">
         <v>0</v>
@@ -3266,7 +3268,7 @@
       <c r="A70" t="inlineStr"/>
       <c r="B70" t="inlineStr">
         <is>
-          <t>court-mandated treatment</t>
+          <t>counselling session</t>
         </is>
       </c>
       <c r="C70" t="inlineStr"/>
@@ -3284,7 +3286,7 @@
       <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr"/>
       <c r="M70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N70" t="n">
         <v>0</v>
@@ -3302,7 +3304,7 @@
       <c r="A71" t="inlineStr"/>
       <c r="B71" t="inlineStr">
         <is>
-          <t>coverage of needle and syringe provision</t>
+          <t>court-mandated treatment</t>
         </is>
       </c>
       <c r="C71" t="inlineStr"/>
@@ -3338,7 +3340,7 @@
       <c r="A72" t="inlineStr"/>
       <c r="B72" t="inlineStr">
         <is>
-          <t>criminal justice system</t>
+          <t>coverage of needle and syringe provision</t>
         </is>
       </c>
       <c r="C72" t="inlineStr"/>
@@ -3374,7 +3376,7 @@
       <c r="A73" t="inlineStr"/>
       <c r="B73" t="inlineStr">
         <is>
-          <t>daily buprenorphine dose</t>
+          <t>criminal justice system</t>
         </is>
       </c>
       <c r="C73" t="inlineStr"/>
@@ -3407,31 +3409,15 @@
       <c r="R73" t="inlineStr"/>
     </row>
     <row r="74">
-      <c r="A74" t="inlineStr">
-        <is>
-          <t>ADDICTO:0000476</t>
-        </is>
-      </c>
+      <c r="A74" t="inlineStr"/>
       <c r="B74" t="inlineStr">
         <is>
-          <t>deep brain stimulation</t>
-        </is>
-      </c>
-      <c r="C74" t="inlineStr">
-        <is>
-          <t xml:space="preserve">A physical treatment for brain disorders that involves implanting an electrode in a specific part of the brain and passing a current through it with the aim of stimulating electrical activity in the part of the brain concerned. </t>
-        </is>
-      </c>
-      <c r="D74" t="inlineStr">
-        <is>
-          <t>physical treatment</t>
-        </is>
-      </c>
-      <c r="E74" t="inlineStr">
-        <is>
-          <t>Process</t>
-        </is>
-      </c>
+          <t>daily buprenorphine dose</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr"/>
+      <c r="D74" t="inlineStr"/>
+      <c r="E74" t="inlineStr"/>
       <c r="F74" t="inlineStr">
         <is>
           <t>Intervention</t>
@@ -3459,15 +3445,31 @@
       <c r="R74" t="inlineStr"/>
     </row>
     <row r="75">
-      <c r="A75" t="inlineStr"/>
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>ADDICTO:0000476</t>
+        </is>
+      </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>denormalisation</t>
-        </is>
-      </c>
-      <c r="C75" t="inlineStr"/>
-      <c r="D75" t="inlineStr"/>
-      <c r="E75" t="inlineStr"/>
+          <t>deep brain stimulation</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A physical treatment for brain disorders that involves implanting an electrode in a specific part of the brain and passing a current through it with the aim of stimulating electrical activity in the part of the brain concerned. </t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>physical treatment</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>Process</t>
+        </is>
+      </c>
       <c r="F75" t="inlineStr">
         <is>
           <t>Intervention</t>
@@ -3495,44 +3497,40 @@
       <c r="R75" t="inlineStr"/>
     </row>
     <row r="76">
-      <c r="A76" s="2" t="inlineStr">
-        <is>
-          <t>dfdf</t>
-        </is>
-      </c>
-      <c r="B76" s="2" t="inlineStr">
-        <is>
-          <t>dfdf</t>
-        </is>
-      </c>
-      <c r="C76" s="2" t="inlineStr"/>
-      <c r="D76" s="2" t="inlineStr"/>
-      <c r="E76" s="2" t="inlineStr"/>
-      <c r="F76" s="2" t="inlineStr"/>
-      <c r="G76" s="2" t="inlineStr"/>
-      <c r="H76" s="2" t="inlineStr"/>
-      <c r="I76" s="2" t="inlineStr"/>
-      <c r="J76" s="2" t="inlineStr"/>
-      <c r="K76" s="2" t="inlineStr"/>
-      <c r="L76" s="2" t="inlineStr"/>
-      <c r="M76" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O76" s="2" t="inlineStr"/>
-      <c r="P76" s="2" t="inlineStr">
-        <is>
-          <t>to</t>
-        </is>
-      </c>
-      <c r="Q76" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="R76" s="2" t="inlineStr"/>
+      <c r="A76" t="inlineStr"/>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>denormalisation</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr"/>
+      <c r="D76" t="inlineStr"/>
+      <c r="E76" t="inlineStr"/>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>Intervention</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr"/>
+      <c r="H76" t="inlineStr"/>
+      <c r="I76" t="inlineStr"/>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="inlineStr"/>
+      <c r="M76" t="n">
+        <v>0</v>
+      </c>
+      <c r="N76" t="n">
+        <v>0</v>
+      </c>
+      <c r="O76" t="inlineStr"/>
+      <c r="P76" t="inlineStr"/>
+      <c r="Q76" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="R76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="2" t="inlineStr">
@@ -13389,44 +13387,44 @@
       <c r="R323" t="inlineStr"/>
     </row>
     <row r="324">
-      <c r="A324" t="inlineStr"/>
-      <c r="B324" t="inlineStr">
+      <c r="A324" s="4" t="inlineStr"/>
+      <c r="B324" s="4" t="inlineStr">
         <is>
           <t>women's mental health programme</t>
         </is>
       </c>
-      <c r="C324" t="inlineStr"/>
-      <c r="D324" t="inlineStr"/>
-      <c r="E324" t="inlineStr"/>
-      <c r="F324" t="inlineStr">
-        <is>
-          <t>Intervention</t>
-        </is>
-      </c>
-      <c r="G324" t="inlineStr"/>
-      <c r="H324" t="inlineStr"/>
-      <c r="I324" t="inlineStr"/>
-      <c r="J324" t="inlineStr"/>
-      <c r="K324" t="inlineStr"/>
-      <c r="L324" t="inlineStr"/>
-      <c r="M324" t="n">
-        <v>0</v>
-      </c>
-      <c r="N324" t="n">
-        <v>0</v>
-      </c>
-      <c r="O324" t="inlineStr"/>
-      <c r="P324" t="inlineStr">
+      <c r="C324" s="4" t="inlineStr"/>
+      <c r="D324" s="4" t="inlineStr"/>
+      <c r="E324" s="4" t="inlineStr"/>
+      <c r="F324" s="4" t="inlineStr">
+        <is>
+          <t>Intervention</t>
+        </is>
+      </c>
+      <c r="G324" s="4" t="inlineStr"/>
+      <c r="H324" s="4" t="inlineStr"/>
+      <c r="I324" s="4" t="inlineStr"/>
+      <c r="J324" s="4" t="inlineStr"/>
+      <c r="K324" s="4" t="inlineStr"/>
+      <c r="L324" s="4" t="inlineStr"/>
+      <c r="M324" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N324" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O324" s="4" t="inlineStr"/>
+      <c r="P324" s="4" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="Q324" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="R324" t="inlineStr"/>
+      <c r="Q324" s="4" t="inlineStr">
+        <is>
+          <t>To Be Discussed</t>
+        </is>
+      </c>
+      <c r="R324" s="4" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/inputs/AddictO_Intervention_Defs.xlsx
+++ b/inputs/AddictO_Intervention_Defs.xlsx
@@ -591,7 +591,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>change</t>
+          <t>change2</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">

--- a/inputs/AddictO_Intervention_Defs.xlsx
+++ b/inputs/AddictO_Intervention_Defs.xlsx
@@ -589,7 +589,11 @@
       <c r="S2" s="2" t="inlineStr"/>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr"/>
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>change1</t>
+        </is>
+      </c>
       <c r="B3" t="inlineStr">
         <is>
           <t>Behaviour Change Technique</t>

--- a/inputs/AddictO_Intervention_Defs.xlsx
+++ b/inputs/AddictO_Intervention_Defs.xlsx
@@ -589,11 +589,7 @@
       <c r="S2" s="2" t="inlineStr"/>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>change1</t>
-        </is>
-      </c>
+      <c r="A3" t="inlineStr"/>
       <c r="B3" t="inlineStr">
         <is>
           <t>Behaviour Change Technique</t>
@@ -634,41 +630,49 @@
       <c r="S3" t="inlineStr"/>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="inlineStr"/>
-      <c r="B4" s="2" t="inlineStr">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>change2</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
         <is>
           <t>Community Reinforcement Approach for Seniors (CRA-S)</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr"/>
-      <c r="D4" s="2" t="inlineStr"/>
-      <c r="E4" s="2" t="inlineStr"/>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>Intervention</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr"/>
-      <c r="H4" s="2" t="inlineStr"/>
-      <c r="I4" s="2" t="inlineStr"/>
-      <c r="J4" s="2" t="inlineStr"/>
-      <c r="K4" s="2" t="inlineStr"/>
-      <c r="L4" s="2" t="inlineStr"/>
-      <c r="M4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" s="2" t="inlineStr"/>
-      <c r="P4" s="2" t="inlineStr"/>
-      <c r="Q4" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="R4" s="2" t="inlineStr"/>
-      <c r="S4" s="2" t="inlineStr"/>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Intervention</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="inlineStr"/>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>to</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="R4" t="inlineStr"/>
+      <c r="S4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="2" t="inlineStr"/>

--- a/inputs/AddictO_Intervention_Defs.xlsx
+++ b/inputs/AddictO_Intervention_Defs.xlsx
@@ -527,11 +527,7 @@
           <t>Behaviour Change Technique</t>
         </is>
       </c>
-      <c r="C3" s="2" t="inlineStr">
-        <is>
-          <t>golly</t>
-        </is>
-      </c>
+      <c r="C3" s="2" t="inlineStr"/>
       <c r="D3" s="2" t="inlineStr"/>
       <c r="E3" s="2" t="inlineStr"/>
       <c r="F3" s="2" t="inlineStr">
@@ -572,7 +568,11 @@
           <t>Community Reinforcement Approach for Seniors (CRA-S)</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr"/>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>golly</t>
+        </is>
+      </c>
       <c r="D4" s="2" t="inlineStr"/>
       <c r="E4" s="2" t="inlineStr"/>
       <c r="F4" s="2" t="inlineStr">
@@ -593,7 +593,11 @@
         <v>0</v>
       </c>
       <c r="O4" s="2" t="inlineStr"/>
-      <c r="P4" s="2" t="inlineStr"/>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>JH</t>
+        </is>
+      </c>
       <c r="Q4" s="2" t="inlineStr">
         <is>
           <t>Proposed</t>

--- a/inputs/AddictO_Intervention_Defs.xlsx
+++ b/inputs/AddictO_Intervention_Defs.xlsx
@@ -527,7 +527,11 @@
           <t>Behaviour Change Technique</t>
         </is>
       </c>
-      <c r="C3" s="2" t="inlineStr"/>
+      <c r="C3" s="2" t="inlineStr">
+        <is>
+          <t>golly</t>
+        </is>
+      </c>
       <c r="D3" s="2" t="inlineStr"/>
       <c r="E3" s="2" t="inlineStr"/>
       <c r="F3" s="2" t="inlineStr">

--- a/inputs/AddictO_Intervention_Defs.xlsx
+++ b/inputs/AddictO_Intervention_Defs.xlsx
@@ -529,7 +529,7 @@
       </c>
       <c r="C3" s="2" t="inlineStr">
         <is>
-          <t>golly</t>
+          <t>golly golly</t>
         </is>
       </c>
       <c r="D3" s="2" t="inlineStr"/>

--- a/inputs/AddictO_Intervention_Defs.xlsx
+++ b/inputs/AddictO_Intervention_Defs.xlsx
@@ -527,11 +527,7 @@
           <t>Behaviour Change Technique</t>
         </is>
       </c>
-      <c r="C3" s="2" t="inlineStr">
-        <is>
-          <t>golly golly</t>
-        </is>
-      </c>
+      <c r="C3" s="2" t="inlineStr"/>
       <c r="D3" s="2" t="inlineStr"/>
       <c r="E3" s="2" t="inlineStr"/>
       <c r="F3" s="2" t="inlineStr">
@@ -572,11 +568,7 @@
           <t>Community Reinforcement Approach for Seniors (CRA-S)</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>golly</t>
-        </is>
-      </c>
+      <c r="C4" s="2" t="inlineStr"/>
       <c r="D4" s="2" t="inlineStr"/>
       <c r="E4" s="2" t="inlineStr"/>
       <c r="F4" s="2" t="inlineStr">

--- a/inputs/AddictO_Intervention_Defs.xlsx
+++ b/inputs/AddictO_Intervention_Defs.xlsx
@@ -504,11 +504,15 @@
       <c r="J2" s="2" t="inlineStr"/>
       <c r="K2" s="2" t="inlineStr"/>
       <c r="L2" s="2" t="inlineStr"/>
-      <c r="M2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" s="2" t="n">
-        <v>0</v>
+      <c r="M2" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N2" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O2" s="2" t="inlineStr"/>
       <c r="P2" s="2" t="inlineStr"/>
@@ -521,45 +525,53 @@
       <c r="S2" s="2" t="inlineStr"/>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="inlineStr"/>
-      <c r="B3" s="2" t="inlineStr">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>TESTING</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
         <is>
           <t>Behaviour Change Technique</t>
         </is>
       </c>
-      <c r="C3" s="2" t="inlineStr"/>
-      <c r="D3" s="2" t="inlineStr"/>
-      <c r="E3" s="2" t="inlineStr"/>
-      <c r="F3" s="2" t="inlineStr">
-        <is>
-          <t>Intervention</t>
-        </is>
-      </c>
-      <c r="G3" s="2" t="inlineStr"/>
-      <c r="H3" s="2" t="inlineStr"/>
-      <c r="I3" s="2" t="inlineStr"/>
-      <c r="J3" s="2" t="inlineStr"/>
-      <c r="K3" s="2" t="inlineStr"/>
-      <c r="L3" s="2" t="inlineStr"/>
-      <c r="M3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" s="2" t="inlineStr"/>
-      <c r="P3" s="2" t="inlineStr">
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Intervention</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr"/>
+      <c r="P3" t="inlineStr">
         <is>
           <t>JH</t>
         </is>
       </c>
-      <c r="Q3" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="R3" s="2" t="inlineStr"/>
-      <c r="S3" s="2" t="inlineStr"/>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="R3" t="inlineStr"/>
+      <c r="S3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="2" t="inlineStr"/>
@@ -582,11 +594,15 @@
       <c r="J4" s="2" t="inlineStr"/>
       <c r="K4" s="2" t="inlineStr"/>
       <c r="L4" s="2" t="inlineStr"/>
-      <c r="M4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" s="2" t="n">
-        <v>0</v>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O4" s="2" t="inlineStr"/>
       <c r="P4" s="2" t="inlineStr">
@@ -623,11 +639,15 @@
       <c r="J5" s="2" t="inlineStr"/>
       <c r="K5" s="2" t="inlineStr"/>
       <c r="L5" s="2" t="inlineStr"/>
-      <c r="M5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" s="2" t="n">
-        <v>0</v>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O5" s="2" t="inlineStr"/>
       <c r="P5" s="2" t="inlineStr"/>
@@ -663,8 +683,10 @@
       <c r="M6" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="N6" s="2" t="n">
-        <v>0</v>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O6" s="2" t="inlineStr"/>
       <c r="P6" s="2" t="inlineStr"/>
@@ -705,11 +727,15 @@
       </c>
       <c r="K7" s="2" t="inlineStr"/>
       <c r="L7" s="2" t="inlineStr"/>
-      <c r="M7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" s="2" t="n">
-        <v>0</v>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O7" s="2" t="inlineStr"/>
       <c r="P7" s="2" t="inlineStr"/>
@@ -742,11 +768,15 @@
       <c r="J8" s="2" t="inlineStr"/>
       <c r="K8" s="2" t="inlineStr"/>
       <c r="L8" s="2" t="inlineStr"/>
-      <c r="M8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" s="2" t="n">
-        <v>0</v>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O8" s="2" t="inlineStr"/>
       <c r="P8" s="2" t="inlineStr"/>
@@ -782,8 +812,10 @@
       <c r="M9" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="N9" s="2" t="n">
-        <v>0</v>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O9" s="2" t="inlineStr"/>
       <c r="P9" s="2" t="inlineStr">
@@ -820,11 +852,15 @@
       <c r="J10" s="2" t="inlineStr"/>
       <c r="K10" s="2" t="inlineStr"/>
       <c r="L10" s="2" t="inlineStr"/>
-      <c r="M10" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" s="2" t="n">
-        <v>0</v>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O10" s="2" t="inlineStr"/>
       <c r="P10" s="2" t="inlineStr"/>
@@ -873,11 +909,15 @@
       <c r="J11" s="2" t="inlineStr"/>
       <c r="K11" s="2" t="inlineStr"/>
       <c r="L11" s="2" t="inlineStr"/>
-      <c r="M11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" s="2" t="n">
-        <v>0</v>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O11" s="2" t="inlineStr"/>
       <c r="P11" s="2" t="inlineStr">
@@ -930,11 +970,15 @@
       <c r="J12" s="2" t="inlineStr"/>
       <c r="K12" s="2" t="inlineStr"/>
       <c r="L12" s="2" t="inlineStr"/>
-      <c r="M12" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" s="2" t="n">
-        <v>0</v>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O12" s="2" t="inlineStr"/>
       <c r="P12" s="2" t="inlineStr"/>
@@ -971,11 +1015,15 @@
       <c r="J13" s="2" t="inlineStr"/>
       <c r="K13" s="2" t="inlineStr"/>
       <c r="L13" s="2" t="inlineStr"/>
-      <c r="M13" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N13" s="2" t="n">
-        <v>0</v>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O13" s="2" t="inlineStr"/>
       <c r="P13" s="2" t="inlineStr"/>
@@ -1032,11 +1080,15 @@
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr"/>
-      <c r="M14" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" s="2" t="n">
-        <v>0</v>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O14" s="2" t="inlineStr"/>
       <c r="P14" s="2" t="inlineStr">
@@ -1076,8 +1128,10 @@
       <c r="M15" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="N15" s="2" t="n">
-        <v>0</v>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O15" s="2" t="inlineStr"/>
       <c r="P15" s="2" t="inlineStr"/>
@@ -1110,11 +1164,15 @@
       <c r="J16" s="2" t="inlineStr"/>
       <c r="K16" s="2" t="inlineStr"/>
       <c r="L16" s="2" t="inlineStr"/>
-      <c r="M16" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" s="2" t="n">
-        <v>0</v>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O16" s="2" t="inlineStr"/>
       <c r="P16" s="2" t="inlineStr"/>
@@ -1147,11 +1205,15 @@
       <c r="J17" s="2" t="inlineStr"/>
       <c r="K17" s="2" t="inlineStr"/>
       <c r="L17" s="2" t="inlineStr"/>
-      <c r="M17" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" s="2" t="n">
-        <v>0</v>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O17" s="2" t="inlineStr"/>
       <c r="P17" s="2" t="inlineStr"/>
@@ -1204,11 +1266,15 @@
       <c r="J18" s="2" t="inlineStr"/>
       <c r="K18" s="2" t="inlineStr"/>
       <c r="L18" s="2" t="inlineStr"/>
-      <c r="M18" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N18" s="2" t="n">
-        <v>0</v>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O18" s="2" t="inlineStr"/>
       <c r="P18" s="2" t="inlineStr">
@@ -1265,11 +1331,15 @@
       <c r="J19" s="2" t="inlineStr"/>
       <c r="K19" s="2" t="inlineStr"/>
       <c r="L19" s="2" t="inlineStr"/>
-      <c r="M19" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N19" s="2" t="n">
-        <v>0</v>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O19" s="2" t="inlineStr"/>
       <c r="P19" s="2" t="inlineStr">
@@ -1306,11 +1376,15 @@
       <c r="J20" s="2" t="inlineStr"/>
       <c r="K20" s="2" t="inlineStr"/>
       <c r="L20" s="2" t="inlineStr"/>
-      <c r="M20" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" s="2" t="n">
-        <v>0</v>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O20" s="2" t="inlineStr"/>
       <c r="P20" s="2" t="inlineStr"/>
@@ -1363,11 +1437,15 @@
       <c r="J21" s="2" t="inlineStr"/>
       <c r="K21" s="2" t="inlineStr"/>
       <c r="L21" s="2" t="inlineStr"/>
-      <c r="M21" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N21" s="2" t="n">
-        <v>0</v>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O21" s="2" t="inlineStr"/>
       <c r="P21" s="2" t="inlineStr">
@@ -1404,11 +1482,15 @@
       <c r="J22" s="2" t="inlineStr"/>
       <c r="K22" s="2" t="inlineStr"/>
       <c r="L22" s="2" t="inlineStr"/>
-      <c r="M22" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N22" s="2" t="n">
-        <v>0</v>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O22" s="2" t="inlineStr"/>
       <c r="P22" s="2" t="inlineStr"/>
@@ -1441,11 +1523,15 @@
       <c r="J23" s="2" t="inlineStr"/>
       <c r="K23" s="2" t="inlineStr"/>
       <c r="L23" s="2" t="inlineStr"/>
-      <c r="M23" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" s="2" t="n">
-        <v>0</v>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O23" s="2" t="inlineStr"/>
       <c r="P23" s="2" t="inlineStr"/>
@@ -1478,11 +1564,15 @@
       <c r="J24" s="2" t="inlineStr"/>
       <c r="K24" s="2" t="inlineStr"/>
       <c r="L24" s="2" t="inlineStr"/>
-      <c r="M24" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N24" s="2" t="n">
-        <v>0</v>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O24" s="2" t="inlineStr"/>
       <c r="P24" s="2" t="inlineStr"/>
@@ -1515,11 +1605,15 @@
       <c r="J25" s="2" t="inlineStr"/>
       <c r="K25" s="2" t="inlineStr"/>
       <c r="L25" s="2" t="inlineStr"/>
-      <c r="M25" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N25" s="2" t="n">
-        <v>0</v>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O25" s="2" t="inlineStr"/>
       <c r="P25" s="2" t="inlineStr"/>
@@ -1552,11 +1646,15 @@
       <c r="J26" s="2" t="inlineStr"/>
       <c r="K26" s="2" t="inlineStr"/>
       <c r="L26" s="2" t="inlineStr"/>
-      <c r="M26" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" s="2" t="n">
-        <v>0</v>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O26" s="2" t="inlineStr"/>
       <c r="P26" s="2" t="inlineStr"/>
@@ -1596,8 +1694,10 @@
       <c r="M27" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="N27" s="2" t="n">
-        <v>0</v>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O27" s="2" t="inlineStr"/>
       <c r="P27" s="2" t="inlineStr"/>
@@ -1630,11 +1730,15 @@
       <c r="J28" s="2" t="inlineStr"/>
       <c r="K28" s="2" t="inlineStr"/>
       <c r="L28" s="2" t="inlineStr"/>
-      <c r="M28" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N28" s="2" t="n">
-        <v>0</v>
+      <c r="M28" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N28" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O28" s="2" t="inlineStr"/>
       <c r="P28" s="2" t="inlineStr"/>
@@ -1667,11 +1771,15 @@
       <c r="J29" s="2" t="inlineStr"/>
       <c r="K29" s="2" t="inlineStr"/>
       <c r="L29" s="2" t="inlineStr"/>
-      <c r="M29" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" s="2" t="n">
-        <v>0</v>
+      <c r="M29" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N29" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O29" s="2" t="inlineStr"/>
       <c r="P29" s="2" t="inlineStr"/>
@@ -1704,11 +1812,15 @@
       <c r="J30" s="2" t="inlineStr"/>
       <c r="K30" s="2" t="inlineStr"/>
       <c r="L30" s="2" t="inlineStr"/>
-      <c r="M30" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N30" s="2" t="n">
-        <v>0</v>
+      <c r="M30" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N30" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O30" s="2" t="inlineStr"/>
       <c r="P30" s="2" t="inlineStr"/>
@@ -1741,11 +1853,15 @@
       <c r="J31" s="2" t="inlineStr"/>
       <c r="K31" s="2" t="inlineStr"/>
       <c r="L31" s="2" t="inlineStr"/>
-      <c r="M31" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N31" s="2" t="n">
-        <v>0</v>
+      <c r="M31" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N31" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O31" s="2" t="inlineStr"/>
       <c r="P31" s="2" t="inlineStr"/>
@@ -1778,11 +1894,15 @@
       <c r="J32" s="2" t="inlineStr"/>
       <c r="K32" s="2" t="inlineStr"/>
       <c r="L32" s="2" t="inlineStr"/>
-      <c r="M32" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N32" s="2" t="n">
-        <v>0</v>
+      <c r="M32" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N32" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O32" s="2" t="inlineStr"/>
       <c r="P32" s="2" t="inlineStr"/>
@@ -1815,11 +1935,15 @@
       <c r="J33" s="2" t="inlineStr"/>
       <c r="K33" s="2" t="inlineStr"/>
       <c r="L33" s="2" t="inlineStr"/>
-      <c r="M33" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N33" s="2" t="n">
-        <v>0</v>
+      <c r="M33" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N33" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O33" s="2" t="inlineStr"/>
       <c r="P33" s="2" t="inlineStr"/>
@@ -1855,8 +1979,10 @@
       <c r="M34" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="N34" s="2" t="n">
-        <v>0</v>
+      <c r="N34" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O34" s="2" t="inlineStr"/>
       <c r="P34" s="2" t="inlineStr"/>
@@ -1889,11 +2015,15 @@
       <c r="J35" s="2" t="inlineStr"/>
       <c r="K35" s="2" t="inlineStr"/>
       <c r="L35" s="2" t="inlineStr"/>
-      <c r="M35" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N35" s="2" t="n">
-        <v>0</v>
+      <c r="M35" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N35" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O35" s="2" t="inlineStr"/>
       <c r="P35" s="2" t="inlineStr"/>
@@ -1926,11 +2056,15 @@
       <c r="J36" s="2" t="inlineStr"/>
       <c r="K36" s="2" t="inlineStr"/>
       <c r="L36" s="2" t="inlineStr"/>
-      <c r="M36" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N36" s="2" t="n">
-        <v>0</v>
+      <c r="M36" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N36" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O36" s="2" t="inlineStr"/>
       <c r="P36" s="2" t="inlineStr"/>
@@ -1963,11 +2097,15 @@
       <c r="J37" s="2" t="inlineStr"/>
       <c r="K37" s="2" t="inlineStr"/>
       <c r="L37" s="2" t="inlineStr"/>
-      <c r="M37" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N37" s="2" t="n">
-        <v>0</v>
+      <c r="M37" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N37" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O37" s="2" t="inlineStr"/>
       <c r="P37" s="2" t="inlineStr"/>
@@ -2000,11 +2138,15 @@
       <c r="J38" s="2" t="inlineStr"/>
       <c r="K38" s="2" t="inlineStr"/>
       <c r="L38" s="2" t="inlineStr"/>
-      <c r="M38" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N38" s="2" t="n">
-        <v>0</v>
+      <c r="M38" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N38" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O38" s="2" t="inlineStr"/>
       <c r="P38" s="2" t="inlineStr"/>
@@ -2037,11 +2179,15 @@
       <c r="J39" s="2" t="inlineStr"/>
       <c r="K39" s="2" t="inlineStr"/>
       <c r="L39" s="2" t="inlineStr"/>
-      <c r="M39" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N39" s="2" t="n">
-        <v>0</v>
+      <c r="M39" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N39" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O39" s="2" t="inlineStr"/>
       <c r="P39" s="2" t="inlineStr"/>
@@ -2074,11 +2220,15 @@
       <c r="J40" s="2" t="inlineStr"/>
       <c r="K40" s="2" t="inlineStr"/>
       <c r="L40" s="2" t="inlineStr"/>
-      <c r="M40" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N40" s="2" t="n">
-        <v>0</v>
+      <c r="M40" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N40" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O40" s="2" t="inlineStr"/>
       <c r="P40" s="2" t="inlineStr"/>
@@ -2111,11 +2261,15 @@
       <c r="J41" s="2" t="inlineStr"/>
       <c r="K41" s="2" t="inlineStr"/>
       <c r="L41" s="2" t="inlineStr"/>
-      <c r="M41" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N41" s="2" t="n">
-        <v>0</v>
+      <c r="M41" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N41" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O41" s="2" t="inlineStr"/>
       <c r="P41" s="2" t="inlineStr"/>
@@ -2148,11 +2302,15 @@
       <c r="J42" s="2" t="inlineStr"/>
       <c r="K42" s="2" t="inlineStr"/>
       <c r="L42" s="2" t="inlineStr"/>
-      <c r="M42" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N42" s="2" t="n">
-        <v>0</v>
+      <c r="M42" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N42" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O42" s="2" t="inlineStr"/>
       <c r="P42" s="2" t="inlineStr"/>
@@ -2185,11 +2343,15 @@
       <c r="J43" s="2" t="inlineStr"/>
       <c r="K43" s="2" t="inlineStr"/>
       <c r="L43" s="2" t="inlineStr"/>
-      <c r="M43" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N43" s="2" t="n">
-        <v>0</v>
+      <c r="M43" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N43" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O43" s="2" t="inlineStr"/>
       <c r="P43" s="2" t="inlineStr"/>
@@ -2222,11 +2384,15 @@
       <c r="J44" s="2" t="inlineStr"/>
       <c r="K44" s="2" t="inlineStr"/>
       <c r="L44" s="2" t="inlineStr"/>
-      <c r="M44" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N44" s="2" t="n">
-        <v>0</v>
+      <c r="M44" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N44" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O44" s="2" t="inlineStr"/>
       <c r="P44" s="2" t="inlineStr"/>
@@ -2259,11 +2425,15 @@
       <c r="J45" s="2" t="inlineStr"/>
       <c r="K45" s="2" t="inlineStr"/>
       <c r="L45" s="2" t="inlineStr"/>
-      <c r="M45" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N45" s="2" t="n">
-        <v>0</v>
+      <c r="M45" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N45" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O45" s="2" t="inlineStr"/>
       <c r="P45" s="2" t="inlineStr"/>
@@ -2299,8 +2469,10 @@
       <c r="M46" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="N46" s="2" t="n">
-        <v>0</v>
+      <c r="N46" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O46" s="2" t="inlineStr"/>
       <c r="P46" s="2" t="inlineStr"/>
@@ -2333,11 +2505,15 @@
       <c r="J47" s="2" t="inlineStr"/>
       <c r="K47" s="2" t="inlineStr"/>
       <c r="L47" s="2" t="inlineStr"/>
-      <c r="M47" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N47" s="2" t="n">
-        <v>0</v>
+      <c r="M47" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N47" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O47" s="2" t="inlineStr"/>
       <c r="P47" s="2" t="inlineStr"/>
@@ -2370,11 +2546,15 @@
       <c r="J48" s="2" t="inlineStr"/>
       <c r="K48" s="2" t="inlineStr"/>
       <c r="L48" s="2" t="inlineStr"/>
-      <c r="M48" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N48" s="2" t="n">
-        <v>0</v>
+      <c r="M48" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N48" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O48" s="2" t="inlineStr"/>
       <c r="P48" s="2" t="inlineStr"/>
@@ -2407,11 +2587,15 @@
       <c r="J49" s="2" t="inlineStr"/>
       <c r="K49" s="2" t="inlineStr"/>
       <c r="L49" s="2" t="inlineStr"/>
-      <c r="M49" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N49" s="2" t="n">
-        <v>0</v>
+      <c r="M49" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N49" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O49" s="2" t="inlineStr"/>
       <c r="P49" s="2" t="inlineStr"/>
@@ -2444,11 +2628,15 @@
       <c r="J50" s="2" t="inlineStr"/>
       <c r="K50" s="2" t="inlineStr"/>
       <c r="L50" s="2" t="inlineStr"/>
-      <c r="M50" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N50" s="2" t="n">
-        <v>0</v>
+      <c r="M50" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N50" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O50" s="2" t="inlineStr"/>
       <c r="P50" s="2" t="inlineStr"/>
@@ -2497,11 +2685,15 @@
       <c r="J51" s="2" t="inlineStr"/>
       <c r="K51" s="2" t="inlineStr"/>
       <c r="L51" s="2" t="inlineStr"/>
-      <c r="M51" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N51" s="2" t="n">
-        <v>0</v>
+      <c r="M51" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N51" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O51" s="2" t="inlineStr"/>
       <c r="P51" s="2" t="inlineStr">
@@ -2538,11 +2730,15 @@
       <c r="J52" s="2" t="inlineStr"/>
       <c r="K52" s="2" t="inlineStr"/>
       <c r="L52" s="2" t="inlineStr"/>
-      <c r="M52" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N52" s="2" t="n">
-        <v>0</v>
+      <c r="M52" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N52" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O52" s="2" t="inlineStr"/>
       <c r="P52" s="2" t="inlineStr"/>
@@ -2575,11 +2771,15 @@
       <c r="J53" s="2" t="inlineStr"/>
       <c r="K53" s="2" t="inlineStr"/>
       <c r="L53" s="2" t="inlineStr"/>
-      <c r="M53" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N53" s="2" t="n">
-        <v>0</v>
+      <c r="M53" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N53" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O53" s="2" t="inlineStr"/>
       <c r="P53" s="2" t="inlineStr"/>
@@ -2628,11 +2828,15 @@
       <c r="J54" s="2" t="inlineStr"/>
       <c r="K54" s="2" t="inlineStr"/>
       <c r="L54" s="2" t="inlineStr"/>
-      <c r="M54" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N54" s="2" t="n">
-        <v>0</v>
+      <c r="M54" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N54" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O54" s="2" t="inlineStr"/>
       <c r="P54" s="2" t="inlineStr">
@@ -2669,11 +2873,15 @@
       <c r="J55" s="2" t="inlineStr"/>
       <c r="K55" s="2" t="inlineStr"/>
       <c r="L55" s="2" t="inlineStr"/>
-      <c r="M55" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N55" s="2" t="n">
-        <v>0</v>
+      <c r="M55" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N55" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O55" s="2" t="inlineStr"/>
       <c r="P55" s="2" t="inlineStr"/>
@@ -2726,11 +2934,15 @@
       <c r="J56" s="2" t="inlineStr"/>
       <c r="K56" s="2" t="inlineStr"/>
       <c r="L56" s="2" t="inlineStr"/>
-      <c r="M56" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N56" s="2" t="n">
-        <v>0</v>
+      <c r="M56" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N56" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O56" s="2" t="inlineStr"/>
       <c r="P56" s="2" t="inlineStr">
@@ -2771,11 +2983,15 @@
       <c r="J57" s="2" t="inlineStr"/>
       <c r="K57" s="2" t="inlineStr"/>
       <c r="L57" s="2" t="inlineStr"/>
-      <c r="M57" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N57" s="2" t="n">
-        <v>0</v>
+      <c r="M57" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N57" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O57" s="2" t="inlineStr"/>
       <c r="P57" s="2" t="inlineStr"/>
@@ -2808,11 +3024,15 @@
       <c r="J58" s="2" t="inlineStr"/>
       <c r="K58" s="2" t="inlineStr"/>
       <c r="L58" s="2" t="inlineStr"/>
-      <c r="M58" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N58" s="2" t="n">
-        <v>0</v>
+      <c r="M58" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N58" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O58" s="2" t="inlineStr"/>
       <c r="P58" s="2" t="inlineStr"/>
@@ -2865,11 +3085,15 @@
       <c r="J59" s="2" t="inlineStr"/>
       <c r="K59" s="2" t="inlineStr"/>
       <c r="L59" s="2" t="inlineStr"/>
-      <c r="M59" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N59" s="2" t="n">
-        <v>0</v>
+      <c r="M59" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N59" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O59" s="2" t="inlineStr"/>
       <c r="P59" s="2" t="inlineStr">
@@ -2906,11 +3130,15 @@
       <c r="J60" s="2" t="inlineStr"/>
       <c r="K60" s="2" t="inlineStr"/>
       <c r="L60" s="2" t="inlineStr"/>
-      <c r="M60" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N60" s="2" t="n">
-        <v>0</v>
+      <c r="M60" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N60" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O60" s="2" t="inlineStr"/>
       <c r="P60" s="2" t="inlineStr"/>
@@ -2959,11 +3187,15 @@
       <c r="J61" s="2" t="inlineStr"/>
       <c r="K61" s="2" t="inlineStr"/>
       <c r="L61" s="2" t="inlineStr"/>
-      <c r="M61" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N61" s="2" t="n">
-        <v>0</v>
+      <c r="M61" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N61" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O61" s="2" t="inlineStr"/>
       <c r="P61" s="2" t="inlineStr"/>
@@ -2996,11 +3228,15 @@
       <c r="J62" s="2" t="inlineStr"/>
       <c r="K62" s="2" t="inlineStr"/>
       <c r="L62" s="2" t="inlineStr"/>
-      <c r="M62" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N62" s="2" t="n">
-        <v>0</v>
+      <c r="M62" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N62" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O62" s="2" t="inlineStr"/>
       <c r="P62" s="2" t="inlineStr"/>
@@ -3033,11 +3269,15 @@
       <c r="J63" s="2" t="inlineStr"/>
       <c r="K63" s="2" t="inlineStr"/>
       <c r="L63" s="2" t="inlineStr"/>
-      <c r="M63" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N63" s="2" t="n">
-        <v>0</v>
+      <c r="M63" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N63" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O63" s="2" t="inlineStr"/>
       <c r="P63" s="2" t="inlineStr"/>
@@ -3070,11 +3310,15 @@
       <c r="J64" s="2" t="inlineStr"/>
       <c r="K64" s="2" t="inlineStr"/>
       <c r="L64" s="2" t="inlineStr"/>
-      <c r="M64" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N64" s="2" t="n">
-        <v>0</v>
+      <c r="M64" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N64" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O64" s="2" t="inlineStr"/>
       <c r="P64" s="2" t="inlineStr"/>
@@ -3107,11 +3351,15 @@
       <c r="J65" s="2" t="inlineStr"/>
       <c r="K65" s="2" t="inlineStr"/>
       <c r="L65" s="2" t="inlineStr"/>
-      <c r="M65" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N65" s="2" t="n">
-        <v>0</v>
+      <c r="M65" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N65" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O65" s="2" t="inlineStr"/>
       <c r="P65" s="2" t="inlineStr"/>
@@ -3151,8 +3399,10 @@
       <c r="M66" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="N66" s="2" t="n">
-        <v>0</v>
+      <c r="N66" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O66" s="2" t="inlineStr"/>
       <c r="P66" s="2" t="inlineStr"/>
@@ -3205,11 +3455,15 @@
       <c r="J67" s="2" t="inlineStr"/>
       <c r="K67" s="2" t="inlineStr"/>
       <c r="L67" s="2" t="inlineStr"/>
-      <c r="M67" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N67" s="2" t="n">
-        <v>0</v>
+      <c r="M67" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N67" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O67" s="2" t="inlineStr"/>
       <c r="P67" s="2" t="inlineStr">
@@ -3246,11 +3500,15 @@
       <c r="J68" s="2" t="inlineStr"/>
       <c r="K68" s="2" t="inlineStr"/>
       <c r="L68" s="2" t="inlineStr"/>
-      <c r="M68" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N68" s="2" t="n">
-        <v>0</v>
+      <c r="M68" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N68" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O68" s="2" t="inlineStr"/>
       <c r="P68" s="2" t="inlineStr"/>
@@ -3283,11 +3541,15 @@
       <c r="J69" s="2" t="inlineStr"/>
       <c r="K69" s="2" t="inlineStr"/>
       <c r="L69" s="2" t="inlineStr"/>
-      <c r="M69" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N69" s="2" t="n">
-        <v>0</v>
+      <c r="M69" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N69" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O69" s="2" t="inlineStr"/>
       <c r="P69" s="2" t="inlineStr"/>
@@ -3320,11 +3582,15 @@
       <c r="J70" s="2" t="inlineStr"/>
       <c r="K70" s="2" t="inlineStr"/>
       <c r="L70" s="2" t="inlineStr"/>
-      <c r="M70" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N70" s="2" t="n">
-        <v>0</v>
+      <c r="M70" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N70" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O70" s="2" t="inlineStr"/>
       <c r="P70" s="2" t="inlineStr"/>
@@ -3357,11 +3623,15 @@
       <c r="J71" s="2" t="inlineStr"/>
       <c r="K71" s="2" t="inlineStr"/>
       <c r="L71" s="2" t="inlineStr"/>
-      <c r="M71" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N71" s="2" t="n">
-        <v>0</v>
+      <c r="M71" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N71" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O71" s="2" t="inlineStr"/>
       <c r="P71" s="2" t="inlineStr"/>
@@ -3397,8 +3667,10 @@
       <c r="M72" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="N72" s="2" t="n">
-        <v>0</v>
+      <c r="N72" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O72" s="2" t="inlineStr"/>
       <c r="P72" s="2" t="inlineStr"/>
@@ -3431,11 +3703,15 @@
       <c r="J73" s="2" t="inlineStr"/>
       <c r="K73" s="2" t="inlineStr"/>
       <c r="L73" s="2" t="inlineStr"/>
-      <c r="M73" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N73" s="2" t="n">
-        <v>0</v>
+      <c r="M73" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N73" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O73" s="2" t="inlineStr"/>
       <c r="P73" s="2" t="inlineStr"/>
@@ -3468,11 +3744,15 @@
       <c r="J74" s="2" t="inlineStr"/>
       <c r="K74" s="2" t="inlineStr"/>
       <c r="L74" s="2" t="inlineStr"/>
-      <c r="M74" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N74" s="2" t="n">
-        <v>0</v>
+      <c r="M74" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N74" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O74" s="2" t="inlineStr"/>
       <c r="P74" s="2" t="inlineStr"/>
@@ -3505,11 +3785,15 @@
       <c r="J75" s="2" t="inlineStr"/>
       <c r="K75" s="2" t="inlineStr"/>
       <c r="L75" s="2" t="inlineStr"/>
-      <c r="M75" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N75" s="2" t="n">
-        <v>0</v>
+      <c r="M75" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N75" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O75" s="2" t="inlineStr"/>
       <c r="P75" s="2" t="inlineStr"/>
@@ -3542,11 +3826,15 @@
       <c r="J76" s="2" t="inlineStr"/>
       <c r="K76" s="2" t="inlineStr"/>
       <c r="L76" s="2" t="inlineStr"/>
-      <c r="M76" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N76" s="2" t="n">
-        <v>0</v>
+      <c r="M76" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N76" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O76" s="2" t="inlineStr"/>
       <c r="P76" s="2" t="inlineStr"/>
@@ -3595,11 +3883,15 @@
       <c r="J77" s="2" t="inlineStr"/>
       <c r="K77" s="2" t="inlineStr"/>
       <c r="L77" s="2" t="inlineStr"/>
-      <c r="M77" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N77" s="2" t="n">
-        <v>0</v>
+      <c r="M77" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N77" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O77" s="2" t="inlineStr"/>
       <c r="P77" s="2" t="inlineStr"/>
@@ -3632,11 +3924,15 @@
       <c r="J78" s="2" t="inlineStr"/>
       <c r="K78" s="2" t="inlineStr"/>
       <c r="L78" s="2" t="inlineStr"/>
-      <c r="M78" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N78" s="2" t="n">
-        <v>0</v>
+      <c r="M78" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N78" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O78" s="2" t="inlineStr"/>
       <c r="P78" s="2" t="inlineStr"/>
@@ -3685,11 +3981,15 @@
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
       <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
-        <v>0</v>
-      </c>
-      <c r="N79" t="n">
-        <v>0</v>
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N79" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O79" t="inlineStr"/>
       <c r="P79" t="inlineStr">
@@ -3742,11 +4042,15 @@
       <c r="J80" s="2" t="inlineStr"/>
       <c r="K80" s="2" t="inlineStr"/>
       <c r="L80" s="2" t="inlineStr"/>
-      <c r="M80" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N80" s="2" t="n">
-        <v>0</v>
+      <c r="M80" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N80" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O80" s="2" t="inlineStr"/>
       <c r="P80" s="2" t="inlineStr">
@@ -3783,11 +4087,15 @@
       <c r="J81" s="2" t="inlineStr"/>
       <c r="K81" s="2" t="inlineStr"/>
       <c r="L81" s="2" t="inlineStr"/>
-      <c r="M81" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N81" s="2" t="n">
-        <v>0</v>
+      <c r="M81" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N81" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O81" s="2" t="inlineStr"/>
       <c r="P81" s="2" t="inlineStr"/>
@@ -3820,11 +4128,15 @@
       <c r="J82" s="2" t="inlineStr"/>
       <c r="K82" s="2" t="inlineStr"/>
       <c r="L82" s="2" t="inlineStr"/>
-      <c r="M82" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N82" s="2" t="n">
-        <v>0</v>
+      <c r="M82" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N82" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O82" s="2" t="inlineStr"/>
       <c r="P82" s="2" t="inlineStr"/>
@@ -3877,11 +4189,15 @@
       <c r="J83" s="2" t="inlineStr"/>
       <c r="K83" s="2" t="inlineStr"/>
       <c r="L83" s="2" t="inlineStr"/>
-      <c r="M83" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N83" s="2" t="n">
-        <v>0</v>
+      <c r="M83" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N83" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O83" s="2" t="inlineStr"/>
       <c r="P83" s="2" t="inlineStr">
@@ -3918,11 +4234,15 @@
       <c r="J84" s="2" t="inlineStr"/>
       <c r="K84" s="2" t="inlineStr"/>
       <c r="L84" s="2" t="inlineStr"/>
-      <c r="M84" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N84" s="2" t="n">
-        <v>0</v>
+      <c r="M84" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N84" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O84" s="2" t="inlineStr"/>
       <c r="P84" s="2" t="inlineStr"/>
@@ -3955,11 +4275,15 @@
       <c r="J85" s="2" t="inlineStr"/>
       <c r="K85" s="2" t="inlineStr"/>
       <c r="L85" s="2" t="inlineStr"/>
-      <c r="M85" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N85" s="2" t="n">
-        <v>0</v>
+      <c r="M85" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N85" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O85" s="2" t="inlineStr"/>
       <c r="P85" s="2" t="inlineStr"/>
@@ -3992,11 +4316,15 @@
       <c r="J86" s="2" t="inlineStr"/>
       <c r="K86" s="2" t="inlineStr"/>
       <c r="L86" s="2" t="inlineStr"/>
-      <c r="M86" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N86" s="2" t="n">
-        <v>0</v>
+      <c r="M86" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N86" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O86" s="2" t="inlineStr"/>
       <c r="P86" s="2" t="inlineStr"/>
@@ -4044,8 +4372,10 @@
       <c r="M87" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="N87" s="3" t="n">
-        <v>0</v>
+      <c r="N87" s="3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O87" s="3" t="inlineStr"/>
       <c r="P87" s="3" t="inlineStr">
@@ -4102,11 +4432,15 @@
       <c r="J88" s="2" t="inlineStr"/>
       <c r="K88" s="2" t="inlineStr"/>
       <c r="L88" s="2" t="inlineStr"/>
-      <c r="M88" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N88" s="2" t="n">
-        <v>0</v>
+      <c r="M88" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N88" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O88" s="2" t="inlineStr"/>
       <c r="P88" s="2" t="inlineStr">
@@ -4146,8 +4480,10 @@
       <c r="M89" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="N89" s="2" t="n">
-        <v>0</v>
+      <c r="N89" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O89" s="2" t="inlineStr"/>
       <c r="P89" s="2" t="inlineStr"/>
@@ -4183,8 +4519,10 @@
       <c r="M90" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="N90" s="2" t="n">
-        <v>0</v>
+      <c r="N90" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O90" s="2" t="inlineStr"/>
       <c r="P90" s="2" t="inlineStr"/>
@@ -4220,8 +4558,10 @@
       <c r="M91" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="N91" s="2" t="n">
-        <v>0</v>
+      <c r="N91" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O91" s="2" t="inlineStr"/>
       <c r="P91" s="2" t="inlineStr"/>
@@ -4257,8 +4597,10 @@
       <c r="M92" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="N92" s="2" t="n">
-        <v>0</v>
+      <c r="N92" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O92" s="2" t="inlineStr"/>
       <c r="P92" s="2" t="inlineStr"/>
@@ -4291,11 +4633,15 @@
       <c r="J93" s="2" t="inlineStr"/>
       <c r="K93" s="2" t="inlineStr"/>
       <c r="L93" s="2" t="inlineStr"/>
-      <c r="M93" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N93" s="2" t="n">
-        <v>0</v>
+      <c r="M93" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N93" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O93" s="2" t="inlineStr"/>
       <c r="P93" s="2" t="inlineStr"/>
@@ -4348,11 +4694,15 @@
       <c r="J94" s="2" t="inlineStr"/>
       <c r="K94" s="2" t="inlineStr"/>
       <c r="L94" s="2" t="inlineStr"/>
-      <c r="M94" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N94" s="2" t="n">
-        <v>0</v>
+      <c r="M94" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N94" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O94" s="2" t="inlineStr"/>
       <c r="P94" s="2" t="inlineStr">
@@ -4389,11 +4739,15 @@
       <c r="J95" s="2" t="inlineStr"/>
       <c r="K95" s="2" t="inlineStr"/>
       <c r="L95" s="2" t="inlineStr"/>
-      <c r="M95" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N95" s="2" t="n">
-        <v>0</v>
+      <c r="M95" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N95" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O95" s="2" t="inlineStr"/>
       <c r="P95" s="2" t="inlineStr"/>
@@ -4429,8 +4783,10 @@
       <c r="M96" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="N96" s="2" t="n">
-        <v>0</v>
+      <c r="N96" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O96" s="2" t="inlineStr"/>
       <c r="P96" s="2" t="inlineStr"/>
@@ -4466,8 +4822,10 @@
       <c r="M97" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="N97" s="2" t="n">
-        <v>0</v>
+      <c r="N97" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O97" s="2" t="inlineStr"/>
       <c r="P97" s="2" t="inlineStr"/>
@@ -4500,11 +4858,15 @@
       <c r="J98" s="2" t="inlineStr"/>
       <c r="K98" s="2" t="inlineStr"/>
       <c r="L98" s="2" t="inlineStr"/>
-      <c r="M98" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N98" s="2" t="n">
-        <v>0</v>
+      <c r="M98" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N98" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O98" s="2" t="inlineStr"/>
       <c r="P98" s="2" t="inlineStr"/>
@@ -4557,11 +4919,15 @@
       <c r="J99" s="2" t="inlineStr"/>
       <c r="K99" s="2" t="inlineStr"/>
       <c r="L99" s="2" t="inlineStr"/>
-      <c r="M99" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N99" s="2" t="n">
-        <v>0</v>
+      <c r="M99" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N99" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O99" s="2" t="inlineStr"/>
       <c r="P99" s="2" t="inlineStr">
@@ -4618,11 +4984,15 @@
       <c r="J100" s="2" t="inlineStr"/>
       <c r="K100" s="2" t="inlineStr"/>
       <c r="L100" s="2" t="inlineStr"/>
-      <c r="M100" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N100" s="2" t="n">
-        <v>0</v>
+      <c r="M100" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N100" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O100" s="2" t="inlineStr"/>
       <c r="P100" s="2" t="inlineStr">
@@ -4662,8 +5032,10 @@
       <c r="M101" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="N101" s="2" t="n">
-        <v>0</v>
+      <c r="N101" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O101" s="2" t="inlineStr"/>
       <c r="P101" s="2" t="inlineStr"/>
@@ -4699,8 +5071,10 @@
       <c r="M102" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="N102" s="2" t="n">
-        <v>0</v>
+      <c r="N102" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O102" s="2" t="inlineStr"/>
       <c r="P102" s="2" t="inlineStr"/>
@@ -4733,11 +5107,15 @@
       <c r="J103" s="2" t="inlineStr"/>
       <c r="K103" s="2" t="inlineStr"/>
       <c r="L103" s="2" t="inlineStr"/>
-      <c r="M103" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N103" s="2" t="n">
-        <v>0</v>
+      <c r="M103" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N103" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O103" s="2" t="inlineStr"/>
       <c r="P103" s="2" t="inlineStr"/>
@@ -4770,11 +5148,15 @@
       <c r="J104" s="2" t="inlineStr"/>
       <c r="K104" s="2" t="inlineStr"/>
       <c r="L104" s="2" t="inlineStr"/>
-      <c r="M104" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N104" s="2" t="n">
-        <v>0</v>
+      <c r="M104" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N104" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O104" s="2" t="inlineStr"/>
       <c r="P104" s="2" t="inlineStr"/>
@@ -4810,8 +5192,10 @@
       <c r="M105" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="N105" s="2" t="n">
-        <v>0</v>
+      <c r="N105" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O105" s="2" t="inlineStr"/>
       <c r="P105" s="2" t="inlineStr"/>
@@ -4844,11 +5228,15 @@
       <c r="J106" s="2" t="inlineStr"/>
       <c r="K106" s="2" t="inlineStr"/>
       <c r="L106" s="2" t="inlineStr"/>
-      <c r="M106" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N106" s="2" t="n">
-        <v>0</v>
+      <c r="M106" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N106" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O106" s="2" t="inlineStr"/>
       <c r="P106" s="2" t="inlineStr"/>
@@ -4901,11 +5289,15 @@
       <c r="J107" s="2" t="inlineStr"/>
       <c r="K107" s="2" t="inlineStr"/>
       <c r="L107" s="2" t="inlineStr"/>
-      <c r="M107" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N107" s="2" t="n">
-        <v>0</v>
+      <c r="M107" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N107" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O107" s="2" t="inlineStr"/>
       <c r="P107" s="2" t="inlineStr">
@@ -4962,11 +5354,15 @@
       <c r="J108" s="2" t="inlineStr"/>
       <c r="K108" s="2" t="inlineStr"/>
       <c r="L108" s="2" t="inlineStr"/>
-      <c r="M108" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N108" s="2" t="n">
-        <v>0</v>
+      <c r="M108" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N108" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O108" s="2" t="inlineStr"/>
       <c r="P108" s="2" t="inlineStr">
@@ -5006,8 +5402,10 @@
       <c r="M109" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="N109" s="2" t="n">
-        <v>0</v>
+      <c r="N109" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O109" s="2" t="inlineStr"/>
       <c r="P109" s="2" t="inlineStr"/>
@@ -5043,8 +5441,10 @@
       <c r="M110" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="N110" s="2" t="n">
-        <v>0</v>
+      <c r="N110" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O110" s="2" t="inlineStr"/>
       <c r="P110" s="2" t="inlineStr"/>
@@ -5097,11 +5497,15 @@
       <c r="J111" s="2" t="inlineStr"/>
       <c r="K111" s="2" t="inlineStr"/>
       <c r="L111" s="2" t="inlineStr"/>
-      <c r="M111" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N111" s="2" t="n">
-        <v>0</v>
+      <c r="M111" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N111" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O111" s="2" t="inlineStr"/>
       <c r="P111" s="2" t="inlineStr">
@@ -5141,8 +5545,10 @@
       <c r="M112" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="N112" s="2" t="n">
-        <v>0</v>
+      <c r="N112" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O112" s="2" t="inlineStr"/>
       <c r="P112" s="2" t="inlineStr"/>
@@ -5178,8 +5584,10 @@
       <c r="M113" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="N113" s="2" t="n">
-        <v>0</v>
+      <c r="N113" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O113" s="2" t="inlineStr"/>
       <c r="P113" s="2" t="inlineStr"/>
@@ -5215,8 +5623,10 @@
       <c r="M114" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="N114" s="2" t="n">
-        <v>0</v>
+      <c r="N114" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O114" s="2" t="inlineStr"/>
       <c r="P114" s="2" t="inlineStr"/>
@@ -5252,8 +5662,10 @@
       <c r="M115" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="N115" s="2" t="n">
-        <v>0</v>
+      <c r="N115" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O115" s="2" t="inlineStr"/>
       <c r="P115" s="2" t="inlineStr"/>
@@ -5289,8 +5701,10 @@
       <c r="M116" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="N116" s="2" t="n">
-        <v>0</v>
+      <c r="N116" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O116" s="2" t="inlineStr"/>
       <c r="P116" s="2" t="inlineStr"/>
@@ -5323,11 +5737,15 @@
       <c r="J117" s="2" t="inlineStr"/>
       <c r="K117" s="2" t="inlineStr"/>
       <c r="L117" s="2" t="inlineStr"/>
-      <c r="M117" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N117" s="2" t="n">
-        <v>0</v>
+      <c r="M117" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N117" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O117" s="2" t="inlineStr"/>
       <c r="P117" s="2" t="inlineStr"/>
@@ -5363,8 +5781,10 @@
       <c r="M118" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="N118" s="2" t="n">
-        <v>0</v>
+      <c r="N118" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O118" s="2" t="inlineStr"/>
       <c r="P118" s="2" t="inlineStr"/>
@@ -5401,11 +5821,15 @@
       <c r="J119" s="2" t="inlineStr"/>
       <c r="K119" s="2" t="inlineStr"/>
       <c r="L119" s="2" t="inlineStr"/>
-      <c r="M119" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N119" s="2" t="n">
-        <v>0</v>
+      <c r="M119" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N119" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O119" s="2" t="inlineStr"/>
       <c r="P119" s="2" t="inlineStr"/>
@@ -5442,11 +5866,15 @@
       <c r="J120" s="2" t="inlineStr"/>
       <c r="K120" s="2" t="inlineStr"/>
       <c r="L120" s="2" t="inlineStr"/>
-      <c r="M120" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N120" s="2" t="n">
-        <v>0</v>
+      <c r="M120" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N120" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O120" s="2" t="inlineStr"/>
       <c r="P120" s="2" t="inlineStr"/>
@@ -5482,8 +5910,10 @@
       <c r="M121" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="N121" s="2" t="n">
-        <v>0</v>
+      <c r="N121" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O121" s="2" t="inlineStr"/>
       <c r="P121" s="2" t="inlineStr"/>
@@ -5519,8 +5949,10 @@
       <c r="M122" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="N122" s="2" t="n">
-        <v>0</v>
+      <c r="N122" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O122" s="2" t="inlineStr"/>
       <c r="P122" s="2" t="inlineStr"/>
@@ -5556,8 +5988,10 @@
       <c r="M123" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="N123" s="2" t="n">
-        <v>0</v>
+      <c r="N123" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O123" s="2" t="inlineStr"/>
       <c r="P123" s="2" t="inlineStr"/>
@@ -5610,11 +6044,15 @@
       <c r="J124" s="2" t="inlineStr"/>
       <c r="K124" s="2" t="inlineStr"/>
       <c r="L124" s="2" t="inlineStr"/>
-      <c r="M124" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N124" s="2" t="n">
-        <v>0</v>
+      <c r="M124" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N124" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O124" s="2" t="inlineStr"/>
       <c r="P124" s="2" t="inlineStr">
@@ -5651,11 +6089,15 @@
       <c r="J125" s="2" t="inlineStr"/>
       <c r="K125" s="2" t="inlineStr"/>
       <c r="L125" s="2" t="inlineStr"/>
-      <c r="M125" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N125" s="2" t="n">
-        <v>0</v>
+      <c r="M125" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N125" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O125" s="2" t="inlineStr"/>
       <c r="P125" s="2" t="inlineStr"/>
@@ -5688,11 +6130,15 @@
       <c r="J126" s="2" t="inlineStr"/>
       <c r="K126" s="2" t="inlineStr"/>
       <c r="L126" s="2" t="inlineStr"/>
-      <c r="M126" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N126" s="2" t="n">
-        <v>0</v>
+      <c r="M126" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N126" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O126" s="2" t="inlineStr"/>
       <c r="P126" s="2" t="inlineStr"/>
@@ -5725,11 +6171,15 @@
       <c r="J127" s="2" t="inlineStr"/>
       <c r="K127" s="2" t="inlineStr"/>
       <c r="L127" s="2" t="inlineStr"/>
-      <c r="M127" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N127" s="2" t="n">
-        <v>0</v>
+      <c r="M127" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N127" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O127" s="2" t="inlineStr"/>
       <c r="P127" s="2" t="inlineStr"/>
@@ -5762,11 +6212,15 @@
       <c r="J128" s="2" t="inlineStr"/>
       <c r="K128" s="2" t="inlineStr"/>
       <c r="L128" s="2" t="inlineStr"/>
-      <c r="M128" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N128" s="2" t="n">
-        <v>0</v>
+      <c r="M128" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N128" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O128" s="2" t="inlineStr"/>
       <c r="P128" s="2" t="inlineStr"/>
@@ -5802,8 +6256,10 @@
       <c r="M129" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="N129" s="2" t="n">
-        <v>0</v>
+      <c r="N129" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O129" s="2" t="inlineStr"/>
       <c r="P129" s="2" t="inlineStr"/>
@@ -5863,8 +6319,10 @@
       <c r="M130" t="n">
         <v>1</v>
       </c>
-      <c r="N130" t="n">
-        <v>0</v>
+      <c r="N130" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O130" t="inlineStr"/>
       <c r="P130" t="inlineStr"/>
@@ -5900,8 +6358,10 @@
       <c r="M131" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="N131" s="2" t="n">
-        <v>0</v>
+      <c r="N131" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O131" s="2" t="inlineStr"/>
       <c r="P131" s="2" t="inlineStr"/>
@@ -5945,8 +6405,10 @@
       <c r="M132" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="N132" s="2" t="n">
-        <v>0</v>
+      <c r="N132" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O132" s="2" t="inlineStr"/>
       <c r="P132" s="2" t="inlineStr"/>
@@ -5983,11 +6445,15 @@
       <c r="J133" s="2" t="inlineStr"/>
       <c r="K133" s="2" t="inlineStr"/>
       <c r="L133" s="2" t="inlineStr"/>
-      <c r="M133" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N133" s="2" t="n">
-        <v>0</v>
+      <c r="M133" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N133" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O133" s="2" t="inlineStr"/>
       <c r="P133" s="2" t="inlineStr"/>
@@ -6031,8 +6497,10 @@
       <c r="M134" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="N134" s="2" t="n">
-        <v>0</v>
+      <c r="N134" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O134" s="2" t="inlineStr"/>
       <c r="P134" s="2" t="inlineStr"/>
@@ -6076,8 +6544,10 @@
       <c r="M135" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="N135" s="2" t="n">
-        <v>0</v>
+      <c r="N135" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O135" s="2" t="inlineStr"/>
       <c r="P135" s="2" t="inlineStr"/>
@@ -6113,8 +6583,10 @@
       <c r="M136" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="N136" s="2" t="n">
-        <v>0</v>
+      <c r="N136" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O136" s="2" t="inlineStr"/>
       <c r="P136" s="2" t="inlineStr"/>
@@ -6150,8 +6622,10 @@
       <c r="M137" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="N137" s="2" t="n">
-        <v>0</v>
+      <c r="N137" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O137" s="2" t="inlineStr"/>
       <c r="P137" s="2" t="inlineStr"/>
@@ -6187,8 +6661,10 @@
       <c r="M138" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="N138" s="2" t="n">
-        <v>0</v>
+      <c r="N138" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O138" s="2" t="inlineStr"/>
       <c r="P138" s="2" t="inlineStr"/>
@@ -6224,8 +6700,10 @@
       <c r="M139" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="N139" s="2" t="n">
-        <v>0</v>
+      <c r="N139" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O139" s="2" t="inlineStr"/>
       <c r="P139" s="2" t="inlineStr"/>
@@ -6261,8 +6739,10 @@
       <c r="M140" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="N140" s="2" t="n">
-        <v>0</v>
+      <c r="N140" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O140" s="2" t="inlineStr"/>
       <c r="P140" s="2" t="inlineStr"/>
@@ -6298,8 +6778,10 @@
       <c r="M141" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="N141" s="2" t="n">
-        <v>0</v>
+      <c r="N141" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O141" s="2" t="inlineStr"/>
       <c r="P141" s="2" t="inlineStr"/>
@@ -6335,8 +6817,10 @@
       <c r="M142" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="N142" s="2" t="n">
-        <v>0</v>
+      <c r="N142" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O142" s="2" t="inlineStr"/>
       <c r="P142" s="2" t="inlineStr"/>
@@ -6385,11 +6869,15 @@
       <c r="J143" s="2" t="inlineStr"/>
       <c r="K143" s="2" t="inlineStr"/>
       <c r="L143" s="2" t="inlineStr"/>
-      <c r="M143" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N143" s="2" t="n">
-        <v>0</v>
+      <c r="M143" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N143" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O143" s="2" t="inlineStr"/>
       <c r="P143" s="2" t="inlineStr">
@@ -6429,8 +6917,10 @@
       <c r="M144" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="N144" s="2" t="n">
-        <v>0</v>
+      <c r="N144" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O144" s="2" t="inlineStr"/>
       <c r="P144" s="2" t="inlineStr"/>
@@ -6466,8 +6956,10 @@
       <c r="M145" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="N145" s="2" t="n">
-        <v>0</v>
+      <c r="N145" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O145" s="2" t="inlineStr"/>
       <c r="P145" s="2" t="inlineStr"/>
@@ -6504,11 +6996,15 @@
       <c r="J146" s="2" t="inlineStr"/>
       <c r="K146" s="2" t="inlineStr"/>
       <c r="L146" s="2" t="inlineStr"/>
-      <c r="M146" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N146" s="2" t="n">
-        <v>0</v>
+      <c r="M146" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N146" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O146" s="2" t="inlineStr"/>
       <c r="P146" s="2" t="inlineStr">
@@ -6561,11 +7057,15 @@
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
       <c r="L147" t="inlineStr"/>
-      <c r="M147" t="n">
-        <v>0</v>
-      </c>
-      <c r="N147" t="n">
-        <v>0</v>
+      <c r="M147" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N147" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O147" t="inlineStr"/>
       <c r="P147" t="inlineStr">
@@ -6602,11 +7102,15 @@
       <c r="J148" s="2" t="inlineStr"/>
       <c r="K148" s="2" t="inlineStr"/>
       <c r="L148" s="2" t="inlineStr"/>
-      <c r="M148" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N148" s="2" t="n">
-        <v>0</v>
+      <c r="M148" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N148" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O148" s="2" t="inlineStr"/>
       <c r="P148" s="2" t="inlineStr"/>
@@ -6655,11 +7159,15 @@
       <c r="J149" s="2" t="inlineStr"/>
       <c r="K149" s="2" t="inlineStr"/>
       <c r="L149" s="2" t="inlineStr"/>
-      <c r="M149" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N149" s="2" t="n">
-        <v>0</v>
+      <c r="M149" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N149" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O149" s="2" t="inlineStr"/>
       <c r="P149" s="2" t="inlineStr">
@@ -6712,11 +7220,15 @@
       <c r="J150" s="2" t="inlineStr"/>
       <c r="K150" s="2" t="inlineStr"/>
       <c r="L150" s="2" t="inlineStr"/>
-      <c r="M150" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N150" s="2" t="n">
-        <v>0</v>
+      <c r="M150" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N150" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O150" s="2" t="inlineStr"/>
       <c r="P150" s="2" t="inlineStr">
@@ -6756,8 +7268,10 @@
       <c r="M151" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="N151" s="2" t="n">
-        <v>0</v>
+      <c r="N151" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O151" s="2" t="inlineStr"/>
       <c r="P151" s="2" t="inlineStr"/>
@@ -6790,11 +7304,15 @@
       <c r="J152" s="2" t="inlineStr"/>
       <c r="K152" s="2" t="inlineStr"/>
       <c r="L152" s="2" t="inlineStr"/>
-      <c r="M152" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N152" s="2" t="n">
-        <v>0</v>
+      <c r="M152" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N152" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O152" s="2" t="inlineStr"/>
       <c r="P152" s="2" t="inlineStr"/>
@@ -6830,8 +7348,10 @@
       <c r="M153" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="N153" s="2" t="n">
-        <v>0</v>
+      <c r="N153" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O153" s="2" t="inlineStr"/>
       <c r="P153" s="2" t="inlineStr"/>
@@ -6867,8 +7387,10 @@
       <c r="M154" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="N154" s="2" t="n">
-        <v>0</v>
+      <c r="N154" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O154" s="2" t="inlineStr"/>
       <c r="P154" s="2" t="inlineStr"/>
@@ -6904,8 +7426,10 @@
       <c r="M155" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="N155" s="2" t="n">
-        <v>0</v>
+      <c r="N155" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O155" s="2" t="inlineStr"/>
       <c r="P155" s="2" t="inlineStr"/>
@@ -6938,11 +7462,15 @@
       <c r="J156" s="2" t="inlineStr"/>
       <c r="K156" s="2" t="inlineStr"/>
       <c r="L156" s="2" t="inlineStr"/>
-      <c r="M156" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N156" s="2" t="n">
-        <v>0</v>
+      <c r="M156" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N156" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O156" s="2" t="inlineStr"/>
       <c r="P156" s="2" t="inlineStr"/>
@@ -6975,11 +7503,15 @@
       <c r="J157" s="2" t="inlineStr"/>
       <c r="K157" s="2" t="inlineStr"/>
       <c r="L157" s="2" t="inlineStr"/>
-      <c r="M157" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N157" s="2" t="n">
-        <v>0</v>
+      <c r="M157" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N157" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O157" s="2" t="inlineStr"/>
       <c r="P157" s="2" t="inlineStr"/>
@@ -7012,11 +7544,15 @@
       <c r="J158" s="2" t="inlineStr"/>
       <c r="K158" s="2" t="inlineStr"/>
       <c r="L158" s="2" t="inlineStr"/>
-      <c r="M158" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N158" s="2" t="n">
-        <v>0</v>
+      <c r="M158" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N158" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O158" s="2" t="inlineStr"/>
       <c r="P158" s="2" t="inlineStr"/>
@@ -7052,8 +7588,10 @@
       <c r="M159" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="N159" s="2" t="n">
-        <v>0</v>
+      <c r="N159" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O159" s="2" t="inlineStr"/>
       <c r="P159" s="2" t="inlineStr"/>
@@ -7086,11 +7624,15 @@
       <c r="J160" s="2" t="inlineStr"/>
       <c r="K160" s="2" t="inlineStr"/>
       <c r="L160" s="2" t="inlineStr"/>
-      <c r="M160" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N160" s="2" t="n">
-        <v>0</v>
+      <c r="M160" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N160" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O160" s="2" t="inlineStr"/>
       <c r="P160" s="2" t="inlineStr"/>
@@ -7123,11 +7665,15 @@
       <c r="J161" s="2" t="inlineStr"/>
       <c r="K161" s="2" t="inlineStr"/>
       <c r="L161" s="2" t="inlineStr"/>
-      <c r="M161" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N161" s="2" t="n">
-        <v>0</v>
+      <c r="M161" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N161" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O161" s="2" t="inlineStr"/>
       <c r="P161" s="2" t="inlineStr"/>
@@ -7160,11 +7706,15 @@
       <c r="J162" s="2" t="inlineStr"/>
       <c r="K162" s="2" t="inlineStr"/>
       <c r="L162" s="2" t="inlineStr"/>
-      <c r="M162" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N162" s="2" t="n">
-        <v>0</v>
+      <c r="M162" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N162" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O162" s="2" t="inlineStr"/>
       <c r="P162" s="2" t="inlineStr"/>
@@ -7197,11 +7747,15 @@
       <c r="J163" s="2" t="inlineStr"/>
       <c r="K163" s="2" t="inlineStr"/>
       <c r="L163" s="2" t="inlineStr"/>
-      <c r="M163" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N163" s="2" t="n">
-        <v>0</v>
+      <c r="M163" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N163" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O163" s="2" t="inlineStr"/>
       <c r="P163" s="2" t="inlineStr"/>
@@ -7234,11 +7788,15 @@
       <c r="J164" s="2" t="inlineStr"/>
       <c r="K164" s="2" t="inlineStr"/>
       <c r="L164" s="2" t="inlineStr"/>
-      <c r="M164" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N164" s="2" t="n">
-        <v>0</v>
+      <c r="M164" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N164" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O164" s="2" t="inlineStr"/>
       <c r="P164" s="2" t="inlineStr"/>
@@ -7271,11 +7829,15 @@
       <c r="J165" s="2" t="inlineStr"/>
       <c r="K165" s="2" t="inlineStr"/>
       <c r="L165" s="2" t="inlineStr"/>
-      <c r="M165" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N165" s="2" t="n">
-        <v>0</v>
+      <c r="M165" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N165" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O165" s="2" t="inlineStr"/>
       <c r="P165" s="2" t="inlineStr"/>
@@ -7308,11 +7870,15 @@
       <c r="J166" s="2" t="inlineStr"/>
       <c r="K166" s="2" t="inlineStr"/>
       <c r="L166" s="2" t="inlineStr"/>
-      <c r="M166" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N166" s="2" t="n">
-        <v>0</v>
+      <c r="M166" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N166" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O166" s="2" t="inlineStr"/>
       <c r="P166" s="2" t="inlineStr"/>
@@ -7348,8 +7914,10 @@
       <c r="M167" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="N167" s="2" t="n">
-        <v>0</v>
+      <c r="N167" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O167" s="2" t="inlineStr"/>
       <c r="P167" s="2" t="inlineStr"/>
@@ -7382,11 +7950,15 @@
       <c r="J168" s="2" t="inlineStr"/>
       <c r="K168" s="2" t="inlineStr"/>
       <c r="L168" s="2" t="inlineStr"/>
-      <c r="M168" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N168" s="2" t="n">
-        <v>0</v>
+      <c r="M168" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N168" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O168" s="2" t="inlineStr"/>
       <c r="P168" s="2" t="inlineStr">
@@ -7443,11 +8015,15 @@
       <c r="J169" s="2" t="inlineStr"/>
       <c r="K169" s="2" t="inlineStr"/>
       <c r="L169" s="2" t="inlineStr"/>
-      <c r="M169" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N169" s="2" t="n">
-        <v>0</v>
+      <c r="M169" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N169" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O169" s="2" t="inlineStr"/>
       <c r="P169" s="2" t="inlineStr">
@@ -7487,8 +8063,10 @@
       <c r="M170" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="N170" s="2" t="n">
-        <v>0</v>
+      <c r="N170" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O170" s="2" t="inlineStr"/>
       <c r="P170" s="2" t="inlineStr"/>
@@ -7521,11 +8099,15 @@
       <c r="J171" s="2" t="inlineStr"/>
       <c r="K171" s="2" t="inlineStr"/>
       <c r="L171" s="2" t="inlineStr"/>
-      <c r="M171" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N171" s="2" t="n">
-        <v>0</v>
+      <c r="M171" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N171" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O171" s="2" t="inlineStr"/>
       <c r="P171" s="2" t="inlineStr"/>
@@ -7574,11 +8156,15 @@
       <c r="J172" s="2" t="inlineStr"/>
       <c r="K172" s="2" t="inlineStr"/>
       <c r="L172" s="2" t="inlineStr"/>
-      <c r="M172" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N172" s="2" t="n">
-        <v>0</v>
+      <c r="M172" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N172" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O172" s="2" t="inlineStr"/>
       <c r="P172" s="2" t="inlineStr">
@@ -7615,11 +8201,15 @@
       <c r="J173" s="2" t="inlineStr"/>
       <c r="K173" s="2" t="inlineStr"/>
       <c r="L173" s="2" t="inlineStr"/>
-      <c r="M173" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N173" s="2" t="n">
-        <v>0</v>
+      <c r="M173" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N173" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O173" s="2" t="inlineStr"/>
       <c r="P173" s="2" t="inlineStr"/>
@@ -7652,11 +8242,15 @@
       <c r="J174" s="2" t="inlineStr"/>
       <c r="K174" s="2" t="inlineStr"/>
       <c r="L174" s="2" t="inlineStr"/>
-      <c r="M174" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N174" s="2" t="n">
-        <v>0</v>
+      <c r="M174" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N174" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O174" s="2" t="inlineStr"/>
       <c r="P174" s="2" t="inlineStr"/>
@@ -7689,11 +8283,15 @@
       <c r="J175" s="2" t="inlineStr"/>
       <c r="K175" s="2" t="inlineStr"/>
       <c r="L175" s="2" t="inlineStr"/>
-      <c r="M175" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N175" s="2" t="n">
-        <v>0</v>
+      <c r="M175" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N175" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O175" s="2" t="inlineStr"/>
       <c r="P175" s="2" t="inlineStr"/>
@@ -7742,11 +8340,15 @@
       <c r="J176" s="2" t="inlineStr"/>
       <c r="K176" s="2" t="inlineStr"/>
       <c r="L176" s="2" t="inlineStr"/>
-      <c r="M176" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N176" s="2" t="n">
-        <v>0</v>
+      <c r="M176" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N176" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O176" s="2" t="inlineStr"/>
       <c r="P176" s="2" t="inlineStr">
@@ -7786,8 +8388,10 @@
       <c r="M177" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="N177" s="2" t="n">
-        <v>0</v>
+      <c r="N177" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O177" s="2" t="inlineStr"/>
       <c r="P177" s="2" t="inlineStr"/>
@@ -7823,8 +8427,10 @@
       <c r="M178" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="N178" s="2" t="n">
-        <v>0</v>
+      <c r="N178" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O178" s="2" t="inlineStr"/>
       <c r="P178" s="2" t="inlineStr"/>
@@ -7860,8 +8466,10 @@
       <c r="M179" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="N179" s="2" t="n">
-        <v>0</v>
+      <c r="N179" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O179" s="2" t="inlineStr"/>
       <c r="P179" s="2" t="inlineStr"/>
@@ -7898,11 +8506,15 @@
       <c r="J180" s="2" t="inlineStr"/>
       <c r="K180" s="2" t="inlineStr"/>
       <c r="L180" s="2" t="inlineStr"/>
-      <c r="M180" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N180" s="2" t="n">
-        <v>0</v>
+      <c r="M180" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N180" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O180" s="2" t="inlineStr"/>
       <c r="P180" s="2" t="inlineStr"/>
@@ -7935,11 +8547,15 @@
       <c r="J181" s="2" t="inlineStr"/>
       <c r="K181" s="2" t="inlineStr"/>
       <c r="L181" s="2" t="inlineStr"/>
-      <c r="M181" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N181" s="2" t="n">
-        <v>0</v>
+      <c r="M181" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N181" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O181" s="2" t="inlineStr"/>
       <c r="P181" s="2" t="inlineStr"/>
@@ -7991,8 +8607,10 @@
       <c r="M182" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="N182" s="2" t="n">
-        <v>0</v>
+      <c r="N182" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O182" s="2" t="inlineStr"/>
       <c r="P182" s="2" t="inlineStr"/>
@@ -8028,8 +8646,10 @@
       <c r="M183" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="N183" s="2" t="n">
-        <v>0</v>
+      <c r="N183" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O183" s="2" t="inlineStr"/>
       <c r="P183" s="2" t="inlineStr"/>
@@ -8062,11 +8682,15 @@
       <c r="J184" s="2" t="inlineStr"/>
       <c r="K184" s="2" t="inlineStr"/>
       <c r="L184" s="2" t="inlineStr"/>
-      <c r="M184" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N184" s="2" t="n">
-        <v>0</v>
+      <c r="M184" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N184" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O184" s="2" t="inlineStr"/>
       <c r="P184" s="2" t="inlineStr"/>
@@ -8122,8 +8746,10 @@
       <c r="M185" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="N185" s="2" t="n">
-        <v>0</v>
+      <c r="N185" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O185" s="2" t="inlineStr"/>
       <c r="P185" s="2" t="inlineStr"/>
@@ -8159,8 +8785,10 @@
       <c r="M186" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="N186" s="2" t="n">
-        <v>0</v>
+      <c r="N186" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O186" s="2" t="inlineStr"/>
       <c r="P186" s="2" t="inlineStr"/>
@@ -8193,11 +8821,15 @@
       <c r="J187" s="2" t="inlineStr"/>
       <c r="K187" s="2" t="inlineStr"/>
       <c r="L187" s="2" t="inlineStr"/>
-      <c r="M187" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N187" s="2" t="n">
-        <v>0</v>
+      <c r="M187" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N187" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O187" s="2" t="inlineStr"/>
       <c r="P187" s="2" t="inlineStr"/>
@@ -8230,11 +8862,15 @@
       <c r="J188" s="2" t="inlineStr"/>
       <c r="K188" s="2" t="inlineStr"/>
       <c r="L188" s="2" t="inlineStr"/>
-      <c r="M188" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N188" s="2" t="n">
-        <v>0</v>
+      <c r="M188" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N188" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O188" s="2" t="inlineStr"/>
       <c r="P188" s="2" t="inlineStr"/>
@@ -8267,11 +8903,15 @@
       <c r="J189" s="2" t="inlineStr"/>
       <c r="K189" s="2" t="inlineStr"/>
       <c r="L189" s="2" t="inlineStr"/>
-      <c r="M189" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N189" s="2" t="n">
-        <v>0</v>
+      <c r="M189" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N189" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O189" s="2" t="inlineStr"/>
       <c r="P189" s="2" t="inlineStr"/>
@@ -8304,11 +8944,15 @@
       <c r="J190" s="2" t="inlineStr"/>
       <c r="K190" s="2" t="inlineStr"/>
       <c r="L190" s="2" t="inlineStr"/>
-      <c r="M190" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N190" s="2" t="n">
-        <v>0</v>
+      <c r="M190" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N190" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O190" s="2" t="inlineStr"/>
       <c r="P190" s="2" t="inlineStr"/>
@@ -8341,11 +8985,15 @@
       <c r="J191" s="2" t="inlineStr"/>
       <c r="K191" s="2" t="inlineStr"/>
       <c r="L191" s="2" t="inlineStr"/>
-      <c r="M191" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N191" s="2" t="n">
-        <v>0</v>
+      <c r="M191" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N191" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O191" s="2" t="inlineStr"/>
       <c r="P191" s="2" t="inlineStr"/>
@@ -8389,8 +9037,10 @@
       <c r="M192" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="N192" s="2" t="n">
-        <v>0</v>
+      <c r="N192" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O192" s="2" t="inlineStr"/>
       <c r="P192" s="2" t="inlineStr">
@@ -8451,11 +9101,15 @@
       <c r="J193" s="2" t="inlineStr"/>
       <c r="K193" s="2" t="inlineStr"/>
       <c r="L193" s="2" t="inlineStr"/>
-      <c r="M193" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N193" s="2" t="n">
-        <v>0</v>
+      <c r="M193" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N193" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O193" s="2" t="inlineStr"/>
       <c r="P193" s="2" t="inlineStr">
@@ -8492,11 +9146,15 @@
       <c r="J194" s="2" t="inlineStr"/>
       <c r="K194" s="2" t="inlineStr"/>
       <c r="L194" s="2" t="inlineStr"/>
-      <c r="M194" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N194" s="2" t="n">
-        <v>0</v>
+      <c r="M194" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N194" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O194" s="2" t="inlineStr"/>
       <c r="P194" s="2" t="inlineStr">
@@ -8533,11 +9191,15 @@
       <c r="J195" s="2" t="inlineStr"/>
       <c r="K195" s="2" t="inlineStr"/>
       <c r="L195" s="2" t="inlineStr"/>
-      <c r="M195" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N195" s="2" t="n">
-        <v>0</v>
+      <c r="M195" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N195" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O195" s="2" t="inlineStr"/>
       <c r="P195" s="2" t="inlineStr">
@@ -8590,11 +9252,15 @@
       <c r="J196" s="2" t="inlineStr"/>
       <c r="K196" s="2" t="inlineStr"/>
       <c r="L196" s="2" t="inlineStr"/>
-      <c r="M196" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N196" s="2" t="n">
-        <v>0</v>
+      <c r="M196" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N196" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O196" s="2" t="inlineStr"/>
       <c r="P196" s="2" t="inlineStr">
@@ -8631,11 +9297,15 @@
       <c r="J197" s="2" t="inlineStr"/>
       <c r="K197" s="2" t="inlineStr"/>
       <c r="L197" s="2" t="inlineStr"/>
-      <c r="M197" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N197" s="2" t="n">
-        <v>0</v>
+      <c r="M197" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N197" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O197" s="2" t="inlineStr"/>
       <c r="P197" s="2" t="inlineStr"/>
@@ -8672,11 +9342,15 @@
       <c r="J198" s="2" t="inlineStr"/>
       <c r="K198" s="2" t="inlineStr"/>
       <c r="L198" s="2" t="inlineStr"/>
-      <c r="M198" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N198" s="2" t="n">
-        <v>0</v>
+      <c r="M198" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N198" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O198" s="2" t="inlineStr"/>
       <c r="P198" s="2" t="inlineStr"/>
@@ -8709,11 +9383,15 @@
       <c r="J199" s="2" t="inlineStr"/>
       <c r="K199" s="2" t="inlineStr"/>
       <c r="L199" s="2" t="inlineStr"/>
-      <c r="M199" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N199" s="2" t="n">
-        <v>0</v>
+      <c r="M199" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N199" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O199" s="2" t="inlineStr"/>
       <c r="P199" s="2" t="inlineStr"/>
@@ -8746,11 +9424,15 @@
       <c r="J200" s="2" t="inlineStr"/>
       <c r="K200" s="2" t="inlineStr"/>
       <c r="L200" s="2" t="inlineStr"/>
-      <c r="M200" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N200" s="2" t="n">
-        <v>0</v>
+      <c r="M200" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N200" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O200" s="2" t="inlineStr"/>
       <c r="P200" s="2" t="inlineStr"/>
@@ -8783,11 +9465,15 @@
       <c r="J201" s="2" t="inlineStr"/>
       <c r="K201" s="2" t="inlineStr"/>
       <c r="L201" s="2" t="inlineStr"/>
-      <c r="M201" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N201" s="2" t="n">
-        <v>0</v>
+      <c r="M201" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N201" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O201" s="2" t="inlineStr"/>
       <c r="P201" s="2" t="inlineStr"/>
@@ -8839,8 +9525,10 @@
       <c r="M202" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="N202" s="2" t="n">
-        <v>0</v>
+      <c r="N202" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O202" s="2" t="inlineStr"/>
       <c r="P202" s="2" t="inlineStr">
@@ -8877,11 +9565,15 @@
       <c r="J203" s="2" t="inlineStr"/>
       <c r="K203" s="2" t="inlineStr"/>
       <c r="L203" s="2" t="inlineStr"/>
-      <c r="M203" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N203" s="2" t="n">
-        <v>0</v>
+      <c r="M203" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N203" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O203" s="2" t="inlineStr"/>
       <c r="P203" s="2" t="inlineStr">
@@ -8938,11 +9630,15 @@
       <c r="J204" s="2" t="inlineStr"/>
       <c r="K204" s="2" t="inlineStr"/>
       <c r="L204" s="2" t="inlineStr"/>
-      <c r="M204" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N204" s="2" t="n">
-        <v>0</v>
+      <c r="M204" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N204" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O204" s="2" t="inlineStr"/>
       <c r="P204" s="2" t="inlineStr">
@@ -8982,8 +9678,10 @@
       <c r="M205" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="N205" s="2" t="n">
-        <v>0</v>
+      <c r="N205" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O205" s="2" t="inlineStr"/>
       <c r="P205" s="2" t="inlineStr"/>
@@ -9019,8 +9717,10 @@
       <c r="M206" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="N206" s="2" t="n">
-        <v>0</v>
+      <c r="N206" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O206" s="2" t="inlineStr"/>
       <c r="P206" s="2" t="inlineStr"/>
@@ -9069,11 +9769,15 @@
       <c r="J207" s="2" t="inlineStr"/>
       <c r="K207" s="2" t="inlineStr"/>
       <c r="L207" s="2" t="inlineStr"/>
-      <c r="M207" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N207" s="2" t="n">
-        <v>0</v>
+      <c r="M207" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N207" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O207" s="2" t="inlineStr"/>
       <c r="P207" s="2" t="inlineStr">
@@ -9113,8 +9817,10 @@
       <c r="M208" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="N208" s="2" t="n">
-        <v>0</v>
+      <c r="N208" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O208" s="2" t="inlineStr"/>
       <c r="P208" s="2" t="inlineStr"/>
@@ -9150,8 +9856,10 @@
       <c r="M209" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="N209" s="2" t="n">
-        <v>0</v>
+      <c r="N209" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O209" s="2" t="inlineStr"/>
       <c r="P209" s="2" t="inlineStr"/>
@@ -9199,8 +9907,10 @@
       <c r="M210" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="N210" s="2" t="n">
-        <v>0</v>
+      <c r="N210" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O210" s="2" t="inlineStr"/>
       <c r="P210" s="2" t="inlineStr"/>
@@ -9236,8 +9946,10 @@
       <c r="M211" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="N211" s="2" t="n">
-        <v>0</v>
+      <c r="N211" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O211" s="2" t="inlineStr"/>
       <c r="P211" s="2" t="inlineStr"/>
@@ -9273,8 +9985,10 @@
       <c r="M212" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="N212" s="2" t="n">
-        <v>0</v>
+      <c r="N212" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O212" s="2" t="inlineStr"/>
       <c r="P212" s="2" t="inlineStr"/>
@@ -9310,8 +10024,10 @@
       <c r="M213" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="N213" s="2" t="n">
-        <v>0</v>
+      <c r="N213" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O213" s="2" t="inlineStr"/>
       <c r="P213" s="2" t="inlineStr"/>
@@ -9347,8 +10063,10 @@
       <c r="M214" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="N214" s="2" t="n">
-        <v>0</v>
+      <c r="N214" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O214" s="2" t="inlineStr"/>
       <c r="P214" s="2" t="inlineStr"/>
@@ -9384,8 +10102,10 @@
       <c r="M215" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="N215" s="2" t="n">
-        <v>0</v>
+      <c r="N215" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O215" s="2" t="inlineStr"/>
       <c r="P215" s="2" t="inlineStr"/>
@@ -9418,11 +10138,15 @@
       <c r="J216" s="2" t="inlineStr"/>
       <c r="K216" s="2" t="inlineStr"/>
       <c r="L216" s="2" t="inlineStr"/>
-      <c r="M216" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N216" s="2" t="n">
-        <v>0</v>
+      <c r="M216" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N216" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O216" s="2" t="inlineStr"/>
       <c r="P216" s="2" t="inlineStr"/>
@@ -9455,11 +10179,15 @@
       <c r="J217" s="2" t="inlineStr"/>
       <c r="K217" s="2" t="inlineStr"/>
       <c r="L217" s="2" t="inlineStr"/>
-      <c r="M217" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N217" s="2" t="n">
-        <v>0</v>
+      <c r="M217" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N217" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O217" s="2" t="inlineStr"/>
       <c r="P217" s="2" t="inlineStr"/>
@@ -9495,8 +10223,10 @@
       <c r="M218" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="N218" s="2" t="n">
-        <v>0</v>
+      <c r="N218" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O218" s="2" t="inlineStr"/>
       <c r="P218" s="2" t="inlineStr"/>
@@ -9529,11 +10259,15 @@
       <c r="J219" s="2" t="inlineStr"/>
       <c r="K219" s="2" t="inlineStr"/>
       <c r="L219" s="2" t="inlineStr"/>
-      <c r="M219" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N219" s="2" t="n">
-        <v>0</v>
+      <c r="M219" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N219" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O219" s="2" t="inlineStr"/>
       <c r="P219" s="2" t="inlineStr"/>
@@ -9589,8 +10323,10 @@
       <c r="M220" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="N220" s="2" t="n">
-        <v>0</v>
+      <c r="N220" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O220" s="2" t="inlineStr"/>
       <c r="P220" s="2" t="inlineStr">
@@ -9630,8 +10366,10 @@
       <c r="M221" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="N221" s="2" t="n">
-        <v>0</v>
+      <c r="N221" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O221" s="2" t="inlineStr"/>
       <c r="P221" s="2" t="inlineStr"/>
@@ -9683,8 +10421,10 @@
       <c r="M222" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="N222" s="2" t="n">
-        <v>0</v>
+      <c r="N222" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O222" s="2" t="inlineStr"/>
       <c r="P222" s="2" t="inlineStr"/>
@@ -9720,8 +10460,10 @@
       <c r="M223" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="N223" s="2" t="n">
-        <v>0</v>
+      <c r="N223" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O223" s="2" t="inlineStr"/>
       <c r="P223" s="2" t="inlineStr"/>
@@ -9757,8 +10499,10 @@
       <c r="M224" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="N224" s="2" t="n">
-        <v>0</v>
+      <c r="N224" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O224" s="2" t="inlineStr"/>
       <c r="P224" s="2" t="inlineStr"/>
@@ -9791,11 +10535,15 @@
       <c r="J225" s="2" t="inlineStr"/>
       <c r="K225" s="2" t="inlineStr"/>
       <c r="L225" s="2" t="inlineStr"/>
-      <c r="M225" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N225" s="2" t="n">
-        <v>0</v>
+      <c r="M225" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N225" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O225" s="2" t="inlineStr"/>
       <c r="P225" s="2" t="inlineStr"/>
@@ -9831,8 +10579,10 @@
       <c r="M226" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="N226" s="2" t="n">
-        <v>0</v>
+      <c r="N226" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O226" s="2" t="inlineStr"/>
       <c r="P226" s="2" t="inlineStr"/>
@@ -9868,8 +10618,10 @@
       <c r="M227" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="N227" s="2" t="n">
-        <v>0</v>
+      <c r="N227" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O227" s="2" t="inlineStr"/>
       <c r="P227" s="2" t="inlineStr"/>
@@ -9914,11 +10666,15 @@
       <c r="J228" s="2" t="inlineStr"/>
       <c r="K228" s="2" t="inlineStr"/>
       <c r="L228" s="2" t="inlineStr"/>
-      <c r="M228" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N228" s="2" t="n">
-        <v>0</v>
+      <c r="M228" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N228" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O228" s="2" t="inlineStr"/>
       <c r="P228" s="2" t="inlineStr"/>
@@ -9954,8 +10710,10 @@
       <c r="M229" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="N229" s="2" t="n">
-        <v>0</v>
+      <c r="N229" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O229" s="2" t="inlineStr"/>
       <c r="P229" s="2" t="inlineStr"/>
@@ -9991,8 +10749,10 @@
       <c r="M230" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="N230" s="2" t="n">
-        <v>0</v>
+      <c r="N230" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O230" s="2" t="inlineStr"/>
       <c r="P230" s="2" t="inlineStr"/>
@@ -10033,11 +10793,15 @@
       </c>
       <c r="K231" s="2" t="inlineStr"/>
       <c r="L231" s="2" t="inlineStr"/>
-      <c r="M231" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N231" s="2" t="n">
-        <v>0</v>
+      <c r="M231" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N231" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O231" s="2" t="inlineStr"/>
       <c r="P231" s="2" t="inlineStr"/>
@@ -10070,11 +10834,15 @@
       <c r="J232" s="2" t="inlineStr"/>
       <c r="K232" s="2" t="inlineStr"/>
       <c r="L232" s="2" t="inlineStr"/>
-      <c r="M232" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N232" s="2" t="n">
-        <v>0</v>
+      <c r="M232" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N232" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O232" s="2" t="inlineStr"/>
       <c r="P232" s="2" t="inlineStr"/>
@@ -10127,11 +10895,15 @@
       <c r="J233" s="2" t="inlineStr"/>
       <c r="K233" s="2" t="inlineStr"/>
       <c r="L233" s="2" t="inlineStr"/>
-      <c r="M233" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N233" s="2" t="n">
-        <v>0</v>
+      <c r="M233" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N233" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O233" s="2" t="inlineStr"/>
       <c r="P233" s="2" t="inlineStr">
@@ -10175,8 +10947,10 @@
       <c r="M234" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="N234" s="2" t="n">
-        <v>0</v>
+      <c r="N234" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O234" s="2" t="inlineStr"/>
       <c r="P234" s="2" t="inlineStr"/>
@@ -10212,8 +10986,10 @@
       <c r="M235" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="N235" s="2" t="n">
-        <v>0</v>
+      <c r="N235" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O235" s="2" t="inlineStr"/>
       <c r="P235" s="2" t="inlineStr"/>
@@ -10246,11 +11022,15 @@
       <c r="J236" s="2" t="inlineStr"/>
       <c r="K236" s="2" t="inlineStr"/>
       <c r="L236" s="2" t="inlineStr"/>
-      <c r="M236" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N236" s="2" t="n">
-        <v>0</v>
+      <c r="M236" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N236" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O236" s="2" t="inlineStr"/>
       <c r="P236" s="2" t="inlineStr"/>
@@ -10303,11 +11083,15 @@
       <c r="J237" s="2" t="inlineStr"/>
       <c r="K237" s="2" t="inlineStr"/>
       <c r="L237" s="2" t="inlineStr"/>
-      <c r="M237" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N237" s="2" t="n">
-        <v>0</v>
+      <c r="M237" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N237" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O237" s="2" t="inlineStr"/>
       <c r="P237" s="2" t="inlineStr">
@@ -10344,11 +11128,15 @@
       <c r="J238" s="2" t="inlineStr"/>
       <c r="K238" s="2" t="inlineStr"/>
       <c r="L238" s="2" t="inlineStr"/>
-      <c r="M238" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N238" s="2" t="n">
-        <v>0</v>
+      <c r="M238" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N238" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O238" s="2" t="inlineStr"/>
       <c r="P238" s="2" t="inlineStr">
@@ -10385,11 +11173,15 @@
       <c r="J239" s="2" t="inlineStr"/>
       <c r="K239" s="2" t="inlineStr"/>
       <c r="L239" s="2" t="inlineStr"/>
-      <c r="M239" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N239" s="2" t="n">
-        <v>0</v>
+      <c r="M239" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N239" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O239" s="2" t="inlineStr"/>
       <c r="P239" s="2" t="inlineStr"/>
@@ -10425,8 +11217,10 @@
       <c r="M240" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="N240" s="2" t="n">
-        <v>0</v>
+      <c r="N240" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O240" s="2" t="inlineStr"/>
       <c r="P240" s="2" t="inlineStr"/>
@@ -10466,8 +11260,10 @@
       <c r="M241" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="N241" s="2" t="n">
-        <v>0</v>
+      <c r="N241" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O241" s="2" t="inlineStr"/>
       <c r="P241" s="2" t="inlineStr"/>
@@ -10500,11 +11296,15 @@
       <c r="J242" s="2" t="inlineStr"/>
       <c r="K242" s="2" t="inlineStr"/>
       <c r="L242" s="2" t="inlineStr"/>
-      <c r="M242" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N242" s="2" t="n">
-        <v>0</v>
+      <c r="M242" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N242" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O242" s="2" t="inlineStr"/>
       <c r="P242" s="2" t="inlineStr"/>
@@ -10537,11 +11337,15 @@
       <c r="J243" s="2" t="inlineStr"/>
       <c r="K243" s="2" t="inlineStr"/>
       <c r="L243" s="2" t="inlineStr"/>
-      <c r="M243" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N243" s="2" t="n">
-        <v>0</v>
+      <c r="M243" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N243" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O243" s="2" t="inlineStr"/>
       <c r="P243" s="2" t="inlineStr"/>
@@ -10574,11 +11378,15 @@
       <c r="J244" s="2" t="inlineStr"/>
       <c r="K244" s="2" t="inlineStr"/>
       <c r="L244" s="2" t="inlineStr"/>
-      <c r="M244" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N244" s="2" t="n">
-        <v>0</v>
+      <c r="M244" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N244" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O244" s="2" t="inlineStr"/>
       <c r="P244" s="2" t="inlineStr"/>
@@ -10630,8 +11438,10 @@
       <c r="M245" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="N245" s="2" t="n">
-        <v>0</v>
+      <c r="N245" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O245" s="2" t="inlineStr"/>
       <c r="P245" s="2" t="inlineStr"/>
@@ -10664,11 +11474,15 @@
       <c r="J246" s="2" t="inlineStr"/>
       <c r="K246" s="2" t="inlineStr"/>
       <c r="L246" s="2" t="inlineStr"/>
-      <c r="M246" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N246" s="2" t="n">
-        <v>0</v>
+      <c r="M246" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N246" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O246" s="2" t="inlineStr"/>
       <c r="P246" s="2" t="inlineStr"/>
@@ -10701,11 +11515,15 @@
       <c r="J247" s="2" t="inlineStr"/>
       <c r="K247" s="2" t="inlineStr"/>
       <c r="L247" s="2" t="inlineStr"/>
-      <c r="M247" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N247" s="2" t="n">
-        <v>0</v>
+      <c r="M247" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N247" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O247" s="2" t="inlineStr"/>
       <c r="P247" s="2" t="inlineStr"/>
@@ -10738,11 +11556,15 @@
       <c r="J248" s="2" t="inlineStr"/>
       <c r="K248" s="2" t="inlineStr"/>
       <c r="L248" s="2" t="inlineStr"/>
-      <c r="M248" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N248" s="2" t="n">
-        <v>0</v>
+      <c r="M248" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N248" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O248" s="2" t="inlineStr"/>
       <c r="P248" s="2" t="inlineStr"/>
@@ -10775,11 +11597,15 @@
       <c r="J249" s="2" t="inlineStr"/>
       <c r="K249" s="2" t="inlineStr"/>
       <c r="L249" s="2" t="inlineStr"/>
-      <c r="M249" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N249" s="2" t="n">
-        <v>0</v>
+      <c r="M249" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N249" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O249" s="2" t="inlineStr"/>
       <c r="P249" s="2" t="inlineStr"/>
@@ -10815,8 +11641,10 @@
       <c r="M250" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="N250" s="2" t="n">
-        <v>0</v>
+      <c r="N250" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O250" s="2" t="inlineStr"/>
       <c r="P250" s="2" t="inlineStr"/>
@@ -10869,11 +11697,15 @@
       <c r="J251" s="2" t="inlineStr"/>
       <c r="K251" s="2" t="inlineStr"/>
       <c r="L251" s="2" t="inlineStr"/>
-      <c r="M251" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N251" s="2" t="n">
-        <v>0</v>
+      <c r="M251" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N251" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O251" s="2" t="inlineStr"/>
       <c r="P251" s="2" t="inlineStr">
@@ -10910,11 +11742,15 @@
       <c r="J252" s="2" t="inlineStr"/>
       <c r="K252" s="2" t="inlineStr"/>
       <c r="L252" s="2" t="inlineStr"/>
-      <c r="M252" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N252" s="2" t="n">
-        <v>0</v>
+      <c r="M252" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N252" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O252" s="2" t="inlineStr"/>
       <c r="P252" s="2" t="inlineStr"/>
@@ -10947,11 +11783,15 @@
       <c r="J253" s="2" t="inlineStr"/>
       <c r="K253" s="2" t="inlineStr"/>
       <c r="L253" s="2" t="inlineStr"/>
-      <c r="M253" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N253" s="2" t="n">
-        <v>0</v>
+      <c r="M253" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N253" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O253" s="2" t="inlineStr"/>
       <c r="P253" s="2" t="inlineStr"/>
@@ -10984,11 +11824,15 @@
       <c r="J254" s="2" t="inlineStr"/>
       <c r="K254" s="2" t="inlineStr"/>
       <c r="L254" s="2" t="inlineStr"/>
-      <c r="M254" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N254" s="2" t="n">
-        <v>0</v>
+      <c r="M254" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N254" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O254" s="2" t="inlineStr"/>
       <c r="P254" s="2" t="inlineStr"/>
@@ -11021,11 +11865,15 @@
       <c r="J255" s="2" t="inlineStr"/>
       <c r="K255" s="2" t="inlineStr"/>
       <c r="L255" s="2" t="inlineStr"/>
-      <c r="M255" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N255" s="2" t="n">
-        <v>0</v>
+      <c r="M255" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N255" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O255" s="2" t="inlineStr"/>
       <c r="P255" s="2" t="inlineStr"/>
@@ -11058,11 +11906,15 @@
       <c r="J256" s="2" t="inlineStr"/>
       <c r="K256" s="2" t="inlineStr"/>
       <c r="L256" s="2" t="inlineStr"/>
-      <c r="M256" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N256" s="2" t="n">
-        <v>0</v>
+      <c r="M256" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N256" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O256" s="2" t="inlineStr"/>
       <c r="P256" s="2" t="inlineStr"/>
@@ -11098,8 +11950,10 @@
       <c r="M257" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="N257" s="2" t="n">
-        <v>0</v>
+      <c r="N257" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O257" s="2" t="inlineStr"/>
       <c r="P257" s="2" t="inlineStr"/>
@@ -11139,8 +11993,10 @@
       <c r="M258" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="N258" s="2" t="n">
-        <v>0</v>
+      <c r="N258" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O258" s="2" t="inlineStr"/>
       <c r="P258" s="2" t="inlineStr"/>
@@ -11196,8 +12052,10 @@
       <c r="M259" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="N259" s="2" t="n">
-        <v>0</v>
+      <c r="N259" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O259" s="2" t="inlineStr"/>
       <c r="P259" s="2" t="inlineStr">
@@ -11241,8 +12099,10 @@
       <c r="M260" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="N260" s="2" t="n">
-        <v>0</v>
+      <c r="N260" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O260" s="2" t="inlineStr"/>
       <c r="P260" s="2" t="inlineStr"/>
@@ -11278,8 +12138,10 @@
       <c r="M261" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="N261" s="2" t="n">
-        <v>0</v>
+      <c r="N261" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O261" s="2" t="inlineStr"/>
       <c r="P261" s="2" t="inlineStr"/>
@@ -11312,11 +12174,15 @@
       <c r="J262" s="2" t="inlineStr"/>
       <c r="K262" s="2" t="inlineStr"/>
       <c r="L262" s="2" t="inlineStr"/>
-      <c r="M262" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N262" s="2" t="n">
-        <v>0</v>
+      <c r="M262" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N262" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O262" s="2" t="inlineStr"/>
       <c r="P262" s="2" t="inlineStr"/>
@@ -11349,11 +12215,15 @@
       <c r="J263" s="2" t="inlineStr"/>
       <c r="K263" s="2" t="inlineStr"/>
       <c r="L263" s="2" t="inlineStr"/>
-      <c r="M263" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N263" s="2" t="n">
-        <v>0</v>
+      <c r="M263" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N263" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O263" s="2" t="inlineStr"/>
       <c r="P263" s="2" t="inlineStr"/>
@@ -11386,11 +12256,15 @@
       <c r="J264" s="2" t="inlineStr"/>
       <c r="K264" s="2" t="inlineStr"/>
       <c r="L264" s="2" t="inlineStr"/>
-      <c r="M264" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N264" s="2" t="n">
-        <v>0</v>
+      <c r="M264" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N264" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O264" s="2" t="inlineStr"/>
       <c r="P264" s="2" t="inlineStr"/>
@@ -11426,8 +12300,10 @@
       <c r="M265" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="N265" s="2" t="n">
-        <v>0</v>
+      <c r="N265" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O265" s="2" t="inlineStr"/>
       <c r="P265" s="2" t="inlineStr"/>
@@ -11463,8 +12339,10 @@
       <c r="M266" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="N266" s="2" t="n">
-        <v>0</v>
+      <c r="N266" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O266" s="2" t="inlineStr"/>
       <c r="P266" s="2" t="inlineStr"/>
@@ -11500,8 +12378,10 @@
       <c r="M267" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="N267" s="2" t="n">
-        <v>0</v>
+      <c r="N267" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O267" s="2" t="inlineStr"/>
       <c r="P267" s="2" t="inlineStr"/>
@@ -11534,11 +12414,15 @@
       <c r="J268" s="2" t="inlineStr"/>
       <c r="K268" s="2" t="inlineStr"/>
       <c r="L268" s="2" t="inlineStr"/>
-      <c r="M268" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N268" s="2" t="n">
-        <v>0</v>
+      <c r="M268" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N268" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O268" s="2" t="inlineStr"/>
       <c r="P268" s="2" t="inlineStr"/>
@@ -11571,11 +12455,15 @@
       <c r="J269" s="2" t="inlineStr"/>
       <c r="K269" s="2" t="inlineStr"/>
       <c r="L269" s="2" t="inlineStr"/>
-      <c r="M269" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N269" s="2" t="n">
-        <v>0</v>
+      <c r="M269" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N269" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O269" s="2" t="inlineStr"/>
       <c r="P269" s="2" t="inlineStr"/>
@@ -11608,11 +12496,15 @@
       <c r="J270" s="2" t="inlineStr"/>
       <c r="K270" s="2" t="inlineStr"/>
       <c r="L270" s="2" t="inlineStr"/>
-      <c r="M270" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N270" s="2" t="n">
-        <v>0</v>
+      <c r="M270" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N270" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O270" s="2" t="inlineStr"/>
       <c r="P270" s="2" t="inlineStr"/>
@@ -11652,8 +12544,10 @@
       <c r="M271" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="N271" s="2" t="n">
-        <v>0</v>
+      <c r="N271" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O271" s="2" t="inlineStr"/>
       <c r="P271" s="2" t="inlineStr"/>
@@ -11686,11 +12580,15 @@
       <c r="J272" s="2" t="inlineStr"/>
       <c r="K272" s="2" t="inlineStr"/>
       <c r="L272" s="2" t="inlineStr"/>
-      <c r="M272" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N272" s="2" t="n">
-        <v>0</v>
+      <c r="M272" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N272" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O272" s="2" t="inlineStr"/>
       <c r="P272" s="2" t="inlineStr"/>
@@ -11723,11 +12621,15 @@
       <c r="J273" s="2" t="inlineStr"/>
       <c r="K273" s="2" t="inlineStr"/>
       <c r="L273" s="2" t="inlineStr"/>
-      <c r="M273" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N273" s="2" t="n">
-        <v>0</v>
+      <c r="M273" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N273" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O273" s="2" t="inlineStr"/>
       <c r="P273" s="2" t="inlineStr"/>
@@ -11760,11 +12662,15 @@
       <c r="J274" s="2" t="inlineStr"/>
       <c r="K274" s="2" t="inlineStr"/>
       <c r="L274" s="2" t="inlineStr"/>
-      <c r="M274" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N274" s="2" t="n">
-        <v>0</v>
+      <c r="M274" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N274" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O274" s="2" t="inlineStr"/>
       <c r="P274" s="2" t="inlineStr"/>
@@ -11797,11 +12703,15 @@
       <c r="J275" s="2" t="inlineStr"/>
       <c r="K275" s="2" t="inlineStr"/>
       <c r="L275" s="2" t="inlineStr"/>
-      <c r="M275" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N275" s="2" t="n">
-        <v>0</v>
+      <c r="M275" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N275" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O275" s="2" t="inlineStr"/>
       <c r="P275" s="2" t="inlineStr"/>
@@ -11834,11 +12744,15 @@
       <c r="J276" s="2" t="inlineStr"/>
       <c r="K276" s="2" t="inlineStr"/>
       <c r="L276" s="2" t="inlineStr"/>
-      <c r="M276" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N276" s="2" t="n">
-        <v>0</v>
+      <c r="M276" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N276" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O276" s="2" t="inlineStr"/>
       <c r="P276" s="2" t="inlineStr"/>
@@ -11871,11 +12785,15 @@
       <c r="J277" s="2" t="inlineStr"/>
       <c r="K277" s="2" t="inlineStr"/>
       <c r="L277" s="2" t="inlineStr"/>
-      <c r="M277" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N277" s="2" t="n">
-        <v>0</v>
+      <c r="M277" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N277" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O277" s="2" t="inlineStr"/>
       <c r="P277" s="2" t="inlineStr"/>
@@ -11908,11 +12826,15 @@
       <c r="J278" s="2" t="inlineStr"/>
       <c r="K278" s="2" t="inlineStr"/>
       <c r="L278" s="2" t="inlineStr"/>
-      <c r="M278" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N278" s="2" t="n">
-        <v>0</v>
+      <c r="M278" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N278" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O278" s="2" t="inlineStr"/>
       <c r="P278" s="2" t="inlineStr"/>
@@ -11945,11 +12867,15 @@
       <c r="J279" s="2" t="inlineStr"/>
       <c r="K279" s="2" t="inlineStr"/>
       <c r="L279" s="2" t="inlineStr"/>
-      <c r="M279" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N279" s="2" t="n">
-        <v>0</v>
+      <c r="M279" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N279" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O279" s="2" t="inlineStr"/>
       <c r="P279" s="2" t="inlineStr"/>
@@ -11982,11 +12908,15 @@
       <c r="J280" s="2" t="inlineStr"/>
       <c r="K280" s="2" t="inlineStr"/>
       <c r="L280" s="2" t="inlineStr"/>
-      <c r="M280" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N280" s="2" t="n">
-        <v>0</v>
+      <c r="M280" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N280" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O280" s="2" t="inlineStr"/>
       <c r="P280" s="2" t="inlineStr"/>
@@ -12019,11 +12949,15 @@
       <c r="J281" s="2" t="inlineStr"/>
       <c r="K281" s="2" t="inlineStr"/>
       <c r="L281" s="2" t="inlineStr"/>
-      <c r="M281" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N281" s="2" t="n">
-        <v>0</v>
+      <c r="M281" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N281" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O281" s="2" t="inlineStr"/>
       <c r="P281" s="2" t="inlineStr"/>
@@ -12056,11 +12990,15 @@
       <c r="J282" s="2" t="inlineStr"/>
       <c r="K282" s="2" t="inlineStr"/>
       <c r="L282" s="2" t="inlineStr"/>
-      <c r="M282" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N282" s="2" t="n">
-        <v>0</v>
+      <c r="M282" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N282" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O282" s="2" t="inlineStr"/>
       <c r="P282" s="2" t="inlineStr"/>
@@ -12096,8 +13034,10 @@
       <c r="M283" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="N283" s="2" t="n">
-        <v>0</v>
+      <c r="N283" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O283" s="2" t="inlineStr"/>
       <c r="P283" s="2" t="inlineStr"/>
@@ -12133,8 +13073,10 @@
       <c r="M284" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="N284" s="2" t="n">
-        <v>0</v>
+      <c r="N284" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O284" s="2" t="inlineStr"/>
       <c r="P284" s="2" t="inlineStr"/>
@@ -12167,11 +13109,15 @@
       <c r="J285" s="2" t="inlineStr"/>
       <c r="K285" s="2" t="inlineStr"/>
       <c r="L285" s="2" t="inlineStr"/>
-      <c r="M285" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N285" s="2" t="n">
-        <v>0</v>
+      <c r="M285" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N285" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O285" s="2" t="inlineStr"/>
       <c r="P285" s="2" t="inlineStr"/>
@@ -12207,8 +13153,10 @@
       <c r="M286" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="N286" s="2" t="n">
-        <v>0</v>
+      <c r="N286" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O286" s="2" t="inlineStr"/>
       <c r="P286" s="2" t="inlineStr"/>
@@ -12244,8 +13192,10 @@
       <c r="M287" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="N287" s="2" t="n">
-        <v>0</v>
+      <c r="N287" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O287" s="2" t="inlineStr"/>
       <c r="P287" s="2" t="inlineStr"/>
@@ -12281,8 +13231,10 @@
       <c r="M288" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="N288" s="2" t="n">
-        <v>0</v>
+      <c r="N288" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O288" s="2" t="inlineStr"/>
       <c r="P288" s="2" t="inlineStr"/>
@@ -12315,11 +13267,15 @@
       <c r="J289" s="2" t="inlineStr"/>
       <c r="K289" s="2" t="inlineStr"/>
       <c r="L289" s="2" t="inlineStr"/>
-      <c r="M289" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N289" s="2" t="n">
-        <v>0</v>
+      <c r="M289" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N289" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O289" s="2" t="inlineStr"/>
       <c r="P289" s="2" t="inlineStr"/>
@@ -12352,11 +13308,15 @@
       <c r="J290" s="2" t="inlineStr"/>
       <c r="K290" s="2" t="inlineStr"/>
       <c r="L290" s="2" t="inlineStr"/>
-      <c r="M290" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N290" s="2" t="n">
-        <v>0</v>
+      <c r="M290" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N290" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O290" s="2" t="inlineStr"/>
       <c r="P290" s="2" t="inlineStr"/>
@@ -12389,11 +13349,15 @@
       <c r="J291" s="2" t="inlineStr"/>
       <c r="K291" s="2" t="inlineStr"/>
       <c r="L291" s="2" t="inlineStr"/>
-      <c r="M291" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N291" s="2" t="n">
-        <v>0</v>
+      <c r="M291" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N291" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O291" s="2" t="inlineStr"/>
       <c r="P291" s="2" t="inlineStr"/>
@@ -12426,11 +13390,15 @@
       <c r="J292" s="2" t="inlineStr"/>
       <c r="K292" s="2" t="inlineStr"/>
       <c r="L292" s="2" t="inlineStr"/>
-      <c r="M292" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N292" s="2" t="n">
-        <v>0</v>
+      <c r="M292" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N292" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O292" s="2" t="inlineStr"/>
       <c r="P292" s="2" t="inlineStr"/>
@@ -12463,11 +13431,15 @@
       <c r="J293" s="2" t="inlineStr"/>
       <c r="K293" s="2" t="inlineStr"/>
       <c r="L293" s="2" t="inlineStr"/>
-      <c r="M293" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N293" s="2" t="n">
-        <v>0</v>
+      <c r="M293" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N293" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O293" s="2" t="inlineStr"/>
       <c r="P293" s="2" t="inlineStr"/>
@@ -12500,11 +13472,15 @@
       <c r="J294" s="2" t="inlineStr"/>
       <c r="K294" s="2" t="inlineStr"/>
       <c r="L294" s="2" t="inlineStr"/>
-      <c r="M294" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N294" s="2" t="n">
-        <v>0</v>
+      <c r="M294" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N294" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O294" s="2" t="inlineStr"/>
       <c r="P294" s="2" t="inlineStr"/>
@@ -12540,8 +13516,10 @@
       <c r="M295" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="N295" s="2" t="n">
-        <v>0</v>
+      <c r="N295" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O295" s="2" t="inlineStr"/>
       <c r="P295" s="2" t="inlineStr"/>
@@ -12577,8 +13555,10 @@
       <c r="M296" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="N296" s="2" t="n">
-        <v>0</v>
+      <c r="N296" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O296" s="2" t="inlineStr"/>
       <c r="P296" s="2" t="inlineStr"/>
@@ -12626,8 +13606,10 @@
       <c r="M297" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="N297" s="3" t="n">
-        <v>0</v>
+      <c r="N297" s="3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O297" s="3" t="inlineStr"/>
       <c r="P297" s="3" t="inlineStr">
@@ -12679,8 +13661,10 @@
       <c r="M298" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="N298" s="3" t="n">
-        <v>0</v>
+      <c r="N298" s="3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O298" s="3" t="inlineStr"/>
       <c r="P298" s="3" t="inlineStr">
@@ -12720,8 +13704,10 @@
       <c r="M299" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="N299" s="2" t="n">
-        <v>0</v>
+      <c r="N299" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O299" s="2" t="inlineStr"/>
       <c r="P299" s="2" t="inlineStr"/>
@@ -12757,8 +13743,10 @@
       <c r="M300" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="N300" s="2" t="n">
-        <v>0</v>
+      <c r="N300" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O300" s="2" t="inlineStr"/>
       <c r="P300" s="2" t="inlineStr"/>
@@ -12794,8 +13782,10 @@
       <c r="M301" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="N301" s="2" t="n">
-        <v>0</v>
+      <c r="N301" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O301" s="2" t="inlineStr"/>
       <c r="P301" s="2" t="inlineStr"/>
@@ -12848,11 +13838,15 @@
       <c r="J302" s="2" t="inlineStr"/>
       <c r="K302" s="2" t="inlineStr"/>
       <c r="L302" s="2" t="inlineStr"/>
-      <c r="M302" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N302" s="2" t="n">
-        <v>0</v>
+      <c r="M302" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N302" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O302" s="2" t="inlineStr"/>
       <c r="P302" s="2" t="inlineStr">
@@ -12889,11 +13883,15 @@
       <c r="J303" s="2" t="inlineStr"/>
       <c r="K303" s="2" t="inlineStr"/>
       <c r="L303" s="2" t="inlineStr"/>
-      <c r="M303" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N303" s="2" t="n">
-        <v>0</v>
+      <c r="M303" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N303" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O303" s="2" t="inlineStr"/>
       <c r="P303" s="2" t="inlineStr"/>
@@ -12942,11 +13940,15 @@
       <c r="J304" s="2" t="inlineStr"/>
       <c r="K304" s="2" t="inlineStr"/>
       <c r="L304" s="2" t="inlineStr"/>
-      <c r="M304" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N304" s="2" t="n">
-        <v>0</v>
+      <c r="M304" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N304" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O304" s="2" t="inlineStr"/>
       <c r="P304" s="2" t="inlineStr">
@@ -13002,8 +14004,10 @@
       <c r="M305" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="N305" s="2" t="n">
-        <v>0</v>
+      <c r="N305" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O305" s="2" t="inlineStr"/>
       <c r="P305" s="2" t="inlineStr"/>
@@ -13036,11 +14040,15 @@
       <c r="J306" s="2" t="inlineStr"/>
       <c r="K306" s="2" t="inlineStr"/>
       <c r="L306" s="2" t="inlineStr"/>
-      <c r="M306" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N306" s="2" t="n">
-        <v>0</v>
+      <c r="M306" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N306" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O306" s="2" t="inlineStr"/>
       <c r="P306" s="2" t="inlineStr"/>
@@ -13073,11 +14081,15 @@
       <c r="J307" s="2" t="inlineStr"/>
       <c r="K307" s="2" t="inlineStr"/>
       <c r="L307" s="2" t="inlineStr"/>
-      <c r="M307" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N307" s="2" t="n">
-        <v>0</v>
+      <c r="M307" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N307" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O307" s="2" t="inlineStr"/>
       <c r="P307" s="2" t="inlineStr"/>
@@ -13110,11 +14122,15 @@
       <c r="J308" s="2" t="inlineStr"/>
       <c r="K308" s="2" t="inlineStr"/>
       <c r="L308" s="2" t="inlineStr"/>
-      <c r="M308" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N308" s="2" t="n">
-        <v>0</v>
+      <c r="M308" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N308" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O308" s="2" t="inlineStr"/>
       <c r="P308" s="2" t="inlineStr"/>
@@ -13147,11 +14163,15 @@
       <c r="J309" s="2" t="inlineStr"/>
       <c r="K309" s="2" t="inlineStr"/>
       <c r="L309" s="2" t="inlineStr"/>
-      <c r="M309" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N309" s="2" t="n">
-        <v>0</v>
+      <c r="M309" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N309" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O309" s="2" t="inlineStr"/>
       <c r="P309" s="2" t="inlineStr"/>
@@ -13184,11 +14204,15 @@
       <c r="J310" s="2" t="inlineStr"/>
       <c r="K310" s="2" t="inlineStr"/>
       <c r="L310" s="2" t="inlineStr"/>
-      <c r="M310" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N310" s="2" t="n">
-        <v>0</v>
+      <c r="M310" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N310" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O310" s="2" t="inlineStr"/>
       <c r="P310" s="2" t="inlineStr"/>
@@ -13221,11 +14245,15 @@
       <c r="J311" s="2" t="inlineStr"/>
       <c r="K311" s="2" t="inlineStr"/>
       <c r="L311" s="2" t="inlineStr"/>
-      <c r="M311" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N311" s="2" t="n">
-        <v>0</v>
+      <c r="M311" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N311" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O311" s="2" t="inlineStr"/>
       <c r="P311" s="2" t="inlineStr"/>
@@ -13258,11 +14286,15 @@
       <c r="J312" s="2" t="inlineStr"/>
       <c r="K312" s="2" t="inlineStr"/>
       <c r="L312" s="2" t="inlineStr"/>
-      <c r="M312" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N312" s="2" t="n">
-        <v>0</v>
+      <c r="M312" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N312" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O312" s="2" t="inlineStr"/>
       <c r="P312" s="2" t="inlineStr"/>
@@ -13295,11 +14327,15 @@
       <c r="J313" s="2" t="inlineStr"/>
       <c r="K313" s="2" t="inlineStr"/>
       <c r="L313" s="2" t="inlineStr"/>
-      <c r="M313" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N313" s="2" t="n">
-        <v>0</v>
+      <c r="M313" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N313" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O313" s="2" t="inlineStr"/>
       <c r="P313" s="2" t="inlineStr"/>
@@ -13332,11 +14368,15 @@
       <c r="J314" s="2" t="inlineStr"/>
       <c r="K314" s="2" t="inlineStr"/>
       <c r="L314" s="2" t="inlineStr"/>
-      <c r="M314" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N314" s="2" t="n">
-        <v>0</v>
+      <c r="M314" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N314" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O314" s="2" t="inlineStr"/>
       <c r="P314" s="2" t="inlineStr"/>
@@ -13373,11 +14413,15 @@
       <c r="J315" t="inlineStr"/>
       <c r="K315" t="inlineStr"/>
       <c r="L315" t="inlineStr"/>
-      <c r="M315" t="n">
-        <v>0</v>
-      </c>
-      <c r="N315" t="n">
-        <v>0</v>
+      <c r="M315" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N315" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O315" t="inlineStr"/>
       <c r="P315" t="inlineStr"/>
@@ -13426,11 +14470,15 @@
       <c r="J316" s="2" t="inlineStr"/>
       <c r="K316" s="2" t="inlineStr"/>
       <c r="L316" s="2" t="inlineStr"/>
-      <c r="M316" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N316" s="2" t="n">
-        <v>0</v>
+      <c r="M316" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N316" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O316" s="2" t="inlineStr"/>
       <c r="P316" s="2" t="inlineStr">
@@ -13467,11 +14515,15 @@
       <c r="J317" s="2" t="inlineStr"/>
       <c r="K317" s="2" t="inlineStr"/>
       <c r="L317" s="2" t="inlineStr"/>
-      <c r="M317" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N317" s="2" t="n">
-        <v>0</v>
+      <c r="M317" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N317" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O317" s="2" t="inlineStr"/>
       <c r="P317" s="2" t="inlineStr">
@@ -13511,8 +14563,10 @@
       <c r="M318" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="N318" s="2" t="n">
-        <v>0</v>
+      <c r="N318" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O318" s="2" t="inlineStr"/>
       <c r="P318" s="2" t="inlineStr"/>
@@ -13549,11 +14603,15 @@
       <c r="J319" s="2" t="inlineStr"/>
       <c r="K319" s="2" t="inlineStr"/>
       <c r="L319" s="2" t="inlineStr"/>
-      <c r="M319" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N319" s="2" t="n">
-        <v>0</v>
+      <c r="M319" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N319" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O319" s="2" t="inlineStr"/>
       <c r="P319" s="2" t="inlineStr"/>
@@ -13589,8 +14647,10 @@
       <c r="M320" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="N320" s="2" t="n">
-        <v>0</v>
+      <c r="N320" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O320" s="2" t="inlineStr"/>
       <c r="P320" s="2" t="inlineStr"/>
@@ -13626,8 +14686,10 @@
       <c r="M321" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="N321" s="2" t="n">
-        <v>0</v>
+      <c r="N321" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O321" s="2" t="inlineStr"/>
       <c r="P321" s="2" t="inlineStr"/>
@@ -13660,11 +14722,15 @@
       <c r="J322" s="2" t="inlineStr"/>
       <c r="K322" s="2" t="inlineStr"/>
       <c r="L322" s="2" t="inlineStr"/>
-      <c r="M322" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N322" s="2" t="n">
-        <v>0</v>
+      <c r="M322" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N322" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O322" s="2" t="inlineStr"/>
       <c r="P322" s="2" t="inlineStr"/>
@@ -13697,11 +14763,15 @@
       <c r="J323" s="2" t="inlineStr"/>
       <c r="K323" s="2" t="inlineStr"/>
       <c r="L323" s="2" t="inlineStr"/>
-      <c r="M323" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N323" s="2" t="n">
-        <v>0</v>
+      <c r="M323" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N323" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O323" s="2" t="inlineStr"/>
       <c r="P323" s="2" t="inlineStr"/>
@@ -13734,11 +14804,15 @@
       <c r="J324" s="2" t="inlineStr"/>
       <c r="K324" s="2" t="inlineStr"/>
       <c r="L324" s="2" t="inlineStr"/>
-      <c r="M324" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N324" s="2" t="n">
-        <v>0</v>
+      <c r="M324" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N324" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O324" s="2" t="inlineStr"/>
       <c r="P324" s="2" t="inlineStr"/>

--- a/inputs/AddictO_Intervention_Defs.xlsx
+++ b/inputs/AddictO_Intervention_Defs.xlsx
@@ -527,7 +527,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>TESTING</t>
+          <t>WHATNOT</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -580,7 +580,11 @@
           <t>Community Reinforcement Approach for Seniors (CRA-S)</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr"/>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>TESTING2</t>
+        </is>
+      </c>
       <c r="D4" s="2" t="inlineStr"/>
       <c r="E4" s="2" t="inlineStr"/>
       <c r="F4" s="2" t="inlineStr">

--- a/inputs/AddictO_Intervention_Defs.xlsx
+++ b/inputs/AddictO_Intervention_Defs.xlsx
@@ -525,11 +525,7 @@
       <c r="S2" s="2" t="inlineStr"/>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>WHATNOT</t>
-        </is>
-      </c>
+      <c r="A3" t="inlineStr"/>
       <c r="B3" t="inlineStr">
         <is>
           <t>Behaviour Change Technique</t>
@@ -580,7 +576,11 @@
           <t>Community Reinforcement Approach for Seniors (CRA-S)</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr"/>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>TESTING2</t>
+        </is>
+      </c>
       <c r="D4" s="2" t="inlineStr"/>
       <c r="E4" s="2" t="inlineStr"/>
       <c r="F4" s="2" t="inlineStr">

--- a/inputs/AddictO_Intervention_Defs.xlsx
+++ b/inputs/AddictO_Intervention_Defs.xlsx
@@ -525,11 +525,7 @@
       <c r="S2" s="2" t="inlineStr"/>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>WHATNOT</t>
-        </is>
-      </c>
+      <c r="A3" t="inlineStr"/>
       <c r="B3" t="inlineStr">
         <is>
           <t>Behaviour Change Technique</t>

--- a/inputs/AddictO_Intervention_Defs.xlsx
+++ b/inputs/AddictO_Intervention_Defs.xlsx
@@ -662,7 +662,11 @@
           <t>NICE Guidance</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr"/>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>Blah blah testing</t>
+        </is>
+      </c>
       <c r="D6" s="2" t="inlineStr"/>
       <c r="E6" s="2" t="inlineStr"/>
       <c r="F6" s="2" t="inlineStr">
@@ -685,7 +689,11 @@
         </is>
       </c>
       <c r="O6" s="2" t="inlineStr"/>
-      <c r="P6" s="2" t="inlineStr"/>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>JH</t>
+        </is>
+      </c>
       <c r="Q6" s="2" t="inlineStr">
         <is>
           <t>Proposed</t>

--- a/inputs/AddictO_Intervention_Defs.xlsx
+++ b/inputs/AddictO_Intervention_Defs.xlsx
@@ -576,7 +576,11 @@
           <t>Community Reinforcement Approach for Seniors (CRA-S)</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr"/>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">testing 2 3 1 </t>
+        </is>
+      </c>
       <c r="D4" s="2" t="inlineStr"/>
       <c r="E4" s="2" t="inlineStr"/>
       <c r="F4" s="2" t="inlineStr">

--- a/inputs/AddictO_Intervention_Defs.xlsx
+++ b/inputs/AddictO_Intervention_Defs.xlsx
@@ -531,7 +531,11 @@
           <t>Behaviour Change Technique</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr"/>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">testing 1 2 3 </t>
+        </is>
+      </c>
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr">

--- a/inputs/AddictO_Intervention_Defs.xlsx
+++ b/inputs/AddictO_Intervention_Defs.xlsx
@@ -533,7 +533,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t xml:space="preserve">testing 1 2 3 </t>
+          <t>testing</t>
         </is>
       </c>
       <c r="D3" t="inlineStr"/>

--- a/inputs/AddictO_Intervention_Defs.xlsx
+++ b/inputs/AddictO_Intervention_Defs.xlsx
@@ -582,7 +582,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">testing 2 3 1 </t>
+          <t>testing again</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr"/>

--- a/inputs/AddictO_Intervention_Defs.xlsx
+++ b/inputs/AddictO_Intervention_Defs.xlsx
@@ -582,7 +582,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>testing again</t>
+          <t>testing again again</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr"/>

--- a/inputs/AddictO_Intervention_Defs.xlsx
+++ b/inputs/AddictO_Intervention_Defs.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -70,6 +70,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -504,18 +572,22 @@
       <c r="J2" s="2" t="inlineStr"/>
       <c r="K2" s="2" t="inlineStr"/>
       <c r="L2" s="2" t="inlineStr"/>
-      <c r="M2" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N2" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O2" s="2" t="inlineStr"/>
-      <c r="P2" s="2" t="inlineStr"/>
+      <c r="M2" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="N2" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="O2" s="2" t="inlineStr">
+        <is>
+          <t>sdsd</t>
+        </is>
+      </c>
+      <c r="P2" s="2" t="inlineStr">
+        <is>
+          <t>to</t>
+        </is>
+      </c>
       <c r="Q2" s="2" t="inlineStr">
         <is>
           <t>Proposed</t>
@@ -549,20 +621,20 @@
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr"/>
+      <c r="M3" t="b">
+        <v>1</v>
+      </c>
+      <c r="N3" t="n">
+        <v>1</v>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>dfd</t>
+        </is>
+      </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>JH</t>
+          <t>JH; to</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
@@ -574,7 +646,11 @@
       <c r="S3" t="inlineStr"/>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="inlineStr"/>
+      <c r="A4" s="2" t="inlineStr">
+        <is>
+          <t>ADDICTO:0000463</t>
+        </is>
+      </c>
       <c r="B4" s="2" t="inlineStr">
         <is>
           <t>Community Reinforcement Approach for Seniors (CRA-S)</t>
@@ -598,20 +674,20 @@
       <c r="J4" s="2" t="inlineStr"/>
       <c r="K4" s="2" t="inlineStr"/>
       <c r="L4" s="2" t="inlineStr"/>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N4" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O4" s="2" t="inlineStr"/>
+      <c r="M4" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="N4" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>dfdf</t>
+        </is>
+      </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>JH</t>
+          <t>JH; to</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
@@ -643,15 +719,11 @@
       <c r="J5" s="2" t="inlineStr"/>
       <c r="K5" s="2" t="inlineStr"/>
       <c r="L5" s="2" t="inlineStr"/>
-      <c r="M5" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N5" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="M5" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="N5" s="2" t="b">
+        <v>1</v>
       </c>
       <c r="O5" s="2" t="inlineStr"/>
       <c r="P5" s="2" t="inlineStr"/>
@@ -691,10 +763,8 @@
       <c r="M6" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="N6" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="N6" s="2" t="b">
+        <v>1</v>
       </c>
       <c r="O6" s="2" t="inlineStr"/>
       <c r="P6" s="2" t="inlineStr">
@@ -739,15 +809,11 @@
       </c>
       <c r="K7" s="2" t="inlineStr"/>
       <c r="L7" s="2" t="inlineStr"/>
-      <c r="M7" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N7" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="M7" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="N7" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="O7" s="2" t="inlineStr"/>
       <c r="P7" s="2" t="inlineStr"/>

--- a/inputs/AddictO_Intervention_Defs.xlsx
+++ b/inputs/AddictO_Intervention_Defs.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -70,74 +70,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -572,22 +504,18 @@
       <c r="J2" s="2" t="inlineStr"/>
       <c r="K2" s="2" t="inlineStr"/>
       <c r="L2" s="2" t="inlineStr"/>
-      <c r="M2" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="N2" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="O2" s="2" t="inlineStr">
-        <is>
-          <t>sdsd</t>
-        </is>
-      </c>
-      <c r="P2" s="2" t="inlineStr">
-        <is>
-          <t>to</t>
-        </is>
-      </c>
+      <c r="M2" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N2" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O2" s="2" t="inlineStr"/>
+      <c r="P2" s="2" t="inlineStr"/>
       <c r="Q2" s="2" t="inlineStr">
         <is>
           <t>Proposed</t>
@@ -605,7 +533,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>testing</t>
+          <t xml:space="preserve">testing </t>
         </is>
       </c>
       <c r="D3" t="inlineStr"/>
@@ -621,20 +549,20 @@
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="b">
-        <v>1</v>
-      </c>
-      <c r="N3" t="n">
-        <v>1</v>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>dfd</t>
-        </is>
-      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
-          <t>JH; to</t>
+          <t>JH</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
@@ -646,11 +574,7 @@
       <c r="S3" t="inlineStr"/>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="inlineStr">
-        <is>
-          <t>ADDICTO:0000463</t>
-        </is>
-      </c>
+      <c r="A4" s="2" t="inlineStr"/>
       <c r="B4" s="2" t="inlineStr">
         <is>
           <t>Community Reinforcement Approach for Seniors (CRA-S)</t>
@@ -674,20 +598,20 @@
       <c r="J4" s="2" t="inlineStr"/>
       <c r="K4" s="2" t="inlineStr"/>
       <c r="L4" s="2" t="inlineStr"/>
-      <c r="M4" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="N4" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="O4" s="2" t="inlineStr">
-        <is>
-          <t>dfdf</t>
-        </is>
-      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr"/>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>JH; to</t>
+          <t>JH</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
@@ -719,11 +643,15 @@
       <c r="J5" s="2" t="inlineStr"/>
       <c r="K5" s="2" t="inlineStr"/>
       <c r="L5" s="2" t="inlineStr"/>
-      <c r="M5" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="N5" s="2" t="b">
-        <v>1</v>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O5" s="2" t="inlineStr"/>
       <c r="P5" s="2" t="inlineStr"/>
@@ -763,8 +691,10 @@
       <c r="M6" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="N6" s="2" t="b">
-        <v>1</v>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O6" s="2" t="inlineStr"/>
       <c r="P6" s="2" t="inlineStr">
@@ -809,11 +739,15 @@
       </c>
       <c r="K7" s="2" t="inlineStr"/>
       <c r="L7" s="2" t="inlineStr"/>
-      <c r="M7" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="N7" s="2" t="b">
-        <v>0</v>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O7" s="2" t="inlineStr"/>
       <c r="P7" s="2" t="inlineStr"/>

--- a/inputs/AddictO_Intervention_Defs.xlsx
+++ b/inputs/AddictO_Intervention_Defs.xlsx
@@ -533,7 +533,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t xml:space="preserve">testing </t>
+          <t>testing testing testing</t>
         </is>
       </c>
       <c r="D3" t="inlineStr"/>

--- a/inputs/AddictO_Intervention_Defs.xlsx
+++ b/inputs/AddictO_Intervention_Defs.xlsx
@@ -533,7 +533,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>testing testing testing</t>
+          <t>testing testing</t>
         </is>
       </c>
       <c r="D3" t="inlineStr"/>

--- a/inputs/AddictO_Intervention_Defs.xlsx
+++ b/inputs/AddictO_Intervention_Defs.xlsx
@@ -580,11 +580,7 @@
           <t>Community Reinforcement Approach for Seniors (CRA-S)</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>testing again again</t>
-        </is>
-      </c>
+      <c r="C4" s="2" t="inlineStr"/>
       <c r="D4" s="2" t="inlineStr"/>
       <c r="E4" s="2" t="inlineStr"/>
       <c r="F4" s="2" t="inlineStr">
@@ -1146,7 +1142,11 @@
         </is>
       </c>
       <c r="O15" s="2" t="inlineStr"/>
-      <c r="P15" s="2" t="inlineStr"/>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>JH</t>
+        </is>
+      </c>
       <c r="Q15" s="2" t="inlineStr">
         <is>
           <t>Proposed</t>
